--- a/网站开发.xlsx
+++ b/网站开发.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2A4B7F74-BFB7-4122-B702-0C165B4C21EE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{720D61F2-9363-45FC-9E85-AF4841F5E6F1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,13 +11,14 @@
     <sheet name="html" sheetId="1" r:id="rId1"/>
     <sheet name="css" sheetId="3" r:id="rId2"/>
     <sheet name="书本推荐" sheetId="2" r:id="rId3"/>
+    <sheet name="快捷键" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="761">
   <si>
     <t>&lt;a&gt;&lt;/a&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2883,6 +2884,78 @@
   </si>
   <si>
     <t>该属性可能取6个值，除了auto，其他都与align-items属性完全一致。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vs code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl+/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alt+点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击多选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alt+shift+点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建多个相同标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>li*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(ul&gt;li*2)*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建嵌套标签 &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建多个标签 *</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div#idname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建带ID标签 #</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div.classname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建带class标签 .</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消已经存在的任何文本装饰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3293,6 +3366,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3320,7 +3420,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3344,10 +3453,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3365,61 +3471,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3430,6 +3488,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3724,13 +3797,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>563096</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>108678</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3768,13 +3841,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>557893</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>28713</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4135,7 +4208,7 @@
   <dimension ref="A1:N80"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
@@ -4169,7 +4242,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="49" t="s">
         <v>576</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -4183,7 +4256,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="41"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="21" t="s">
         <v>570</v>
       </c>
@@ -4192,7 +4265,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="41"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="21" t="s">
         <v>572</v>
       </c>
@@ -4201,13 +4274,13 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="41"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="21" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="41"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
@@ -4216,7 +4289,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="41"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="21" t="s">
         <v>575</v>
       </c>
@@ -4225,7 +4298,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="41"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="21" t="s">
         <v>31</v>
       </c>
@@ -4244,7 +4317,7 @@
       <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="41"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="21" t="s">
         <v>59</v>
       </c>
@@ -4253,7 +4326,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="41"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="21" t="s">
         <v>62</v>
       </c>
@@ -4262,7 +4335,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="322.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="52" t="s">
         <v>600</v>
       </c>
       <c r="B11" s="21" t="s">
@@ -4282,7 +4355,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="43"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="21" t="s">
         <v>571</v>
       </c>
@@ -4291,11 +4364,11 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="43"/>
-      <c r="B13" s="38" t="s">
+      <c r="A13" s="52"/>
+      <c r="B13" s="47" t="s">
         <v>581</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="48" t="s">
         <v>582</v>
       </c>
       <c r="D13" t="s">
@@ -4309,10 +4382,10 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="43"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="38" t="s">
+      <c r="A14" s="52"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="47" t="s">
         <v>558</v>
       </c>
       <c r="E14" t="s">
@@ -4320,43 +4393,43 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="43"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="38"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="47"/>
       <c r="E15" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="43"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="38"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="47"/>
       <c r="E16" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="43"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="38"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="47"/>
       <c r="E17" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="43"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="38"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="47"/>
       <c r="E18" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="43"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="21" t="s">
         <v>573</v>
       </c>
@@ -4371,7 +4444,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A20" s="43"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="21" t="s">
         <v>592</v>
       </c>
@@ -4383,11 +4456,11 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="43"/>
-      <c r="B21" s="38" t="s">
+      <c r="A21" s="52"/>
+      <c r="B21" s="47" t="s">
         <v>594</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="51" t="s">
         <v>599</v>
       </c>
       <c r="D21" t="s">
@@ -4395,9 +4468,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="43"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="42"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="30" t="s">
         <v>597</v>
       </c>
@@ -4409,10 +4482,10 @@
       <c r="A23" t="s">
         <v>601</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="47" t="s">
         <v>602</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="48" t="s">
         <v>629</v>
       </c>
       <c r="D23" t="s">
@@ -4426,8 +4499,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="38"/>
-      <c r="C24" s="39"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="48"/>
       <c r="D24" t="s">
         <v>630</v>
       </c>
@@ -4439,8 +4512,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="38"/>
-      <c r="C25" s="39"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
       <c r="D25" t="s">
         <v>635</v>
       </c>
@@ -4452,15 +4525,15 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="38"/>
-      <c r="C26" s="39"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="48"/>
       <c r="E26" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
       <c r="D27" t="s">
         <v>639</v>
       </c>
@@ -4472,8 +4545,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="38"/>
-      <c r="C28" s="39"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="48"/>
       <c r="D28" t="s">
         <v>642</v>
       </c>
@@ -4485,15 +4558,15 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="38"/>
-      <c r="C29" s="39"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="48"/>
       <c r="E29" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="38"/>
-      <c r="C30" s="39"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="48"/>
       <c r="D30" t="s">
         <v>646</v>
       </c>
@@ -4505,8 +4578,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="38"/>
-      <c r="C31" s="39"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="48"/>
       <c r="D31" t="s">
         <v>649</v>
       </c>
@@ -4518,8 +4591,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="38"/>
-      <c r="C32" s="39"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="48"/>
       <c r="D32" t="s">
         <v>558</v>
       </c>
@@ -4531,29 +4604,29 @@
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B33" s="38"/>
-      <c r="C33" s="39"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="48"/>
       <c r="E33" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B34" s="38"/>
-      <c r="C34" s="39"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
       <c r="E34" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B35" s="38"/>
-      <c r="C35" s="39"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="48"/>
       <c r="E35" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B36" s="38"/>
-      <c r="C36" s="39"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="48"/>
       <c r="E36" t="s">
         <v>590</v>
       </c>
@@ -4935,11 +5008,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N309"/>
+  <dimension ref="A1:N310"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C253" sqref="C253"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C126" sqref="C126:C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4963,7 +5036,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="68" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -4975,7 +5048,7 @@
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="57"/>
+      <c r="A3" s="68"/>
       <c r="B3" s="19" t="s">
         <v>208</v>
       </c>
@@ -4987,7 +5060,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="57"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="19" t="s">
         <v>211</v>
       </c>
@@ -4996,7 +5069,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="57"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="19" t="s">
         <v>213</v>
       </c>
@@ -5008,11 +5081,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="57"/>
-      <c r="B6" s="38" t="s">
+      <c r="A6" s="68"/>
+      <c r="B6" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="48" t="s">
         <v>217</v>
       </c>
       <c r="D6" t="s">
@@ -5023,9 +5096,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="57"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="48"/>
       <c r="D7" t="s">
         <v>220</v>
       </c>
@@ -5034,9 +5107,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="57"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="48"/>
       <c r="D8" t="s">
         <v>222</v>
       </c>
@@ -5045,9 +5118,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="57"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="48"/>
       <c r="D9" t="s">
         <v>224</v>
       </c>
@@ -5056,9 +5129,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="57"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
       <c r="D10" t="s">
         <v>226</v>
       </c>
@@ -5067,9 +5140,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="57"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
       <c r="D11" t="s">
         <v>228</v>
       </c>
@@ -5078,7 +5151,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="57"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="19" t="s">
         <v>230</v>
       </c>
@@ -5090,7 +5163,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="57"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="19" t="s">
         <v>233</v>
       </c>
@@ -5102,11 +5175,11 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="57"/>
-      <c r="B14" s="38" t="s">
+      <c r="A14" s="68"/>
+      <c r="B14" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="48" t="s">
         <v>237</v>
       </c>
       <c r="D14" t="s">
@@ -5117,9 +5190,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="57"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
       <c r="D15" t="s">
         <v>240</v>
       </c>
@@ -5128,11 +5201,11 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="57"/>
-      <c r="B16" s="38" t="s">
+      <c r="A16" s="68"/>
+      <c r="B16" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="48" t="s">
         <v>250</v>
       </c>
       <c r="D16" t="s">
@@ -5143,9 +5216,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="57"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
       <c r="D17" t="s">
         <v>244</v>
       </c>
@@ -5154,9 +5227,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="57"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
       <c r="D18" t="s">
         <v>246</v>
       </c>
@@ -5165,9 +5238,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="57"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
       <c r="D19" t="s">
         <v>248</v>
       </c>
@@ -5176,11 +5249,11 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="57"/>
-      <c r="B20" s="38" t="s">
+      <c r="A20" s="68"/>
+      <c r="B20" s="47" t="s">
         <v>252</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="48" t="s">
         <v>251</v>
       </c>
       <c r="D20" t="s">
@@ -5194,9 +5267,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="57"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="39"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
       <c r="D21" t="s">
         <v>255</v>
       </c>
@@ -5205,7 +5278,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="69" t="s">
         <v>67</v>
       </c>
       <c r="B22" s="19" t="s">
@@ -5216,7 +5289,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="58"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="19" t="s">
         <v>70</v>
       </c>
@@ -5234,7 +5307,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="58"/>
+      <c r="A24" s="69"/>
       <c r="D24" t="s">
         <v>73</v>
       </c>
@@ -5243,7 +5316,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="58"/>
+      <c r="A25" s="69"/>
       <c r="D25" t="s">
         <v>74</v>
       </c>
@@ -5252,7 +5325,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="58"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="19" t="s">
         <v>79</v>
       </c>
@@ -5267,19 +5340,19 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="58"/>
+      <c r="A27" s="69"/>
       <c r="D27" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="58"/>
+      <c r="A28" s="69"/>
       <c r="D28" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="58"/>
+      <c r="A29" s="69"/>
       <c r="D29" t="s">
         <v>84</v>
       </c>
@@ -5288,7 +5361,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="58"/>
+      <c r="A30" s="69"/>
       <c r="B30" s="19" t="s">
         <v>87</v>
       </c>
@@ -5300,7 +5373,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A31" s="58"/>
+      <c r="A31" s="69"/>
       <c r="B31" s="19" t="s">
         <v>90</v>
       </c>
@@ -5315,7 +5388,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="58"/>
+      <c r="A32" s="69"/>
       <c r="D32" t="s">
         <v>93</v>
       </c>
@@ -5324,7 +5397,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A33" s="58"/>
+      <c r="A33" s="69"/>
       <c r="B33" s="19" t="s">
         <v>96</v>
       </c>
@@ -5342,19 +5415,19 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A34" s="58"/>
+      <c r="A34" s="69"/>
       <c r="D34" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="58"/>
+      <c r="A35" s="69"/>
       <c r="D35" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A36" s="58"/>
+      <c r="A36" s="69"/>
       <c r="D36" t="s">
         <v>101</v>
       </c>
@@ -5363,7 +5436,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A37" s="58"/>
+      <c r="A37" s="69"/>
       <c r="B37" s="19" t="s">
         <v>105</v>
       </c>
@@ -5385,7 +5458,7 @@
       <c r="L37" s="6"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A38" s="58"/>
+      <c r="A38" s="69"/>
       <c r="D38" t="s">
         <v>108</v>
       </c>
@@ -5399,7 +5472,7 @@
       <c r="L38" s="6"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A39" s="58"/>
+      <c r="A39" s="69"/>
       <c r="D39" t="s">
         <v>109</v>
       </c>
@@ -5413,7 +5486,7 @@
       <c r="L39" s="6"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="58"/>
+      <c r="A40" s="69"/>
       <c r="B40" s="19" t="s">
         <v>113</v>
       </c>
@@ -5433,7 +5506,7 @@
       <c r="L40" s="6"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A41" s="58"/>
+      <c r="A41" s="69"/>
       <c r="D41" t="s">
         <v>108</v>
       </c>
@@ -5447,7 +5520,7 @@
       <c r="L41" s="6"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A42" s="58"/>
+      <c r="A42" s="69"/>
       <c r="D42" t="s">
         <v>109</v>
       </c>
@@ -5461,7 +5534,7 @@
       <c r="L42" s="6"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A43" s="58"/>
+      <c r="A43" s="69"/>
       <c r="B43" s="19" t="s">
         <v>119</v>
       </c>
@@ -5473,13 +5546,13 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A44" s="58"/>
+      <c r="A44" s="69"/>
       <c r="D44" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A45" s="58"/>
+      <c r="A45" s="69"/>
       <c r="D45" t="s">
         <v>123</v>
       </c>
@@ -5488,7 +5561,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A46" s="58"/>
+      <c r="A46" s="69"/>
       <c r="D46" t="s">
         <v>124</v>
       </c>
@@ -5497,25 +5570,25 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A47" s="59" t="s">
+      <c r="A47" s="70" t="s">
         <v>130</v>
       </c>
       <c r="B47" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C47" s="39" t="s">
+      <c r="C47" s="48" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A48" s="59"/>
+      <c r="A48" s="70"/>
       <c r="B48" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="C48" s="39"/>
+      <c r="C48" s="48"/>
     </row>
     <row r="49" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="59"/>
+      <c r="A49" s="70"/>
       <c r="B49" s="19" t="s">
         <v>133</v>
       </c>
@@ -5527,11 +5600,11 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="59"/>
-      <c r="B50" s="38" t="s">
+      <c r="A50" s="70"/>
+      <c r="B50" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="C50" s="39" t="s">
+      <c r="C50" s="48" t="s">
         <v>137</v>
       </c>
       <c r="D50" t="s">
@@ -5542,9 +5615,9 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="59"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="39"/>
+      <c r="A51" s="70"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="48"/>
       <c r="D51" t="s">
         <v>142</v>
       </c>
@@ -5553,9 +5626,9 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="59"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="39"/>
+      <c r="A52" s="70"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="48"/>
       <c r="D52" t="s">
         <v>144</v>
       </c>
@@ -5564,9 +5637,9 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="59"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="39"/>
+      <c r="A53" s="70"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="48"/>
       <c r="D53" t="s">
         <v>146</v>
       </c>
@@ -5575,9 +5648,9 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="59"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="39"/>
+      <c r="A54" s="70"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="48"/>
       <c r="D54" t="s">
         <v>148</v>
       </c>
@@ -5586,9 +5659,9 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="59"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="39"/>
+      <c r="A55" s="70"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="48"/>
       <c r="D55" t="s">
         <v>150</v>
       </c>
@@ -5597,9 +5670,9 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="59"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="39"/>
+      <c r="A56" s="70"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="48"/>
       <c r="D56" t="s">
         <v>152</v>
       </c>
@@ -5608,9 +5681,9 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="59"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="39"/>
+      <c r="A57" s="70"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="48"/>
       <c r="D57" t="s">
         <v>154</v>
       </c>
@@ -5619,9 +5692,9 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="59"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="39"/>
+      <c r="A58" s="70"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="48"/>
       <c r="D58" t="s">
         <v>156</v>
       </c>
@@ -5630,9 +5703,9 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="59"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="39"/>
+      <c r="A59" s="70"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="48"/>
       <c r="D59" t="s">
         <v>158</v>
       </c>
@@ -5641,9 +5714,9 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="59"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="39"/>
+      <c r="A60" s="70"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="48"/>
       <c r="D60" t="s">
         <v>160</v>
       </c>
@@ -5652,7 +5725,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="59"/>
+      <c r="A61" s="70"/>
       <c r="B61" s="19" t="s">
         <v>135</v>
       </c>
@@ -5661,7 +5734,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A62" s="59"/>
+      <c r="A62" s="70"/>
       <c r="B62" s="35" t="s">
         <v>162</v>
       </c>
@@ -5673,7 +5746,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="59"/>
+      <c r="A63" s="70"/>
       <c r="B63" s="19" t="s">
         <v>166</v>
       </c>
@@ -5682,7 +5755,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="59"/>
+      <c r="A64" s="70"/>
       <c r="B64" s="19" t="s">
         <v>167</v>
       </c>
@@ -5694,7 +5767,7 @@
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A65" s="59"/>
+      <c r="A65" s="70"/>
       <c r="B65" s="19" t="s">
         <v>168</v>
       </c>
@@ -5712,11 +5785,11 @@
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A66" s="59"/>
-      <c r="B66" s="38" t="s">
+      <c r="A66" s="70"/>
+      <c r="B66" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="C66" s="39" t="s">
+      <c r="C66" s="48" t="s">
         <v>173</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -5725,39 +5798,39 @@
       <c r="E66" t="s">
         <v>176</v>
       </c>
-      <c r="F66" s="60" t="s">
+      <c r="F66" s="71" t="s">
         <v>182</v>
       </c>
-      <c r="G66" s="60"/>
+      <c r="G66" s="71"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A67" s="59"/>
-      <c r="B67" s="38"/>
-      <c r="C67" s="39"/>
+      <c r="A67" s="70"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="48"/>
       <c r="D67" s="1" t="s">
         <v>180</v>
       </c>
       <c r="E67" t="s">
         <v>179</v>
       </c>
-      <c r="F67" s="60"/>
-      <c r="G67" s="60"/>
+      <c r="F67" s="71"/>
+      <c r="G67" s="71"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A68" s="59"/>
-      <c r="B68" s="38"/>
-      <c r="C68" s="39"/>
+      <c r="A68" s="70"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="48"/>
       <c r="D68" s="1" t="s">
         <v>177</v>
       </c>
       <c r="E68" t="s">
         <v>178</v>
       </c>
-      <c r="F68" s="60"/>
-      <c r="G68" s="60"/>
+      <c r="F68" s="71"/>
+      <c r="G68" s="71"/>
     </row>
     <row r="69" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A69" s="59"/>
+      <c r="A69" s="70"/>
       <c r="B69" s="19" t="s">
         <v>170</v>
       </c>
@@ -5772,7 +5845,7 @@
       </c>
     </row>
     <row r="70" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A70" s="59"/>
+      <c r="A70" s="70"/>
       <c r="B70" s="19" t="s">
         <v>171</v>
       </c>
@@ -5781,11 +5854,11 @@
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A71" s="59"/>
-      <c r="B71" s="38" t="s">
+      <c r="A71" s="70"/>
+      <c r="B71" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="C71" s="39" t="s">
+      <c r="C71" s="48" t="s">
         <v>192</v>
       </c>
       <c r="D71" t="s">
@@ -5799,9 +5872,9 @@
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A72" s="59"/>
-      <c r="B72" s="38"/>
-      <c r="C72" s="39"/>
+      <c r="A72" s="70"/>
+      <c r="B72" s="47"/>
+      <c r="C72" s="48"/>
       <c r="D72" t="s">
         <v>195</v>
       </c>
@@ -5810,9 +5883,9 @@
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A73" s="59"/>
-      <c r="B73" s="38"/>
-      <c r="C73" s="39"/>
+      <c r="A73" s="70"/>
+      <c r="B73" s="47"/>
+      <c r="C73" s="48"/>
       <c r="D73" t="s">
         <v>197</v>
       </c>
@@ -5821,9 +5894,9 @@
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A74" s="59"/>
-      <c r="B74" s="38"/>
-      <c r="C74" s="39"/>
+      <c r="A74" s="70"/>
+      <c r="B74" s="47"/>
+      <c r="C74" s="48"/>
       <c r="D74" t="s">
         <v>199</v>
       </c>
@@ -5832,9 +5905,9 @@
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A75" s="59"/>
-      <c r="B75" s="38"/>
-      <c r="C75" s="39"/>
+      <c r="A75" s="70"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="48"/>
       <c r="D75" t="s">
         <v>201</v>
       </c>
@@ -5843,9 +5916,9 @@
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A76" s="59"/>
-      <c r="B76" s="38"/>
-      <c r="C76" s="39"/>
+      <c r="A76" s="70"/>
+      <c r="B76" s="47"/>
+      <c r="C76" s="48"/>
       <c r="D76" t="s">
         <v>156</v>
       </c>
@@ -5854,11 +5927,11 @@
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A77" s="59"/>
-      <c r="B77" s="38" t="s">
+      <c r="A77" s="70"/>
+      <c r="B77" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="C77" s="39" t="s">
+      <c r="C77" s="48" t="s">
         <v>258</v>
       </c>
       <c r="D77" t="s">
@@ -5877,9 +5950,9 @@
       <c r="N77" s="6"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A78" s="59"/>
-      <c r="B78" s="38"/>
-      <c r="C78" s="39"/>
+      <c r="A78" s="70"/>
+      <c r="B78" s="47"/>
+      <c r="C78" s="48"/>
       <c r="D78" t="s">
         <v>260</v>
       </c>
@@ -5888,11 +5961,11 @@
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A79" s="59"/>
-      <c r="B79" s="38" t="s">
+      <c r="A79" s="70"/>
+      <c r="B79" s="47" t="s">
         <v>264</v>
       </c>
-      <c r="C79" s="39" t="s">
+      <c r="C79" s="48" t="s">
         <v>265</v>
       </c>
       <c r="D79" t="s">
@@ -5900,29 +5973,29 @@
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A80" s="59"/>
-      <c r="B80" s="38"/>
-      <c r="C80" s="39"/>
+      <c r="A80" s="70"/>
+      <c r="B80" s="47"/>
+      <c r="C80" s="48"/>
       <c r="D80" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A81" s="59"/>
-      <c r="B81" s="38"/>
-      <c r="C81" s="39"/>
+      <c r="A81" s="70"/>
+      <c r="B81" s="47"/>
+      <c r="C81" s="48"/>
       <c r="D81" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A82" s="55" t="s">
+      <c r="A82" s="58" t="s">
         <v>269</v>
       </c>
-      <c r="B82" s="38" t="s">
+      <c r="B82" s="47" t="s">
         <v>270</v>
       </c>
-      <c r="C82" s="39" t="s">
+      <c r="C82" s="48" t="s">
         <v>282</v>
       </c>
       <c r="D82" t="s">
@@ -5933,9 +6006,9 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A83" s="55"/>
-      <c r="B83" s="38"/>
-      <c r="C83" s="39"/>
+      <c r="A83" s="58"/>
+      <c r="B83" s="47"/>
+      <c r="C83" s="48"/>
       <c r="D83" t="s">
         <v>142</v>
       </c>
@@ -5944,9 +6017,9 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A84" s="55"/>
-      <c r="B84" s="38"/>
-      <c r="C84" s="39"/>
+      <c r="A84" s="58"/>
+      <c r="B84" s="47"/>
+      <c r="C84" s="48"/>
       <c r="D84" t="s">
         <v>273</v>
       </c>
@@ -5958,9 +6031,9 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A85" s="55"/>
-      <c r="B85" s="38"/>
-      <c r="C85" s="39"/>
+      <c r="A85" s="58"/>
+      <c r="B85" s="47"/>
+      <c r="C85" s="48"/>
       <c r="D85" t="s">
         <v>275</v>
       </c>
@@ -5969,9 +6042,9 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A86" s="55"/>
-      <c r="B86" s="38"/>
-      <c r="C86" s="39"/>
+      <c r="A86" s="58"/>
+      <c r="B86" s="47"/>
+      <c r="C86" s="48"/>
       <c r="D86" s="10" t="s">
         <v>277</v>
       </c>
@@ -5980,9 +6053,9 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A87" s="55"/>
-      <c r="B87" s="38"/>
-      <c r="C87" s="39"/>
+      <c r="A87" s="58"/>
+      <c r="B87" s="47"/>
+      <c r="C87" s="48"/>
       <c r="D87" s="11" t="s">
         <v>279</v>
       </c>
@@ -5991,13 +6064,13 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A88" s="56" t="s">
+      <c r="A88" s="59" t="s">
         <v>284</v>
       </c>
-      <c r="B88" s="38" t="s">
+      <c r="B88" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="C88" s="39" t="s">
+      <c r="C88" s="48" t="s">
         <v>286</v>
       </c>
       <c r="D88" t="s">
@@ -6011,9 +6084,9 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A89" s="48"/>
-      <c r="B89" s="38"/>
-      <c r="C89" s="39"/>
+      <c r="A89" s="60"/>
+      <c r="B89" s="47"/>
+      <c r="C89" s="48"/>
       <c r="D89" t="s">
         <v>288</v>
       </c>
@@ -6022,9 +6095,9 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A90" s="48"/>
-      <c r="B90" s="38"/>
-      <c r="C90" s="39"/>
+      <c r="A90" s="60"/>
+      <c r="B90" s="47"/>
+      <c r="C90" s="48"/>
       <c r="D90" t="s">
         <v>290</v>
       </c>
@@ -6033,9 +6106,9 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A91" s="48"/>
-      <c r="B91" s="38"/>
-      <c r="C91" s="39"/>
+      <c r="A91" s="60"/>
+      <c r="B91" s="47"/>
+      <c r="C91" s="48"/>
       <c r="D91" t="s">
         <v>160</v>
       </c>
@@ -6044,11 +6117,11 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A92" s="48"/>
-      <c r="B92" s="38" t="s">
+      <c r="A92" s="60"/>
+      <c r="B92" s="47" t="s">
         <v>293</v>
       </c>
-      <c r="C92" s="39" t="s">
+      <c r="C92" s="48" t="s">
         <v>294</v>
       </c>
       <c r="D92" t="s">
@@ -6062,9 +6135,9 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A93" s="48"/>
-      <c r="B93" s="38"/>
-      <c r="C93" s="39"/>
+      <c r="A93" s="60"/>
+      <c r="B93" s="47"/>
+      <c r="C93" s="48"/>
       <c r="D93" t="s">
         <v>288</v>
       </c>
@@ -6073,9 +6146,9 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A94" s="48"/>
-      <c r="B94" s="38"/>
-      <c r="C94" s="39"/>
+      <c r="A94" s="60"/>
+      <c r="B94" s="47"/>
+      <c r="C94" s="48"/>
       <c r="D94" t="s">
         <v>290</v>
       </c>
@@ -6084,9 +6157,9 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A95" s="48"/>
-      <c r="B95" s="38"/>
-      <c r="C95" s="39"/>
+      <c r="A95" s="60"/>
+      <c r="B95" s="47"/>
+      <c r="C95" s="48"/>
       <c r="D95" t="s">
         <v>160</v>
       </c>
@@ -6095,7 +6168,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A96" s="48"/>
+      <c r="A96" s="60"/>
       <c r="B96" s="19" t="s">
         <v>301</v>
       </c>
@@ -6108,10 +6181,10 @@
     </row>
     <row r="97" spans="1:5" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A97" s="34"/>
-      <c r="B97" s="61" t="s">
+      <c r="B97" s="72" t="s">
         <v>665</v>
       </c>
-      <c r="C97" s="42" t="s">
+      <c r="C97" s="51" t="s">
         <v>668</v>
       </c>
       <c r="D97" t="s">
@@ -6123,8 +6196,8 @@
     </row>
     <row r="98" spans="1:5" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A98" s="34"/>
-      <c r="B98" s="61"/>
-      <c r="C98" s="42"/>
+      <c r="B98" s="72"/>
+      <c r="C98" s="51"/>
       <c r="D98" t="s">
         <v>667</v>
       </c>
@@ -6133,7 +6206,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A99" s="41" t="s">
+      <c r="A99" s="50" t="s">
         <v>321</v>
       </c>
       <c r="B99" s="18" t="s">
@@ -6144,7 +6217,7 @@
       </c>
     </row>
     <row r="100" spans="1:5" s="12" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A100" s="41"/>
+      <c r="A100" s="50"/>
       <c r="B100" s="18" t="s">
         <v>324</v>
       </c>
@@ -6156,7 +6229,7 @@
       </c>
     </row>
     <row r="101" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="41"/>
+      <c r="A101" s="50"/>
       <c r="B101" s="18" t="s">
         <v>326</v>
       </c>
@@ -6165,7 +6238,7 @@
       </c>
     </row>
     <row r="102" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="41"/>
+      <c r="A102" s="50"/>
       <c r="B102" s="18" t="s">
         <v>328</v>
       </c>
@@ -6180,7 +6253,7 @@
       </c>
     </row>
     <row r="103" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="41"/>
+      <c r="A103" s="50"/>
       <c r="B103" s="18"/>
       <c r="C103" s="20"/>
       <c r="D103" s="12" t="s">
@@ -6191,7 +6264,7 @@
       </c>
     </row>
     <row r="104" spans="1:5" s="12" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="41"/>
+      <c r="A104" s="50"/>
       <c r="B104" s="18" t="s">
         <v>330</v>
       </c>
@@ -6206,11 +6279,11 @@
       </c>
     </row>
     <row r="105" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="41"/>
-      <c r="B105" s="45" t="s">
+      <c r="A105" s="50"/>
+      <c r="B105" s="54" t="s">
         <v>332</v>
       </c>
-      <c r="C105" s="46" t="s">
+      <c r="C105" s="55" t="s">
         <v>333</v>
       </c>
       <c r="D105" s="12" t="s">
@@ -6221,9 +6294,9 @@
       </c>
     </row>
     <row r="106" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="41"/>
-      <c r="B106" s="45"/>
-      <c r="C106" s="46"/>
+      <c r="A106" s="50"/>
+      <c r="B106" s="54"/>
+      <c r="C106" s="55"/>
       <c r="D106" s="12" t="s">
         <v>342</v>
       </c>
@@ -6232,9 +6305,9 @@
       </c>
     </row>
     <row r="107" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="41"/>
-      <c r="B107" s="45"/>
-      <c r="C107" s="46"/>
+      <c r="A107" s="50"/>
+      <c r="B107" s="54"/>
+      <c r="C107" s="55"/>
       <c r="D107" s="12" t="s">
         <v>344</v>
       </c>
@@ -6243,9 +6316,9 @@
       </c>
     </row>
     <row r="108" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="41"/>
-      <c r="B108" s="45"/>
-      <c r="C108" s="46"/>
+      <c r="A108" s="50"/>
+      <c r="B108" s="54"/>
+      <c r="C108" s="55"/>
       <c r="D108" s="12" t="s">
         <v>346</v>
       </c>
@@ -6254,9 +6327,9 @@
       </c>
     </row>
     <row r="109" spans="1:5" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="41"/>
-      <c r="B109" s="45"/>
-      <c r="C109" s="46"/>
+      <c r="A109" s="50"/>
+      <c r="B109" s="54"/>
+      <c r="C109" s="55"/>
       <c r="D109" s="14" t="s">
         <v>349</v>
       </c>
@@ -6265,7 +6338,7 @@
       </c>
     </row>
     <row r="110" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="44" t="s">
+      <c r="A110" s="53" t="s">
         <v>458</v>
       </c>
       <c r="B110" s="33" t="s">
@@ -6276,11 +6349,11 @@
       </c>
     </row>
     <row r="111" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="44"/>
-      <c r="B111" s="45" t="s">
+      <c r="A111" s="53"/>
+      <c r="B111" s="54" t="s">
         <v>460</v>
       </c>
-      <c r="C111" s="46" t="s">
+      <c r="C111" s="55" t="s">
         <v>461</v>
       </c>
       <c r="D111" s="12" t="s">
@@ -6291,9 +6364,9 @@
       </c>
     </row>
     <row r="112" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="44"/>
-      <c r="B112" s="45"/>
-      <c r="C112" s="46"/>
+      <c r="A112" s="53"/>
+      <c r="B112" s="54"/>
+      <c r="C112" s="55"/>
       <c r="D112" s="12" t="s">
         <v>497</v>
       </c>
@@ -6302,7 +6375,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="44"/>
+      <c r="A113" s="53"/>
       <c r="B113" s="33" t="s">
         <v>462</v>
       </c>
@@ -6314,11 +6387,11 @@
       </c>
     </row>
     <row r="114" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="44"/>
-      <c r="B114" s="45" t="s">
+      <c r="A114" s="53"/>
+      <c r="B114" s="54" t="s">
         <v>464</v>
       </c>
-      <c r="C114" s="46" t="s">
+      <c r="C114" s="55" t="s">
         <v>503</v>
       </c>
       <c r="D114" s="12" t="s">
@@ -6329,9 +6402,9 @@
       </c>
     </row>
     <row r="115" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="44"/>
-      <c r="B115" s="45"/>
-      <c r="C115" s="46"/>
+      <c r="A115" s="53"/>
+      <c r="B115" s="54"/>
+      <c r="C115" s="55"/>
       <c r="D115" s="12" t="s">
         <v>288</v>
       </c>
@@ -6340,9 +6413,9 @@
       </c>
     </row>
     <row r="116" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="44"/>
-      <c r="B116" s="45"/>
-      <c r="C116" s="46"/>
+      <c r="A116" s="53"/>
+      <c r="B116" s="54"/>
+      <c r="C116" s="55"/>
       <c r="D116" s="12" t="s">
         <v>290</v>
       </c>
@@ -6351,11 +6424,11 @@
       </c>
     </row>
     <row r="117" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="44"/>
-      <c r="B117" s="45" t="s">
+      <c r="A117" s="53"/>
+      <c r="B117" s="54" t="s">
         <v>465</v>
       </c>
-      <c r="C117" s="46" t="s">
+      <c r="C117" s="55" t="s">
         <v>466</v>
       </c>
       <c r="D117" s="12" t="s">
@@ -6366,9 +6439,9 @@
       </c>
     </row>
     <row r="118" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="44"/>
-      <c r="B118" s="45"/>
-      <c r="C118" s="46"/>
+      <c r="A118" s="53"/>
+      <c r="B118" s="54"/>
+      <c r="C118" s="55"/>
       <c r="D118" s="12" t="s">
         <v>398</v>
       </c>
@@ -6377,9 +6450,9 @@
       </c>
     </row>
     <row r="119" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="44"/>
-      <c r="B119" s="45"/>
-      <c r="C119" s="46"/>
+      <c r="A119" s="53"/>
+      <c r="B119" s="54"/>
+      <c r="C119" s="55"/>
       <c r="D119" s="12" t="s">
         <v>506</v>
       </c>
@@ -6388,9 +6461,9 @@
       </c>
     </row>
     <row r="120" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="44"/>
-      <c r="B120" s="45"/>
-      <c r="C120" s="46"/>
+      <c r="A120" s="53"/>
+      <c r="B120" s="54"/>
+      <c r="C120" s="55"/>
       <c r="D120" s="12" t="s">
         <v>508</v>
       </c>
@@ -6399,1649 +6472,1655 @@
       </c>
     </row>
     <row r="121" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="44"/>
-      <c r="B121" s="45" t="s">
+      <c r="A121" s="53"/>
+      <c r="B121" s="54" t="s">
         <v>467</v>
       </c>
-      <c r="C121" s="46" t="s">
+      <c r="C121" s="55" t="s">
         <v>468</v>
       </c>
       <c r="D121" s="12" t="s">
+        <v>759</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="53"/>
+      <c r="B122" s="54"/>
+      <c r="C122" s="55"/>
+      <c r="D122" s="12" t="s">
         <v>510</v>
       </c>
-      <c r="E121" s="12" t="s">
+      <c r="E122" s="12" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="122" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="44"/>
-      <c r="B122" s="45"/>
-      <c r="C122" s="46"/>
-      <c r="D122" s="12" t="s">
+    <row r="123" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="53"/>
+      <c r="B123" s="54"/>
+      <c r="C123" s="55"/>
+      <c r="D123" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="E122" s="12" t="s">
+      <c r="E123" s="12" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="123" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="44"/>
-      <c r="B123" s="45"/>
-      <c r="C123" s="46"/>
-      <c r="D123" s="12" t="s">
+    <row r="124" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="53"/>
+      <c r="B124" s="54"/>
+      <c r="C124" s="55"/>
+      <c r="D124" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="E123" s="12" t="s">
+      <c r="E124" s="12" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="124" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="44"/>
-      <c r="B124" s="45"/>
-      <c r="C124" s="46"/>
-      <c r="D124" s="12" t="s">
+    <row r="125" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="53"/>
+      <c r="B125" s="54"/>
+      <c r="C125" s="55"/>
+      <c r="D125" s="12" t="s">
         <v>516</v>
       </c>
-      <c r="E124" s="12" t="s">
+      <c r="E125" s="12" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="125" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="44"/>
-      <c r="B125" s="45" t="s">
+    <row r="126" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="53"/>
+      <c r="B126" s="54" t="s">
         <v>469</v>
       </c>
-      <c r="C125" s="32" t="s">
+      <c r="C126" s="55" t="s">
         <v>470</v>
       </c>
-      <c r="D125" s="12" t="s">
+      <c r="D126" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="E125" s="12" t="s">
+      <c r="E126" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="F125" s="12" t="s">
+      <c r="F126" s="12" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="126" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="44"/>
-      <c r="B126" s="45"/>
-      <c r="C126" s="32"/>
-      <c r="D126" s="12" t="s">
+    <row r="127" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="53"/>
+      <c r="B127" s="54"/>
+      <c r="C127" s="55"/>
+      <c r="D127" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="E126" s="12" t="s">
+      <c r="E127" s="12" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="127" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="44"/>
-      <c r="B127" s="45" t="s">
+    <row r="128" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="53"/>
+      <c r="B128" s="54" t="s">
         <v>471</v>
       </c>
-      <c r="C127" s="46" t="s">
+      <c r="C128" s="55" t="s">
         <v>472</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D128" t="s">
         <v>193</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E128" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="128" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="44"/>
-      <c r="B128" s="45"/>
-      <c r="C128" s="46"/>
-      <c r="D128" t="s">
+    <row r="129" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="53"/>
+      <c r="B129" s="54"/>
+      <c r="C129" s="55"/>
+      <c r="D129" t="s">
         <v>195</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E129" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="129" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="44"/>
-      <c r="B129" s="45"/>
-      <c r="C129" s="46"/>
-      <c r="D129" t="s">
+    <row r="130" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="53"/>
+      <c r="B130" s="54"/>
+      <c r="C130" s="55"/>
+      <c r="D130" t="s">
         <v>197</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E130" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="130" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="44"/>
-      <c r="B130" s="45"/>
-      <c r="C130" s="46"/>
-      <c r="D130" t="s">
+    <row r="131" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="53"/>
+      <c r="B131" s="54"/>
+      <c r="C131" s="55"/>
+      <c r="D131" t="s">
         <v>201</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E131" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="131" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="44"/>
-      <c r="B131" s="45" t="s">
+    <row r="132" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="53"/>
+      <c r="B132" s="54" t="s">
         <v>473</v>
       </c>
-      <c r="C131" s="46" t="s">
+      <c r="C132" s="55" t="s">
         <v>474</v>
       </c>
-      <c r="D131" s="12" t="s">
+      <c r="D132" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="E131" s="12" t="s">
+      <c r="E132" s="12" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="132" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="44"/>
-      <c r="B132" s="45"/>
-      <c r="C132" s="46"/>
-      <c r="D132" s="12" t="s">
+    <row r="133" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="53"/>
+      <c r="B133" s="54"/>
+      <c r="C133" s="55"/>
+      <c r="D133" s="12" t="s">
         <v>522</v>
       </c>
-      <c r="E132" s="12" t="s">
+      <c r="E133" s="12" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="133" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="44"/>
-      <c r="B133" s="45"/>
-      <c r="C133" s="46"/>
-      <c r="D133" s="12" t="s">
+    <row r="134" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="53"/>
+      <c r="B134" s="54"/>
+      <c r="C134" s="55"/>
+      <c r="D134" s="12" t="s">
         <v>524</v>
       </c>
-      <c r="E133" s="12" t="s">
+      <c r="E134" s="12" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="134" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="44"/>
-      <c r="B134" s="45"/>
-      <c r="C134" s="46"/>
-      <c r="D134" s="12" t="s">
+    <row r="135" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="53"/>
+      <c r="B135" s="54"/>
+      <c r="C135" s="55"/>
+      <c r="D135" s="12" t="s">
         <v>526</v>
       </c>
-      <c r="E134" s="12" t="s">
+      <c r="E135" s="12" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="135" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="44"/>
-      <c r="B135" s="45" t="s">
+    <row r="136" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="53"/>
+      <c r="B136" s="54" t="s">
         <v>475</v>
       </c>
-      <c r="C135" s="46" t="s">
+      <c r="C136" s="55" t="s">
         <v>476</v>
       </c>
-      <c r="D135" s="12" t="s">
+      <c r="D136" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="E135" s="12" t="s">
+      <c r="E136" s="12" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="136" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="44"/>
-      <c r="B136" s="45"/>
-      <c r="C136" s="46"/>
-      <c r="D136" s="12" t="s">
+    <row r="137" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="53"/>
+      <c r="B137" s="54"/>
+      <c r="C137" s="55"/>
+      <c r="D137" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="E136" s="12" t="s">
+      <c r="E137" s="12" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="137" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="44"/>
-      <c r="B137" s="45"/>
-      <c r="C137" s="46"/>
-      <c r="D137" s="12" t="s">
+    <row r="138" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="53"/>
+      <c r="B138" s="54"/>
+      <c r="C138" s="55"/>
+      <c r="D138" s="12" t="s">
         <v>531</v>
       </c>
-      <c r="E137" s="12" t="s">
+      <c r="E138" s="12" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="138" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="44"/>
-      <c r="B138" s="45"/>
-      <c r="C138" s="46"/>
-      <c r="D138" s="12" t="s">
+    <row r="139" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="53"/>
+      <c r="B139" s="54"/>
+      <c r="C139" s="55"/>
+      <c r="D139" s="12" t="s">
         <v>533</v>
       </c>
-      <c r="E138" s="12" t="s">
+      <c r="E139" s="12" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="139" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="44"/>
-      <c r="B139" s="45"/>
-      <c r="C139" s="46"/>
-      <c r="D139" s="12" t="s">
+    <row r="140" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="53"/>
+      <c r="B140" s="54"/>
+      <c r="C140" s="55"/>
+      <c r="D140" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="E139" s="12" t="s">
+      <c r="E140" s="12" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="140" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="44"/>
-      <c r="B140" s="33" t="s">
+    <row r="141" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="53"/>
+      <c r="B141" s="33" t="s">
         <v>477</v>
       </c>
-      <c r="C140" s="32" t="s">
+      <c r="C141" s="32" t="s">
         <v>478</v>
       </c>
-      <c r="D140" s="12" t="s">
+      <c r="D141" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="E140" s="12" t="s">
+      <c r="E141" s="12" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="141" spans="1:5" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A141" s="44"/>
-      <c r="B141" s="26" t="s">
+    <row r="142" spans="1:5" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A142" s="53"/>
+      <c r="B142" s="26" t="s">
         <v>479</v>
       </c>
-      <c r="C141" s="29" t="s">
+      <c r="C142" s="29" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="142" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="44"/>
-      <c r="B142" s="26" t="s">
+    <row r="143" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="53"/>
+      <c r="B143" s="26" t="s">
         <v>481</v>
       </c>
-      <c r="C142" s="29" t="s">
+      <c r="C143" s="29" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="143" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="44"/>
-      <c r="B143" s="26" t="s">
+    <row r="144" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="53"/>
+      <c r="B144" s="26" t="s">
         <v>482</v>
       </c>
-      <c r="C143" s="29" t="s">
+      <c r="C144" s="29" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="144" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="44"/>
-      <c r="B144" s="27" t="s">
+    <row r="145" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="53"/>
+      <c r="B145" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="C144" s="29" t="s">
+      <c r="C145" s="29" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="145" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="44"/>
-      <c r="B145" s="27" t="s">
+    <row r="146" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="53"/>
+      <c r="B146" s="27" t="s">
         <v>486</v>
       </c>
-      <c r="C145" s="29" t="s">
+      <c r="C146" s="29" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="146" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="44"/>
-      <c r="B146" s="27" t="s">
+    <row r="147" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="53"/>
+      <c r="B147" s="27" t="s">
         <v>488</v>
       </c>
-      <c r="C146" s="29" t="s">
+      <c r="C147" s="29" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="147" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="44"/>
-      <c r="B147" s="45" t="s">
+    <row r="148" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="53"/>
+      <c r="B148" s="54" t="s">
         <v>490</v>
       </c>
-      <c r="C147" s="46" t="s">
+      <c r="C148" s="55" t="s">
         <v>491</v>
       </c>
-      <c r="D147" s="12" t="s">
+      <c r="D148" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="E147" s="12" t="s">
+      <c r="E148" s="12" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="148" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="44"/>
-      <c r="B148" s="45"/>
-      <c r="C148" s="46"/>
-      <c r="D148" s="12" t="s">
+    <row r="149" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="53"/>
+      <c r="B149" s="54"/>
+      <c r="C149" s="55"/>
+      <c r="D149" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="E148" s="12" t="s">
+      <c r="E149" s="12" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="149" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="44"/>
-      <c r="B149" s="45"/>
-      <c r="C149" s="46"/>
-      <c r="D149" s="12" t="s">
+    <row r="150" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="53"/>
+      <c r="B150" s="54"/>
+      <c r="C150" s="55"/>
+      <c r="D150" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="E149" s="12" t="s">
+      <c r="E150" s="12" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="150" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="44"/>
-      <c r="B150" s="45" t="s">
+    <row r="151" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="53"/>
+      <c r="B151" s="54" t="s">
         <v>492</v>
       </c>
-      <c r="C150" s="46" t="s">
+      <c r="C151" s="55" t="s">
         <v>493</v>
       </c>
-      <c r="D150" s="12" t="s">
+      <c r="D151" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="E150" s="12" t="s">
+      <c r="E151" s="12" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="151" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="44"/>
-      <c r="B151" s="45"/>
-      <c r="C151" s="46"/>
-      <c r="D151" s="12" t="s">
+    <row r="152" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="53"/>
+      <c r="B152" s="54"/>
+      <c r="C152" s="55"/>
+      <c r="D152" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="E151" s="12" t="s">
+      <c r="E152" s="12" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="152" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="44"/>
-      <c r="B152" s="45"/>
-      <c r="C152" s="46"/>
-      <c r="D152" s="12" t="s">
+    <row r="153" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="53"/>
+      <c r="B153" s="54"/>
+      <c r="C153" s="55"/>
+      <c r="D153" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="E152" s="12" t="s">
+      <c r="E153" s="12" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="153" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="44"/>
-      <c r="B153" s="45"/>
-      <c r="C153" s="46"/>
-      <c r="D153" s="12" t="s">
+    <row r="154" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="53"/>
+      <c r="B154" s="54"/>
+      <c r="C154" s="55"/>
+      <c r="D154" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="E153" s="12" t="s">
+      <c r="E154" s="12" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="154" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="44"/>
-      <c r="B154" s="45" t="s">
+    <row r="155" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="53"/>
+      <c r="B155" s="54" t="s">
         <v>494</v>
       </c>
-      <c r="C154" s="46" t="s">
+      <c r="C155" s="55" t="s">
         <v>551</v>
       </c>
-      <c r="D154" s="12" t="s">
+      <c r="D155" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="E154" s="12" t="s">
+      <c r="E155" s="12" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="155" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="44"/>
-      <c r="B155" s="45"/>
-      <c r="C155" s="46"/>
-      <c r="D155" s="12" t="s">
+    <row r="156" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="53"/>
+      <c r="B156" s="54"/>
+      <c r="C156" s="55"/>
+      <c r="D156" s="12" t="s">
         <v>553</v>
       </c>
-      <c r="E155" s="12" t="s">
+      <c r="E156" s="12" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="156" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="44"/>
-      <c r="B156" s="45"/>
-      <c r="C156" s="46"/>
-      <c r="D156" s="12" t="s">
+    <row r="157" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="53"/>
+      <c r="B157" s="54"/>
+      <c r="C157" s="55"/>
+      <c r="D157" s="12" t="s">
         <v>555</v>
       </c>
-      <c r="E156" s="12" t="s">
+      <c r="E157" s="12" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="157" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="51" t="s">
+    <row r="158" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="63" t="s">
         <v>350</v>
       </c>
-      <c r="B157" s="25" t="s">
+      <c r="B158" s="25" t="s">
         <v>351</v>
       </c>
-      <c r="C157" s="20" t="s">
+      <c r="C158" s="20" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="158" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="51"/>
-      <c r="B158" s="45" t="s">
+    <row r="159" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="63"/>
+      <c r="B159" s="54" t="s">
         <v>353</v>
       </c>
-      <c r="C158" s="46" t="s">
+      <c r="C159" s="55" t="s">
         <v>354</v>
       </c>
-      <c r="D158" s="12" t="s">
+      <c r="D159" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F158" s="12" t="s">
+      <c r="F159" s="12" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="159" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="51"/>
-      <c r="B159" s="45"/>
-      <c r="C159" s="46"/>
-      <c r="D159" s="12" t="s">
+    <row r="160" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="63"/>
+      <c r="B160" s="54"/>
+      <c r="C160" s="55"/>
+      <c r="D160" s="12" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="160" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="51"/>
-      <c r="B160" s="45" t="s">
+    <row r="161" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="63"/>
+      <c r="B161" s="54" t="s">
         <v>355</v>
       </c>
-      <c r="C160" s="46" t="s">
+      <c r="C161" s="55" t="s">
         <v>356</v>
       </c>
-      <c r="D160" s="12" t="s">
+      <c r="D161" s="12" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="161" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="51"/>
-      <c r="B161" s="45"/>
-      <c r="C161" s="46"/>
-      <c r="D161" s="12" t="s">
+    <row r="162" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="63"/>
+      <c r="B162" s="54"/>
+      <c r="C162" s="55"/>
+      <c r="D162" s="12" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="162" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="51"/>
-      <c r="B162" s="45" t="s">
+    <row r="163" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="63"/>
+      <c r="B163" s="54" t="s">
         <v>357</v>
       </c>
-      <c r="C162" s="46" t="s">
+      <c r="C163" s="55" t="s">
         <v>371</v>
       </c>
-      <c r="D162" s="12" t="s">
+      <c r="D163" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="E162" s="12" t="s">
+      <c r="E163" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="F162" s="12" t="s">
+      <c r="F163" s="12" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="163" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="51"/>
-      <c r="B163" s="45"/>
-      <c r="C163" s="46"/>
-      <c r="D163" s="12" t="s">
+    <row r="164" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="63"/>
+      <c r="B164" s="54"/>
+      <c r="C164" s="55"/>
+      <c r="D164" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="E163" s="12" t="s">
+      <c r="E164" s="12" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="164" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="51"/>
-      <c r="B164" s="45"/>
-      <c r="C164" s="46"/>
-      <c r="D164" s="12" t="s">
+    <row r="165" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="63"/>
+      <c r="B165" s="54"/>
+      <c r="C165" s="55"/>
+      <c r="D165" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="E164" s="12" t="s">
+      <c r="E165" s="12" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="165" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="51"/>
-      <c r="B165" s="45"/>
-      <c r="C165" s="46"/>
-      <c r="D165" s="12" t="s">
+    <row r="166" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="63"/>
+      <c r="B166" s="54"/>
+      <c r="C166" s="55"/>
+      <c r="D166" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="E165" s="12" t="s">
+      <c r="E166" s="12" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="166" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="51"/>
-      <c r="B166" s="45"/>
-      <c r="C166" s="46"/>
-      <c r="D166" s="12" t="s">
+    <row r="167" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="63"/>
+      <c r="B167" s="54"/>
+      <c r="C167" s="55"/>
+      <c r="D167" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="E166" s="12" t="s">
+      <c r="E167" s="12" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="167" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="52" t="s">
+    <row r="168" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="64" t="s">
         <v>380</v>
       </c>
-      <c r="B167" s="45" t="s">
+      <c r="B168" s="54" t="s">
         <v>373</v>
       </c>
-      <c r="C167" s="46" t="s">
+      <c r="C168" s="55" t="s">
         <v>377</v>
       </c>
-      <c r="D167" s="12" t="s">
+      <c r="D168" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="E167" s="12" t="s">
+      <c r="E168" s="12" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="168" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="52"/>
-      <c r="B168" s="45"/>
-      <c r="C168" s="46"/>
-      <c r="D168" s="12" t="s">
+    <row r="169" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="64"/>
+      <c r="B169" s="54"/>
+      <c r="C169" s="55"/>
+      <c r="D169" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="E168" s="12" t="s">
+      <c r="E169" s="12" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="169" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="52"/>
-      <c r="B169" s="45"/>
-      <c r="C169" s="46"/>
-      <c r="D169" s="12" t="s">
+    <row r="170" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="64"/>
+      <c r="B170" s="54"/>
+      <c r="C170" s="55"/>
+      <c r="D170" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="E169" s="12" t="s">
+      <c r="E170" s="12" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="170" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="52"/>
-      <c r="B170" s="45" t="s">
+    <row r="171" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="64"/>
+      <c r="B171" s="54" t="s">
         <v>378</v>
       </c>
-      <c r="C170" s="46" t="s">
+      <c r="C171" s="55" t="s">
         <v>379</v>
       </c>
-      <c r="D170" s="12" t="s">
+      <c r="D171" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="E170" s="12" t="s">
+      <c r="E171" s="12" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="171" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="52"/>
-      <c r="B171" s="45"/>
-      <c r="C171" s="46"/>
-      <c r="D171" s="12" t="s">
+    <row r="172" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="64"/>
+      <c r="B172" s="54"/>
+      <c r="C172" s="55"/>
+      <c r="D172" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="E171" s="12" t="s">
+      <c r="E172" s="12" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="172" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="52"/>
-      <c r="B172" s="45"/>
-      <c r="C172" s="46"/>
-      <c r="D172" s="12" t="s">
+    <row r="173" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="64"/>
+      <c r="B173" s="54"/>
+      <c r="C173" s="55"/>
+      <c r="D173" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="E172" s="12" t="s">
+      <c r="E173" s="12" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="173" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="48" t="s">
+    <row r="174" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="60" t="s">
         <v>381</v>
       </c>
-      <c r="B173" s="45" t="s">
+      <c r="B174" s="54" t="s">
         <v>392</v>
       </c>
-      <c r="C173" s="46" t="s">
+      <c r="C174" s="55" t="s">
         <v>393</v>
       </c>
-      <c r="D173" s="45" t="s">
+      <c r="D174" s="54" t="s">
         <v>382</v>
       </c>
-      <c r="E173" s="12" t="s">
+      <c r="E174" s="12" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="174" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="48"/>
-      <c r="B174" s="45"/>
-      <c r="C174" s="46"/>
-      <c r="D174" s="45"/>
-      <c r="E174" s="12" t="s">
+    <row r="175" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="60"/>
+      <c r="B175" s="54"/>
+      <c r="C175" s="55"/>
+      <c r="D175" s="54"/>
+      <c r="E175" s="12" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="175" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="48"/>
-      <c r="B175" s="45"/>
-      <c r="C175" s="46"/>
-      <c r="D175" s="45" t="s">
+    <row r="176" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="60"/>
+      <c r="B176" s="54"/>
+      <c r="C176" s="55"/>
+      <c r="D176" s="54" t="s">
         <v>385</v>
       </c>
-      <c r="E175" s="12" t="s">
+      <c r="E176" s="12" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="176" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A176" s="48"/>
-      <c r="B176" s="45"/>
-      <c r="C176" s="46"/>
-      <c r="D176" s="45"/>
-      <c r="E176" s="12" t="s">
+    <row r="177" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="60"/>
+      <c r="B177" s="54"/>
+      <c r="C177" s="55"/>
+      <c r="D177" s="54"/>
+      <c r="E177" s="12" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="177" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="48"/>
-      <c r="B177" s="45"/>
-      <c r="C177" s="46"/>
-      <c r="D177" s="45" t="s">
+    <row r="178" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="60"/>
+      <c r="B178" s="54"/>
+      <c r="C178" s="55"/>
+      <c r="D178" s="54" t="s">
         <v>387</v>
       </c>
-      <c r="E177" s="12" t="s">
+      <c r="E178" s="12" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="178" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="48"/>
-      <c r="B178" s="45"/>
-      <c r="C178" s="46"/>
-      <c r="D178" s="45"/>
-      <c r="E178" s="12" t="s">
+    <row r="179" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A179" s="60"/>
+      <c r="B179" s="54"/>
+      <c r="C179" s="55"/>
+      <c r="D179" s="54"/>
+      <c r="E179" s="12" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="179" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="48"/>
-      <c r="B179" s="45"/>
-      <c r="C179" s="46"/>
-      <c r="D179" s="12" t="s">
+    <row r="180" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A180" s="60"/>
+      <c r="B180" s="54"/>
+      <c r="C180" s="55"/>
+      <c r="D180" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="E179" s="12" t="s">
+      <c r="E180" s="12" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="180" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A180" s="48"/>
-      <c r="B180" s="45" t="s">
+    <row r="181" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A181" s="60"/>
+      <c r="B181" s="54" t="s">
         <v>394</v>
       </c>
-      <c r="C180" s="20"/>
-      <c r="D180" s="12" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="48"/>
-      <c r="B181" s="45"/>
       <c r="C181" s="20"/>
       <c r="D181" s="12" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
     </row>
     <row r="182" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A182" s="48"/>
-      <c r="B182" s="45"/>
+      <c r="A182" s="60"/>
+      <c r="B182" s="54"/>
       <c r="C182" s="20"/>
       <c r="D182" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A183" s="60"/>
+      <c r="B183" s="54"/>
+      <c r="C183" s="20"/>
+      <c r="D183" s="12" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="183" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A183" s="48"/>
-      <c r="B183" s="45" t="s">
+    <row r="184" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="60"/>
+      <c r="B184" s="54" t="s">
         <v>395</v>
       </c>
-      <c r="C183" s="46" t="s">
+      <c r="C184" s="55" t="s">
         <v>401</v>
       </c>
-      <c r="D183" s="12" t="s">
+      <c r="D184" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="E183" s="12" t="s">
+      <c r="E184" s="12" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="184" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A184" s="48"/>
-      <c r="B184" s="45"/>
-      <c r="C184" s="46"/>
-      <c r="D184" s="12" t="s">
+    <row r="185" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A185" s="60"/>
+      <c r="B185" s="54"/>
+      <c r="C185" s="55"/>
+      <c r="D185" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="E184" s="12" t="s">
+      <c r="E185" s="12" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="185" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A185" s="48"/>
-      <c r="B185" s="45"/>
-      <c r="C185" s="46"/>
-      <c r="D185" s="12" t="s">
+    <row r="186" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A186" s="60"/>
+      <c r="B186" s="54"/>
+      <c r="C186" s="55"/>
+      <c r="D186" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="E185" s="12" t="s">
+      <c r="E186" s="12" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="186" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A186" s="48"/>
-      <c r="B186" s="45" t="s">
+    <row r="187" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A187" s="60"/>
+      <c r="B187" s="54" t="s">
         <v>402</v>
       </c>
-      <c r="C186" s="46" t="s">
+      <c r="C187" s="55" t="s">
         <v>403</v>
       </c>
-      <c r="D186" s="12" t="s">
+      <c r="D187" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="E186" s="12" t="s">
+      <c r="E187" s="12" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="187" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A187" s="48"/>
-      <c r="B187" s="45"/>
-      <c r="C187" s="46"/>
-      <c r="D187" s="12" t="s">
+    <row r="188" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="60"/>
+      <c r="B188" s="54"/>
+      <c r="C188" s="55"/>
+      <c r="D188" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="E187" s="12" t="s">
+      <c r="E188" s="12" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="188" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="48"/>
-      <c r="B188" s="45"/>
-      <c r="C188" s="46"/>
-      <c r="D188" s="12" t="s">
+    <row r="189" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="60"/>
+      <c r="B189" s="54"/>
+      <c r="C189" s="55"/>
+      <c r="D189" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="E188" s="12" t="s">
+      <c r="E189" s="12" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="189" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="48"/>
-      <c r="B189" s="45" t="s">
+    <row r="190" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A190" s="60"/>
+      <c r="B190" s="54" t="s">
         <v>417</v>
       </c>
-      <c r="C189" s="53" t="s">
+      <c r="C190" s="65" t="s">
         <v>418</v>
       </c>
-      <c r="D189" s="12" t="s">
+      <c r="D190" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="E189" s="12" t="s">
+      <c r="E190" s="12" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="190" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="48"/>
-      <c r="B190" s="45"/>
-      <c r="C190" s="54"/>
-      <c r="D190" s="12" t="s">
+    <row r="191" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A191" s="60"/>
+      <c r="B191" s="54"/>
+      <c r="C191" s="66"/>
+      <c r="D191" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="E190" s="12" t="s">
+      <c r="E191" s="12" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="191" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A191" s="48"/>
-      <c r="B191" s="45"/>
-      <c r="C191" s="54"/>
-      <c r="D191" s="12" t="s">
+    <row r="192" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A192" s="60"/>
+      <c r="B192" s="54"/>
+      <c r="C192" s="66"/>
+      <c r="D192" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="E191" s="12" t="s">
+      <c r="E192" s="12" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="192" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A192" s="48"/>
-      <c r="B192" s="45"/>
-      <c r="C192" s="54"/>
-      <c r="D192" s="12" t="s">
+    <row r="193" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A193" s="60"/>
+      <c r="B193" s="54"/>
+      <c r="C193" s="66"/>
+      <c r="D193" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="E192" s="12" t="s">
+      <c r="E193" s="12" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="193" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A193" s="48"/>
-      <c r="B193" s="45"/>
-      <c r="C193" s="54"/>
-      <c r="D193" s="12" t="s">
+    <row r="194" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A194" s="60"/>
+      <c r="B194" s="54"/>
+      <c r="C194" s="66"/>
+      <c r="D194" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="E193" s="12" t="s">
+      <c r="E194" s="12" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="194" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A194" s="48"/>
-      <c r="B194" s="45"/>
-      <c r="C194" s="54"/>
-      <c r="D194" s="12" t="s">
+    <row r="195" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A195" s="60"/>
+      <c r="B195" s="54"/>
+      <c r="C195" s="66"/>
+      <c r="D195" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="E194" s="12" t="s">
+      <c r="E195" s="12" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="195" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A195" s="48"/>
-      <c r="B195" s="18" t="s">
+    <row r="196" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A196" s="60"/>
+      <c r="B196" s="18" t="s">
         <v>419</v>
       </c>
-      <c r="C195" s="20" t="s">
+      <c r="C196" s="20" t="s">
         <v>421</v>
       </c>
-      <c r="D195" s="17" t="s">
+      <c r="D196" s="17" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="196" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A196" s="48"/>
-      <c r="B196" s="45" t="s">
+    <row r="197" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A197" s="60"/>
+      <c r="B197" s="54" t="s">
         <v>422</v>
       </c>
-      <c r="C196" s="46" t="s">
+      <c r="C197" s="55" t="s">
         <v>423</v>
       </c>
-      <c r="D196" s="15" t="s">
+      <c r="D197" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E196" s="15" t="s">
+      <c r="E197" s="15" t="s">
         <v>427</v>
       </c>
-      <c r="F196" s="12" t="s">
+      <c r="F197" s="12" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="197" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A197" s="48"/>
-      <c r="B197" s="45"/>
-      <c r="C197" s="46"/>
-      <c r="D197" s="15" t="s">
+    <row r="198" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A198" s="60"/>
+      <c r="B198" s="54"/>
+      <c r="C198" s="55"/>
+      <c r="D198" s="15" t="s">
         <v>424</v>
       </c>
-      <c r="E197" s="15" t="s">
+      <c r="E198" s="15" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="198" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A198" s="48"/>
-      <c r="B198" s="45"/>
-      <c r="C198" s="46"/>
-      <c r="D198" s="15" t="s">
+    <row r="199" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A199" s="60"/>
+      <c r="B199" s="54"/>
+      <c r="C199" s="55"/>
+      <c r="D199" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="E198" s="15" t="s">
+      <c r="E199" s="15" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="199" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="48"/>
-      <c r="B199" s="45"/>
-      <c r="C199" s="46"/>
-      <c r="D199" s="15" t="s">
+    <row r="200" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A200" s="60"/>
+      <c r="B200" s="54"/>
+      <c r="C200" s="55"/>
+      <c r="D200" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="E199" s="15" t="s">
+      <c r="E200" s="15" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="200" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A200" s="48"/>
-      <c r="B200" s="45" t="s">
+    <row r="201" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A201" s="60"/>
+      <c r="B201" s="54" t="s">
         <v>432</v>
       </c>
-      <c r="C200" s="46" t="s">
+      <c r="C201" s="55" t="s">
         <v>433</v>
       </c>
-      <c r="D200" s="15" t="s">
+      <c r="D201" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="E200" s="12" t="s">
+      <c r="E201" s="12" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="201" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A201" s="48"/>
-      <c r="B201" s="45"/>
-      <c r="C201" s="46"/>
-      <c r="D201" s="15" t="s">
+    <row r="202" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A202" s="60"/>
+      <c r="B202" s="54"/>
+      <c r="C202" s="55"/>
+      <c r="D202" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="E201" s="12" t="s">
+      <c r="E202" s="12" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="202" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A202" s="48"/>
-      <c r="B202" s="45"/>
-      <c r="C202" s="46"/>
-      <c r="D202" s="15" t="s">
+    <row r="203" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A203" s="60"/>
+      <c r="B203" s="54"/>
+      <c r="C203" s="55"/>
+      <c r="D203" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="E202" s="12" t="s">
+      <c r="E203" s="12" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="203" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A203" s="48"/>
-      <c r="B203" s="45"/>
-      <c r="C203" s="46"/>
-      <c r="D203" s="12" t="s">
+    <row r="204" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A204" s="60"/>
+      <c r="B204" s="54"/>
+      <c r="C204" s="55"/>
+      <c r="D204" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="E203" s="12" t="s">
+      <c r="E204" s="12" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="204" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A204" s="48"/>
-      <c r="B204" s="45"/>
-      <c r="C204" s="46"/>
-      <c r="D204" s="12" t="s">
+    <row r="205" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A205" s="60"/>
+      <c r="B205" s="54"/>
+      <c r="C205" s="55"/>
+      <c r="D205" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="E204" s="12" t="s">
+      <c r="E205" s="12" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="205" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="48"/>
-      <c r="B205" s="45"/>
-      <c r="C205" s="46"/>
-      <c r="D205" s="12" t="s">
+    <row r="206" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A206" s="60"/>
+      <c r="B206" s="54"/>
+      <c r="C206" s="55"/>
+      <c r="D206" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="E205" s="12" t="s">
+      <c r="E206" s="12" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="206" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A206" s="48"/>
-      <c r="B206" s="45"/>
-      <c r="C206" s="46"/>
-      <c r="D206" s="12" t="s">
+    <row r="207" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A207" s="60"/>
+      <c r="B207" s="54"/>
+      <c r="C207" s="55"/>
+      <c r="D207" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="E206" s="12" t="s">
+      <c r="E207" s="12" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="207" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A207" s="48"/>
-      <c r="B207" s="45"/>
-      <c r="C207" s="46"/>
-      <c r="D207" s="12" t="s">
+    <row r="208" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A208" s="60"/>
+      <c r="B208" s="54"/>
+      <c r="C208" s="55"/>
+      <c r="D208" s="12" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="208" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A208" s="48"/>
-      <c r="B208" s="45"/>
-      <c r="C208" s="46"/>
-      <c r="D208" s="12" t="s">
+    <row r="209" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A209" s="60"/>
+      <c r="B209" s="54"/>
+      <c r="C209" s="55"/>
+      <c r="D209" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="E208" s="12" t="s">
+      <c r="E209" s="12" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="209" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A209" s="48"/>
-      <c r="B209" s="45" t="s">
+    <row r="210" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A210" s="60"/>
+      <c r="B210" s="54" t="s">
         <v>449</v>
       </c>
-      <c r="C209" s="46" t="s">
+      <c r="C210" s="55" t="s">
         <v>453</v>
       </c>
-      <c r="D209" s="12" t="s">
+      <c r="D210" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="E209" s="12" t="s">
+      <c r="E210" s="12" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="210" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="48"/>
-      <c r="B210" s="45"/>
-      <c r="C210" s="46"/>
-      <c r="D210" s="12" t="s">
+    <row r="211" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A211" s="60"/>
+      <c r="B211" s="54"/>
+      <c r="C211" s="55"/>
+      <c r="D211" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="E210" s="12" t="s">
+      <c r="E211" s="12" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="211" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A211" s="48"/>
-      <c r="B211" s="45"/>
-      <c r="C211" s="46"/>
-      <c r="D211" s="12" t="s">
+    <row r="212" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A212" s="60"/>
+      <c r="B212" s="54"/>
+      <c r="C212" s="55"/>
+      <c r="D212" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="E211" s="12" t="s">
+      <c r="E212" s="12" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="212" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A212" s="48"/>
-      <c r="B212" s="18" t="s">
+    <row r="213" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A213" s="60"/>
+      <c r="B213" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="C212" s="28" t="s">
+      <c r="C213" s="28" t="s">
         <v>454</v>
       </c>
-      <c r="D212" s="12" t="s">
+      <c r="D213" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="E212" s="12" t="s">
+      <c r="E213" s="12" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="213" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A213" s="70" t="s">
+    <row r="214" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A214" s="83" t="s">
         <v>726</v>
       </c>
-      <c r="B213" s="62" t="s">
+      <c r="B214" s="38" t="s">
         <v>672</v>
       </c>
-      <c r="C213" s="63"/>
-      <c r="D213" s="62" t="s">
+      <c r="C214" s="39"/>
+      <c r="D214" s="38" t="s">
         <v>673</v>
       </c>
-      <c r="E213" s="62" t="s">
+      <c r="E214" s="38" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="214" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A214" s="70"/>
-      <c r="B214" s="64" t="s">
+    <row r="215" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A215" s="83"/>
+      <c r="B215" s="57" t="s">
         <v>675</v>
       </c>
-      <c r="C214" s="65" t="s">
+      <c r="C215" s="56" t="s">
         <v>676</v>
       </c>
-      <c r="D214" s="62" t="s">
+      <c r="D215" s="38" t="s">
         <v>677</v>
       </c>
-      <c r="E214" s="62" t="s">
+      <c r="E215" s="38" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="215" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A215" s="70"/>
-      <c r="B215" s="64"/>
-      <c r="C215" s="65"/>
-      <c r="D215" s="62" t="s">
+    <row r="216" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A216" s="83"/>
+      <c r="B216" s="57"/>
+      <c r="C216" s="56"/>
+      <c r="D216" s="38" t="s">
         <v>679</v>
       </c>
-      <c r="E215" s="62" t="s">
+      <c r="E216" s="38" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="216" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A216" s="70"/>
-      <c r="B216" s="64"/>
-      <c r="C216" s="65"/>
-      <c r="D216" s="62" t="s">
+    <row r="217" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A217" s="83"/>
+      <c r="B217" s="57"/>
+      <c r="C217" s="56"/>
+      <c r="D217" s="38" t="s">
         <v>681</v>
       </c>
-      <c r="E216" s="62" t="s">
+      <c r="E217" s="38" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="217" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A217" s="70"/>
-      <c r="B217" s="64"/>
-      <c r="C217" s="65"/>
-      <c r="D217" s="62" t="s">
+    <row r="218" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A218" s="83"/>
+      <c r="B218" s="57"/>
+      <c r="C218" s="56"/>
+      <c r="D218" s="38" t="s">
         <v>682</v>
       </c>
-      <c r="E217" s="62" t="s">
+      <c r="E218" s="38" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="218" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A218" s="70"/>
-      <c r="B218" s="64" t="s">
+    <row r="219" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A219" s="83"/>
+      <c r="B219" s="57" t="s">
         <v>685</v>
       </c>
-      <c r="C218" s="65" t="s">
+      <c r="C219" s="56" t="s">
         <v>686</v>
       </c>
-      <c r="D218" s="62" t="s">
+      <c r="D219" s="38" t="s">
         <v>689</v>
       </c>
-      <c r="E218" s="62" t="s">
+      <c r="E219" s="38" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="219" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A219" s="70"/>
-      <c r="B219" s="64"/>
-      <c r="C219" s="65"/>
-      <c r="D219" s="62" t="s">
+    <row r="220" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A220" s="83"/>
+      <c r="B220" s="57"/>
+      <c r="C220" s="56"/>
+      <c r="D220" s="38" t="s">
         <v>687</v>
       </c>
-      <c r="E219" s="62" t="s">
+      <c r="E220" s="38" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="220" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A220" s="70"/>
-      <c r="B220" s="64"/>
-      <c r="C220" s="65"/>
-      <c r="D220" s="62" t="s">
+    <row r="221" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A221" s="83"/>
+      <c r="B221" s="57"/>
+      <c r="C221" s="56"/>
+      <c r="D221" s="38" t="s">
         <v>688</v>
       </c>
-      <c r="E220" s="62" t="s">
+      <c r="E221" s="38" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="221" spans="1:5" s="12" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A221" s="70"/>
-      <c r="B221" s="62" t="s">
+    <row r="222" spans="1:5" s="12" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A222" s="83"/>
+      <c r="B222" s="38" t="s">
         <v>693</v>
       </c>
-      <c r="C221" s="66" t="s">
+      <c r="C222" s="40" t="s">
         <v>694</v>
       </c>
-      <c r="D221" s="62"/>
-      <c r="E221" s="62"/>
-    </row>
-    <row r="222" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A222" s="70"/>
-      <c r="B222" s="64" t="s">
+      <c r="D222" s="38"/>
+      <c r="E222" s="38"/>
+    </row>
+    <row r="223" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A223" s="83"/>
+      <c r="B223" s="57" t="s">
         <v>695</v>
       </c>
-      <c r="C222" s="65" t="s">
+      <c r="C223" s="56" t="s">
         <v>696</v>
       </c>
-      <c r="D222" s="62" t="s">
+      <c r="D223" s="38" t="s">
         <v>697</v>
       </c>
-      <c r="E222" s="62" t="s">
+      <c r="E223" s="38" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="223" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A223" s="70"/>
-      <c r="B223" s="64"/>
-      <c r="C223" s="65"/>
-      <c r="D223" s="62" t="s">
+    <row r="224" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A224" s="83"/>
+      <c r="B224" s="57"/>
+      <c r="C224" s="56"/>
+      <c r="D224" s="38" t="s">
         <v>699</v>
       </c>
-      <c r="E223" s="62" t="s">
+      <c r="E224" s="38" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="224" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A224" s="70"/>
-      <c r="B224" s="64"/>
-      <c r="C224" s="65"/>
-      <c r="D224" s="62" t="s">
+    <row r="225" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A225" s="83"/>
+      <c r="B225" s="57"/>
+      <c r="C225" s="56"/>
+      <c r="D225" s="38" t="s">
         <v>701</v>
       </c>
-      <c r="E224" s="62" t="s">
+      <c r="E225" s="38" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="225" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A225" s="70"/>
-      <c r="B225" s="64"/>
-      <c r="C225" s="65"/>
-      <c r="D225" s="62" t="s">
+    <row r="226" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A226" s="83"/>
+      <c r="B226" s="57"/>
+      <c r="C226" s="56"/>
+      <c r="D226" s="38" t="s">
         <v>703</v>
       </c>
-      <c r="E225" s="62" t="s">
+      <c r="E226" s="38" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="226" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A226" s="70"/>
-      <c r="B226" s="64"/>
-      <c r="C226" s="65"/>
-      <c r="D226" s="62" t="s">
+    <row r="227" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A227" s="83"/>
+      <c r="B227" s="57"/>
+      <c r="C227" s="56"/>
+      <c r="D227" s="38" t="s">
         <v>705</v>
       </c>
-      <c r="E226" s="62" t="s">
+      <c r="E227" s="38" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="227" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A227" s="70"/>
-      <c r="B227" s="64" t="s">
+    <row r="228" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A228" s="83"/>
+      <c r="B228" s="57" t="s">
         <v>707</v>
       </c>
-      <c r="C227" s="65" t="s">
+      <c r="C228" s="56" t="s">
         <v>708</v>
       </c>
-      <c r="D227" s="62" t="s">
+      <c r="D228" s="38" t="s">
         <v>709</v>
       </c>
-      <c r="E227" s="62" t="s">
+      <c r="E228" s="38" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="228" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A228" s="70"/>
-      <c r="B228" s="64"/>
-      <c r="C228" s="65"/>
-      <c r="D228" s="62" t="s">
+    <row r="229" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A229" s="83"/>
+      <c r="B229" s="57"/>
+      <c r="C229" s="56"/>
+      <c r="D229" s="38" t="s">
         <v>699</v>
       </c>
-      <c r="E228" s="62" t="s">
+      <c r="E229" s="38" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="229" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A229" s="70"/>
-      <c r="B229" s="64"/>
-      <c r="C229" s="65"/>
-      <c r="D229" s="62" t="s">
+    <row r="230" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A230" s="83"/>
+      <c r="B230" s="57"/>
+      <c r="C230" s="56"/>
+      <c r="D230" s="38" t="s">
         <v>701</v>
       </c>
-      <c r="E229" s="62" t="s">
+      <c r="E230" s="38" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="230" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A230" s="70"/>
-      <c r="B230" s="64"/>
-      <c r="C230" s="65"/>
-      <c r="D230" s="62" t="s">
+    <row r="231" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A231" s="83"/>
+      <c r="B231" s="57"/>
+      <c r="C231" s="56"/>
+      <c r="D231" s="38" t="s">
         <v>710</v>
       </c>
-      <c r="E230" s="67" t="s">
+      <c r="E231" s="41" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="231" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A231" s="70"/>
-      <c r="B231" s="64"/>
-      <c r="C231" s="65"/>
-      <c r="D231" s="62" t="s">
+    <row r="232" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A232" s="83"/>
+      <c r="B232" s="57"/>
+      <c r="C232" s="56"/>
+      <c r="D232" s="38" t="s">
         <v>712</v>
       </c>
-      <c r="E231" s="67" t="s">
+      <c r="E232" s="41" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="232" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A232" s="70"/>
-      <c r="B232" s="64" t="s">
+    <row r="233" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A233" s="83"/>
+      <c r="B233" s="57" t="s">
         <v>718</v>
       </c>
-      <c r="C232" s="68" t="s">
+      <c r="C233" s="79" t="s">
         <v>725</v>
       </c>
-      <c r="D232" s="62" t="s">
+      <c r="D233" s="38" t="s">
         <v>709</v>
       </c>
-      <c r="E232" s="62" t="s">
+      <c r="E233" s="38" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="233" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A233" s="70"/>
-      <c r="B233" s="64"/>
-      <c r="C233" s="69"/>
-      <c r="D233" s="62" t="s">
+    <row r="234" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A234" s="83"/>
+      <c r="B234" s="57"/>
+      <c r="C234" s="80"/>
+      <c r="D234" s="38" t="s">
         <v>699</v>
       </c>
-      <c r="E233" s="62" t="s">
+      <c r="E234" s="38" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="234" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A234" s="70"/>
-      <c r="B234" s="64"/>
-      <c r="C234" s="69"/>
-      <c r="D234" s="62" t="s">
+    <row r="235" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A235" s="83"/>
+      <c r="B235" s="57"/>
+      <c r="C235" s="80"/>
+      <c r="D235" s="38" t="s">
         <v>701</v>
       </c>
-      <c r="E234" s="62" t="s">
+      <c r="E235" s="38" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="235" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A235" s="70"/>
-      <c r="B235" s="64"/>
-      <c r="C235" s="69"/>
-      <c r="D235" s="62" t="s">
+    <row r="236" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A236" s="83"/>
+      <c r="B236" s="57"/>
+      <c r="C236" s="80"/>
+      <c r="D236" s="38" t="s">
         <v>703</v>
       </c>
-      <c r="E235" s="62" t="s">
+      <c r="E236" s="38" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="236" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A236" s="70"/>
-      <c r="B236" s="64"/>
-      <c r="C236" s="69"/>
-      <c r="D236" s="62" t="s">
+    <row r="237" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A237" s="83"/>
+      <c r="B237" s="57"/>
+      <c r="C237" s="80"/>
+      <c r="D237" s="38" t="s">
         <v>705</v>
       </c>
-      <c r="E236" s="62" t="s">
+      <c r="E237" s="38" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="237" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A237" s="70"/>
-      <c r="B237" s="73"/>
-      <c r="C237" s="74"/>
-      <c r="D237" s="75" t="s">
+    <row r="238" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A238" s="83"/>
+      <c r="B238" s="82"/>
+      <c r="C238" s="81"/>
+      <c r="D238" s="44" t="s">
         <v>712</v>
       </c>
-      <c r="E237" s="75" t="s">
+      <c r="E238" s="44" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="238" spans="1:5" s="12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A238" s="78" t="s">
+    <row r="239" spans="1:5" s="12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A239" s="75" t="s">
         <v>727</v>
       </c>
-      <c r="B238" s="76" t="s">
+      <c r="B239" s="45" t="s">
         <v>728</v>
       </c>
-      <c r="C238" s="77" t="s">
+      <c r="C239" s="46" t="s">
         <v>729</v>
       </c>
-      <c r="D238" s="76" t="s">
+      <c r="D239" s="45" t="s">
         <v>730</v>
       </c>
-      <c r="E238" s="76"/>
-    </row>
-    <row r="239" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A239" s="78"/>
-      <c r="B239" s="76" t="s">
+      <c r="E239" s="45"/>
+    </row>
+    <row r="240" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A240" s="75"/>
+      <c r="B240" s="45" t="s">
         <v>731</v>
       </c>
-      <c r="C239" s="77" t="s">
+      <c r="C240" s="46" t="s">
         <v>732</v>
       </c>
-      <c r="D239" s="76"/>
-      <c r="E239" s="76"/>
-    </row>
-    <row r="240" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A240" s="78"/>
-      <c r="B240" s="76" t="s">
+      <c r="D240" s="45"/>
+      <c r="E240" s="45"/>
+    </row>
+    <row r="241" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A241" s="75"/>
+      <c r="B241" s="45" t="s">
         <v>733</v>
       </c>
-      <c r="C240" s="77" t="s">
+      <c r="C241" s="46" t="s">
         <v>734</v>
       </c>
-      <c r="D240" s="76"/>
-      <c r="E240" s="76"/>
-    </row>
-    <row r="241" spans="1:5" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A241" s="78"/>
-      <c r="B241" s="76" t="s">
+      <c r="D241" s="45"/>
+      <c r="E241" s="45"/>
+    </row>
+    <row r="242" spans="1:5" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A242" s="75"/>
+      <c r="B242" s="45" t="s">
         <v>735</v>
       </c>
-      <c r="C241" s="77" t="s">
+      <c r="C242" s="46" t="s">
         <v>736</v>
       </c>
-      <c r="D241" s="76"/>
-      <c r="E241" s="76"/>
-    </row>
-    <row r="242" spans="1:5" s="12" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A242" s="78"/>
-      <c r="B242" s="76" t="s">
+      <c r="D242" s="45"/>
+      <c r="E242" s="45"/>
+    </row>
+    <row r="243" spans="1:5" s="12" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A243" s="75"/>
+      <c r="B243" s="45" t="s">
         <v>673</v>
       </c>
-      <c r="C242" s="77" t="s">
+      <c r="C243" s="46" t="s">
         <v>737</v>
       </c>
-      <c r="D242" s="76"/>
-      <c r="E242" s="76"/>
-    </row>
-    <row r="243" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A243" s="78"/>
-      <c r="B243" s="79" t="s">
+      <c r="D243" s="45"/>
+      <c r="E243" s="45"/>
+    </row>
+    <row r="244" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A244" s="75"/>
+      <c r="B244" s="74" t="s">
         <v>738</v>
       </c>
-      <c r="C243" s="80" t="s">
+      <c r="C244" s="73" t="s">
         <v>739</v>
       </c>
-      <c r="D243" s="76" t="s">
+      <c r="D244" s="45" t="s">
         <v>709</v>
       </c>
-      <c r="E243" s="81" t="s">
+      <c r="E244" s="76" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="244" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A244" s="78"/>
-      <c r="B244" s="79"/>
-      <c r="C244" s="80"/>
-      <c r="D244" s="76" t="s">
+    <row r="245" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A245" s="75"/>
+      <c r="B245" s="74"/>
+      <c r="C245" s="73"/>
+      <c r="D245" s="45" t="s">
         <v>699</v>
       </c>
-      <c r="E244" s="82"/>
-    </row>
-    <row r="245" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A245" s="78"/>
-      <c r="B245" s="79"/>
-      <c r="C245" s="80"/>
-      <c r="D245" s="76" t="s">
+      <c r="E245" s="77"/>
+    </row>
+    <row r="246" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A246" s="75"/>
+      <c r="B246" s="74"/>
+      <c r="C246" s="73"/>
+      <c r="D246" s="45" t="s">
         <v>701</v>
       </c>
-      <c r="E245" s="82"/>
-    </row>
-    <row r="246" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A246" s="78"/>
-      <c r="B246" s="79"/>
-      <c r="C246" s="80"/>
-      <c r="D246" s="76" t="s">
+      <c r="E246" s="77"/>
+    </row>
+    <row r="247" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A247" s="75"/>
+      <c r="B247" s="74"/>
+      <c r="C247" s="73"/>
+      <c r="D247" s="45" t="s">
         <v>710</v>
       </c>
-      <c r="E246" s="82"/>
-    </row>
-    <row r="247" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A247" s="78"/>
-      <c r="B247" s="79"/>
-      <c r="C247" s="80"/>
-      <c r="D247" s="76" t="s">
+      <c r="E247" s="77"/>
+    </row>
+    <row r="248" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A248" s="75"/>
+      <c r="B248" s="74"/>
+      <c r="C248" s="73"/>
+      <c r="D248" s="45" t="s">
         <v>711</v>
       </c>
-      <c r="E247" s="83"/>
-    </row>
-    <row r="248" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A248" s="78"/>
-      <c r="B248" s="79"/>
-      <c r="C248" s="80"/>
-      <c r="D248" s="76" t="s">
+      <c r="E248" s="78"/>
+    </row>
+    <row r="249" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A249" s="75"/>
+      <c r="B249" s="74"/>
+      <c r="C249" s="73"/>
+      <c r="D249" s="45" t="s">
         <v>740</v>
       </c>
-      <c r="E248" s="76" t="s">
+      <c r="E249" s="45" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="249" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A249" s="72"/>
-      <c r="B249" s="36"/>
-      <c r="C249" s="37"/>
-    </row>
     <row r="250" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A250" s="72"/>
+      <c r="A250" s="43"/>
       <c r="B250" s="36"/>
       <c r="C250" s="37"/>
     </row>
     <row r="251" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A251" s="72"/>
+      <c r="A251" s="43"/>
       <c r="B251" s="36"/>
       <c r="C251" s="37"/>
     </row>
     <row r="252" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A252" s="72"/>
+      <c r="A252" s="43"/>
       <c r="B252" s="36"/>
       <c r="C252" s="37"/>
     </row>
     <row r="253" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A253" s="71"/>
+      <c r="A253" s="43"/>
       <c r="B253" s="36"/>
       <c r="C253" s="37"/>
     </row>
     <row r="254" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A254" s="71"/>
+      <c r="A254" s="42"/>
       <c r="B254" s="36"/>
       <c r="C254" s="37"/>
     </row>
     <row r="255" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A255" s="71"/>
+      <c r="A255" s="42"/>
       <c r="B255" s="36"/>
       <c r="C255" s="37"/>
     </row>
     <row r="256" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A256" s="71"/>
+      <c r="A256" s="42"/>
       <c r="B256" s="36"/>
       <c r="C256" s="37"/>
     </row>
     <row r="257" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A257" s="71"/>
+      <c r="A257" s="42"/>
       <c r="B257" s="36"/>
       <c r="C257" s="37"/>
     </row>
     <row r="258" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A258" s="71"/>
+      <c r="A258" s="42"/>
       <c r="B258" s="36"/>
       <c r="C258" s="37"/>
     </row>
     <row r="259" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A259" s="71"/>
+      <c r="A259" s="42"/>
       <c r="B259" s="36"/>
       <c r="C259" s="37"/>
     </row>
     <row r="260" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A260" s="71"/>
+      <c r="A260" s="42"/>
       <c r="B260" s="36"/>
       <c r="C260" s="37"/>
     </row>
     <row r="261" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A261" s="71"/>
+      <c r="A261" s="42"/>
       <c r="B261" s="36"/>
       <c r="C261" s="37"/>
     </row>
     <row r="262" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A262" s="71"/>
+      <c r="A262" s="42"/>
       <c r="B262" s="36"/>
       <c r="C262" s="37"/>
     </row>
     <row r="263" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A263" s="71"/>
+      <c r="A263" s="42"/>
       <c r="B263" s="36"/>
       <c r="C263" s="37"/>
     </row>
     <row r="264" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A264" s="71"/>
+      <c r="A264" s="42"/>
       <c r="B264" s="36"/>
       <c r="C264" s="37"/>
     </row>
     <row r="265" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A265" s="71"/>
+      <c r="A265" s="42"/>
       <c r="B265" s="36"/>
       <c r="C265" s="37"/>
     </row>
     <row r="266" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A266" s="71"/>
+      <c r="A266" s="42"/>
       <c r="B266" s="36"/>
       <c r="C266" s="37"/>
     </row>
     <row r="267" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A267" s="71"/>
+      <c r="A267" s="42"/>
       <c r="B267" s="36"/>
       <c r="C267" s="37"/>
     </row>
     <row r="268" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A268" s="71"/>
+      <c r="A268" s="42"/>
       <c r="B268" s="36"/>
       <c r="C268" s="37"/>
     </row>
     <row r="269" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A269" s="71"/>
+      <c r="A269" s="42"/>
       <c r="B269" s="36"/>
       <c r="C269" s="37"/>
     </row>
     <row r="270" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A270" s="47" t="s">
+      <c r="A270" s="42"/>
+      <c r="B270" s="36"/>
+      <c r="C270" s="37"/>
+    </row>
+    <row r="271" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A271" s="67" t="s">
         <v>557</v>
       </c>
-      <c r="B270" s="27" t="s">
+      <c r="B271" s="27" t="s">
         <v>558</v>
       </c>
-      <c r="C270" s="29" t="s">
+      <c r="C271" s="29" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="271" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A271" s="47"/>
-      <c r="B271" s="27" t="s">
+    <row r="272" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A272" s="67"/>
+      <c r="B272" s="27" t="s">
         <v>560</v>
       </c>
-      <c r="C271" s="29" t="s">
+      <c r="C272" s="29" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="272" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A272" s="47"/>
-      <c r="B272" s="27" t="s">
+    <row r="273" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A273" s="67"/>
+      <c r="B273" s="27" t="s">
         <v>562</v>
       </c>
-      <c r="C272" s="29" t="s">
+      <c r="C273" s="29" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="273" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A273" s="47"/>
-      <c r="B273" s="27" t="s">
+    <row r="274" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A274" s="67"/>
+      <c r="B274" s="27" t="s">
         <v>564</v>
       </c>
-      <c r="C273" s="29" t="s">
+      <c r="C274" s="29" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A274" s="16"/>
-      <c r="B274" s="18"/>
-      <c r="C274" s="20"/>
     </row>
     <row r="275" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="16"/>
@@ -8123,169 +8202,181 @@
       <c r="B290" s="18"/>
       <c r="C290" s="20"/>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A291" s="49" t="s">
+    <row r="291" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A291" s="16"/>
+      <c r="B291" s="18"/>
+      <c r="C291" s="20"/>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A292" s="61" t="s">
         <v>320</v>
       </c>
-      <c r="B291" s="19" t="s">
+      <c r="B292" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="C291" s="22" t="s">
+      <c r="C292" s="22" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A292" s="50"/>
-      <c r="B292" s="19" t="s">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A293" s="62"/>
+      <c r="B293" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="C292" s="22" t="s">
+      <c r="C293" s="22" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A293" s="50"/>
-      <c r="B293" s="19" t="s">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A294" s="62"/>
+      <c r="B294" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="C293" s="22" t="s">
+      <c r="C294" s="22" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A294" s="50"/>
-      <c r="B294" s="19" t="s">
+    <row r="295" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A295" s="62"/>
+      <c r="B295" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="C294" s="22" t="s">
+      <c r="C295" s="22" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A295" s="50"/>
-      <c r="B295" s="19" t="s">
+    <row r="296" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A296" s="62"/>
+      <c r="B296" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="C295" s="22" t="s">
+      <c r="C296" s="22" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A296" s="50"/>
-      <c r="B296" s="19" t="s">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A297" s="62"/>
+      <c r="B297" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="C296" s="22" t="s">
+      <c r="C297" s="22" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A297" s="50"/>
-      <c r="B297" s="19" t="s">
+    <row r="298" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A298" s="62"/>
+      <c r="B298" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="C297" s="22" t="s">
+      <c r="C298" s="22" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A298" s="50"/>
-      <c r="B298" s="19" t="s">
+    <row r="299" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A299" s="62"/>
+      <c r="B299" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="C298" s="22" t="s">
+      <c r="C299" s="22" t="s">
         <v>319</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A303" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
-        <v>653</v>
-      </c>
-      <c r="B304" s="19" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
+        <v>653</v>
+      </c>
+      <c r="B305" s="19" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A306" t="s">
         <v>655</v>
       </c>
-      <c r="B305" s="19" t="s">
+      <c r="B306" s="19" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B306" s="19" t="s">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B307" s="19" t="s">
         <v>657</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A307" t="s">
-        <v>658</v>
-      </c>
-      <c r="B307" s="19" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B308" s="19" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
+        <v>660</v>
+      </c>
+      <c r="B309" s="19" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A310" t="s">
         <v>662</v>
       </c>
-      <c r="B309" s="19" t="s">
+      <c r="B310" s="19" t="s">
         <v>663</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="106">
-    <mergeCell ref="C243:C248"/>
-    <mergeCell ref="B243:B248"/>
-    <mergeCell ref="A238:A248"/>
-    <mergeCell ref="E243:E247"/>
-    <mergeCell ref="C227:C231"/>
-    <mergeCell ref="B227:B231"/>
-    <mergeCell ref="C232:C237"/>
-    <mergeCell ref="B232:B237"/>
-    <mergeCell ref="A213:A237"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="D175:D176"/>
-    <mergeCell ref="D177:D178"/>
-    <mergeCell ref="C173:C179"/>
-    <mergeCell ref="B173:B179"/>
-    <mergeCell ref="C147:C149"/>
-    <mergeCell ref="B150:B153"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="C154:C156"/>
+  <mergeCells count="107">
+    <mergeCell ref="C244:C249"/>
+    <mergeCell ref="B244:B249"/>
+    <mergeCell ref="A239:A249"/>
+    <mergeCell ref="E244:E248"/>
+    <mergeCell ref="C228:C232"/>
+    <mergeCell ref="B228:B232"/>
+    <mergeCell ref="C233:C238"/>
+    <mergeCell ref="B233:B238"/>
+    <mergeCell ref="A214:A238"/>
+    <mergeCell ref="C219:C221"/>
+    <mergeCell ref="B219:B221"/>
+    <mergeCell ref="C223:C227"/>
+    <mergeCell ref="B223:B227"/>
+    <mergeCell ref="D174:D175"/>
+    <mergeCell ref="D176:D177"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="C174:C180"/>
+    <mergeCell ref="B174:B180"/>
+    <mergeCell ref="C148:C150"/>
+    <mergeCell ref="B151:B154"/>
+    <mergeCell ref="C151:C154"/>
+    <mergeCell ref="B155:B157"/>
+    <mergeCell ref="C155:C157"/>
     <mergeCell ref="F66:G68"/>
     <mergeCell ref="B66:B68"/>
     <mergeCell ref="C66:C68"/>
-    <mergeCell ref="B162:B166"/>
-    <mergeCell ref="C162:C166"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="B158:B159"/>
-    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="B163:B167"/>
+    <mergeCell ref="C163:C167"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="C159:C160"/>
     <mergeCell ref="B77:B78"/>
     <mergeCell ref="C77:C78"/>
     <mergeCell ref="B79:B81"/>
     <mergeCell ref="C79:C81"/>
     <mergeCell ref="C82:C87"/>
     <mergeCell ref="B82:B87"/>
-    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C121:C125"/>
+    <mergeCell ref="B121:B125"/>
+    <mergeCell ref="C126:C127"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="A2:A21"/>
@@ -8308,58 +8399,52 @@
     <mergeCell ref="B92:B95"/>
     <mergeCell ref="C92:C95"/>
     <mergeCell ref="A88:A96"/>
-    <mergeCell ref="A291:A298"/>
+    <mergeCell ref="A292:A299"/>
     <mergeCell ref="C105:C109"/>
     <mergeCell ref="B105:B109"/>
     <mergeCell ref="A99:A109"/>
-    <mergeCell ref="A157:A166"/>
-    <mergeCell ref="B167:B169"/>
-    <mergeCell ref="C167:C169"/>
-    <mergeCell ref="B170:B172"/>
-    <mergeCell ref="C170:C172"/>
-    <mergeCell ref="A167:A172"/>
-    <mergeCell ref="B180:B182"/>
-    <mergeCell ref="C186:C188"/>
-    <mergeCell ref="B186:B188"/>
-    <mergeCell ref="B189:B194"/>
-    <mergeCell ref="C189:C194"/>
-    <mergeCell ref="B196:B199"/>
-    <mergeCell ref="A270:A273"/>
-    <mergeCell ref="A173:A212"/>
-    <mergeCell ref="C196:C199"/>
-    <mergeCell ref="C200:C208"/>
-    <mergeCell ref="B200:B208"/>
-    <mergeCell ref="B209:B211"/>
-    <mergeCell ref="C209:C211"/>
-    <mergeCell ref="B183:B185"/>
-    <mergeCell ref="C183:C185"/>
-    <mergeCell ref="C214:C217"/>
-    <mergeCell ref="B214:B217"/>
-    <mergeCell ref="C218:C220"/>
-    <mergeCell ref="B218:B220"/>
-    <mergeCell ref="C222:C226"/>
-    <mergeCell ref="B222:B226"/>
-    <mergeCell ref="A110:A156"/>
+    <mergeCell ref="A158:A167"/>
+    <mergeCell ref="B168:B170"/>
+    <mergeCell ref="C168:C170"/>
+    <mergeCell ref="B171:B173"/>
+    <mergeCell ref="C171:C173"/>
+    <mergeCell ref="A168:A173"/>
+    <mergeCell ref="B181:B183"/>
+    <mergeCell ref="C187:C189"/>
+    <mergeCell ref="B187:B189"/>
+    <mergeCell ref="B190:B195"/>
+    <mergeCell ref="C190:C195"/>
+    <mergeCell ref="B197:B200"/>
+    <mergeCell ref="A271:A274"/>
+    <mergeCell ref="A174:A213"/>
+    <mergeCell ref="C197:C200"/>
+    <mergeCell ref="C201:C209"/>
+    <mergeCell ref="B201:B209"/>
+    <mergeCell ref="B210:B212"/>
+    <mergeCell ref="C210:C212"/>
+    <mergeCell ref="B184:B186"/>
+    <mergeCell ref="C184:C186"/>
+    <mergeCell ref="C215:C218"/>
+    <mergeCell ref="B215:B218"/>
+    <mergeCell ref="A110:A157"/>
     <mergeCell ref="B111:B112"/>
     <mergeCell ref="C111:C112"/>
     <mergeCell ref="B114:B116"/>
     <mergeCell ref="C114:C116"/>
     <mergeCell ref="B117:B120"/>
     <mergeCell ref="C117:C120"/>
-    <mergeCell ref="B121:B124"/>
-    <mergeCell ref="C121:C124"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="C127:C130"/>
-    <mergeCell ref="B131:B134"/>
-    <mergeCell ref="C131:C134"/>
-    <mergeCell ref="B135:B139"/>
-    <mergeCell ref="C135:C139"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="B128:B131"/>
+    <mergeCell ref="C128:C131"/>
+    <mergeCell ref="B132:B135"/>
+    <mergeCell ref="C132:C135"/>
+    <mergeCell ref="B136:B140"/>
+    <mergeCell ref="C136:C140"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F65" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D195" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D196" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -8387,4 +8472,91 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B98CA2-DE76-4FA1-8D41-1D5857C8AD0D}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>746</v>
+      </c>
+      <c r="B3" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>748</v>
+      </c>
+      <c r="B4" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>751</v>
+      </c>
+      <c r="B9" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>752</v>
+      </c>
+      <c r="B10" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>755</v>
+      </c>
+      <c r="B11" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>757</v>
+      </c>
+      <c r="B12" t="s">
+        <v>758</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/网站开发.xlsx
+++ b/网站开发.xlsx
@@ -3,22 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{720D61F2-9363-45FC-9E85-AF4841F5E6F1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CC734B60-F723-4146-8DA2-CD633A6E2368}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="html" sheetId="1" r:id="rId1"/>
     <sheet name="css" sheetId="3" r:id="rId2"/>
-    <sheet name="书本推荐" sheetId="2" r:id="rId3"/>
-    <sheet name="快捷键" sheetId="4" r:id="rId4"/>
+    <sheet name="JavaScript" sheetId="5" r:id="rId3"/>
+    <sheet name="书本推荐" sheetId="2" r:id="rId4"/>
+    <sheet name="快捷键" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="826">
   <si>
     <t>&lt;a&gt;&lt;/a&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2956,6 +2957,344 @@
   </si>
   <si>
     <t>取消已经存在的任何文本装饰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML 中的脚本必须位于 &lt;script&gt; 与 &lt;/script&gt; 标签之间。
+脚本可被放置在 HTML 页面的 &lt;body&gt; 和 &lt;head&gt; 部分中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那些老旧的实例可能会在 &lt;script&gt; 标签中使用 type="text/javascript"。现在已经不必这样做了。JavaScript 是所有现代浏览器以及 HTML5 中的默认脚本语言。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部的 JavaScript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也可以把脚本保存到外部文件中。外部文件通常包含被多个网页使用的代码。
+外部 JavaScript 文件的文件扩展名是 .js。
+如需使用外部文件，请在 &lt;script&gt; 标签的 "src" 属性中设置该 .js 文件：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作HTML元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript 语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分号 ;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript 语句向浏览器发出的命令。语句的作用是告诉浏览器该做什么。
+document.getElementById("demo").innerHTML="Hello World";</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分号用于分隔 JavaScript 语句。
+通常我们在每条可执行的语句结尾添加分号。
+使用分号的另一用处是在一行中编写多条语句。
+在 JavaScript 中，用分号来结束语句是可选的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript 对大小写敏感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript 会忽略多余的空格。您可以向脚本添加空格，来提高其可读性。
+var name="Hello";
+var name = "Hello";</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对代码行进行折行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在文本字符串中使用反斜杠对代码行进行换行。下面的例子会正确地显示：
+document.write("Hello \
+World!");
+不过，您不能像这样折行：
+document.write \
+("Hello World!");</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单行注释以 // 开头。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 输出标题：
+document.getElementById("myH1").innerHTML="Welcome to my Homepage";
+// 输出段落：
+document.getElementById("myP").innerHTML="This is my first paragraph.";</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多行注释以 /* 开始，以 */ 结尾。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/*
+下面的这些代码会输出
+一个标题和一个段落
+并将代表主页的开始
+*/
+document.getElementById("myH1").innerHTML="Welcome to my Homepage";
+document.getElementById("myP").innerHTML="This is my first paragraph.";</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在行末使用注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>var x=5;    // 声明 x 并把 5 赋值给它
+var y=x+2;  // 声明 y 并把 x+2 赋值给它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释可用于提高代码的可读性。也可用于调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量是存储信息的容器。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量必须以字母开头
+变量也能以 $ 和 _ 符号开头（不过我们不推荐这么做）
+变量名称对大小写敏感（y 和 Y 是不同的变量）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与代数一样，JavaScript 变量可用于存放值（比如 x=2）和表达式（比如 z=x+y）。
+变量可以使用短名称（比如 x 和 y），也可以使用描述性更好的名称（比如 age, sum, totalvolume）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声明（创建） JavaScript 变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在 JavaScript 中创建变量通常称为“声明”变量。
+我们使用 var 关键词来声明变量：
+var carname;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量声明之后，该变量是空的（它没有值）。
+如需向变量赋值，请使用等号：
+carname="Volvo";</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不过，您也可以在声明变量时对其赋值：
+var carname="Volvo";</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个好的编程习惯是，在代码开始处，统一对需要的变量进行声明。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一条语句，多个变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您可以在一条语句中声明很多变量。该语句以 var 开头，并使用逗号分隔变量即可：
+var name="Gates", age=56, job="CEO";</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声明也可横跨多行：
+var name="Gates",
+age=56,
+job="CEO";</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value = undefined</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在计算机程序中，经常会声明无值的变量。未使用值来声明的变量，其值实际上是 undefined。
+在执行过以下语句后，变量 carname 的值将是 undefined：
+var carname;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新声明 JavaScript 变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果重新声明 JavaScript 变量，该变量的值不会丢失：
+在以下两条语句执行后，变量 carname 的值依然是 "Volvo"：
+var carname="Volvo";
+var carname;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript 算数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您可以通过 JavaScript 变量来做算数，使用的是 = 和 + 这类运算符：
+y=5;
+x=y+2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript 拥有动态类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript 拥有动态类型
+var x                // x 为 undefined
+var x = 6;           // x 为数字
+var x = "Bill";      // x 为字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript 字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串是存储字符（比如 "Bill Gates"）的变量。
+字符串可以是引号中的任意文本。您可以使用单引号或双引号：
+var carname="Bill Gates";
+var carname='Bill Gates';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在字符串中使用引号，只要不匹配包围字符串的引号即可(单引号内不能用单引号，双引号内不能用双引号)：
+实例
+var answer="Nice to meet you!";
+var answer="He is called 'Bill'";
+var answer='He is called "Bill"';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript 数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字可以带小数点，也可以不带：
+var x1=34.00;      //使用小数点来写
+var x2=34;         //不使用小数点来写
+极大或极小的数字可以通过科学（指数）计数法来书写：
+var y=123e5;      // 12300000
+var z=123e-5;     // 0.00123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript 布尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔（逻辑）只能有两个值：true 或 false。
+var x=true
+var y=false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔常用在条件测试中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript 数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下面的代码创建名为 cars 的数组：
+var cars=new Array();
+cars[0]="Audi";
+cars[1]="BMW";
+cars[2]="Volvo";
+或者 (condensed array):
+var cars=new Array("Audi","BMW","Volvo");
+或者 (literal array):
+var cars=["Audi","BMW","Volvo"];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组下标是基于零的，所以第一个项目是 [0]，第二个是 [1]，以此类推。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript 对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象由花括号分隔。在括号内部，对象的属性以名称和值对的形式 (name : value) 来定义。属性由逗号分隔：
+var person={firstname:"Bill", lastname:"Gates", id:5566};</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象属性有两种寻址方式：
+实例
+name=person.lastname;
+name=person["lastname"];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Undefined 和 Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Undefined 这个值表示变量不含有值。
+可以通过将变量的值设置为 null 来清空变量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声明变量类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当您声明新变量时，可以使用关键词 "new" 来声明其类型：
+var carname=new String;
+var x=      new Number;
+var y=      new Boolean;
+var cars=   new Array;
+var person= new Object;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS运算符</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3279,7 +3618,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3394,6 +3733,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3502,6 +3844,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4242,7 +4587,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>576</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -4256,7 +4601,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="50"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="21" t="s">
         <v>570</v>
       </c>
@@ -4265,7 +4610,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="50"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="21" t="s">
         <v>572</v>
       </c>
@@ -4274,13 +4619,13 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="50"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="21" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="50"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
@@ -4289,7 +4634,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="50"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="21" t="s">
         <v>575</v>
       </c>
@@ -4298,7 +4643,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="50"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="21" t="s">
         <v>31</v>
       </c>
@@ -4317,7 +4662,7 @@
       <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="50"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="21" t="s">
         <v>59</v>
       </c>
@@ -4326,7 +4671,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="50"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="21" t="s">
         <v>62</v>
       </c>
@@ -4335,7 +4680,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="322.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="53" t="s">
         <v>600</v>
       </c>
       <c r="B11" s="21" t="s">
@@ -4355,7 +4700,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="52"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="21" t="s">
         <v>571</v>
       </c>
@@ -4364,11 +4709,11 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="52"/>
-      <c r="B13" s="47" t="s">
+      <c r="A13" s="53"/>
+      <c r="B13" s="48" t="s">
         <v>581</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="49" t="s">
         <v>582</v>
       </c>
       <c r="D13" t="s">
@@ -4382,10 +4727,10 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="52"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="47" t="s">
+      <c r="A14" s="53"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="48" t="s">
         <v>558</v>
       </c>
       <c r="E14" t="s">
@@ -4393,43 +4738,43 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="52"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="47"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="48"/>
       <c r="E15" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="52"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="47"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="48"/>
       <c r="E16" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="52"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="47"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="48"/>
       <c r="E17" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="52"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="47"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="48"/>
       <c r="E18" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="52"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="21" t="s">
         <v>573</v>
       </c>
@@ -4444,7 +4789,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A20" s="52"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="21" t="s">
         <v>592</v>
       </c>
@@ -4456,11 +4801,11 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="52"/>
-      <c r="B21" s="47" t="s">
+      <c r="A21" s="53"/>
+      <c r="B21" s="48" t="s">
         <v>594</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="52" t="s">
         <v>599</v>
       </c>
       <c r="D21" t="s">
@@ -4468,9 +4813,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="52"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="51"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="30" t="s">
         <v>597</v>
       </c>
@@ -4482,10 +4827,10 @@
       <c r="A23" t="s">
         <v>601</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="48" t="s">
         <v>602</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="49" t="s">
         <v>629</v>
       </c>
       <c r="D23" t="s">
@@ -4499,8 +4844,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="47"/>
-      <c r="C24" s="48"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="49"/>
       <c r="D24" t="s">
         <v>630</v>
       </c>
@@ -4512,8 +4857,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="47"/>
-      <c r="C25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="49"/>
       <c r="D25" t="s">
         <v>635</v>
       </c>
@@ -4525,15 +4870,15 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="47"/>
-      <c r="C26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
       <c r="E26" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
       <c r="D27" t="s">
         <v>639</v>
       </c>
@@ -4545,8 +4890,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="47"/>
-      <c r="C28" s="48"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="49"/>
       <c r="D28" t="s">
         <v>642</v>
       </c>
@@ -4558,15 +4903,15 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="47"/>
-      <c r="C29" s="48"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="49"/>
       <c r="E29" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="47"/>
-      <c r="C30" s="48"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="49"/>
       <c r="D30" t="s">
         <v>646</v>
       </c>
@@ -4578,8 +4923,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="47"/>
-      <c r="C31" s="48"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="49"/>
       <c r="D31" t="s">
         <v>649</v>
       </c>
@@ -4591,8 +4936,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="47"/>
-      <c r="C32" s="48"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="49"/>
       <c r="D32" t="s">
         <v>558</v>
       </c>
@@ -4604,29 +4949,29 @@
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B33" s="47"/>
-      <c r="C33" s="48"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="49"/>
       <c r="E33" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B34" s="47"/>
-      <c r="C34" s="48"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="49"/>
       <c r="E34" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B35" s="47"/>
-      <c r="C35" s="48"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="49"/>
       <c r="E35" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B36" s="47"/>
-      <c r="C36" s="48"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="49"/>
       <c r="E36" t="s">
         <v>590</v>
       </c>
@@ -5010,7 +5355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N310"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C126" sqref="C126:C127"/>
     </sheetView>
@@ -5036,7 +5381,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -5048,7 +5393,7 @@
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="68"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="19" t="s">
         <v>208</v>
       </c>
@@ -5060,7 +5405,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="68"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="19" t="s">
         <v>211</v>
       </c>
@@ -5069,7 +5414,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="68"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="19" t="s">
         <v>213</v>
       </c>
@@ -5081,11 +5426,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="68"/>
-      <c r="B6" s="47" t="s">
+      <c r="A6" s="69"/>
+      <c r="B6" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="49" t="s">
         <v>217</v>
       </c>
       <c r="D6" t="s">
@@ -5096,9 +5441,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="68"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
       <c r="D7" t="s">
         <v>220</v>
       </c>
@@ -5107,9 +5452,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="68"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
       <c r="D8" t="s">
         <v>222</v>
       </c>
@@ -5118,9 +5463,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="68"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49"/>
       <c r="D9" t="s">
         <v>224</v>
       </c>
@@ -5129,9 +5474,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="68"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="48"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
       <c r="D10" t="s">
         <v>226</v>
       </c>
@@ -5140,9 +5485,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="68"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="49"/>
       <c r="D11" t="s">
         <v>228</v>
       </c>
@@ -5151,7 +5496,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="68"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="19" t="s">
         <v>230</v>
       </c>
@@ -5163,7 +5508,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="68"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="19" t="s">
         <v>233</v>
       </c>
@@ -5175,11 +5520,11 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="68"/>
-      <c r="B14" s="47" t="s">
+      <c r="A14" s="69"/>
+      <c r="B14" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="49" t="s">
         <v>237</v>
       </c>
       <c r="D14" t="s">
@@ -5190,9 +5535,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="68"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="48"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49"/>
       <c r="D15" t="s">
         <v>240</v>
       </c>
@@ -5201,11 +5546,11 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="68"/>
-      <c r="B16" s="47" t="s">
+      <c r="A16" s="69"/>
+      <c r="B16" s="48" t="s">
         <v>242</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="49" t="s">
         <v>250</v>
       </c>
       <c r="D16" t="s">
@@ -5216,9 +5561,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="68"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
       <c r="D17" t="s">
         <v>244</v>
       </c>
@@ -5227,9 +5572,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="68"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="48"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
       <c r="D18" t="s">
         <v>246</v>
       </c>
@@ -5238,9 +5583,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="68"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="48"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="49"/>
       <c r="D19" t="s">
         <v>248</v>
       </c>
@@ -5249,11 +5594,11 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="68"/>
-      <c r="B20" s="47" t="s">
+      <c r="A20" s="69"/>
+      <c r="B20" s="48" t="s">
         <v>252</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="49" t="s">
         <v>251</v>
       </c>
       <c r="D20" t="s">
@@ -5267,9 +5612,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="68"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="48"/>
+      <c r="A21" s="69"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="49"/>
       <c r="D21" t="s">
         <v>255</v>
       </c>
@@ -5278,7 +5623,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="70" t="s">
         <v>67</v>
       </c>
       <c r="B22" s="19" t="s">
@@ -5289,7 +5634,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="69"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="19" t="s">
         <v>70</v>
       </c>
@@ -5307,7 +5652,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="69"/>
+      <c r="A24" s="70"/>
       <c r="D24" t="s">
         <v>73</v>
       </c>
@@ -5316,7 +5661,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="69"/>
+      <c r="A25" s="70"/>
       <c r="D25" t="s">
         <v>74</v>
       </c>
@@ -5325,7 +5670,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="69"/>
+      <c r="A26" s="70"/>
       <c r="B26" s="19" t="s">
         <v>79</v>
       </c>
@@ -5340,19 +5685,19 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="69"/>
+      <c r="A27" s="70"/>
       <c r="D27" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="69"/>
+      <c r="A28" s="70"/>
       <c r="D28" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="69"/>
+      <c r="A29" s="70"/>
       <c r="D29" t="s">
         <v>84</v>
       </c>
@@ -5361,7 +5706,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="69"/>
+      <c r="A30" s="70"/>
       <c r="B30" s="19" t="s">
         <v>87</v>
       </c>
@@ -5373,7 +5718,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A31" s="69"/>
+      <c r="A31" s="70"/>
       <c r="B31" s="19" t="s">
         <v>90</v>
       </c>
@@ -5388,7 +5733,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="69"/>
+      <c r="A32" s="70"/>
       <c r="D32" t="s">
         <v>93</v>
       </c>
@@ -5397,7 +5742,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A33" s="69"/>
+      <c r="A33" s="70"/>
       <c r="B33" s="19" t="s">
         <v>96</v>
       </c>
@@ -5415,19 +5760,19 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A34" s="69"/>
+      <c r="A34" s="70"/>
       <c r="D34" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="69"/>
+      <c r="A35" s="70"/>
       <c r="D35" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A36" s="69"/>
+      <c r="A36" s="70"/>
       <c r="D36" t="s">
         <v>101</v>
       </c>
@@ -5436,7 +5781,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A37" s="69"/>
+      <c r="A37" s="70"/>
       <c r="B37" s="19" t="s">
         <v>105</v>
       </c>
@@ -5458,7 +5803,7 @@
       <c r="L37" s="6"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A38" s="69"/>
+      <c r="A38" s="70"/>
       <c r="D38" t="s">
         <v>108</v>
       </c>
@@ -5472,7 +5817,7 @@
       <c r="L38" s="6"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A39" s="69"/>
+      <c r="A39" s="70"/>
       <c r="D39" t="s">
         <v>109</v>
       </c>
@@ -5486,7 +5831,7 @@
       <c r="L39" s="6"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="69"/>
+      <c r="A40" s="70"/>
       <c r="B40" s="19" t="s">
         <v>113</v>
       </c>
@@ -5506,7 +5851,7 @@
       <c r="L40" s="6"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A41" s="69"/>
+      <c r="A41" s="70"/>
       <c r="D41" t="s">
         <v>108</v>
       </c>
@@ -5520,7 +5865,7 @@
       <c r="L41" s="6"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A42" s="69"/>
+      <c r="A42" s="70"/>
       <c r="D42" t="s">
         <v>109</v>
       </c>
@@ -5534,7 +5879,7 @@
       <c r="L42" s="6"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A43" s="69"/>
+      <c r="A43" s="70"/>
       <c r="B43" s="19" t="s">
         <v>119</v>
       </c>
@@ -5546,13 +5891,13 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A44" s="69"/>
+      <c r="A44" s="70"/>
       <c r="D44" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A45" s="69"/>
+      <c r="A45" s="70"/>
       <c r="D45" t="s">
         <v>123</v>
       </c>
@@ -5561,7 +5906,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A46" s="69"/>
+      <c r="A46" s="70"/>
       <c r="D46" t="s">
         <v>124</v>
       </c>
@@ -5570,25 +5915,25 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A47" s="70" t="s">
+      <c r="A47" s="71" t="s">
         <v>130</v>
       </c>
       <c r="B47" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C47" s="48" t="s">
+      <c r="C47" s="49" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A48" s="70"/>
+      <c r="A48" s="71"/>
       <c r="B48" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="C48" s="48"/>
+      <c r="C48" s="49"/>
     </row>
     <row r="49" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="70"/>
+      <c r="A49" s="71"/>
       <c r="B49" s="19" t="s">
         <v>133</v>
       </c>
@@ -5600,11 +5945,11 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="70"/>
-      <c r="B50" s="47" t="s">
+      <c r="A50" s="71"/>
+      <c r="B50" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="C50" s="48" t="s">
+      <c r="C50" s="49" t="s">
         <v>137</v>
       </c>
       <c r="D50" t="s">
@@ -5615,9 +5960,9 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="70"/>
-      <c r="B51" s="47"/>
-      <c r="C51" s="48"/>
+      <c r="A51" s="71"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="49"/>
       <c r="D51" t="s">
         <v>142</v>
       </c>
@@ -5626,9 +5971,9 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="70"/>
-      <c r="B52" s="47"/>
-      <c r="C52" s="48"/>
+      <c r="A52" s="71"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="49"/>
       <c r="D52" t="s">
         <v>144</v>
       </c>
@@ -5637,9 +5982,9 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="70"/>
-      <c r="B53" s="47"/>
-      <c r="C53" s="48"/>
+      <c r="A53" s="71"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="49"/>
       <c r="D53" t="s">
         <v>146</v>
       </c>
@@ -5648,9 +5993,9 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="70"/>
-      <c r="B54" s="47"/>
-      <c r="C54" s="48"/>
+      <c r="A54" s="71"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="49"/>
       <c r="D54" t="s">
         <v>148</v>
       </c>
@@ -5659,9 +6004,9 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="70"/>
-      <c r="B55" s="47"/>
-      <c r="C55" s="48"/>
+      <c r="A55" s="71"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="49"/>
       <c r="D55" t="s">
         <v>150</v>
       </c>
@@ -5670,9 +6015,9 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="70"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="48"/>
+      <c r="A56" s="71"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="49"/>
       <c r="D56" t="s">
         <v>152</v>
       </c>
@@ -5681,9 +6026,9 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="70"/>
-      <c r="B57" s="47"/>
-      <c r="C57" s="48"/>
+      <c r="A57" s="71"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="49"/>
       <c r="D57" t="s">
         <v>154</v>
       </c>
@@ -5692,9 +6037,9 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="70"/>
-      <c r="B58" s="47"/>
-      <c r="C58" s="48"/>
+      <c r="A58" s="71"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="49"/>
       <c r="D58" t="s">
         <v>156</v>
       </c>
@@ -5703,9 +6048,9 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="70"/>
-      <c r="B59" s="47"/>
-      <c r="C59" s="48"/>
+      <c r="A59" s="71"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="49"/>
       <c r="D59" t="s">
         <v>158</v>
       </c>
@@ -5714,9 +6059,9 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="70"/>
-      <c r="B60" s="47"/>
-      <c r="C60" s="48"/>
+      <c r="A60" s="71"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="49"/>
       <c r="D60" t="s">
         <v>160</v>
       </c>
@@ -5725,7 +6070,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="70"/>
+      <c r="A61" s="71"/>
       <c r="B61" s="19" t="s">
         <v>135</v>
       </c>
@@ -5734,7 +6079,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A62" s="70"/>
+      <c r="A62" s="71"/>
       <c r="B62" s="35" t="s">
         <v>162</v>
       </c>
@@ -5746,7 +6091,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="70"/>
+      <c r="A63" s="71"/>
       <c r="B63" s="19" t="s">
         <v>166</v>
       </c>
@@ -5755,7 +6100,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="70"/>
+      <c r="A64" s="71"/>
       <c r="B64" s="19" t="s">
         <v>167</v>
       </c>
@@ -5767,7 +6112,7 @@
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A65" s="70"/>
+      <c r="A65" s="71"/>
       <c r="B65" s="19" t="s">
         <v>168</v>
       </c>
@@ -5785,11 +6130,11 @@
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A66" s="70"/>
-      <c r="B66" s="47" t="s">
+      <c r="A66" s="71"/>
+      <c r="B66" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="C66" s="48" t="s">
+      <c r="C66" s="49" t="s">
         <v>173</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -5798,39 +6143,39 @@
       <c r="E66" t="s">
         <v>176</v>
       </c>
-      <c r="F66" s="71" t="s">
+      <c r="F66" s="72" t="s">
         <v>182</v>
       </c>
-      <c r="G66" s="71"/>
+      <c r="G66" s="72"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A67" s="70"/>
-      <c r="B67" s="47"/>
-      <c r="C67" s="48"/>
+      <c r="A67" s="71"/>
+      <c r="B67" s="48"/>
+      <c r="C67" s="49"/>
       <c r="D67" s="1" t="s">
         <v>180</v>
       </c>
       <c r="E67" t="s">
         <v>179</v>
       </c>
-      <c r="F67" s="71"/>
-      <c r="G67" s="71"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="72"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A68" s="70"/>
-      <c r="B68" s="47"/>
-      <c r="C68" s="48"/>
+      <c r="A68" s="71"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="49"/>
       <c r="D68" s="1" t="s">
         <v>177</v>
       </c>
       <c r="E68" t="s">
         <v>178</v>
       </c>
-      <c r="F68" s="71"/>
-      <c r="G68" s="71"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="72"/>
     </row>
     <row r="69" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A69" s="70"/>
+      <c r="A69" s="71"/>
       <c r="B69" s="19" t="s">
         <v>170</v>
       </c>
@@ -5845,7 +6190,7 @@
       </c>
     </row>
     <row r="70" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A70" s="70"/>
+      <c r="A70" s="71"/>
       <c r="B70" s="19" t="s">
         <v>171</v>
       </c>
@@ -5854,11 +6199,11 @@
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A71" s="70"/>
-      <c r="B71" s="47" t="s">
+      <c r="A71" s="71"/>
+      <c r="B71" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="C71" s="48" t="s">
+      <c r="C71" s="49" t="s">
         <v>192</v>
       </c>
       <c r="D71" t="s">
@@ -5872,9 +6217,9 @@
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A72" s="70"/>
-      <c r="B72" s="47"/>
-      <c r="C72" s="48"/>
+      <c r="A72" s="71"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="49"/>
       <c r="D72" t="s">
         <v>195</v>
       </c>
@@ -5883,9 +6228,9 @@
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A73" s="70"/>
-      <c r="B73" s="47"/>
-      <c r="C73" s="48"/>
+      <c r="A73" s="71"/>
+      <c r="B73" s="48"/>
+      <c r="C73" s="49"/>
       <c r="D73" t="s">
         <v>197</v>
       </c>
@@ -5894,9 +6239,9 @@
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A74" s="70"/>
-      <c r="B74" s="47"/>
-      <c r="C74" s="48"/>
+      <c r="A74" s="71"/>
+      <c r="B74" s="48"/>
+      <c r="C74" s="49"/>
       <c r="D74" t="s">
         <v>199</v>
       </c>
@@ -5905,9 +6250,9 @@
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A75" s="70"/>
-      <c r="B75" s="47"/>
-      <c r="C75" s="48"/>
+      <c r="A75" s="71"/>
+      <c r="B75" s="48"/>
+      <c r="C75" s="49"/>
       <c r="D75" t="s">
         <v>201</v>
       </c>
@@ -5916,9 +6261,9 @@
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A76" s="70"/>
-      <c r="B76" s="47"/>
-      <c r="C76" s="48"/>
+      <c r="A76" s="71"/>
+      <c r="B76" s="48"/>
+      <c r="C76" s="49"/>
       <c r="D76" t="s">
         <v>156</v>
       </c>
@@ -5927,11 +6272,11 @@
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A77" s="70"/>
-      <c r="B77" s="47" t="s">
+      <c r="A77" s="71"/>
+      <c r="B77" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="C77" s="48" t="s">
+      <c r="C77" s="49" t="s">
         <v>258</v>
       </c>
       <c r="D77" t="s">
@@ -5950,9 +6295,9 @@
       <c r="N77" s="6"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A78" s="70"/>
-      <c r="B78" s="47"/>
-      <c r="C78" s="48"/>
+      <c r="A78" s="71"/>
+      <c r="B78" s="48"/>
+      <c r="C78" s="49"/>
       <c r="D78" t="s">
         <v>260</v>
       </c>
@@ -5961,11 +6306,11 @@
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A79" s="70"/>
-      <c r="B79" s="47" t="s">
+      <c r="A79" s="71"/>
+      <c r="B79" s="48" t="s">
         <v>264</v>
       </c>
-      <c r="C79" s="48" t="s">
+      <c r="C79" s="49" t="s">
         <v>265</v>
       </c>
       <c r="D79" t="s">
@@ -5973,29 +6318,29 @@
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A80" s="70"/>
-      <c r="B80" s="47"/>
-      <c r="C80" s="48"/>
+      <c r="A80" s="71"/>
+      <c r="B80" s="48"/>
+      <c r="C80" s="49"/>
       <c r="D80" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A81" s="70"/>
-      <c r="B81" s="47"/>
-      <c r="C81" s="48"/>
+      <c r="A81" s="71"/>
+      <c r="B81" s="48"/>
+      <c r="C81" s="49"/>
       <c r="D81" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A82" s="58" t="s">
+      <c r="A82" s="59" t="s">
         <v>269</v>
       </c>
-      <c r="B82" s="47" t="s">
+      <c r="B82" s="48" t="s">
         <v>270</v>
       </c>
-      <c r="C82" s="48" t="s">
+      <c r="C82" s="49" t="s">
         <v>282</v>
       </c>
       <c r="D82" t="s">
@@ -6006,9 +6351,9 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A83" s="58"/>
-      <c r="B83" s="47"/>
-      <c r="C83" s="48"/>
+      <c r="A83" s="59"/>
+      <c r="B83" s="48"/>
+      <c r="C83" s="49"/>
       <c r="D83" t="s">
         <v>142</v>
       </c>
@@ -6017,9 +6362,9 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A84" s="58"/>
-      <c r="B84" s="47"/>
-      <c r="C84" s="48"/>
+      <c r="A84" s="59"/>
+      <c r="B84" s="48"/>
+      <c r="C84" s="49"/>
       <c r="D84" t="s">
         <v>273</v>
       </c>
@@ -6031,9 +6376,9 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A85" s="58"/>
-      <c r="B85" s="47"/>
-      <c r="C85" s="48"/>
+      <c r="A85" s="59"/>
+      <c r="B85" s="48"/>
+      <c r="C85" s="49"/>
       <c r="D85" t="s">
         <v>275</v>
       </c>
@@ -6042,9 +6387,9 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A86" s="58"/>
-      <c r="B86" s="47"/>
-      <c r="C86" s="48"/>
+      <c r="A86" s="59"/>
+      <c r="B86" s="48"/>
+      <c r="C86" s="49"/>
       <c r="D86" s="10" t="s">
         <v>277</v>
       </c>
@@ -6053,9 +6398,9 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A87" s="58"/>
-      <c r="B87" s="47"/>
-      <c r="C87" s="48"/>
+      <c r="A87" s="59"/>
+      <c r="B87" s="48"/>
+      <c r="C87" s="49"/>
       <c r="D87" s="11" t="s">
         <v>279</v>
       </c>
@@ -6064,13 +6409,13 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A88" s="59" t="s">
+      <c r="A88" s="60" t="s">
         <v>284</v>
       </c>
-      <c r="B88" s="47" t="s">
+      <c r="B88" s="48" t="s">
         <v>285</v>
       </c>
-      <c r="C88" s="48" t="s">
+      <c r="C88" s="49" t="s">
         <v>286</v>
       </c>
       <c r="D88" t="s">
@@ -6084,9 +6429,9 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A89" s="60"/>
-      <c r="B89" s="47"/>
-      <c r="C89" s="48"/>
+      <c r="A89" s="61"/>
+      <c r="B89" s="48"/>
+      <c r="C89" s="49"/>
       <c r="D89" t="s">
         <v>288</v>
       </c>
@@ -6095,9 +6440,9 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A90" s="60"/>
-      <c r="B90" s="47"/>
-      <c r="C90" s="48"/>
+      <c r="A90" s="61"/>
+      <c r="B90" s="48"/>
+      <c r="C90" s="49"/>
       <c r="D90" t="s">
         <v>290</v>
       </c>
@@ -6106,9 +6451,9 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A91" s="60"/>
-      <c r="B91" s="47"/>
-      <c r="C91" s="48"/>
+      <c r="A91" s="61"/>
+      <c r="B91" s="48"/>
+      <c r="C91" s="49"/>
       <c r="D91" t="s">
         <v>160</v>
       </c>
@@ -6117,11 +6462,11 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A92" s="60"/>
-      <c r="B92" s="47" t="s">
+      <c r="A92" s="61"/>
+      <c r="B92" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="C92" s="48" t="s">
+      <c r="C92" s="49" t="s">
         <v>294</v>
       </c>
       <c r="D92" t="s">
@@ -6135,9 +6480,9 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A93" s="60"/>
-      <c r="B93" s="47"/>
-      <c r="C93" s="48"/>
+      <c r="A93" s="61"/>
+      <c r="B93" s="48"/>
+      <c r="C93" s="49"/>
       <c r="D93" t="s">
         <v>288</v>
       </c>
@@ -6146,9 +6491,9 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A94" s="60"/>
-      <c r="B94" s="47"/>
-      <c r="C94" s="48"/>
+      <c r="A94" s="61"/>
+      <c r="B94" s="48"/>
+      <c r="C94" s="49"/>
       <c r="D94" t="s">
         <v>290</v>
       </c>
@@ -6157,9 +6502,9 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A95" s="60"/>
-      <c r="B95" s="47"/>
-      <c r="C95" s="48"/>
+      <c r="A95" s="61"/>
+      <c r="B95" s="48"/>
+      <c r="C95" s="49"/>
       <c r="D95" t="s">
         <v>160</v>
       </c>
@@ -6168,7 +6513,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A96" s="60"/>
+      <c r="A96" s="61"/>
       <c r="B96" s="19" t="s">
         <v>301</v>
       </c>
@@ -6181,10 +6526,10 @@
     </row>
     <row r="97" spans="1:5" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A97" s="34"/>
-      <c r="B97" s="72" t="s">
+      <c r="B97" s="73" t="s">
         <v>665</v>
       </c>
-      <c r="C97" s="51" t="s">
+      <c r="C97" s="52" t="s">
         <v>668</v>
       </c>
       <c r="D97" t="s">
@@ -6196,8 +6541,8 @@
     </row>
     <row r="98" spans="1:5" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A98" s="34"/>
-      <c r="B98" s="72"/>
-      <c r="C98" s="51"/>
+      <c r="B98" s="73"/>
+      <c r="C98" s="52"/>
       <c r="D98" t="s">
         <v>667</v>
       </c>
@@ -6206,7 +6551,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A99" s="50" t="s">
+      <c r="A99" s="51" t="s">
         <v>321</v>
       </c>
       <c r="B99" s="18" t="s">
@@ -6217,7 +6562,7 @@
       </c>
     </row>
     <row r="100" spans="1:5" s="12" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A100" s="50"/>
+      <c r="A100" s="51"/>
       <c r="B100" s="18" t="s">
         <v>324</v>
       </c>
@@ -6229,7 +6574,7 @@
       </c>
     </row>
     <row r="101" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="50"/>
+      <c r="A101" s="51"/>
       <c r="B101" s="18" t="s">
         <v>326</v>
       </c>
@@ -6238,7 +6583,7 @@
       </c>
     </row>
     <row r="102" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="50"/>
+      <c r="A102" s="51"/>
       <c r="B102" s="18" t="s">
         <v>328</v>
       </c>
@@ -6253,7 +6598,7 @@
       </c>
     </row>
     <row r="103" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="50"/>
+      <c r="A103" s="51"/>
       <c r="B103" s="18"/>
       <c r="C103" s="20"/>
       <c r="D103" s="12" t="s">
@@ -6264,7 +6609,7 @@
       </c>
     </row>
     <row r="104" spans="1:5" s="12" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="50"/>
+      <c r="A104" s="51"/>
       <c r="B104" s="18" t="s">
         <v>330</v>
       </c>
@@ -6279,11 +6624,11 @@
       </c>
     </row>
     <row r="105" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="50"/>
-      <c r="B105" s="54" t="s">
+      <c r="A105" s="51"/>
+      <c r="B105" s="55" t="s">
         <v>332</v>
       </c>
-      <c r="C105" s="55" t="s">
+      <c r="C105" s="56" t="s">
         <v>333</v>
       </c>
       <c r="D105" s="12" t="s">
@@ -6294,9 +6639,9 @@
       </c>
     </row>
     <row r="106" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="50"/>
-      <c r="B106" s="54"/>
-      <c r="C106" s="55"/>
+      <c r="A106" s="51"/>
+      <c r="B106" s="55"/>
+      <c r="C106" s="56"/>
       <c r="D106" s="12" t="s">
         <v>342</v>
       </c>
@@ -6305,9 +6650,9 @@
       </c>
     </row>
     <row r="107" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="50"/>
-      <c r="B107" s="54"/>
-      <c r="C107" s="55"/>
+      <c r="A107" s="51"/>
+      <c r="B107" s="55"/>
+      <c r="C107" s="56"/>
       <c r="D107" s="12" t="s">
         <v>344</v>
       </c>
@@ -6316,9 +6661,9 @@
       </c>
     </row>
     <row r="108" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="50"/>
-      <c r="B108" s="54"/>
-      <c r="C108" s="55"/>
+      <c r="A108" s="51"/>
+      <c r="B108" s="55"/>
+      <c r="C108" s="56"/>
       <c r="D108" s="12" t="s">
         <v>346</v>
       </c>
@@ -6327,9 +6672,9 @@
       </c>
     </row>
     <row r="109" spans="1:5" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="50"/>
-      <c r="B109" s="54"/>
-      <c r="C109" s="55"/>
+      <c r="A109" s="51"/>
+      <c r="B109" s="55"/>
+      <c r="C109" s="56"/>
       <c r="D109" s="14" t="s">
         <v>349</v>
       </c>
@@ -6338,7 +6683,7 @@
       </c>
     </row>
     <row r="110" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="53" t="s">
+      <c r="A110" s="54" t="s">
         <v>458</v>
       </c>
       <c r="B110" s="33" t="s">
@@ -6349,11 +6694,11 @@
       </c>
     </row>
     <row r="111" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="53"/>
-      <c r="B111" s="54" t="s">
+      <c r="A111" s="54"/>
+      <c r="B111" s="55" t="s">
         <v>460</v>
       </c>
-      <c r="C111" s="55" t="s">
+      <c r="C111" s="56" t="s">
         <v>461</v>
       </c>
       <c r="D111" s="12" t="s">
@@ -6364,9 +6709,9 @@
       </c>
     </row>
     <row r="112" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="53"/>
-      <c r="B112" s="54"/>
-      <c r="C112" s="55"/>
+      <c r="A112" s="54"/>
+      <c r="B112" s="55"/>
+      <c r="C112" s="56"/>
       <c r="D112" s="12" t="s">
         <v>497</v>
       </c>
@@ -6375,7 +6720,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="53"/>
+      <c r="A113" s="54"/>
       <c r="B113" s="33" t="s">
         <v>462</v>
       </c>
@@ -6387,11 +6732,11 @@
       </c>
     </row>
     <row r="114" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="53"/>
-      <c r="B114" s="54" t="s">
+      <c r="A114" s="54"/>
+      <c r="B114" s="55" t="s">
         <v>464</v>
       </c>
-      <c r="C114" s="55" t="s">
+      <c r="C114" s="56" t="s">
         <v>503</v>
       </c>
       <c r="D114" s="12" t="s">
@@ -6402,9 +6747,9 @@
       </c>
     </row>
     <row r="115" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="53"/>
-      <c r="B115" s="54"/>
-      <c r="C115" s="55"/>
+      <c r="A115" s="54"/>
+      <c r="B115" s="55"/>
+      <c r="C115" s="56"/>
       <c r="D115" s="12" t="s">
         <v>288</v>
       </c>
@@ -6413,9 +6758,9 @@
       </c>
     </row>
     <row r="116" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="53"/>
-      <c r="B116" s="54"/>
-      <c r="C116" s="55"/>
+      <c r="A116" s="54"/>
+      <c r="B116" s="55"/>
+      <c r="C116" s="56"/>
       <c r="D116" s="12" t="s">
         <v>290</v>
       </c>
@@ -6424,11 +6769,11 @@
       </c>
     </row>
     <row r="117" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="53"/>
-      <c r="B117" s="54" t="s">
+      <c r="A117" s="54"/>
+      <c r="B117" s="55" t="s">
         <v>465</v>
       </c>
-      <c r="C117" s="55" t="s">
+      <c r="C117" s="56" t="s">
         <v>466</v>
       </c>
       <c r="D117" s="12" t="s">
@@ -6439,9 +6784,9 @@
       </c>
     </row>
     <row r="118" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="53"/>
-      <c r="B118" s="54"/>
-      <c r="C118" s="55"/>
+      <c r="A118" s="54"/>
+      <c r="B118" s="55"/>
+      <c r="C118" s="56"/>
       <c r="D118" s="12" t="s">
         <v>398</v>
       </c>
@@ -6450,9 +6795,9 @@
       </c>
     </row>
     <row r="119" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="53"/>
-      <c r="B119" s="54"/>
-      <c r="C119" s="55"/>
+      <c r="A119" s="54"/>
+      <c r="B119" s="55"/>
+      <c r="C119" s="56"/>
       <c r="D119" s="12" t="s">
         <v>506</v>
       </c>
@@ -6461,9 +6806,9 @@
       </c>
     </row>
     <row r="120" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="53"/>
-      <c r="B120" s="54"/>
-      <c r="C120" s="55"/>
+      <c r="A120" s="54"/>
+      <c r="B120" s="55"/>
+      <c r="C120" s="56"/>
       <c r="D120" s="12" t="s">
         <v>508</v>
       </c>
@@ -6472,11 +6817,11 @@
       </c>
     </row>
     <row r="121" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="53"/>
-      <c r="B121" s="54" t="s">
+      <c r="A121" s="54"/>
+      <c r="B121" s="55" t="s">
         <v>467</v>
       </c>
-      <c r="C121" s="55" t="s">
+      <c r="C121" s="56" t="s">
         <v>468</v>
       </c>
       <c r="D121" s="12" t="s">
@@ -6487,9 +6832,9 @@
       </c>
     </row>
     <row r="122" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="53"/>
-      <c r="B122" s="54"/>
-      <c r="C122" s="55"/>
+      <c r="A122" s="54"/>
+      <c r="B122" s="55"/>
+      <c r="C122" s="56"/>
       <c r="D122" s="12" t="s">
         <v>510</v>
       </c>
@@ -6498,9 +6843,9 @@
       </c>
     </row>
     <row r="123" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="53"/>
-      <c r="B123" s="54"/>
-      <c r="C123" s="55"/>
+      <c r="A123" s="54"/>
+      <c r="B123" s="55"/>
+      <c r="C123" s="56"/>
       <c r="D123" s="12" t="s">
         <v>512</v>
       </c>
@@ -6509,9 +6854,9 @@
       </c>
     </row>
     <row r="124" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="53"/>
-      <c r="B124" s="54"/>
-      <c r="C124" s="55"/>
+      <c r="A124" s="54"/>
+      <c r="B124" s="55"/>
+      <c r="C124" s="56"/>
       <c r="D124" s="12" t="s">
         <v>514</v>
       </c>
@@ -6520,9 +6865,9 @@
       </c>
     </row>
     <row r="125" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="53"/>
-      <c r="B125" s="54"/>
-      <c r="C125" s="55"/>
+      <c r="A125" s="54"/>
+      <c r="B125" s="55"/>
+      <c r="C125" s="56"/>
       <c r="D125" s="12" t="s">
         <v>516</v>
       </c>
@@ -6531,11 +6876,11 @@
       </c>
     </row>
     <row r="126" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="53"/>
-      <c r="B126" s="54" t="s">
+      <c r="A126" s="54"/>
+      <c r="B126" s="55" t="s">
         <v>469</v>
       </c>
-      <c r="C126" s="55" t="s">
+      <c r="C126" s="56" t="s">
         <v>470</v>
       </c>
       <c r="D126" s="12" t="s">
@@ -6549,9 +6894,9 @@
       </c>
     </row>
     <row r="127" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="53"/>
-      <c r="B127" s="54"/>
-      <c r="C127" s="55"/>
+      <c r="A127" s="54"/>
+      <c r="B127" s="55"/>
+      <c r="C127" s="56"/>
       <c r="D127" s="12" t="s">
         <v>290</v>
       </c>
@@ -6560,11 +6905,11 @@
       </c>
     </row>
     <row r="128" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="53"/>
-      <c r="B128" s="54" t="s">
+      <c r="A128" s="54"/>
+      <c r="B128" s="55" t="s">
         <v>471</v>
       </c>
-      <c r="C128" s="55" t="s">
+      <c r="C128" s="56" t="s">
         <v>472</v>
       </c>
       <c r="D128" t="s">
@@ -6575,9 +6920,9 @@
       </c>
     </row>
     <row r="129" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="53"/>
-      <c r="B129" s="54"/>
-      <c r="C129" s="55"/>
+      <c r="A129" s="54"/>
+      <c r="B129" s="55"/>
+      <c r="C129" s="56"/>
       <c r="D129" t="s">
         <v>195</v>
       </c>
@@ -6586,9 +6931,9 @@
       </c>
     </row>
     <row r="130" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="53"/>
-      <c r="B130" s="54"/>
-      <c r="C130" s="55"/>
+      <c r="A130" s="54"/>
+      <c r="B130" s="55"/>
+      <c r="C130" s="56"/>
       <c r="D130" t="s">
         <v>197</v>
       </c>
@@ -6597,9 +6942,9 @@
       </c>
     </row>
     <row r="131" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="53"/>
-      <c r="B131" s="54"/>
-      <c r="C131" s="55"/>
+      <c r="A131" s="54"/>
+      <c r="B131" s="55"/>
+      <c r="C131" s="56"/>
       <c r="D131" t="s">
         <v>201</v>
       </c>
@@ -6608,11 +6953,11 @@
       </c>
     </row>
     <row r="132" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="53"/>
-      <c r="B132" s="54" t="s">
+      <c r="A132" s="54"/>
+      <c r="B132" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="C132" s="55" t="s">
+      <c r="C132" s="56" t="s">
         <v>474</v>
       </c>
       <c r="D132" s="12" t="s">
@@ -6623,9 +6968,9 @@
       </c>
     </row>
     <row r="133" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="53"/>
-      <c r="B133" s="54"/>
-      <c r="C133" s="55"/>
+      <c r="A133" s="54"/>
+      <c r="B133" s="55"/>
+      <c r="C133" s="56"/>
       <c r="D133" s="12" t="s">
         <v>522</v>
       </c>
@@ -6634,9 +6979,9 @@
       </c>
     </row>
     <row r="134" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="53"/>
-      <c r="B134" s="54"/>
-      <c r="C134" s="55"/>
+      <c r="A134" s="54"/>
+      <c r="B134" s="55"/>
+      <c r="C134" s="56"/>
       <c r="D134" s="12" t="s">
         <v>524</v>
       </c>
@@ -6645,9 +6990,9 @@
       </c>
     </row>
     <row r="135" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="53"/>
-      <c r="B135" s="54"/>
-      <c r="C135" s="55"/>
+      <c r="A135" s="54"/>
+      <c r="B135" s="55"/>
+      <c r="C135" s="56"/>
       <c r="D135" s="12" t="s">
         <v>526</v>
       </c>
@@ -6656,11 +7001,11 @@
       </c>
     </row>
     <row r="136" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="53"/>
-      <c r="B136" s="54" t="s">
+      <c r="A136" s="54"/>
+      <c r="B136" s="55" t="s">
         <v>475</v>
       </c>
-      <c r="C136" s="55" t="s">
+      <c r="C136" s="56" t="s">
         <v>476</v>
       </c>
       <c r="D136" s="12" t="s">
@@ -6671,9 +7016,9 @@
       </c>
     </row>
     <row r="137" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="53"/>
-      <c r="B137" s="54"/>
-      <c r="C137" s="55"/>
+      <c r="A137" s="54"/>
+      <c r="B137" s="55"/>
+      <c r="C137" s="56"/>
       <c r="D137" s="12" t="s">
         <v>529</v>
       </c>
@@ -6682,9 +7027,9 @@
       </c>
     </row>
     <row r="138" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="53"/>
-      <c r="B138" s="54"/>
-      <c r="C138" s="55"/>
+      <c r="A138" s="54"/>
+      <c r="B138" s="55"/>
+      <c r="C138" s="56"/>
       <c r="D138" s="12" t="s">
         <v>531</v>
       </c>
@@ -6693,9 +7038,9 @@
       </c>
     </row>
     <row r="139" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="53"/>
-      <c r="B139" s="54"/>
-      <c r="C139" s="55"/>
+      <c r="A139" s="54"/>
+      <c r="B139" s="55"/>
+      <c r="C139" s="56"/>
       <c r="D139" s="12" t="s">
         <v>533</v>
       </c>
@@ -6704,9 +7049,9 @@
       </c>
     </row>
     <row r="140" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="53"/>
-      <c r="B140" s="54"/>
-      <c r="C140" s="55"/>
+      <c r="A140" s="54"/>
+      <c r="B140" s="55"/>
+      <c r="C140" s="56"/>
       <c r="D140" s="12" t="s">
         <v>535</v>
       </c>
@@ -6715,7 +7060,7 @@
       </c>
     </row>
     <row r="141" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="53"/>
+      <c r="A141" s="54"/>
       <c r="B141" s="33" t="s">
         <v>477</v>
       </c>
@@ -6730,7 +7075,7 @@
       </c>
     </row>
     <row r="142" spans="1:5" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A142" s="53"/>
+      <c r="A142" s="54"/>
       <c r="B142" s="26" t="s">
         <v>479</v>
       </c>
@@ -6739,7 +7084,7 @@
       </c>
     </row>
     <row r="143" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="53"/>
+      <c r="A143" s="54"/>
       <c r="B143" s="26" t="s">
         <v>481</v>
       </c>
@@ -6748,7 +7093,7 @@
       </c>
     </row>
     <row r="144" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="53"/>
+      <c r="A144" s="54"/>
       <c r="B144" s="26" t="s">
         <v>482</v>
       </c>
@@ -6757,7 +7102,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="53"/>
+      <c r="A145" s="54"/>
       <c r="B145" s="27" t="s">
         <v>484</v>
       </c>
@@ -6766,7 +7111,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="53"/>
+      <c r="A146" s="54"/>
       <c r="B146" s="27" t="s">
         <v>486</v>
       </c>
@@ -6775,7 +7120,7 @@
       </c>
     </row>
     <row r="147" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="53"/>
+      <c r="A147" s="54"/>
       <c r="B147" s="27" t="s">
         <v>488</v>
       </c>
@@ -6784,11 +7129,11 @@
       </c>
     </row>
     <row r="148" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="53"/>
-      <c r="B148" s="54" t="s">
+      <c r="A148" s="54"/>
+      <c r="B148" s="55" t="s">
         <v>490</v>
       </c>
-      <c r="C148" s="55" t="s">
+      <c r="C148" s="56" t="s">
         <v>491</v>
       </c>
       <c r="D148" s="12" t="s">
@@ -6799,9 +7144,9 @@
       </c>
     </row>
     <row r="149" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="53"/>
-      <c r="B149" s="54"/>
-      <c r="C149" s="55"/>
+      <c r="A149" s="54"/>
+      <c r="B149" s="55"/>
+      <c r="C149" s="56"/>
       <c r="D149" s="12" t="s">
         <v>541</v>
       </c>
@@ -6810,9 +7155,9 @@
       </c>
     </row>
     <row r="150" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="53"/>
-      <c r="B150" s="54"/>
-      <c r="C150" s="55"/>
+      <c r="A150" s="54"/>
+      <c r="B150" s="55"/>
+      <c r="C150" s="56"/>
       <c r="D150" s="12" t="s">
         <v>543</v>
       </c>
@@ -6821,11 +7166,11 @@
       </c>
     </row>
     <row r="151" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="53"/>
-      <c r="B151" s="54" t="s">
+      <c r="A151" s="54"/>
+      <c r="B151" s="55" t="s">
         <v>492</v>
       </c>
-      <c r="C151" s="55" t="s">
+      <c r="C151" s="56" t="s">
         <v>493</v>
       </c>
       <c r="D151" s="12" t="s">
@@ -6836,9 +7181,9 @@
       </c>
     </row>
     <row r="152" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="53"/>
-      <c r="B152" s="54"/>
-      <c r="C152" s="55"/>
+      <c r="A152" s="54"/>
+      <c r="B152" s="55"/>
+      <c r="C152" s="56"/>
       <c r="D152" s="12" t="s">
         <v>140</v>
       </c>
@@ -6847,9 +7192,9 @@
       </c>
     </row>
     <row r="153" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="53"/>
-      <c r="B153" s="54"/>
-      <c r="C153" s="55"/>
+      <c r="A153" s="54"/>
+      <c r="B153" s="55"/>
+      <c r="C153" s="56"/>
       <c r="D153" s="12" t="s">
         <v>547</v>
       </c>
@@ -6858,9 +7203,9 @@
       </c>
     </row>
     <row r="154" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="53"/>
-      <c r="B154" s="54"/>
-      <c r="C154" s="55"/>
+      <c r="A154" s="54"/>
+      <c r="B154" s="55"/>
+      <c r="C154" s="56"/>
       <c r="D154" s="12" t="s">
         <v>549</v>
       </c>
@@ -6869,11 +7214,11 @@
       </c>
     </row>
     <row r="155" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="53"/>
-      <c r="B155" s="54" t="s">
+      <c r="A155" s="54"/>
+      <c r="B155" s="55" t="s">
         <v>494</v>
       </c>
-      <c r="C155" s="55" t="s">
+      <c r="C155" s="56" t="s">
         <v>551</v>
       </c>
       <c r="D155" s="12" t="s">
@@ -6884,9 +7229,9 @@
       </c>
     </row>
     <row r="156" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="53"/>
-      <c r="B156" s="54"/>
-      <c r="C156" s="55"/>
+      <c r="A156" s="54"/>
+      <c r="B156" s="55"/>
+      <c r="C156" s="56"/>
       <c r="D156" s="12" t="s">
         <v>553</v>
       </c>
@@ -6895,9 +7240,9 @@
       </c>
     </row>
     <row r="157" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="53"/>
-      <c r="B157" s="54"/>
-      <c r="C157" s="55"/>
+      <c r="A157" s="54"/>
+      <c r="B157" s="55"/>
+      <c r="C157" s="56"/>
       <c r="D157" s="12" t="s">
         <v>555</v>
       </c>
@@ -6906,7 +7251,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="63" t="s">
+      <c r="A158" s="64" t="s">
         <v>350</v>
       </c>
       <c r="B158" s="25" t="s">
@@ -6917,11 +7262,11 @@
       </c>
     </row>
     <row r="159" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="63"/>
-      <c r="B159" s="54" t="s">
+      <c r="A159" s="64"/>
+      <c r="B159" s="55" t="s">
         <v>353</v>
       </c>
-      <c r="C159" s="55" t="s">
+      <c r="C159" s="56" t="s">
         <v>354</v>
       </c>
       <c r="D159" s="12" t="s">
@@ -6932,19 +7277,19 @@
       </c>
     </row>
     <row r="160" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="63"/>
-      <c r="B160" s="54"/>
-      <c r="C160" s="55"/>
+      <c r="A160" s="64"/>
+      <c r="B160" s="55"/>
+      <c r="C160" s="56"/>
       <c r="D160" s="12" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="161" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="63"/>
-      <c r="B161" s="54" t="s">
+      <c r="A161" s="64"/>
+      <c r="B161" s="55" t="s">
         <v>355</v>
       </c>
-      <c r="C161" s="55" t="s">
+      <c r="C161" s="56" t="s">
         <v>356</v>
       </c>
       <c r="D161" s="12" t="s">
@@ -6952,19 +7297,19 @@
       </c>
     </row>
     <row r="162" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="63"/>
-      <c r="B162" s="54"/>
-      <c r="C162" s="55"/>
+      <c r="A162" s="64"/>
+      <c r="B162" s="55"/>
+      <c r="C162" s="56"/>
       <c r="D162" s="12" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="163" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="63"/>
-      <c r="B163" s="54" t="s">
+      <c r="A163" s="64"/>
+      <c r="B163" s="55" t="s">
         <v>357</v>
       </c>
-      <c r="C163" s="55" t="s">
+      <c r="C163" s="56" t="s">
         <v>371</v>
       </c>
       <c r="D163" s="12" t="s">
@@ -6978,9 +7323,9 @@
       </c>
     </row>
     <row r="164" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="63"/>
-      <c r="B164" s="54"/>
-      <c r="C164" s="55"/>
+      <c r="A164" s="64"/>
+      <c r="B164" s="55"/>
+      <c r="C164" s="56"/>
       <c r="D164" s="12" t="s">
         <v>363</v>
       </c>
@@ -6989,9 +7334,9 @@
       </c>
     </row>
     <row r="165" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="63"/>
-      <c r="B165" s="54"/>
-      <c r="C165" s="55"/>
+      <c r="A165" s="64"/>
+      <c r="B165" s="55"/>
+      <c r="C165" s="56"/>
       <c r="D165" s="12" t="s">
         <v>365</v>
       </c>
@@ -7000,9 +7345,9 @@
       </c>
     </row>
     <row r="166" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="63"/>
-      <c r="B166" s="54"/>
-      <c r="C166" s="55"/>
+      <c r="A166" s="64"/>
+      <c r="B166" s="55"/>
+      <c r="C166" s="56"/>
       <c r="D166" s="12" t="s">
         <v>359</v>
       </c>
@@ -7011,9 +7356,9 @@
       </c>
     </row>
     <row r="167" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="63"/>
-      <c r="B167" s="54"/>
-      <c r="C167" s="55"/>
+      <c r="A167" s="64"/>
+      <c r="B167" s="55"/>
+      <c r="C167" s="56"/>
       <c r="D167" s="12" t="s">
         <v>368</v>
       </c>
@@ -7022,13 +7367,13 @@
       </c>
     </row>
     <row r="168" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="64" t="s">
+      <c r="A168" s="65" t="s">
         <v>380</v>
       </c>
-      <c r="B168" s="54" t="s">
+      <c r="B168" s="55" t="s">
         <v>373</v>
       </c>
-      <c r="C168" s="55" t="s">
+      <c r="C168" s="56" t="s">
         <v>377</v>
       </c>
       <c r="D168" s="12" t="s">
@@ -7039,9 +7384,9 @@
       </c>
     </row>
     <row r="169" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="64"/>
-      <c r="B169" s="54"/>
-      <c r="C169" s="55"/>
+      <c r="A169" s="65"/>
+      <c r="B169" s="55"/>
+      <c r="C169" s="56"/>
       <c r="D169" s="12" t="s">
         <v>288</v>
       </c>
@@ -7050,9 +7395,9 @@
       </c>
     </row>
     <row r="170" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="64"/>
-      <c r="B170" s="54"/>
-      <c r="C170" s="55"/>
+      <c r="A170" s="65"/>
+      <c r="B170" s="55"/>
+      <c r="C170" s="56"/>
       <c r="D170" s="12" t="s">
         <v>290</v>
       </c>
@@ -7061,11 +7406,11 @@
       </c>
     </row>
     <row r="171" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="64"/>
-      <c r="B171" s="54" t="s">
+      <c r="A171" s="65"/>
+      <c r="B171" s="55" t="s">
         <v>378</v>
       </c>
-      <c r="C171" s="55" t="s">
+      <c r="C171" s="56" t="s">
         <v>379</v>
       </c>
       <c r="D171" s="12" t="s">
@@ -7076,9 +7421,9 @@
       </c>
     </row>
     <row r="172" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="64"/>
-      <c r="B172" s="54"/>
-      <c r="C172" s="55"/>
+      <c r="A172" s="65"/>
+      <c r="B172" s="55"/>
+      <c r="C172" s="56"/>
       <c r="D172" s="12" t="s">
         <v>288</v>
       </c>
@@ -7087,9 +7432,9 @@
       </c>
     </row>
     <row r="173" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="64"/>
-      <c r="B173" s="54"/>
-      <c r="C173" s="55"/>
+      <c r="A173" s="65"/>
+      <c r="B173" s="55"/>
+      <c r="C173" s="56"/>
       <c r="D173" s="12" t="s">
         <v>290</v>
       </c>
@@ -7098,16 +7443,16 @@
       </c>
     </row>
     <row r="174" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="60" t="s">
+      <c r="A174" s="61" t="s">
         <v>381</v>
       </c>
-      <c r="B174" s="54" t="s">
+      <c r="B174" s="55" t="s">
         <v>392</v>
       </c>
-      <c r="C174" s="55" t="s">
+      <c r="C174" s="56" t="s">
         <v>393</v>
       </c>
-      <c r="D174" s="54" t="s">
+      <c r="D174" s="55" t="s">
         <v>382</v>
       </c>
       <c r="E174" s="12" t="s">
@@ -7115,19 +7460,19 @@
       </c>
     </row>
     <row r="175" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="60"/>
-      <c r="B175" s="54"/>
-      <c r="C175" s="55"/>
-      <c r="D175" s="54"/>
+      <c r="A175" s="61"/>
+      <c r="B175" s="55"/>
+      <c r="C175" s="56"/>
+      <c r="D175" s="55"/>
       <c r="E175" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="176" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A176" s="60"/>
-      <c r="B176" s="54"/>
-      <c r="C176" s="55"/>
-      <c r="D176" s="54" t="s">
+      <c r="A176" s="61"/>
+      <c r="B176" s="55"/>
+      <c r="C176" s="56"/>
+      <c r="D176" s="55" t="s">
         <v>385</v>
       </c>
       <c r="E176" s="12" t="s">
@@ -7135,19 +7480,19 @@
       </c>
     </row>
     <row r="177" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="60"/>
-      <c r="B177" s="54"/>
-      <c r="C177" s="55"/>
-      <c r="D177" s="54"/>
+      <c r="A177" s="61"/>
+      <c r="B177" s="55"/>
+      <c r="C177" s="56"/>
+      <c r="D177" s="55"/>
       <c r="E177" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="178" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="60"/>
-      <c r="B178" s="54"/>
-      <c r="C178" s="55"/>
-      <c r="D178" s="54" t="s">
+      <c r="A178" s="61"/>
+      <c r="B178" s="55"/>
+      <c r="C178" s="56"/>
+      <c r="D178" s="55" t="s">
         <v>387</v>
       </c>
       <c r="E178" s="12" t="s">
@@ -7155,18 +7500,18 @@
       </c>
     </row>
     <row r="179" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="60"/>
-      <c r="B179" s="54"/>
-      <c r="C179" s="55"/>
-      <c r="D179" s="54"/>
+      <c r="A179" s="61"/>
+      <c r="B179" s="55"/>
+      <c r="C179" s="56"/>
+      <c r="D179" s="55"/>
       <c r="E179" s="12" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="180" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A180" s="60"/>
-      <c r="B180" s="54"/>
-      <c r="C180" s="55"/>
+      <c r="A180" s="61"/>
+      <c r="B180" s="55"/>
+      <c r="C180" s="56"/>
       <c r="D180" s="12" t="s">
         <v>390</v>
       </c>
@@ -7175,8 +7520,8 @@
       </c>
     </row>
     <row r="181" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="60"/>
-      <c r="B181" s="54" t="s">
+      <c r="A181" s="61"/>
+      <c r="B181" s="55" t="s">
         <v>394</v>
       </c>
       <c r="C181" s="20"/>
@@ -7185,27 +7530,27 @@
       </c>
     </row>
     <row r="182" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A182" s="60"/>
-      <c r="B182" s="54"/>
+      <c r="A182" s="61"/>
+      <c r="B182" s="55"/>
       <c r="C182" s="20"/>
       <c r="D182" s="12" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="183" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A183" s="60"/>
-      <c r="B183" s="54"/>
+      <c r="A183" s="61"/>
+      <c r="B183" s="55"/>
       <c r="C183" s="20"/>
       <c r="D183" s="12" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="184" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A184" s="60"/>
-      <c r="B184" s="54" t="s">
+      <c r="A184" s="61"/>
+      <c r="B184" s="55" t="s">
         <v>395</v>
       </c>
-      <c r="C184" s="55" t="s">
+      <c r="C184" s="56" t="s">
         <v>401</v>
       </c>
       <c r="D184" s="12" t="s">
@@ -7216,9 +7561,9 @@
       </c>
     </row>
     <row r="185" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A185" s="60"/>
-      <c r="B185" s="54"/>
-      <c r="C185" s="55"/>
+      <c r="A185" s="61"/>
+      <c r="B185" s="55"/>
+      <c r="C185" s="56"/>
       <c r="D185" s="12" t="s">
         <v>398</v>
       </c>
@@ -7227,9 +7572,9 @@
       </c>
     </row>
     <row r="186" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A186" s="60"/>
-      <c r="B186" s="54"/>
-      <c r="C186" s="55"/>
+      <c r="A186" s="61"/>
+      <c r="B186" s="55"/>
+      <c r="C186" s="56"/>
       <c r="D186" s="12" t="s">
         <v>140</v>
       </c>
@@ -7238,11 +7583,11 @@
       </c>
     </row>
     <row r="187" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A187" s="60"/>
-      <c r="B187" s="54" t="s">
+      <c r="A187" s="61"/>
+      <c r="B187" s="55" t="s">
         <v>402</v>
       </c>
-      <c r="C187" s="55" t="s">
+      <c r="C187" s="56" t="s">
         <v>403</v>
       </c>
       <c r="D187" s="12" t="s">
@@ -7253,9 +7598,9 @@
       </c>
     </row>
     <row r="188" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="60"/>
-      <c r="B188" s="54"/>
-      <c r="C188" s="55"/>
+      <c r="A188" s="61"/>
+      <c r="B188" s="55"/>
+      <c r="C188" s="56"/>
       <c r="D188" s="12" t="s">
         <v>398</v>
       </c>
@@ -7264,9 +7609,9 @@
       </c>
     </row>
     <row r="189" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="60"/>
-      <c r="B189" s="54"/>
-      <c r="C189" s="55"/>
+      <c r="A189" s="61"/>
+      <c r="B189" s="55"/>
+      <c r="C189" s="56"/>
       <c r="D189" s="12" t="s">
         <v>248</v>
       </c>
@@ -7275,11 +7620,11 @@
       </c>
     </row>
     <row r="190" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="60"/>
-      <c r="B190" s="54" t="s">
+      <c r="A190" s="61"/>
+      <c r="B190" s="55" t="s">
         <v>417</v>
       </c>
-      <c r="C190" s="65" t="s">
+      <c r="C190" s="66" t="s">
         <v>418</v>
       </c>
       <c r="D190" s="12" t="s">
@@ -7290,9 +7635,9 @@
       </c>
     </row>
     <row r="191" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A191" s="60"/>
-      <c r="B191" s="54"/>
-      <c r="C191" s="66"/>
+      <c r="A191" s="61"/>
+      <c r="B191" s="55"/>
+      <c r="C191" s="67"/>
       <c r="D191" s="12" t="s">
         <v>407</v>
       </c>
@@ -7301,9 +7646,9 @@
       </c>
     </row>
     <row r="192" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A192" s="60"/>
-      <c r="B192" s="54"/>
-      <c r="C192" s="66"/>
+      <c r="A192" s="61"/>
+      <c r="B192" s="55"/>
+      <c r="C192" s="67"/>
       <c r="D192" s="12" t="s">
         <v>409</v>
       </c>
@@ -7312,9 +7657,9 @@
       </c>
     </row>
     <row r="193" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A193" s="60"/>
-      <c r="B193" s="54"/>
-      <c r="C193" s="66"/>
+      <c r="A193" s="61"/>
+      <c r="B193" s="55"/>
+      <c r="C193" s="67"/>
       <c r="D193" s="12" t="s">
         <v>411</v>
       </c>
@@ -7323,9 +7668,9 @@
       </c>
     </row>
     <row r="194" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A194" s="60"/>
-      <c r="B194" s="54"/>
-      <c r="C194" s="66"/>
+      <c r="A194" s="61"/>
+      <c r="B194" s="55"/>
+      <c r="C194" s="67"/>
       <c r="D194" s="12" t="s">
         <v>413</v>
       </c>
@@ -7334,9 +7679,9 @@
       </c>
     </row>
     <row r="195" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A195" s="60"/>
-      <c r="B195" s="54"/>
-      <c r="C195" s="66"/>
+      <c r="A195" s="61"/>
+      <c r="B195" s="55"/>
+      <c r="C195" s="67"/>
       <c r="D195" s="12" t="s">
         <v>415</v>
       </c>
@@ -7345,7 +7690,7 @@
       </c>
     </row>
     <row r="196" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A196" s="60"/>
+      <c r="A196" s="61"/>
       <c r="B196" s="18" t="s">
         <v>419</v>
       </c>
@@ -7357,11 +7702,11 @@
       </c>
     </row>
     <row r="197" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A197" s="60"/>
-      <c r="B197" s="54" t="s">
+      <c r="A197" s="61"/>
+      <c r="B197" s="55" t="s">
         <v>422</v>
       </c>
-      <c r="C197" s="55" t="s">
+      <c r="C197" s="56" t="s">
         <v>423</v>
       </c>
       <c r="D197" s="15" t="s">
@@ -7375,9 +7720,9 @@
       </c>
     </row>
     <row r="198" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A198" s="60"/>
-      <c r="B198" s="54"/>
-      <c r="C198" s="55"/>
+      <c r="A198" s="61"/>
+      <c r="B198" s="55"/>
+      <c r="C198" s="56"/>
       <c r="D198" s="15" t="s">
         <v>424</v>
       </c>
@@ -7386,9 +7731,9 @@
       </c>
     </row>
     <row r="199" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="60"/>
-      <c r="B199" s="54"/>
-      <c r="C199" s="55"/>
+      <c r="A199" s="61"/>
+      <c r="B199" s="55"/>
+      <c r="C199" s="56"/>
       <c r="D199" s="15" t="s">
         <v>425</v>
       </c>
@@ -7397,9 +7742,9 @@
       </c>
     </row>
     <row r="200" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A200" s="60"/>
-      <c r="B200" s="54"/>
-      <c r="C200" s="55"/>
+      <c r="A200" s="61"/>
+      <c r="B200" s="55"/>
+      <c r="C200" s="56"/>
       <c r="D200" s="15" t="s">
         <v>426</v>
       </c>
@@ -7408,11 +7753,11 @@
       </c>
     </row>
     <row r="201" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A201" s="60"/>
-      <c r="B201" s="54" t="s">
+      <c r="A201" s="61"/>
+      <c r="B201" s="55" t="s">
         <v>432</v>
       </c>
-      <c r="C201" s="55" t="s">
+      <c r="C201" s="56" t="s">
         <v>433</v>
       </c>
       <c r="D201" s="15" t="s">
@@ -7423,9 +7768,9 @@
       </c>
     </row>
     <row r="202" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A202" s="60"/>
-      <c r="B202" s="54"/>
-      <c r="C202" s="55"/>
+      <c r="A202" s="61"/>
+      <c r="B202" s="55"/>
+      <c r="C202" s="56"/>
       <c r="D202" s="15" t="s">
         <v>435</v>
       </c>
@@ -7434,9 +7779,9 @@
       </c>
     </row>
     <row r="203" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A203" s="60"/>
-      <c r="B203" s="54"/>
-      <c r="C203" s="55"/>
+      <c r="A203" s="61"/>
+      <c r="B203" s="55"/>
+      <c r="C203" s="56"/>
       <c r="D203" s="15" t="s">
         <v>436</v>
       </c>
@@ -7445,9 +7790,9 @@
       </c>
     </row>
     <row r="204" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A204" s="60"/>
-      <c r="B204" s="54"/>
-      <c r="C204" s="55"/>
+      <c r="A204" s="61"/>
+      <c r="B204" s="55"/>
+      <c r="C204" s="56"/>
       <c r="D204" s="12" t="s">
         <v>440</v>
       </c>
@@ -7456,9 +7801,9 @@
       </c>
     </row>
     <row r="205" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="60"/>
-      <c r="B205" s="54"/>
-      <c r="C205" s="55"/>
+      <c r="A205" s="61"/>
+      <c r="B205" s="55"/>
+      <c r="C205" s="56"/>
       <c r="D205" s="12" t="s">
         <v>442</v>
       </c>
@@ -7467,9 +7812,9 @@
       </c>
     </row>
     <row r="206" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A206" s="60"/>
-      <c r="B206" s="54"/>
-      <c r="C206" s="55"/>
+      <c r="A206" s="61"/>
+      <c r="B206" s="55"/>
+      <c r="C206" s="56"/>
       <c r="D206" s="12" t="s">
         <v>444</v>
       </c>
@@ -7478,9 +7823,9 @@
       </c>
     </row>
     <row r="207" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A207" s="60"/>
-      <c r="B207" s="54"/>
-      <c r="C207" s="55"/>
+      <c r="A207" s="61"/>
+      <c r="B207" s="55"/>
+      <c r="C207" s="56"/>
       <c r="D207" s="12" t="s">
         <v>446</v>
       </c>
@@ -7489,17 +7834,17 @@
       </c>
     </row>
     <row r="208" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A208" s="60"/>
-      <c r="B208" s="54"/>
-      <c r="C208" s="55"/>
+      <c r="A208" s="61"/>
+      <c r="B208" s="55"/>
+      <c r="C208" s="56"/>
       <c r="D208" s="12" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="209" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A209" s="60"/>
-      <c r="B209" s="54"/>
-      <c r="C209" s="55"/>
+      <c r="A209" s="61"/>
+      <c r="B209" s="55"/>
+      <c r="C209" s="56"/>
       <c r="D209" s="12" t="s">
         <v>290</v>
       </c>
@@ -7508,11 +7853,11 @@
       </c>
     </row>
     <row r="210" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="60"/>
-      <c r="B210" s="54" t="s">
+      <c r="A210" s="61"/>
+      <c r="B210" s="55" t="s">
         <v>449</v>
       </c>
-      <c r="C210" s="55" t="s">
+      <c r="C210" s="56" t="s">
         <v>453</v>
       </c>
       <c r="D210" s="12" t="s">
@@ -7523,9 +7868,9 @@
       </c>
     </row>
     <row r="211" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A211" s="60"/>
-      <c r="B211" s="54"/>
-      <c r="C211" s="55"/>
+      <c r="A211" s="61"/>
+      <c r="B211" s="55"/>
+      <c r="C211" s="56"/>
       <c r="D211" s="12" t="s">
         <v>142</v>
       </c>
@@ -7534,9 +7879,9 @@
       </c>
     </row>
     <row r="212" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A212" s="60"/>
-      <c r="B212" s="54"/>
-      <c r="C212" s="55"/>
+      <c r="A212" s="61"/>
+      <c r="B212" s="55"/>
+      <c r="C212" s="56"/>
       <c r="D212" s="12" t="s">
         <v>451</v>
       </c>
@@ -7545,7 +7890,7 @@
       </c>
     </row>
     <row r="213" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A213" s="60"/>
+      <c r="A213" s="61"/>
       <c r="B213" s="18" t="s">
         <v>455</v>
       </c>
@@ -7560,7 +7905,7 @@
       </c>
     </row>
     <row r="214" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A214" s="83" t="s">
+      <c r="A214" s="84" t="s">
         <v>726</v>
       </c>
       <c r="B214" s="38" t="s">
@@ -7575,11 +7920,11 @@
       </c>
     </row>
     <row r="215" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A215" s="83"/>
-      <c r="B215" s="57" t="s">
+      <c r="A215" s="84"/>
+      <c r="B215" s="58" t="s">
         <v>675</v>
       </c>
-      <c r="C215" s="56" t="s">
+      <c r="C215" s="57" t="s">
         <v>676</v>
       </c>
       <c r="D215" s="38" t="s">
@@ -7590,9 +7935,9 @@
       </c>
     </row>
     <row r="216" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A216" s="83"/>
-      <c r="B216" s="57"/>
-      <c r="C216" s="56"/>
+      <c r="A216" s="84"/>
+      <c r="B216" s="58"/>
+      <c r="C216" s="57"/>
       <c r="D216" s="38" t="s">
         <v>679</v>
       </c>
@@ -7601,9 +7946,9 @@
       </c>
     </row>
     <row r="217" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A217" s="83"/>
-      <c r="B217" s="57"/>
-      <c r="C217" s="56"/>
+      <c r="A217" s="84"/>
+      <c r="B217" s="58"/>
+      <c r="C217" s="57"/>
       <c r="D217" s="38" t="s">
         <v>681</v>
       </c>
@@ -7612,9 +7957,9 @@
       </c>
     </row>
     <row r="218" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A218" s="83"/>
-      <c r="B218" s="57"/>
-      <c r="C218" s="56"/>
+      <c r="A218" s="84"/>
+      <c r="B218" s="58"/>
+      <c r="C218" s="57"/>
       <c r="D218" s="38" t="s">
         <v>682</v>
       </c>
@@ -7623,11 +7968,11 @@
       </c>
     </row>
     <row r="219" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A219" s="83"/>
-      <c r="B219" s="57" t="s">
+      <c r="A219" s="84"/>
+      <c r="B219" s="58" t="s">
         <v>685</v>
       </c>
-      <c r="C219" s="56" t="s">
+      <c r="C219" s="57" t="s">
         <v>686</v>
       </c>
       <c r="D219" s="38" t="s">
@@ -7638,9 +7983,9 @@
       </c>
     </row>
     <row r="220" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A220" s="83"/>
-      <c r="B220" s="57"/>
-      <c r="C220" s="56"/>
+      <c r="A220" s="84"/>
+      <c r="B220" s="58"/>
+      <c r="C220" s="57"/>
       <c r="D220" s="38" t="s">
         <v>687</v>
       </c>
@@ -7649,9 +7994,9 @@
       </c>
     </row>
     <row r="221" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="83"/>
-      <c r="B221" s="57"/>
-      <c r="C221" s="56"/>
+      <c r="A221" s="84"/>
+      <c r="B221" s="58"/>
+      <c r="C221" s="57"/>
       <c r="D221" s="38" t="s">
         <v>688</v>
       </c>
@@ -7660,7 +8005,7 @@
       </c>
     </row>
     <row r="222" spans="1:5" s="12" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A222" s="83"/>
+      <c r="A222" s="84"/>
       <c r="B222" s="38" t="s">
         <v>693</v>
       </c>
@@ -7671,11 +8016,11 @@
       <c r="E222" s="38"/>
     </row>
     <row r="223" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A223" s="83"/>
-      <c r="B223" s="57" t="s">
+      <c r="A223" s="84"/>
+      <c r="B223" s="58" t="s">
         <v>695</v>
       </c>
-      <c r="C223" s="56" t="s">
+      <c r="C223" s="57" t="s">
         <v>696</v>
       </c>
       <c r="D223" s="38" t="s">
@@ -7686,9 +8031,9 @@
       </c>
     </row>
     <row r="224" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A224" s="83"/>
-      <c r="B224" s="57"/>
-      <c r="C224" s="56"/>
+      <c r="A224" s="84"/>
+      <c r="B224" s="58"/>
+      <c r="C224" s="57"/>
       <c r="D224" s="38" t="s">
         <v>699</v>
       </c>
@@ -7697,9 +8042,9 @@
       </c>
     </row>
     <row r="225" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A225" s="83"/>
-      <c r="B225" s="57"/>
-      <c r="C225" s="56"/>
+      <c r="A225" s="84"/>
+      <c r="B225" s="58"/>
+      <c r="C225" s="57"/>
       <c r="D225" s="38" t="s">
         <v>701</v>
       </c>
@@ -7708,9 +8053,9 @@
       </c>
     </row>
     <row r="226" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A226" s="83"/>
-      <c r="B226" s="57"/>
-      <c r="C226" s="56"/>
+      <c r="A226" s="84"/>
+      <c r="B226" s="58"/>
+      <c r="C226" s="57"/>
       <c r="D226" s="38" t="s">
         <v>703</v>
       </c>
@@ -7719,9 +8064,9 @@
       </c>
     </row>
     <row r="227" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A227" s="83"/>
-      <c r="B227" s="57"/>
-      <c r="C227" s="56"/>
+      <c r="A227" s="84"/>
+      <c r="B227" s="58"/>
+      <c r="C227" s="57"/>
       <c r="D227" s="38" t="s">
         <v>705</v>
       </c>
@@ -7730,11 +8075,11 @@
       </c>
     </row>
     <row r="228" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A228" s="83"/>
-      <c r="B228" s="57" t="s">
+      <c r="A228" s="84"/>
+      <c r="B228" s="58" t="s">
         <v>707</v>
       </c>
-      <c r="C228" s="56" t="s">
+      <c r="C228" s="57" t="s">
         <v>708</v>
       </c>
       <c r="D228" s="38" t="s">
@@ -7745,9 +8090,9 @@
       </c>
     </row>
     <row r="229" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A229" s="83"/>
-      <c r="B229" s="57"/>
-      <c r="C229" s="56"/>
+      <c r="A229" s="84"/>
+      <c r="B229" s="58"/>
+      <c r="C229" s="57"/>
       <c r="D229" s="38" t="s">
         <v>699</v>
       </c>
@@ -7756,9 +8101,9 @@
       </c>
     </row>
     <row r="230" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A230" s="83"/>
-      <c r="B230" s="57"/>
-      <c r="C230" s="56"/>
+      <c r="A230" s="84"/>
+      <c r="B230" s="58"/>
+      <c r="C230" s="57"/>
       <c r="D230" s="38" t="s">
         <v>701</v>
       </c>
@@ -7767,9 +8112,9 @@
       </c>
     </row>
     <row r="231" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A231" s="83"/>
-      <c r="B231" s="57"/>
-      <c r="C231" s="56"/>
+      <c r="A231" s="84"/>
+      <c r="B231" s="58"/>
+      <c r="C231" s="57"/>
       <c r="D231" s="38" t="s">
         <v>710</v>
       </c>
@@ -7778,9 +8123,9 @@
       </c>
     </row>
     <row r="232" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A232" s="83"/>
-      <c r="B232" s="57"/>
-      <c r="C232" s="56"/>
+      <c r="A232" s="84"/>
+      <c r="B232" s="58"/>
+      <c r="C232" s="57"/>
       <c r="D232" s="38" t="s">
         <v>712</v>
       </c>
@@ -7789,11 +8134,11 @@
       </c>
     </row>
     <row r="233" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A233" s="83"/>
-      <c r="B233" s="57" t="s">
+      <c r="A233" s="84"/>
+      <c r="B233" s="58" t="s">
         <v>718</v>
       </c>
-      <c r="C233" s="79" t="s">
+      <c r="C233" s="80" t="s">
         <v>725</v>
       </c>
       <c r="D233" s="38" t="s">
@@ -7804,9 +8149,9 @@
       </c>
     </row>
     <row r="234" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A234" s="83"/>
-      <c r="B234" s="57"/>
-      <c r="C234" s="80"/>
+      <c r="A234" s="84"/>
+      <c r="B234" s="58"/>
+      <c r="C234" s="81"/>
       <c r="D234" s="38" t="s">
         <v>699</v>
       </c>
@@ -7815,9 +8160,9 @@
       </c>
     </row>
     <row r="235" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A235" s="83"/>
-      <c r="B235" s="57"/>
-      <c r="C235" s="80"/>
+      <c r="A235" s="84"/>
+      <c r="B235" s="58"/>
+      <c r="C235" s="81"/>
       <c r="D235" s="38" t="s">
         <v>701</v>
       </c>
@@ -7826,9 +8171,9 @@
       </c>
     </row>
     <row r="236" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A236" s="83"/>
-      <c r="B236" s="57"/>
-      <c r="C236" s="80"/>
+      <c r="A236" s="84"/>
+      <c r="B236" s="58"/>
+      <c r="C236" s="81"/>
       <c r="D236" s="38" t="s">
         <v>703</v>
       </c>
@@ -7837,9 +8182,9 @@
       </c>
     </row>
     <row r="237" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A237" s="83"/>
-      <c r="B237" s="57"/>
-      <c r="C237" s="80"/>
+      <c r="A237" s="84"/>
+      <c r="B237" s="58"/>
+      <c r="C237" s="81"/>
       <c r="D237" s="38" t="s">
         <v>705</v>
       </c>
@@ -7848,9 +8193,9 @@
       </c>
     </row>
     <row r="238" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A238" s="83"/>
-      <c r="B238" s="82"/>
-      <c r="C238" s="81"/>
+      <c r="A238" s="84"/>
+      <c r="B238" s="83"/>
+      <c r="C238" s="82"/>
       <c r="D238" s="44" t="s">
         <v>712</v>
       </c>
@@ -7859,7 +8204,7 @@
       </c>
     </row>
     <row r="239" spans="1:5" s="12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A239" s="75" t="s">
+      <c r="A239" s="76" t="s">
         <v>727</v>
       </c>
       <c r="B239" s="45" t="s">
@@ -7874,7 +8219,7 @@
       <c r="E239" s="45"/>
     </row>
     <row r="240" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A240" s="75"/>
+      <c r="A240" s="76"/>
       <c r="B240" s="45" t="s">
         <v>731</v>
       </c>
@@ -7885,7 +8230,7 @@
       <c r="E240" s="45"/>
     </row>
     <row r="241" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A241" s="75"/>
+      <c r="A241" s="76"/>
       <c r="B241" s="45" t="s">
         <v>733</v>
       </c>
@@ -7896,7 +8241,7 @@
       <c r="E241" s="45"/>
     </row>
     <row r="242" spans="1:5" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A242" s="75"/>
+      <c r="A242" s="76"/>
       <c r="B242" s="45" t="s">
         <v>735</v>
       </c>
@@ -7907,7 +8252,7 @@
       <c r="E242" s="45"/>
     </row>
     <row r="243" spans="1:5" s="12" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A243" s="75"/>
+      <c r="A243" s="76"/>
       <c r="B243" s="45" t="s">
         <v>673</v>
       </c>
@@ -7918,60 +8263,60 @@
       <c r="E243" s="45"/>
     </row>
     <row r="244" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A244" s="75"/>
-      <c r="B244" s="74" t="s">
+      <c r="A244" s="76"/>
+      <c r="B244" s="75" t="s">
         <v>738</v>
       </c>
-      <c r="C244" s="73" t="s">
+      <c r="C244" s="74" t="s">
         <v>739</v>
       </c>
       <c r="D244" s="45" t="s">
         <v>709</v>
       </c>
-      <c r="E244" s="76" t="s">
+      <c r="E244" s="77" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="245" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A245" s="75"/>
-      <c r="B245" s="74"/>
-      <c r="C245" s="73"/>
+      <c r="A245" s="76"/>
+      <c r="B245" s="75"/>
+      <c r="C245" s="74"/>
       <c r="D245" s="45" t="s">
         <v>699</v>
       </c>
-      <c r="E245" s="77"/>
+      <c r="E245" s="78"/>
     </row>
     <row r="246" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A246" s="75"/>
-      <c r="B246" s="74"/>
-      <c r="C246" s="73"/>
+      <c r="A246" s="76"/>
+      <c r="B246" s="75"/>
+      <c r="C246" s="74"/>
       <c r="D246" s="45" t="s">
         <v>701</v>
       </c>
-      <c r="E246" s="77"/>
+      <c r="E246" s="78"/>
     </row>
     <row r="247" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A247" s="75"/>
-      <c r="B247" s="74"/>
-      <c r="C247" s="73"/>
+      <c r="A247" s="76"/>
+      <c r="B247" s="75"/>
+      <c r="C247" s="74"/>
       <c r="D247" s="45" t="s">
         <v>710</v>
       </c>
-      <c r="E247" s="77"/>
+      <c r="E247" s="78"/>
     </row>
     <row r="248" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A248" s="75"/>
-      <c r="B248" s="74"/>
-      <c r="C248" s="73"/>
+      <c r="A248" s="76"/>
+      <c r="B248" s="75"/>
+      <c r="C248" s="74"/>
       <c r="D248" s="45" t="s">
         <v>711</v>
       </c>
-      <c r="E248" s="78"/>
+      <c r="E248" s="79"/>
     </row>
     <row r="249" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A249" s="75"/>
-      <c r="B249" s="74"/>
-      <c r="C249" s="73"/>
+      <c r="A249" s="76"/>
+      <c r="B249" s="75"/>
+      <c r="C249" s="74"/>
       <c r="D249" s="45" t="s">
         <v>740</v>
       </c>
@@ -8085,7 +8430,7 @@
       <c r="C270" s="37"/>
     </row>
     <row r="271" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A271" s="67" t="s">
+      <c r="A271" s="68" t="s">
         <v>557</v>
       </c>
       <c r="B271" s="27" t="s">
@@ -8096,7 +8441,7 @@
       </c>
     </row>
     <row r="272" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A272" s="67"/>
+      <c r="A272" s="68"/>
       <c r="B272" s="27" t="s">
         <v>560</v>
       </c>
@@ -8105,7 +8450,7 @@
       </c>
     </row>
     <row r="273" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A273" s="67"/>
+      <c r="A273" s="68"/>
       <c r="B273" s="27" t="s">
         <v>562</v>
       </c>
@@ -8114,7 +8459,7 @@
       </c>
     </row>
     <row r="274" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A274" s="67"/>
+      <c r="A274" s="68"/>
       <c r="B274" s="27" t="s">
         <v>564</v>
       </c>
@@ -8208,7 +8553,7 @@
       <c r="C291" s="20"/>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A292" s="61" t="s">
+      <c r="A292" s="62" t="s">
         <v>320</v>
       </c>
       <c r="B292" s="19" t="s">
@@ -8219,7 +8564,7 @@
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A293" s="62"/>
+      <c r="A293" s="63"/>
       <c r="B293" s="19" t="s">
         <v>306</v>
       </c>
@@ -8228,7 +8573,7 @@
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A294" s="62"/>
+      <c r="A294" s="63"/>
       <c r="B294" s="19" t="s">
         <v>308</v>
       </c>
@@ -8237,7 +8582,7 @@
       </c>
     </row>
     <row r="295" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A295" s="62"/>
+      <c r="A295" s="63"/>
       <c r="B295" s="19" t="s">
         <v>310</v>
       </c>
@@ -8246,7 +8591,7 @@
       </c>
     </row>
     <row r="296" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A296" s="62"/>
+      <c r="A296" s="63"/>
       <c r="B296" s="19" t="s">
         <v>312</v>
       </c>
@@ -8255,7 +8600,7 @@
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A297" s="62"/>
+      <c r="A297" s="63"/>
       <c r="B297" s="19" t="s">
         <v>314</v>
       </c>
@@ -8264,7 +8609,7 @@
       </c>
     </row>
     <row r="298" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A298" s="62"/>
+      <c r="A298" s="63"/>
       <c r="B298" s="19" t="s">
         <v>316</v>
       </c>
@@ -8273,7 +8618,7 @@
       </c>
     </row>
     <row r="299" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A299" s="62"/>
+      <c r="A299" s="63"/>
       <c r="B299" s="19" t="s">
         <v>318</v>
       </c>
@@ -8453,6 +8798,331 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6ACF1E-CD6A-4FCA-B0FB-1587C5613655}">
+  <dimension ref="A4:D35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="53.25" style="47" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="47" customWidth="1"/>
+    <col min="4" max="4" width="42.5" style="47" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A4" s="73" t="s">
+        <v>761</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>762</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="73"/>
+      <c r="B5" s="47" t="s">
+        <v>764</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>766</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A7" s="73" t="s">
+        <v>768</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>769</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A8" s="73"/>
+      <c r="B8" s="47" t="s">
+        <v>770</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="73"/>
+      <c r="B9" s="47" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A10" s="73"/>
+      <c r="B10" s="47" t="s">
+        <v>774</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="73"/>
+      <c r="B11" s="47" t="s">
+        <v>776</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="52" t="s">
+        <v>778</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+      <c r="A13" s="52"/>
+      <c r="B13" s="47" t="s">
+        <v>779</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="52"/>
+      <c r="B14" s="47" t="s">
+        <v>781</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A15" s="52"/>
+      <c r="B15" s="47" t="s">
+        <v>783</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A16" s="73" t="s">
+        <v>786</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>787</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>789</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="73"/>
+      <c r="B17" s="49" t="s">
+        <v>790</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>791</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="73"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="47" t="s">
+        <v>792</v>
+      </c>
+      <c r="D18" s="49"/>
+    </row>
+    <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19" s="73"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="47" t="s">
+        <v>793</v>
+      </c>
+      <c r="D19" s="49"/>
+    </row>
+    <row r="20" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="73"/>
+      <c r="B20" s="49" t="s">
+        <v>795</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A21" s="73"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="47" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="73"/>
+      <c r="B22" s="47" t="s">
+        <v>798</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+      <c r="A23" s="73"/>
+      <c r="B23" s="47" t="s">
+        <v>800</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A24" s="73"/>
+      <c r="B24" s="47" t="s">
+        <v>802</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A25" s="85" t="s">
+        <v>804</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>805</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="85"/>
+      <c r="B26" s="49" t="s">
+        <v>807</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="85"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="47" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="85"/>
+      <c r="B28" s="47" t="s">
+        <v>810</v>
+      </c>
+      <c r="C28" s="47" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="85"/>
+      <c r="B29" s="47" t="s">
+        <v>812</v>
+      </c>
+      <c r="C29" s="47" t="s">
+        <v>813</v>
+      </c>
+      <c r="D29" s="47" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="85"/>
+      <c r="B30" s="47" t="s">
+        <v>815</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>816</v>
+      </c>
+      <c r="D30" s="47" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="85"/>
+      <c r="B31" s="49" t="s">
+        <v>818</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A32" s="85"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="47" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A33" s="85"/>
+      <c r="B33" s="47" t="s">
+        <v>821</v>
+      </c>
+      <c r="C33" s="47" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="85"/>
+      <c r="B34" s="47" t="s">
+        <v>823</v>
+      </c>
+      <c r="C34" s="47" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>825</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A16:A24"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8474,7 +9144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B98CA2-DE76-4FA1-8D41-1D5857C8AD0D}">
   <dimension ref="A1:B12"/>
   <sheetViews>

--- a/网站开发.xlsx
+++ b/网站开发.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CC734B60-F723-4146-8DA2-CD633A6E2368}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1009030D-43F2-49BE-94E7-E0F06F492AA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="html" sheetId="1" r:id="rId1"/>
     <sheet name="css" sheetId="3" r:id="rId2"/>
-    <sheet name="JavaScript" sheetId="5" r:id="rId3"/>
-    <sheet name="书本推荐" sheetId="2" r:id="rId4"/>
-    <sheet name="快捷键" sheetId="4" r:id="rId5"/>
+    <sheet name="JavaScript_基本语言" sheetId="5" r:id="rId3"/>
+    <sheet name="JS" sheetId="8" r:id="rId4"/>
+    <sheet name="JS_DOM" sheetId="6" r:id="rId5"/>
+    <sheet name="JS_BOM" sheetId="7" r:id="rId6"/>
+    <sheet name="书本推荐" sheetId="2" r:id="rId7"/>
+    <sheet name="快捷键" sheetId="4" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" calcMode="manual"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="1038">
   <si>
     <t>&lt;a&gt;&lt;/a&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3297,12 +3301,880 @@
     <t>JS运算符</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算术运算符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赋值运算符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求余数（保留整数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接调用函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num1.onclick = function(){
+   代码块
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用命名过的函数，可以多处调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function myFunction()
+{
+alert("Hello World!");
+}
+num1.onclick = myFunction();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function myFunction(var1,var2)
+{
+这里是要执行的代码
+}
+num1.onclick = myFunction("bill","ceo");</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用带参数的函数
+调用时输入不同的参数，给出不同的消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">function myFunction()
+{
+var x=5;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>return x;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带有返回值的函数
+有时，我们会希望函数将值返回调用它的地方。
+通过使用 return 语句就可以实现。
+在使用 return 语句时，函数会停止执行，并返回指定的值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>==</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>===</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较运算符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑运算符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;&amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>||</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件运算符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全等（值和类型）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>and</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>or</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>variablename=(condition)?value1:value2 
+如果满足condition，即括号内为true，就将value1赋给variablename,否则赋值value2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hidden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>submit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>placeholder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供可描述输入字段预期值的提示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规定 input 元素的值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If 语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Switch 语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>document</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取整个HTML文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getElementByID("...")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getElementsByClass("...")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getElementsByTagName("…")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>console.log("…")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>innerHTML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>innerText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onClick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOM，文档对象类型，提供访问和操作网页内容的方法和接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器对象模型（BOM），提供与浏览器交互的方法和接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示立即下载脚本，但不妨碍页面的其他操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chatset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示通过src属性指定的代码的字符集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示脚本可以延迟到文档完全被解析和显示之后再执行。只对外部脚本文件有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defer="defer"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>async="async"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>document.write("...")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写入HTML，当文档加载完后，再触发使用，会覆盖文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>write("…")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写入HTML，当文档加载完后，再触发使用，会覆盖文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert("...")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isNaN(...)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语法</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>语句</t>
+  </si>
+  <si>
+    <t>关键字</t>
+  </si>
+  <si>
+    <t>保留字</t>
+  </si>
+  <si>
+    <t>操作符</t>
+  </si>
+  <si>
+    <t>对象</t>
+  </si>
+  <si>
+    <t>DOM2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOM视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOM事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOM样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOM遍历和范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOM3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOM验证方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放支持XML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出窗口功能</t>
+  </si>
+  <si>
+    <t>移动缩放和关闭浏览器功能</t>
+  </si>
+  <si>
+    <t>提供浏览器详细信息的navigation对象</t>
+  </si>
+  <si>
+    <t>提供浏览器加载页面详细信息的locating对象</t>
+  </si>
+  <si>
+    <t>提供用户显示器分辨率详细的screen对象</t>
+  </si>
+  <si>
+    <t>对cookies的支持</t>
+  </si>
+  <si>
+    <t>类似xmlhttp Request和IE的action Xobject</t>
+  </si>
+  <si>
+    <t>这样的自定义对象</t>
+  </si>
+  <si>
+    <t>简单指令</t>
+  </si>
+  <si>
+    <t>alert(""); 提示框；</t>
+  </si>
+  <si>
+    <t>confirm(""); 确认框，点击后会响应返回true或false；</t>
+  </si>
+  <si>
+    <t>prompt(); 弹出一个输入框；</t>
+  </si>
+  <si>
+    <t>document.write("");</t>
+  </si>
+  <si>
+    <t>console.log(""); 在控制台打印相应的信息；</t>
+  </si>
+  <si>
+    <t>console.dir(""); 在控制台打印出该对象的所有信息；</t>
+  </si>
+  <si>
+    <t>变量命名</t>
+  </si>
+  <si>
+    <t>数字（0-9）、字母（a-z，A-Z）、下划线（_）；</t>
+  </si>
+  <si>
+    <t>tips:应避免保留字和关键字；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* / %</t>
+  </si>
+  <si>
+    <t>+   -</t>
+  </si>
+  <si>
+    <t>&amp;&amp;</t>
+  </si>
+  <si>
+    <t>||</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>tips：自上而下优先级越来越低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parseInt("12a3"); 转为数字，尝试强转；</t>
+  </si>
+  <si>
+    <t>parseFloat("123.123");</t>
+  </si>
+  <si>
+    <t>data.toString();</t>
+  </si>
+  <si>
+    <t>String(data);</t>
+  </si>
+  <si>
+    <t>Math</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math.ceil(number) 向上取整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math.floor(number)向下取整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math.round(number) 四舍五入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math.max(number,number,...) 求多个数字最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math.min(number,number,…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math.pow(x,y)  求x的y次幂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Math.sin(x) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.w3school.com.cn/jsref/jsref_obj_math.asp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeof() 返回变量数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>var str = ""  声明一个空字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i++ 先使用i再自增；++I 先自增再使用i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>querySelector("…")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>querySelectorAll("…")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过css选择器选择所有符合的元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过css选择器选择第一个符合的元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>childNodes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parentNode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取子节点，不包括孙级及以下节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取父节点，只有一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event 对象代表事件的状态，比如事件在其中发生的元素、键盘按键的状态、鼠标的位置、鼠标按钮的状态。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即执行匿名函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(function(){
+//do something...
+})();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计时器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setTimeout()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clearInterval()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clearTimeout()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setInterval("code")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>css sprite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array对象属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>constructor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回对创建此对象的数组函数的引用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置或返回数组中元素的数目。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接设置元素个数是，未被赋值的元素为undefined</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prototype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使您有能力向对象添加属性和方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array 对象方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concat()</t>
+  </si>
+  <si>
+    <t>连接两个或更多的数组，并返回结果。</t>
+  </si>
+  <si>
+    <t>join()</t>
+  </si>
+  <si>
+    <t>把数组的所有元素放入一个字符串。元素通过指定的分隔符进行分隔。</t>
+  </si>
+  <si>
+    <t>pop()</t>
+  </si>
+  <si>
+    <t>删除并返回数组的最后一个元素</t>
+  </si>
+  <si>
+    <t>push()</t>
+  </si>
+  <si>
+    <t>向数组的末尾添加一个或更多元素，并返回新的长度。</t>
+  </si>
+  <si>
+    <t>reverse()</t>
+  </si>
+  <si>
+    <t>颠倒数组中元素的顺序。</t>
+  </si>
+  <si>
+    <t>shift()</t>
+  </si>
+  <si>
+    <t>删除并返回数组的第一个元素</t>
+  </si>
+  <si>
+    <t>slice()</t>
+  </si>
+  <si>
+    <t>从某个已有的数组返回选定的元素</t>
+  </si>
+  <si>
+    <t>sort()</t>
+  </si>
+  <si>
+    <t>对数组的元素进行排序</t>
+  </si>
+  <si>
+    <t>splice()</t>
+  </si>
+  <si>
+    <t>删除元素，并向数组添加新元素。</t>
+  </si>
+  <si>
+    <t>toSource()</t>
+  </si>
+  <si>
+    <t>返回该对象的源代码。</t>
+  </si>
+  <si>
+    <t>toString()</t>
+  </si>
+  <si>
+    <t>把数组转换为字符串，并返回结果。</t>
+  </si>
+  <si>
+    <t>toLocaleString()</t>
+  </si>
+  <si>
+    <t>把数组转换为本地数组，并返回结果。</t>
+  </si>
+  <si>
+    <t>unshift()</t>
+  </si>
+  <si>
+    <t>向数组的开头添加一个或更多元素，并返回新的长度。</t>
+  </si>
+  <si>
+    <t>valueOf()</t>
+  </si>
+  <si>
+    <t>返回数组对象的原始值</t>
+  </si>
+  <si>
+    <t>arrayObject.concat(arrayX,arrayX,......,arrayX)
+不改变arrayObject，以及arrayXML等，只返回一个arrayObject链接多个arrayX的副本；arrayX可以是单个具体的值，也可以是数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrayObject.join(separator)
+返回一个字符串。该字符串是通过把 arrayObject 的每个元素转换为字符串，然后把这些字符串连接起来，在两个元素之间插入 separator 字符串而生成的。如果没填separator，会用逗号代替</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrayObject.push(newelement1,newelement2,....,newelementX)
+这句只返回新数组的长度，同时arrayObject已添加了新元素；如果添加的元素为数组，则该数组会作为单个元素，整体添加到原数组，而不是其各个元素添加到原数组。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrayObject.reverse()
+颠倒arrayObject，并返回新的arrayObject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrayObject.shift()
+同pop()，这句只返回第一个元素，同时原数组第一个元素消除，length减1；如果原数组是空的，这句返回undefined，对数组不进行任何操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrayObject.pop()
+这句只返回数组的最后一个元素，同时原数组消除最后的元素，length减1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrayObject.slice(start,end)
+返回一个新的数组，包含从 start 到 end （不包括该元素）的 arrayObject 中的元素。
+Start  必需。规定从何处开始选取。如果是负数，那么它规定从数组尾部开始算起的位置。也就是说，-1 指最后一个元素，-2 指倒数第二个元素，以此类推。
+End  可选。规定从何处结束选取。该参数是数组片断结束处的数组下标。如果没有指定该参数，那么切分的数组包含从 start 到数组结束的所有元素。如果这个参数是负数，那么它规定的是从数组尾部开始算起的元素。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">arrayObject.sort(sortby)
+对数组进行排序，并返回新数组如果调用该方法时没有使用参数，将按字母顺序对数组中的元素进行排序，说得更精确点，是按照字符编码的顺序进行排序。要实现这一点，首先应把数组的元素都转换成字符串（如有必要），以便进行比较。
+如果想按照其他标准进行排序，就需要提供比较函数，该函数要比较两个值，然后返回一个用于说明这两个值的相对顺序的数字。比较函数应该具有两个参数 a 和 b，其返回值如下：
+若 a 小于 b，在排序后的数组中 a 应该出现在 b 之前，则返回一个小于 0 的值。
+若 a 等于 b，则返回 0。
+若 a 大于 b，则返回一个大于 0 的值。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;script type="text/javascript"&gt;
+function sortNumber(a,b)
+{
+return a - b
+}
+var arr = new Array(6)
+arr[0] = "10"
+arr[1] = "5"
+arr[2] = "40"
+arr[3] = "25"
+arr[4] = "1000"
+arr[5] = "1"
+document.write(arr + "&lt;br /&gt;")
+document.write(arr.sort(sortNumber))
+&lt;/script&gt;
+输出：
+10,5,40,25,1000,1
+1,5,10,25,40,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrayObject.splice(index,howmany,item1,.....,itemX)
+删除再添加元素，这句只返回被删除的元素的集合数组
+index  必需，整数，规定删除/添加项目的位置，可以为负数
+howmany  必需，要删除的项目数量。如果设置为0，则不会删除项目
+item…  可选，添加的新项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>copyWithin()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrayObject.toString()
+不改变数组及元素的类型，只是输出一个用逗号隔开所有元素的字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeof 表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回表达式的类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3448,8 +4320,22 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF323232"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3525,6 +4411,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3618,7 +4528,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3741,6 +4651,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3753,7 +4708,46 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3762,11 +4756,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3798,53 +4798,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3873,13 +4831,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>113944</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>66605</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3917,13 +4875,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>117101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>485287</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>151791</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3961,13 +4919,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>494336</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>163019</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4550,11 +5508,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N80"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="A55:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4587,7 +5545,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="67" t="s">
         <v>576</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -4601,7 +5559,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="51"/>
+      <c r="A3" s="68"/>
       <c r="B3" s="21" t="s">
         <v>570</v>
       </c>
@@ -4610,7 +5568,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="51"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="21" t="s">
         <v>572</v>
       </c>
@@ -4619,13 +5577,13 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="51"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="21" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="51"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
@@ -4634,7 +5592,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="51"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="21" t="s">
         <v>575</v>
       </c>
@@ -4643,7 +5601,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="51"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="21" t="s">
         <v>31</v>
       </c>
@@ -4662,7 +5620,7 @@
       <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="51"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="21" t="s">
         <v>59</v>
       </c>
@@ -4671,7 +5629,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="51"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="21" t="s">
         <v>62</v>
       </c>
@@ -4680,7 +5638,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="322.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="70" t="s">
         <v>600</v>
       </c>
       <c r="B11" s="21" t="s">
@@ -4700,7 +5658,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="53"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="21" t="s">
         <v>571</v>
       </c>
@@ -4709,11 +5667,11 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="53"/>
-      <c r="B13" s="48" t="s">
+      <c r="A13" s="70"/>
+      <c r="B13" s="65" t="s">
         <v>581</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="66" t="s">
         <v>582</v>
       </c>
       <c r="D13" t="s">
@@ -4727,10 +5685,10 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="53"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="48" t="s">
+      <c r="A14" s="70"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="65" t="s">
         <v>558</v>
       </c>
       <c r="E14" t="s">
@@ -4738,43 +5696,43 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="53"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="48"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="65"/>
       <c r="E15" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="53"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="48"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="65"/>
       <c r="E16" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="53"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="48"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="65"/>
       <c r="E17" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="53"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="48"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="65"/>
       <c r="E18" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="53"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="21" t="s">
         <v>573</v>
       </c>
@@ -4789,7 +5747,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A20" s="53"/>
+      <c r="A20" s="70"/>
       <c r="B20" s="21" t="s">
         <v>592</v>
       </c>
@@ -4801,544 +5759,747 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="53"/>
-      <c r="B21" s="48" t="s">
+      <c r="A21" s="70"/>
+      <c r="B21" s="65" t="s">
         <v>594</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="69" t="s">
         <v>599</v>
       </c>
       <c r="D21" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="53"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="30" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="70"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="6" t="s">
+        <v>903</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="70"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="70"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="57" t="s">
+        <v>899</v>
+      </c>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="70"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="70"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="70"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="30" t="s">
         <v>597</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E27" s="21" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="71" t="s">
         <v>601</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B28" s="65" t="s">
         <v>602</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C28" s="66" t="s">
         <v>629</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D28" t="s">
         <v>633</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E28" t="s">
         <v>584</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F28" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="48"/>
-      <c r="C24" s="49"/>
-      <c r="D24" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="71"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="66"/>
+      <c r="D29" t="s">
         <v>630</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E29" t="s">
         <v>631</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F29" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="48"/>
-      <c r="C25" s="49"/>
-      <c r="D25" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="71"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="66"/>
+      <c r="D30" t="s">
         <v>635</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E30" t="s">
         <v>636</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F30" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="48"/>
-      <c r="C26" s="49"/>
-      <c r="E26" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="71"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="66"/>
+      <c r="E31" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
-      <c r="D27" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="71"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="66"/>
+      <c r="D32" t="s">
         <v>639</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E32" t="s">
         <v>640</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F32" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="48"/>
-      <c r="C28" s="49"/>
-      <c r="D28" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="71"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="66"/>
+      <c r="D33" t="s">
         <v>642</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E33" t="s">
         <v>643</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F33" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="48"/>
-      <c r="C29" s="49"/>
-      <c r="E29" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="71"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="66"/>
+      <c r="E34" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="48"/>
-      <c r="C30" s="49"/>
-      <c r="D30" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="71"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="66"/>
+      <c r="D35" t="s">
         <v>646</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E35" t="s">
         <v>647</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F35" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="48"/>
-      <c r="C31" s="49"/>
-      <c r="D31" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="71"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="66"/>
+      <c r="D36" t="s">
         <v>649</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E36" t="s">
         <v>649</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F36" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="48"/>
-      <c r="C32" s="49"/>
-      <c r="D32" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="71"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="65" t="s">
         <v>558</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E37" t="s">
         <v>586</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F37" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B33" s="48"/>
-      <c r="C33" s="49"/>
-      <c r="E33" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="71"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="65"/>
+      <c r="E38" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B34" s="48"/>
-      <c r="C34" s="49"/>
-      <c r="E34" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="71"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="65"/>
+      <c r="E39" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B35" s="48"/>
-      <c r="C35" s="49"/>
-      <c r="E35" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="71"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="65"/>
+      <c r="E40" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B36" s="48"/>
-      <c r="C36" s="49"/>
-      <c r="E36" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="71"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="65"/>
+      <c r="E41" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B37" s="21" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="71"/>
+      <c r="B42" s="21" t="s">
         <v>603</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C42" s="23" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B38" s="21" t="s">
+      <c r="D42" s="65" t="s">
+        <v>869</v>
+      </c>
+      <c r="E42" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="71"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="65"/>
+      <c r="E43" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="71"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="65"/>
+      <c r="E44" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="71"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="65"/>
+      <c r="E45" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="71"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="65"/>
+      <c r="E46" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="71"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="65"/>
+      <c r="E47" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="71"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="65"/>
+      <c r="E48" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="71"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="65"/>
+      <c r="E49" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="71"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="65"/>
+      <c r="E50" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="71"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="65"/>
+      <c r="E51" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="71"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="65"/>
+      <c r="E52" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="71"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="49"/>
+      <c r="D53" t="s">
+        <v>881</v>
+      </c>
+      <c r="F53" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="71"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="49"/>
+      <c r="D54" t="s">
+        <v>883</v>
+      </c>
+      <c r="F54" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" s="71"/>
+      <c r="B55" s="21" t="s">
         <v>605</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C55" s="23" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B39" s="21" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="71"/>
+      <c r="B56" s="21" t="s">
         <v>607</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C56" s="23" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B40" s="21" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" s="71"/>
+      <c r="B57" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C57" s="23" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B41" s="21" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" s="71"/>
+      <c r="B58" s="21" t="s">
         <v>611</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C58" s="23" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B42" s="21" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" s="71"/>
+      <c r="B59" s="21" t="s">
         <v>613</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C59" s="23" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B43" s="21" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" s="71"/>
+      <c r="B60" s="21" t="s">
         <v>615</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C60" s="23" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B44" s="21" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" s="71"/>
+      <c r="B61" s="21" t="s">
         <v>617</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C61" s="23" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B45" s="21" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" s="71"/>
+      <c r="B62" s="21" t="s">
         <v>619</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C62" s="23" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B46" s="21" t="s">
+    <row r="63" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A63" s="71"/>
+      <c r="B63" s="21" t="s">
         <v>621</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C63" s="23" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B47" s="21" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" s="71"/>
+      <c r="B64" s="21" t="s">
         <v>623</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C64" s="23" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B48" s="21" t="s">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A65" s="71"/>
+      <c r="B65" s="21" t="s">
         <v>625</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C65" s="23" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B49" s="21" t="s">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A66" s="71"/>
+      <c r="B66" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C66" s="23" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B54" s="21" t="s">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B71" s="21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="21" t="s">
+    <row r="72" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="C72" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="G72" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B56" s="21" t="s">
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B73" s="21" t="s">
         <v>591</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C73" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B57" s="21" t="s">
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B74" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C74" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D74" t="s">
         <v>1</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F74" t="s">
         <v>2</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="G74" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="G58" s="2" t="s">
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="G75" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B61" s="21" t="s">
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B78" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="C78" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D78" t="s">
         <v>18</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F78" t="s">
         <v>19</v>
       </c>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D62" t="s">
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D79" t="s">
         <v>51</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F79" t="s">
         <v>52</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G79" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D63" t="s">
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D80" t="s">
         <v>49</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F80" t="s">
         <v>50</v>
       </c>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B65" s="21" t="s">
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B82" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="C82" s="23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B66" s="21" t="s">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B83" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C66" s="23" t="s">
+      <c r="C83" s="23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="2:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="B67" s="21" t="s">
+    <row r="84" spans="2:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="B84" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C67" s="23" t="s">
+      <c r="C84" s="23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="2:13" ht="54" x14ac:dyDescent="0.15">
-      <c r="B68" s="23" t="s">
+    <row r="85" spans="2:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="B85" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C68" s="23" t="s">
+      <c r="C85" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B71" s="21" t="s">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B88" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C71" s="23" t="s">
+      <c r="C88" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B72" s="21" t="s">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B89" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C72" s="23" t="s">
+      <c r="C89" s="23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B73" s="21" t="s">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B90" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C73" s="23" t="s">
+      <c r="C90" s="23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B74" s="21" t="s">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B91" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C74" s="23" t="s">
+      <c r="C91" s="23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D75" t="s">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="D92" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D76" t="s">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="D93" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D77" t="s">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="D94" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D78" t="s">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="D95" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D79" t="s">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="D96" t="s">
         <v>57</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F96" t="s">
         <v>58</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="G96" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
-    </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+    </row>
+    <row r="97" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B23:B36"/>
-    <mergeCell ref="C23:C36"/>
+  <mergeCells count="12">
+    <mergeCell ref="B28:B41"/>
+    <mergeCell ref="C28:C41"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="D14:D18"/>
     <mergeCell ref="C13:C18"/>
     <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A11:A22"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="A11:A27"/>
+    <mergeCell ref="A28:A66"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="D42:D52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5355,9 +6516,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N310"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C126" sqref="C126:C127"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5381,7 +6542,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="88" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -5393,7 +6554,7 @@
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="69"/>
+      <c r="A3" s="88"/>
       <c r="B3" s="19" t="s">
         <v>208</v>
       </c>
@@ -5405,7 +6566,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="69"/>
+      <c r="A4" s="88"/>
       <c r="B4" s="19" t="s">
         <v>211</v>
       </c>
@@ -5414,7 +6575,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="69"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="19" t="s">
         <v>213</v>
       </c>
@@ -5426,11 +6587,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="69"/>
-      <c r="B6" s="48" t="s">
+      <c r="A6" s="88"/>
+      <c r="B6" s="65" t="s">
         <v>216</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="66" t="s">
         <v>217</v>
       </c>
       <c r="D6" t="s">
@@ -5441,9 +6602,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="69"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="49"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="66"/>
       <c r="D7" t="s">
         <v>220</v>
       </c>
@@ -5452,9 +6613,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="69"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="66"/>
       <c r="D8" t="s">
         <v>222</v>
       </c>
@@ -5463,9 +6624,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="69"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="49"/>
+      <c r="A9" s="88"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="66"/>
       <c r="D9" t="s">
         <v>224</v>
       </c>
@@ -5474,9 +6635,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="69"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="49"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="66"/>
       <c r="D10" t="s">
         <v>226</v>
       </c>
@@ -5485,9 +6646,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="69"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="49"/>
+      <c r="A11" s="88"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="66"/>
       <c r="D11" t="s">
         <v>228</v>
       </c>
@@ -5496,7 +6657,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="69"/>
+      <c r="A12" s="88"/>
       <c r="B12" s="19" t="s">
         <v>230</v>
       </c>
@@ -5508,7 +6669,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="69"/>
+      <c r="A13" s="88"/>
       <c r="B13" s="19" t="s">
         <v>233</v>
       </c>
@@ -5520,11 +6681,11 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="69"/>
-      <c r="B14" s="48" t="s">
+      <c r="A14" s="88"/>
+      <c r="B14" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="66" t="s">
         <v>237</v>
       </c>
       <c r="D14" t="s">
@@ -5535,9 +6696,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="69"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
+      <c r="A15" s="88"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="66"/>
       <c r="D15" t="s">
         <v>240</v>
       </c>
@@ -5546,11 +6707,11 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="69"/>
-      <c r="B16" s="48" t="s">
+      <c r="A16" s="88"/>
+      <c r="B16" s="65" t="s">
         <v>242</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="66" t="s">
         <v>250</v>
       </c>
       <c r="D16" t="s">
@@ -5560,10 +6721,10 @@
         <v>243</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="69"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="88"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="66"/>
       <c r="D17" t="s">
         <v>244</v>
       </c>
@@ -5571,10 +6732,10 @@
         <v>245</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="69"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="49"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="88"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="66"/>
       <c r="D18" t="s">
         <v>246</v>
       </c>
@@ -5582,10 +6743,10 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="69"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="49"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="88"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="66"/>
       <c r="D19" t="s">
         <v>248</v>
       </c>
@@ -5593,12 +6754,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="69"/>
-      <c r="B20" s="48" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="88"/>
+      <c r="B20" s="65" t="s">
         <v>252</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="66" t="s">
         <v>251</v>
       </c>
       <c r="D20" t="s">
@@ -5611,10 +6772,10 @@
         <v>257</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="69"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="49"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="88"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="66"/>
       <c r="D21" t="s">
         <v>255</v>
       </c>
@@ -5622,8 +6783,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="70" t="s">
+    <row r="22" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="89" t="s">
         <v>67</v>
       </c>
       <c r="B22" s="19" t="s">
@@ -5633,8 +6794,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="70"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="89"/>
       <c r="B23" s="19" t="s">
         <v>70</v>
       </c>
@@ -5651,8 +6812,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="70"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="89"/>
       <c r="D24" t="s">
         <v>73</v>
       </c>
@@ -5660,8 +6821,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="70"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="89"/>
       <c r="D25" t="s">
         <v>74</v>
       </c>
@@ -5669,8 +6830,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="70"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="89"/>
       <c r="B26" s="19" t="s">
         <v>79</v>
       </c>
@@ -5684,20 +6845,20 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="70"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="89"/>
       <c r="D27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="70"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="89"/>
       <c r="D28" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="70"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="89"/>
       <c r="D29" t="s">
         <v>84</v>
       </c>
@@ -5705,8 +6866,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="70"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="89"/>
       <c r="B30" s="19" t="s">
         <v>87</v>
       </c>
@@ -5717,8 +6878,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A31" s="70"/>
+    <row r="31" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A31" s="89"/>
       <c r="B31" s="19" t="s">
         <v>90</v>
       </c>
@@ -5731,9 +6892,12 @@
       <c r="E31" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="70"/>
+      <c r="G31" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="89"/>
       <c r="D32" t="s">
         <v>93</v>
       </c>
@@ -5742,7 +6906,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A33" s="70"/>
+      <c r="A33" s="89"/>
       <c r="B33" s="19" t="s">
         <v>96</v>
       </c>
@@ -5760,19 +6924,19 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A34" s="70"/>
+      <c r="A34" s="89"/>
       <c r="D34" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="70"/>
+      <c r="A35" s="89"/>
       <c r="D35" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A36" s="70"/>
+      <c r="A36" s="89"/>
       <c r="D36" t="s">
         <v>101</v>
       </c>
@@ -5781,7 +6945,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A37" s="70"/>
+      <c r="A37" s="89"/>
       <c r="B37" s="19" t="s">
         <v>105</v>
       </c>
@@ -5803,7 +6967,7 @@
       <c r="L37" s="6"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A38" s="70"/>
+      <c r="A38" s="89"/>
       <c r="D38" t="s">
         <v>108</v>
       </c>
@@ -5817,7 +6981,7 @@
       <c r="L38" s="6"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A39" s="70"/>
+      <c r="A39" s="89"/>
       <c r="D39" t="s">
         <v>109</v>
       </c>
@@ -5831,7 +6995,7 @@
       <c r="L39" s="6"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="70"/>
+      <c r="A40" s="89"/>
       <c r="B40" s="19" t="s">
         <v>113</v>
       </c>
@@ -5851,7 +7015,7 @@
       <c r="L40" s="6"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A41" s="70"/>
+      <c r="A41" s="89"/>
       <c r="D41" t="s">
         <v>108</v>
       </c>
@@ -5865,7 +7029,7 @@
       <c r="L41" s="6"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A42" s="70"/>
+      <c r="A42" s="89"/>
       <c r="D42" t="s">
         <v>109</v>
       </c>
@@ -5879,7 +7043,7 @@
       <c r="L42" s="6"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A43" s="70"/>
+      <c r="A43" s="89"/>
       <c r="B43" s="19" t="s">
         <v>119</v>
       </c>
@@ -5891,13 +7055,13 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A44" s="70"/>
+      <c r="A44" s="89"/>
       <c r="D44" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A45" s="70"/>
+      <c r="A45" s="89"/>
       <c r="D45" t="s">
         <v>123</v>
       </c>
@@ -5906,7 +7070,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A46" s="70"/>
+      <c r="A46" s="89"/>
       <c r="D46" t="s">
         <v>124</v>
       </c>
@@ -5915,25 +7079,25 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A47" s="71" t="s">
+      <c r="A47" s="90" t="s">
         <v>130</v>
       </c>
       <c r="B47" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C47" s="49" t="s">
+      <c r="C47" s="66" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A48" s="71"/>
+      <c r="A48" s="90"/>
       <c r="B48" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="C48" s="49"/>
+      <c r="C48" s="66"/>
     </row>
     <row r="49" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="71"/>
+      <c r="A49" s="90"/>
       <c r="B49" s="19" t="s">
         <v>133</v>
       </c>
@@ -5945,11 +7109,11 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="71"/>
-      <c r="B50" s="48" t="s">
+      <c r="A50" s="90"/>
+      <c r="B50" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="C50" s="49" t="s">
+      <c r="C50" s="66" t="s">
         <v>137</v>
       </c>
       <c r="D50" t="s">
@@ -5960,9 +7124,9 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="71"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="49"/>
+      <c r="A51" s="90"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="66"/>
       <c r="D51" t="s">
         <v>142</v>
       </c>
@@ -5971,9 +7135,9 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="71"/>
-      <c r="B52" s="48"/>
-      <c r="C52" s="49"/>
+      <c r="A52" s="90"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="66"/>
       <c r="D52" t="s">
         <v>144</v>
       </c>
@@ -5982,9 +7146,9 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="71"/>
-      <c r="B53" s="48"/>
-      <c r="C53" s="49"/>
+      <c r="A53" s="90"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="66"/>
       <c r="D53" t="s">
         <v>146</v>
       </c>
@@ -5993,9 +7157,9 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="71"/>
-      <c r="B54" s="48"/>
-      <c r="C54" s="49"/>
+      <c r="A54" s="90"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="66"/>
       <c r="D54" t="s">
         <v>148</v>
       </c>
@@ -6004,9 +7168,9 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="71"/>
-      <c r="B55" s="48"/>
-      <c r="C55" s="49"/>
+      <c r="A55" s="90"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="66"/>
       <c r="D55" t="s">
         <v>150</v>
       </c>
@@ -6015,9 +7179,9 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="71"/>
-      <c r="B56" s="48"/>
-      <c r="C56" s="49"/>
+      <c r="A56" s="90"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="66"/>
       <c r="D56" t="s">
         <v>152</v>
       </c>
@@ -6026,9 +7190,9 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="71"/>
-      <c r="B57" s="48"/>
-      <c r="C57" s="49"/>
+      <c r="A57" s="90"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="66"/>
       <c r="D57" t="s">
         <v>154</v>
       </c>
@@ -6037,9 +7201,9 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="71"/>
-      <c r="B58" s="48"/>
-      <c r="C58" s="49"/>
+      <c r="A58" s="90"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="66"/>
       <c r="D58" t="s">
         <v>156</v>
       </c>
@@ -6048,9 +7212,9 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="71"/>
-      <c r="B59" s="48"/>
-      <c r="C59" s="49"/>
+      <c r="A59" s="90"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="66"/>
       <c r="D59" t="s">
         <v>158</v>
       </c>
@@ -6059,9 +7223,9 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="71"/>
-      <c r="B60" s="48"/>
-      <c r="C60" s="49"/>
+      <c r="A60" s="90"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="66"/>
       <c r="D60" t="s">
         <v>160</v>
       </c>
@@ -6070,7 +7234,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="71"/>
+      <c r="A61" s="90"/>
       <c r="B61" s="19" t="s">
         <v>135</v>
       </c>
@@ -6079,7 +7243,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A62" s="71"/>
+      <c r="A62" s="90"/>
       <c r="B62" s="35" t="s">
         <v>162</v>
       </c>
@@ -6091,7 +7255,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="71"/>
+      <c r="A63" s="90"/>
       <c r="B63" s="19" t="s">
         <v>166</v>
       </c>
@@ -6100,7 +7264,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="71"/>
+      <c r="A64" s="90"/>
       <c r="B64" s="19" t="s">
         <v>167</v>
       </c>
@@ -6112,7 +7276,7 @@
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A65" s="71"/>
+      <c r="A65" s="90"/>
       <c r="B65" s="19" t="s">
         <v>168</v>
       </c>
@@ -6130,11 +7294,11 @@
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A66" s="71"/>
-      <c r="B66" s="48" t="s">
+      <c r="A66" s="90"/>
+      <c r="B66" s="65" t="s">
         <v>169</v>
       </c>
-      <c r="C66" s="49" t="s">
+      <c r="C66" s="66" t="s">
         <v>173</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -6143,39 +7307,39 @@
       <c r="E66" t="s">
         <v>176</v>
       </c>
-      <c r="F66" s="72" t="s">
+      <c r="F66" s="87" t="s">
         <v>182</v>
       </c>
-      <c r="G66" s="72"/>
+      <c r="G66" s="87"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A67" s="71"/>
-      <c r="B67" s="48"/>
-      <c r="C67" s="49"/>
+      <c r="A67" s="90"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="66"/>
       <c r="D67" s="1" t="s">
         <v>180</v>
       </c>
       <c r="E67" t="s">
         <v>179</v>
       </c>
-      <c r="F67" s="72"/>
-      <c r="G67" s="72"/>
+      <c r="F67" s="87"/>
+      <c r="G67" s="87"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A68" s="71"/>
-      <c r="B68" s="48"/>
-      <c r="C68" s="49"/>
+      <c r="A68" s="90"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="66"/>
       <c r="D68" s="1" t="s">
         <v>177</v>
       </c>
       <c r="E68" t="s">
         <v>178</v>
       </c>
-      <c r="F68" s="72"/>
-      <c r="G68" s="72"/>
+      <c r="F68" s="87"/>
+      <c r="G68" s="87"/>
     </row>
     <row r="69" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A69" s="71"/>
+      <c r="A69" s="90"/>
       <c r="B69" s="19" t="s">
         <v>170</v>
       </c>
@@ -6190,7 +7354,7 @@
       </c>
     </row>
     <row r="70" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A70" s="71"/>
+      <c r="A70" s="90"/>
       <c r="B70" s="19" t="s">
         <v>171</v>
       </c>
@@ -6199,11 +7363,11 @@
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A71" s="71"/>
-      <c r="B71" s="48" t="s">
+      <c r="A71" s="90"/>
+      <c r="B71" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="C71" s="49" t="s">
+      <c r="C71" s="66" t="s">
         <v>192</v>
       </c>
       <c r="D71" t="s">
@@ -6217,9 +7381,9 @@
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A72" s="71"/>
-      <c r="B72" s="48"/>
-      <c r="C72" s="49"/>
+      <c r="A72" s="90"/>
+      <c r="B72" s="65"/>
+      <c r="C72" s="66"/>
       <c r="D72" t="s">
         <v>195</v>
       </c>
@@ -6228,9 +7392,9 @@
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A73" s="71"/>
-      <c r="B73" s="48"/>
-      <c r="C73" s="49"/>
+      <c r="A73" s="90"/>
+      <c r="B73" s="65"/>
+      <c r="C73" s="66"/>
       <c r="D73" t="s">
         <v>197</v>
       </c>
@@ -6239,9 +7403,9 @@
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A74" s="71"/>
-      <c r="B74" s="48"/>
-      <c r="C74" s="49"/>
+      <c r="A74" s="90"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="66"/>
       <c r="D74" t="s">
         <v>199</v>
       </c>
@@ -6250,9 +7414,9 @@
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A75" s="71"/>
-      <c r="B75" s="48"/>
-      <c r="C75" s="49"/>
+      <c r="A75" s="90"/>
+      <c r="B75" s="65"/>
+      <c r="C75" s="66"/>
       <c r="D75" t="s">
         <v>201</v>
       </c>
@@ -6261,9 +7425,9 @@
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A76" s="71"/>
-      <c r="B76" s="48"/>
-      <c r="C76" s="49"/>
+      <c r="A76" s="90"/>
+      <c r="B76" s="65"/>
+      <c r="C76" s="66"/>
       <c r="D76" t="s">
         <v>156</v>
       </c>
@@ -6272,11 +7436,11 @@
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A77" s="71"/>
-      <c r="B77" s="48" t="s">
+      <c r="A77" s="90"/>
+      <c r="B77" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="C77" s="49" t="s">
+      <c r="C77" s="66" t="s">
         <v>258</v>
       </c>
       <c r="D77" t="s">
@@ -6295,9 +7459,9 @@
       <c r="N77" s="6"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A78" s="71"/>
-      <c r="B78" s="48"/>
-      <c r="C78" s="49"/>
+      <c r="A78" s="90"/>
+      <c r="B78" s="65"/>
+      <c r="C78" s="66"/>
       <c r="D78" t="s">
         <v>260</v>
       </c>
@@ -6306,11 +7470,11 @@
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A79" s="71"/>
-      <c r="B79" s="48" t="s">
+      <c r="A79" s="90"/>
+      <c r="B79" s="65" t="s">
         <v>264</v>
       </c>
-      <c r="C79" s="49" t="s">
+      <c r="C79" s="66" t="s">
         <v>265</v>
       </c>
       <c r="D79" t="s">
@@ -6318,29 +7482,29 @@
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A80" s="71"/>
-      <c r="B80" s="48"/>
-      <c r="C80" s="49"/>
+      <c r="A80" s="90"/>
+      <c r="B80" s="65"/>
+      <c r="C80" s="66"/>
       <c r="D80" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A81" s="71"/>
-      <c r="B81" s="48"/>
-      <c r="C81" s="49"/>
+      <c r="A81" s="90"/>
+      <c r="B81" s="65"/>
+      <c r="C81" s="66"/>
       <c r="D81" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A82" s="59" t="s">
+      <c r="A82" s="91" t="s">
         <v>269</v>
       </c>
-      <c r="B82" s="48" t="s">
+      <c r="B82" s="65" t="s">
         <v>270</v>
       </c>
-      <c r="C82" s="49" t="s">
+      <c r="C82" s="66" t="s">
         <v>282</v>
       </c>
       <c r="D82" t="s">
@@ -6351,9 +7515,9 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A83" s="59"/>
-      <c r="B83" s="48"/>
-      <c r="C83" s="49"/>
+      <c r="A83" s="91"/>
+      <c r="B83" s="65"/>
+      <c r="C83" s="66"/>
       <c r="D83" t="s">
         <v>142</v>
       </c>
@@ -6362,9 +7526,9 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A84" s="59"/>
-      <c r="B84" s="48"/>
-      <c r="C84" s="49"/>
+      <c r="A84" s="91"/>
+      <c r="B84" s="65"/>
+      <c r="C84" s="66"/>
       <c r="D84" t="s">
         <v>273</v>
       </c>
@@ -6376,9 +7540,9 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A85" s="59"/>
-      <c r="B85" s="48"/>
-      <c r="C85" s="49"/>
+      <c r="A85" s="91"/>
+      <c r="B85" s="65"/>
+      <c r="C85" s="66"/>
       <c r="D85" t="s">
         <v>275</v>
       </c>
@@ -6387,9 +7551,9 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A86" s="59"/>
-      <c r="B86" s="48"/>
-      <c r="C86" s="49"/>
+      <c r="A86" s="91"/>
+      <c r="B86" s="65"/>
+      <c r="C86" s="66"/>
       <c r="D86" s="10" t="s">
         <v>277</v>
       </c>
@@ -6398,9 +7562,9 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A87" s="59"/>
-      <c r="B87" s="48"/>
-      <c r="C87" s="49"/>
+      <c r="A87" s="91"/>
+      <c r="B87" s="65"/>
+      <c r="C87" s="66"/>
       <c r="D87" s="11" t="s">
         <v>279</v>
       </c>
@@ -6409,13 +7573,13 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A88" s="60" t="s">
+      <c r="A88" s="92" t="s">
         <v>284</v>
       </c>
-      <c r="B88" s="48" t="s">
+      <c r="B88" s="65" t="s">
         <v>285</v>
       </c>
-      <c r="C88" s="49" t="s">
+      <c r="C88" s="66" t="s">
         <v>286</v>
       </c>
       <c r="D88" t="s">
@@ -6429,9 +7593,9 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A89" s="61"/>
-      <c r="B89" s="48"/>
-      <c r="C89" s="49"/>
+      <c r="A89" s="93"/>
+      <c r="B89" s="65"/>
+      <c r="C89" s="66"/>
       <c r="D89" t="s">
         <v>288</v>
       </c>
@@ -6440,9 +7604,9 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A90" s="61"/>
-      <c r="B90" s="48"/>
-      <c r="C90" s="49"/>
+      <c r="A90" s="93"/>
+      <c r="B90" s="65"/>
+      <c r="C90" s="66"/>
       <c r="D90" t="s">
         <v>290</v>
       </c>
@@ -6451,9 +7615,9 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A91" s="61"/>
-      <c r="B91" s="48"/>
-      <c r="C91" s="49"/>
+      <c r="A91" s="93"/>
+      <c r="B91" s="65"/>
+      <c r="C91" s="66"/>
       <c r="D91" t="s">
         <v>160</v>
       </c>
@@ -6462,11 +7626,11 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A92" s="61"/>
-      <c r="B92" s="48" t="s">
+      <c r="A92" s="93"/>
+      <c r="B92" s="65" t="s">
         <v>293</v>
       </c>
-      <c r="C92" s="49" t="s">
+      <c r="C92" s="66" t="s">
         <v>294</v>
       </c>
       <c r="D92" t="s">
@@ -6480,9 +7644,9 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A93" s="61"/>
-      <c r="B93" s="48"/>
-      <c r="C93" s="49"/>
+      <c r="A93" s="93"/>
+      <c r="B93" s="65"/>
+      <c r="C93" s="66"/>
       <c r="D93" t="s">
         <v>288</v>
       </c>
@@ -6491,9 +7655,9 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A94" s="61"/>
-      <c r="B94" s="48"/>
-      <c r="C94" s="49"/>
+      <c r="A94" s="93"/>
+      <c r="B94" s="65"/>
+      <c r="C94" s="66"/>
       <c r="D94" t="s">
         <v>290</v>
       </c>
@@ -6502,9 +7666,9 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A95" s="61"/>
-      <c r="B95" s="48"/>
-      <c r="C95" s="49"/>
+      <c r="A95" s="93"/>
+      <c r="B95" s="65"/>
+      <c r="C95" s="66"/>
       <c r="D95" t="s">
         <v>160</v>
       </c>
@@ -6513,7 +7677,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A96" s="61"/>
+      <c r="A96" s="93"/>
       <c r="B96" s="19" t="s">
         <v>301</v>
       </c>
@@ -6526,10 +7690,10 @@
     </row>
     <row r="97" spans="1:5" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A97" s="34"/>
-      <c r="B97" s="73" t="s">
+      <c r="B97" s="71" t="s">
         <v>665</v>
       </c>
-      <c r="C97" s="52" t="s">
+      <c r="C97" s="69" t="s">
         <v>668</v>
       </c>
       <c r="D97" t="s">
@@ -6541,8 +7705,8 @@
     </row>
     <row r="98" spans="1:5" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A98" s="34"/>
-      <c r="B98" s="73"/>
-      <c r="C98" s="52"/>
+      <c r="B98" s="71"/>
+      <c r="C98" s="69"/>
       <c r="D98" t="s">
         <v>667</v>
       </c>
@@ -6551,7 +7715,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A99" s="51" t="s">
+      <c r="A99" s="68" t="s">
         <v>321</v>
       </c>
       <c r="B99" s="18" t="s">
@@ -6562,7 +7726,7 @@
       </c>
     </row>
     <row r="100" spans="1:5" s="12" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A100" s="51"/>
+      <c r="A100" s="68"/>
       <c r="B100" s="18" t="s">
         <v>324</v>
       </c>
@@ -6574,7 +7738,7 @@
       </c>
     </row>
     <row r="101" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="51"/>
+      <c r="A101" s="68"/>
       <c r="B101" s="18" t="s">
         <v>326</v>
       </c>
@@ -6583,7 +7747,7 @@
       </c>
     </row>
     <row r="102" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="51"/>
+      <c r="A102" s="68"/>
       <c r="B102" s="18" t="s">
         <v>328</v>
       </c>
@@ -6598,7 +7762,7 @@
       </c>
     </row>
     <row r="103" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="51"/>
+      <c r="A103" s="68"/>
       <c r="B103" s="18"/>
       <c r="C103" s="20"/>
       <c r="D103" s="12" t="s">
@@ -6609,7 +7773,7 @@
       </c>
     </row>
     <row r="104" spans="1:5" s="12" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="51"/>
+      <c r="A104" s="68"/>
       <c r="B104" s="18" t="s">
         <v>330</v>
       </c>
@@ -6624,11 +7788,11 @@
       </c>
     </row>
     <row r="105" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="51"/>
-      <c r="B105" s="55" t="s">
+      <c r="A105" s="68"/>
+      <c r="B105" s="85" t="s">
         <v>332</v>
       </c>
-      <c r="C105" s="56" t="s">
+      <c r="C105" s="86" t="s">
         <v>333</v>
       </c>
       <c r="D105" s="12" t="s">
@@ -6639,9 +7803,9 @@
       </c>
     </row>
     <row r="106" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="51"/>
-      <c r="B106" s="55"/>
-      <c r="C106" s="56"/>
+      <c r="A106" s="68"/>
+      <c r="B106" s="85"/>
+      <c r="C106" s="86"/>
       <c r="D106" s="12" t="s">
         <v>342</v>
       </c>
@@ -6650,9 +7814,9 @@
       </c>
     </row>
     <row r="107" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="51"/>
-      <c r="B107" s="55"/>
-      <c r="C107" s="56"/>
+      <c r="A107" s="68"/>
+      <c r="B107" s="85"/>
+      <c r="C107" s="86"/>
       <c r="D107" s="12" t="s">
         <v>344</v>
       </c>
@@ -6661,9 +7825,9 @@
       </c>
     </row>
     <row r="108" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="51"/>
-      <c r="B108" s="55"/>
-      <c r="C108" s="56"/>
+      <c r="A108" s="68"/>
+      <c r="B108" s="85"/>
+      <c r="C108" s="86"/>
       <c r="D108" s="12" t="s">
         <v>346</v>
       </c>
@@ -6672,9 +7836,9 @@
       </c>
     </row>
     <row r="109" spans="1:5" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="51"/>
-      <c r="B109" s="55"/>
-      <c r="C109" s="56"/>
+      <c r="A109" s="68"/>
+      <c r="B109" s="85"/>
+      <c r="C109" s="86"/>
       <c r="D109" s="14" t="s">
         <v>349</v>
       </c>
@@ -6683,7 +7847,7 @@
       </c>
     </row>
     <row r="110" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="54" t="s">
+      <c r="A110" s="101" t="s">
         <v>458</v>
       </c>
       <c r="B110" s="33" t="s">
@@ -6694,11 +7858,11 @@
       </c>
     </row>
     <row r="111" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="54"/>
-      <c r="B111" s="55" t="s">
+      <c r="A111" s="101"/>
+      <c r="B111" s="85" t="s">
         <v>460</v>
       </c>
-      <c r="C111" s="56" t="s">
+      <c r="C111" s="86" t="s">
         <v>461</v>
       </c>
       <c r="D111" s="12" t="s">
@@ -6709,9 +7873,9 @@
       </c>
     </row>
     <row r="112" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="54"/>
-      <c r="B112" s="55"/>
-      <c r="C112" s="56"/>
+      <c r="A112" s="101"/>
+      <c r="B112" s="85"/>
+      <c r="C112" s="86"/>
       <c r="D112" s="12" t="s">
         <v>497</v>
       </c>
@@ -6720,7 +7884,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="54"/>
+      <c r="A113" s="101"/>
       <c r="B113" s="33" t="s">
         <v>462</v>
       </c>
@@ -6732,11 +7896,11 @@
       </c>
     </row>
     <row r="114" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="54"/>
-      <c r="B114" s="55" t="s">
+      <c r="A114" s="101"/>
+      <c r="B114" s="85" t="s">
         <v>464</v>
       </c>
-      <c r="C114" s="56" t="s">
+      <c r="C114" s="86" t="s">
         <v>503</v>
       </c>
       <c r="D114" s="12" t="s">
@@ -6747,9 +7911,9 @@
       </c>
     </row>
     <row r="115" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="54"/>
-      <c r="B115" s="55"/>
-      <c r="C115" s="56"/>
+      <c r="A115" s="101"/>
+      <c r="B115" s="85"/>
+      <c r="C115" s="86"/>
       <c r="D115" s="12" t="s">
         <v>288</v>
       </c>
@@ -6758,9 +7922,9 @@
       </c>
     </row>
     <row r="116" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="54"/>
-      <c r="B116" s="55"/>
-      <c r="C116" s="56"/>
+      <c r="A116" s="101"/>
+      <c r="B116" s="85"/>
+      <c r="C116" s="86"/>
       <c r="D116" s="12" t="s">
         <v>290</v>
       </c>
@@ -6769,11 +7933,11 @@
       </c>
     </row>
     <row r="117" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="54"/>
-      <c r="B117" s="55" t="s">
+      <c r="A117" s="101"/>
+      <c r="B117" s="85" t="s">
         <v>465</v>
       </c>
-      <c r="C117" s="56" t="s">
+      <c r="C117" s="86" t="s">
         <v>466</v>
       </c>
       <c r="D117" s="12" t="s">
@@ -6784,9 +7948,9 @@
       </c>
     </row>
     <row r="118" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="54"/>
-      <c r="B118" s="55"/>
-      <c r="C118" s="56"/>
+      <c r="A118" s="101"/>
+      <c r="B118" s="85"/>
+      <c r="C118" s="86"/>
       <c r="D118" s="12" t="s">
         <v>398</v>
       </c>
@@ -6795,9 +7959,9 @@
       </c>
     </row>
     <row r="119" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="54"/>
-      <c r="B119" s="55"/>
-      <c r="C119" s="56"/>
+      <c r="A119" s="101"/>
+      <c r="B119" s="85"/>
+      <c r="C119" s="86"/>
       <c r="D119" s="12" t="s">
         <v>506</v>
       </c>
@@ -6806,9 +7970,9 @@
       </c>
     </row>
     <row r="120" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="54"/>
-      <c r="B120" s="55"/>
-      <c r="C120" s="56"/>
+      <c r="A120" s="101"/>
+      <c r="B120" s="85"/>
+      <c r="C120" s="86"/>
       <c r="D120" s="12" t="s">
         <v>508</v>
       </c>
@@ -6817,11 +7981,11 @@
       </c>
     </row>
     <row r="121" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="54"/>
-      <c r="B121" s="55" t="s">
+      <c r="A121" s="101"/>
+      <c r="B121" s="85" t="s">
         <v>467</v>
       </c>
-      <c r="C121" s="56" t="s">
+      <c r="C121" s="86" t="s">
         <v>468</v>
       </c>
       <c r="D121" s="12" t="s">
@@ -6832,9 +7996,9 @@
       </c>
     </row>
     <row r="122" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="54"/>
-      <c r="B122" s="55"/>
-      <c r="C122" s="56"/>
+      <c r="A122" s="101"/>
+      <c r="B122" s="85"/>
+      <c r="C122" s="86"/>
       <c r="D122" s="12" t="s">
         <v>510</v>
       </c>
@@ -6843,9 +8007,9 @@
       </c>
     </row>
     <row r="123" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="54"/>
-      <c r="B123" s="55"/>
-      <c r="C123" s="56"/>
+      <c r="A123" s="101"/>
+      <c r="B123" s="85"/>
+      <c r="C123" s="86"/>
       <c r="D123" s="12" t="s">
         <v>512</v>
       </c>
@@ -6854,9 +8018,9 @@
       </c>
     </row>
     <row r="124" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="54"/>
-      <c r="B124" s="55"/>
-      <c r="C124" s="56"/>
+      <c r="A124" s="101"/>
+      <c r="B124" s="85"/>
+      <c r="C124" s="86"/>
       <c r="D124" s="12" t="s">
         <v>514</v>
       </c>
@@ -6865,9 +8029,9 @@
       </c>
     </row>
     <row r="125" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="54"/>
-      <c r="B125" s="55"/>
-      <c r="C125" s="56"/>
+      <c r="A125" s="101"/>
+      <c r="B125" s="85"/>
+      <c r="C125" s="86"/>
       <c r="D125" s="12" t="s">
         <v>516</v>
       </c>
@@ -6876,11 +8040,11 @@
       </c>
     </row>
     <row r="126" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="54"/>
-      <c r="B126" s="55" t="s">
+      <c r="A126" s="101"/>
+      <c r="B126" s="85" t="s">
         <v>469</v>
       </c>
-      <c r="C126" s="56" t="s">
+      <c r="C126" s="86" t="s">
         <v>470</v>
       </c>
       <c r="D126" s="12" t="s">
@@ -6894,9 +8058,9 @@
       </c>
     </row>
     <row r="127" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="54"/>
-      <c r="B127" s="55"/>
-      <c r="C127" s="56"/>
+      <c r="A127" s="101"/>
+      <c r="B127" s="85"/>
+      <c r="C127" s="86"/>
       <c r="D127" s="12" t="s">
         <v>290</v>
       </c>
@@ -6905,11 +8069,11 @@
       </c>
     </row>
     <row r="128" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="54"/>
-      <c r="B128" s="55" t="s">
+      <c r="A128" s="101"/>
+      <c r="B128" s="85" t="s">
         <v>471</v>
       </c>
-      <c r="C128" s="56" t="s">
+      <c r="C128" s="86" t="s">
         <v>472</v>
       </c>
       <c r="D128" t="s">
@@ -6920,9 +8084,9 @@
       </c>
     </row>
     <row r="129" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="54"/>
-      <c r="B129" s="55"/>
-      <c r="C129" s="56"/>
+      <c r="A129" s="101"/>
+      <c r="B129" s="85"/>
+      <c r="C129" s="86"/>
       <c r="D129" t="s">
         <v>195</v>
       </c>
@@ -6931,9 +8095,9 @@
       </c>
     </row>
     <row r="130" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="54"/>
-      <c r="B130" s="55"/>
-      <c r="C130" s="56"/>
+      <c r="A130" s="101"/>
+      <c r="B130" s="85"/>
+      <c r="C130" s="86"/>
       <c r="D130" t="s">
         <v>197</v>
       </c>
@@ -6942,9 +8106,9 @@
       </c>
     </row>
     <row r="131" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="54"/>
-      <c r="B131" s="55"/>
-      <c r="C131" s="56"/>
+      <c r="A131" s="101"/>
+      <c r="B131" s="85"/>
+      <c r="C131" s="86"/>
       <c r="D131" t="s">
         <v>201</v>
       </c>
@@ -6953,11 +8117,11 @@
       </c>
     </row>
     <row r="132" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="54"/>
-      <c r="B132" s="55" t="s">
+      <c r="A132" s="101"/>
+      <c r="B132" s="85" t="s">
         <v>473</v>
       </c>
-      <c r="C132" s="56" t="s">
+      <c r="C132" s="86" t="s">
         <v>474</v>
       </c>
       <c r="D132" s="12" t="s">
@@ -6968,9 +8132,9 @@
       </c>
     </row>
     <row r="133" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="54"/>
-      <c r="B133" s="55"/>
-      <c r="C133" s="56"/>
+      <c r="A133" s="101"/>
+      <c r="B133" s="85"/>
+      <c r="C133" s="86"/>
       <c r="D133" s="12" t="s">
         <v>522</v>
       </c>
@@ -6979,9 +8143,9 @@
       </c>
     </row>
     <row r="134" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="54"/>
-      <c r="B134" s="55"/>
-      <c r="C134" s="56"/>
+      <c r="A134" s="101"/>
+      <c r="B134" s="85"/>
+      <c r="C134" s="86"/>
       <c r="D134" s="12" t="s">
         <v>524</v>
       </c>
@@ -6990,9 +8154,9 @@
       </c>
     </row>
     <row r="135" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="54"/>
-      <c r="B135" s="55"/>
-      <c r="C135" s="56"/>
+      <c r="A135" s="101"/>
+      <c r="B135" s="85"/>
+      <c r="C135" s="86"/>
       <c r="D135" s="12" t="s">
         <v>526</v>
       </c>
@@ -7001,11 +8165,11 @@
       </c>
     </row>
     <row r="136" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="54"/>
-      <c r="B136" s="55" t="s">
+      <c r="A136" s="101"/>
+      <c r="B136" s="85" t="s">
         <v>475</v>
       </c>
-      <c r="C136" s="56" t="s">
+      <c r="C136" s="86" t="s">
         <v>476</v>
       </c>
       <c r="D136" s="12" t="s">
@@ -7016,9 +8180,9 @@
       </c>
     </row>
     <row r="137" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="54"/>
-      <c r="B137" s="55"/>
-      <c r="C137" s="56"/>
+      <c r="A137" s="101"/>
+      <c r="B137" s="85"/>
+      <c r="C137" s="86"/>
       <c r="D137" s="12" t="s">
         <v>529</v>
       </c>
@@ -7027,9 +8191,9 @@
       </c>
     </row>
     <row r="138" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="54"/>
-      <c r="B138" s="55"/>
-      <c r="C138" s="56"/>
+      <c r="A138" s="101"/>
+      <c r="B138" s="85"/>
+      <c r="C138" s="86"/>
       <c r="D138" s="12" t="s">
         <v>531</v>
       </c>
@@ -7038,9 +8202,9 @@
       </c>
     </row>
     <row r="139" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="54"/>
-      <c r="B139" s="55"/>
-      <c r="C139" s="56"/>
+      <c r="A139" s="101"/>
+      <c r="B139" s="85"/>
+      <c r="C139" s="86"/>
       <c r="D139" s="12" t="s">
         <v>533</v>
       </c>
@@ -7049,9 +8213,9 @@
       </c>
     </row>
     <row r="140" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="54"/>
-      <c r="B140" s="55"/>
-      <c r="C140" s="56"/>
+      <c r="A140" s="101"/>
+      <c r="B140" s="85"/>
+      <c r="C140" s="86"/>
       <c r="D140" s="12" t="s">
         <v>535</v>
       </c>
@@ -7060,7 +8224,7 @@
       </c>
     </row>
     <row r="141" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="54"/>
+      <c r="A141" s="101"/>
       <c r="B141" s="33" t="s">
         <v>477</v>
       </c>
@@ -7075,7 +8239,7 @@
       </c>
     </row>
     <row r="142" spans="1:5" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A142" s="54"/>
+      <c r="A142" s="101"/>
       <c r="B142" s="26" t="s">
         <v>479</v>
       </c>
@@ -7084,7 +8248,7 @@
       </c>
     </row>
     <row r="143" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="54"/>
+      <c r="A143" s="101"/>
       <c r="B143" s="26" t="s">
         <v>481</v>
       </c>
@@ -7093,7 +8257,7 @@
       </c>
     </row>
     <row r="144" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="54"/>
+      <c r="A144" s="101"/>
       <c r="B144" s="26" t="s">
         <v>482</v>
       </c>
@@ -7102,7 +8266,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="54"/>
+      <c r="A145" s="101"/>
       <c r="B145" s="27" t="s">
         <v>484</v>
       </c>
@@ -7111,7 +8275,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="54"/>
+      <c r="A146" s="101"/>
       <c r="B146" s="27" t="s">
         <v>486</v>
       </c>
@@ -7120,7 +8284,7 @@
       </c>
     </row>
     <row r="147" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="54"/>
+      <c r="A147" s="101"/>
       <c r="B147" s="27" t="s">
         <v>488</v>
       </c>
@@ -7129,11 +8293,11 @@
       </c>
     </row>
     <row r="148" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="54"/>
-      <c r="B148" s="55" t="s">
+      <c r="A148" s="101"/>
+      <c r="B148" s="85" t="s">
         <v>490</v>
       </c>
-      <c r="C148" s="56" t="s">
+      <c r="C148" s="86" t="s">
         <v>491</v>
       </c>
       <c r="D148" s="12" t="s">
@@ -7144,9 +8308,9 @@
       </c>
     </row>
     <row r="149" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="54"/>
-      <c r="B149" s="55"/>
-      <c r="C149" s="56"/>
+      <c r="A149" s="101"/>
+      <c r="B149" s="85"/>
+      <c r="C149" s="86"/>
       <c r="D149" s="12" t="s">
         <v>541</v>
       </c>
@@ -7155,9 +8319,9 @@
       </c>
     </row>
     <row r="150" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="54"/>
-      <c r="B150" s="55"/>
-      <c r="C150" s="56"/>
+      <c r="A150" s="101"/>
+      <c r="B150" s="85"/>
+      <c r="C150" s="86"/>
       <c r="D150" s="12" t="s">
         <v>543</v>
       </c>
@@ -7166,11 +8330,11 @@
       </c>
     </row>
     <row r="151" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="54"/>
-      <c r="B151" s="55" t="s">
+      <c r="A151" s="101"/>
+      <c r="B151" s="85" t="s">
         <v>492</v>
       </c>
-      <c r="C151" s="56" t="s">
+      <c r="C151" s="86" t="s">
         <v>493</v>
       </c>
       <c r="D151" s="12" t="s">
@@ -7181,9 +8345,9 @@
       </c>
     </row>
     <row r="152" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="54"/>
-      <c r="B152" s="55"/>
-      <c r="C152" s="56"/>
+      <c r="A152" s="101"/>
+      <c r="B152" s="85"/>
+      <c r="C152" s="86"/>
       <c r="D152" s="12" t="s">
         <v>140</v>
       </c>
@@ -7192,9 +8356,9 @@
       </c>
     </row>
     <row r="153" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="54"/>
-      <c r="B153" s="55"/>
-      <c r="C153" s="56"/>
+      <c r="A153" s="101"/>
+      <c r="B153" s="85"/>
+      <c r="C153" s="86"/>
       <c r="D153" s="12" t="s">
         <v>547</v>
       </c>
@@ -7203,9 +8367,9 @@
       </c>
     </row>
     <row r="154" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="54"/>
-      <c r="B154" s="55"/>
-      <c r="C154" s="56"/>
+      <c r="A154" s="101"/>
+      <c r="B154" s="85"/>
+      <c r="C154" s="86"/>
       <c r="D154" s="12" t="s">
         <v>549</v>
       </c>
@@ -7214,11 +8378,11 @@
       </c>
     </row>
     <row r="155" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="54"/>
-      <c r="B155" s="55" t="s">
+      <c r="A155" s="101"/>
+      <c r="B155" s="85" t="s">
         <v>494</v>
       </c>
-      <c r="C155" s="56" t="s">
+      <c r="C155" s="86" t="s">
         <v>551</v>
       </c>
       <c r="D155" s="12" t="s">
@@ -7229,9 +8393,9 @@
       </c>
     </row>
     <row r="156" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="54"/>
-      <c r="B156" s="55"/>
-      <c r="C156" s="56"/>
+      <c r="A156" s="101"/>
+      <c r="B156" s="85"/>
+      <c r="C156" s="86"/>
       <c r="D156" s="12" t="s">
         <v>553</v>
       </c>
@@ -7240,9 +8404,9 @@
       </c>
     </row>
     <row r="157" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="54"/>
-      <c r="B157" s="55"/>
-      <c r="C157" s="56"/>
+      <c r="A157" s="101"/>
+      <c r="B157" s="85"/>
+      <c r="C157" s="86"/>
       <c r="D157" s="12" t="s">
         <v>555</v>
       </c>
@@ -7251,7 +8415,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="64" t="s">
+      <c r="A158" s="96" t="s">
         <v>350</v>
       </c>
       <c r="B158" s="25" t="s">
@@ -7262,11 +8426,11 @@
       </c>
     </row>
     <row r="159" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="64"/>
-      <c r="B159" s="55" t="s">
+      <c r="A159" s="96"/>
+      <c r="B159" s="85" t="s">
         <v>353</v>
       </c>
-      <c r="C159" s="56" t="s">
+      <c r="C159" s="86" t="s">
         <v>354</v>
       </c>
       <c r="D159" s="12" t="s">
@@ -7277,19 +8441,19 @@
       </c>
     </row>
     <row r="160" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="64"/>
-      <c r="B160" s="55"/>
-      <c r="C160" s="56"/>
+      <c r="A160" s="96"/>
+      <c r="B160" s="85"/>
+      <c r="C160" s="86"/>
       <c r="D160" s="12" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="161" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="64"/>
-      <c r="B161" s="55" t="s">
+      <c r="A161" s="96"/>
+      <c r="B161" s="85" t="s">
         <v>355</v>
       </c>
-      <c r="C161" s="56" t="s">
+      <c r="C161" s="86" t="s">
         <v>356</v>
       </c>
       <c r="D161" s="12" t="s">
@@ -7297,19 +8461,19 @@
       </c>
     </row>
     <row r="162" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="64"/>
-      <c r="B162" s="55"/>
-      <c r="C162" s="56"/>
+      <c r="A162" s="96"/>
+      <c r="B162" s="85"/>
+      <c r="C162" s="86"/>
       <c r="D162" s="12" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="163" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="64"/>
-      <c r="B163" s="55" t="s">
+      <c r="A163" s="96"/>
+      <c r="B163" s="85" t="s">
         <v>357</v>
       </c>
-      <c r="C163" s="56" t="s">
+      <c r="C163" s="86" t="s">
         <v>371</v>
       </c>
       <c r="D163" s="12" t="s">
@@ -7323,9 +8487,9 @@
       </c>
     </row>
     <row r="164" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="64"/>
-      <c r="B164" s="55"/>
-      <c r="C164" s="56"/>
+      <c r="A164" s="96"/>
+      <c r="B164" s="85"/>
+      <c r="C164" s="86"/>
       <c r="D164" s="12" t="s">
         <v>363</v>
       </c>
@@ -7334,9 +8498,9 @@
       </c>
     </row>
     <row r="165" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="64"/>
-      <c r="B165" s="55"/>
-      <c r="C165" s="56"/>
+      <c r="A165" s="96"/>
+      <c r="B165" s="85"/>
+      <c r="C165" s="86"/>
       <c r="D165" s="12" t="s">
         <v>365</v>
       </c>
@@ -7345,9 +8509,9 @@
       </c>
     </row>
     <row r="166" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="64"/>
-      <c r="B166" s="55"/>
-      <c r="C166" s="56"/>
+      <c r="A166" s="96"/>
+      <c r="B166" s="85"/>
+      <c r="C166" s="86"/>
       <c r="D166" s="12" t="s">
         <v>359</v>
       </c>
@@ -7356,9 +8520,9 @@
       </c>
     </row>
     <row r="167" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="64"/>
-      <c r="B167" s="55"/>
-      <c r="C167" s="56"/>
+      <c r="A167" s="96"/>
+      <c r="B167" s="85"/>
+      <c r="C167" s="86"/>
       <c r="D167" s="12" t="s">
         <v>368</v>
       </c>
@@ -7367,13 +8531,13 @@
       </c>
     </row>
     <row r="168" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="65" t="s">
+      <c r="A168" s="97" t="s">
         <v>380</v>
       </c>
-      <c r="B168" s="55" t="s">
+      <c r="B168" s="85" t="s">
         <v>373</v>
       </c>
-      <c r="C168" s="56" t="s">
+      <c r="C168" s="86" t="s">
         <v>377</v>
       </c>
       <c r="D168" s="12" t="s">
@@ -7384,9 +8548,9 @@
       </c>
     </row>
     <row r="169" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="65"/>
-      <c r="B169" s="55"/>
-      <c r="C169" s="56"/>
+      <c r="A169" s="97"/>
+      <c r="B169" s="85"/>
+      <c r="C169" s="86"/>
       <c r="D169" s="12" t="s">
         <v>288</v>
       </c>
@@ -7395,9 +8559,9 @@
       </c>
     </row>
     <row r="170" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="65"/>
-      <c r="B170" s="55"/>
-      <c r="C170" s="56"/>
+      <c r="A170" s="97"/>
+      <c r="B170" s="85"/>
+      <c r="C170" s="86"/>
       <c r="D170" s="12" t="s">
         <v>290</v>
       </c>
@@ -7406,11 +8570,11 @@
       </c>
     </row>
     <row r="171" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="65"/>
-      <c r="B171" s="55" t="s">
+      <c r="A171" s="97"/>
+      <c r="B171" s="85" t="s">
         <v>378</v>
       </c>
-      <c r="C171" s="56" t="s">
+      <c r="C171" s="86" t="s">
         <v>379</v>
       </c>
       <c r="D171" s="12" t="s">
@@ -7421,9 +8585,9 @@
       </c>
     </row>
     <row r="172" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="65"/>
-      <c r="B172" s="55"/>
-      <c r="C172" s="56"/>
+      <c r="A172" s="97"/>
+      <c r="B172" s="85"/>
+      <c r="C172" s="86"/>
       <c r="D172" s="12" t="s">
         <v>288</v>
       </c>
@@ -7432,9 +8596,9 @@
       </c>
     </row>
     <row r="173" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="65"/>
-      <c r="B173" s="55"/>
-      <c r="C173" s="56"/>
+      <c r="A173" s="97"/>
+      <c r="B173" s="85"/>
+      <c r="C173" s="86"/>
       <c r="D173" s="12" t="s">
         <v>290</v>
       </c>
@@ -7443,16 +8607,16 @@
       </c>
     </row>
     <row r="174" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="61" t="s">
+      <c r="A174" s="93" t="s">
         <v>381</v>
       </c>
-      <c r="B174" s="55" t="s">
+      <c r="B174" s="85" t="s">
         <v>392</v>
       </c>
-      <c r="C174" s="56" t="s">
+      <c r="C174" s="86" t="s">
         <v>393</v>
       </c>
-      <c r="D174" s="55" t="s">
+      <c r="D174" s="85" t="s">
         <v>382</v>
       </c>
       <c r="E174" s="12" t="s">
@@ -7460,19 +8624,19 @@
       </c>
     </row>
     <row r="175" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="61"/>
-      <c r="B175" s="55"/>
-      <c r="C175" s="56"/>
-      <c r="D175" s="55"/>
+      <c r="A175" s="93"/>
+      <c r="B175" s="85"/>
+      <c r="C175" s="86"/>
+      <c r="D175" s="85"/>
       <c r="E175" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="176" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A176" s="61"/>
-      <c r="B176" s="55"/>
-      <c r="C176" s="56"/>
-      <c r="D176" s="55" t="s">
+      <c r="A176" s="93"/>
+      <c r="B176" s="85"/>
+      <c r="C176" s="86"/>
+      <c r="D176" s="85" t="s">
         <v>385</v>
       </c>
       <c r="E176" s="12" t="s">
@@ -7480,19 +8644,19 @@
       </c>
     </row>
     <row r="177" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="61"/>
-      <c r="B177" s="55"/>
-      <c r="C177" s="56"/>
-      <c r="D177" s="55"/>
+      <c r="A177" s="93"/>
+      <c r="B177" s="85"/>
+      <c r="C177" s="86"/>
+      <c r="D177" s="85"/>
       <c r="E177" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="178" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="61"/>
-      <c r="B178" s="55"/>
-      <c r="C178" s="56"/>
-      <c r="D178" s="55" t="s">
+      <c r="A178" s="93"/>
+      <c r="B178" s="85"/>
+      <c r="C178" s="86"/>
+      <c r="D178" s="85" t="s">
         <v>387</v>
       </c>
       <c r="E178" s="12" t="s">
@@ -7500,18 +8664,18 @@
       </c>
     </row>
     <row r="179" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="61"/>
-      <c r="B179" s="55"/>
-      <c r="C179" s="56"/>
-      <c r="D179" s="55"/>
+      <c r="A179" s="93"/>
+      <c r="B179" s="85"/>
+      <c r="C179" s="86"/>
+      <c r="D179" s="85"/>
       <c r="E179" s="12" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="180" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A180" s="61"/>
-      <c r="B180" s="55"/>
-      <c r="C180" s="56"/>
+      <c r="A180" s="93"/>
+      <c r="B180" s="85"/>
+      <c r="C180" s="86"/>
       <c r="D180" s="12" t="s">
         <v>390</v>
       </c>
@@ -7520,8 +8684,8 @@
       </c>
     </row>
     <row r="181" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="61"/>
-      <c r="B181" s="55" t="s">
+      <c r="A181" s="93"/>
+      <c r="B181" s="85" t="s">
         <v>394</v>
       </c>
       <c r="C181" s="20"/>
@@ -7530,27 +8694,27 @@
       </c>
     </row>
     <row r="182" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A182" s="61"/>
-      <c r="B182" s="55"/>
+      <c r="A182" s="93"/>
+      <c r="B182" s="85"/>
       <c r="C182" s="20"/>
       <c r="D182" s="12" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="183" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A183" s="61"/>
-      <c r="B183" s="55"/>
+      <c r="A183" s="93"/>
+      <c r="B183" s="85"/>
       <c r="C183" s="20"/>
       <c r="D183" s="12" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="184" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A184" s="61"/>
-      <c r="B184" s="55" t="s">
+      <c r="A184" s="93"/>
+      <c r="B184" s="85" t="s">
         <v>395</v>
       </c>
-      <c r="C184" s="56" t="s">
+      <c r="C184" s="86" t="s">
         <v>401</v>
       </c>
       <c r="D184" s="12" t="s">
@@ -7561,9 +8725,9 @@
       </c>
     </row>
     <row r="185" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A185" s="61"/>
-      <c r="B185" s="55"/>
-      <c r="C185" s="56"/>
+      <c r="A185" s="93"/>
+      <c r="B185" s="85"/>
+      <c r="C185" s="86"/>
       <c r="D185" s="12" t="s">
         <v>398</v>
       </c>
@@ -7572,9 +8736,9 @@
       </c>
     </row>
     <row r="186" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A186" s="61"/>
-      <c r="B186" s="55"/>
-      <c r="C186" s="56"/>
+      <c r="A186" s="93"/>
+      <c r="B186" s="85"/>
+      <c r="C186" s="86"/>
       <c r="D186" s="12" t="s">
         <v>140</v>
       </c>
@@ -7583,11 +8747,11 @@
       </c>
     </row>
     <row r="187" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A187" s="61"/>
-      <c r="B187" s="55" t="s">
+      <c r="A187" s="93"/>
+      <c r="B187" s="85" t="s">
         <v>402</v>
       </c>
-      <c r="C187" s="56" t="s">
+      <c r="C187" s="86" t="s">
         <v>403</v>
       </c>
       <c r="D187" s="12" t="s">
@@ -7598,9 +8762,9 @@
       </c>
     </row>
     <row r="188" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="61"/>
-      <c r="B188" s="55"/>
-      <c r="C188" s="56"/>
+      <c r="A188" s="93"/>
+      <c r="B188" s="85"/>
+      <c r="C188" s="86"/>
       <c r="D188" s="12" t="s">
         <v>398</v>
       </c>
@@ -7609,9 +8773,9 @@
       </c>
     </row>
     <row r="189" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="61"/>
-      <c r="B189" s="55"/>
-      <c r="C189" s="56"/>
+      <c r="A189" s="93"/>
+      <c r="B189" s="85"/>
+      <c r="C189" s="86"/>
       <c r="D189" s="12" t="s">
         <v>248</v>
       </c>
@@ -7620,11 +8784,11 @@
       </c>
     </row>
     <row r="190" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="61"/>
-      <c r="B190" s="55" t="s">
+      <c r="A190" s="93"/>
+      <c r="B190" s="85" t="s">
         <v>417</v>
       </c>
-      <c r="C190" s="66" t="s">
+      <c r="C190" s="98" t="s">
         <v>418</v>
       </c>
       <c r="D190" s="12" t="s">
@@ -7635,9 +8799,9 @@
       </c>
     </row>
     <row r="191" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A191" s="61"/>
-      <c r="B191" s="55"/>
-      <c r="C191" s="67"/>
+      <c r="A191" s="93"/>
+      <c r="B191" s="85"/>
+      <c r="C191" s="99"/>
       <c r="D191" s="12" t="s">
         <v>407</v>
       </c>
@@ -7646,9 +8810,9 @@
       </c>
     </row>
     <row r="192" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A192" s="61"/>
-      <c r="B192" s="55"/>
-      <c r="C192" s="67"/>
+      <c r="A192" s="93"/>
+      <c r="B192" s="85"/>
+      <c r="C192" s="99"/>
       <c r="D192" s="12" t="s">
         <v>409</v>
       </c>
@@ -7657,9 +8821,9 @@
       </c>
     </row>
     <row r="193" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A193" s="61"/>
-      <c r="B193" s="55"/>
-      <c r="C193" s="67"/>
+      <c r="A193" s="93"/>
+      <c r="B193" s="85"/>
+      <c r="C193" s="99"/>
       <c r="D193" s="12" t="s">
         <v>411</v>
       </c>
@@ -7668,9 +8832,9 @@
       </c>
     </row>
     <row r="194" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A194" s="61"/>
-      <c r="B194" s="55"/>
-      <c r="C194" s="67"/>
+      <c r="A194" s="93"/>
+      <c r="B194" s="85"/>
+      <c r="C194" s="99"/>
       <c r="D194" s="12" t="s">
         <v>413</v>
       </c>
@@ -7679,9 +8843,9 @@
       </c>
     </row>
     <row r="195" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A195" s="61"/>
-      <c r="B195" s="55"/>
-      <c r="C195" s="67"/>
+      <c r="A195" s="93"/>
+      <c r="B195" s="85"/>
+      <c r="C195" s="99"/>
       <c r="D195" s="12" t="s">
         <v>415</v>
       </c>
@@ -7690,7 +8854,7 @@
       </c>
     </row>
     <row r="196" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A196" s="61"/>
+      <c r="A196" s="93"/>
       <c r="B196" s="18" t="s">
         <v>419</v>
       </c>
@@ -7702,11 +8866,11 @@
       </c>
     </row>
     <row r="197" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A197" s="61"/>
-      <c r="B197" s="55" t="s">
+      <c r="A197" s="93"/>
+      <c r="B197" s="85" t="s">
         <v>422</v>
       </c>
-      <c r="C197" s="56" t="s">
+      <c r="C197" s="86" t="s">
         <v>423</v>
       </c>
       <c r="D197" s="15" t="s">
@@ -7720,9 +8884,9 @@
       </c>
     </row>
     <row r="198" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A198" s="61"/>
-      <c r="B198" s="55"/>
-      <c r="C198" s="56"/>
+      <c r="A198" s="93"/>
+      <c r="B198" s="85"/>
+      <c r="C198" s="86"/>
       <c r="D198" s="15" t="s">
         <v>424</v>
       </c>
@@ -7731,9 +8895,9 @@
       </c>
     </row>
     <row r="199" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="61"/>
-      <c r="B199" s="55"/>
-      <c r="C199" s="56"/>
+      <c r="A199" s="93"/>
+      <c r="B199" s="85"/>
+      <c r="C199" s="86"/>
       <c r="D199" s="15" t="s">
         <v>425</v>
       </c>
@@ -7742,9 +8906,9 @@
       </c>
     </row>
     <row r="200" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A200" s="61"/>
-      <c r="B200" s="55"/>
-      <c r="C200" s="56"/>
+      <c r="A200" s="93"/>
+      <c r="B200" s="85"/>
+      <c r="C200" s="86"/>
       <c r="D200" s="15" t="s">
         <v>426</v>
       </c>
@@ -7753,11 +8917,11 @@
       </c>
     </row>
     <row r="201" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A201" s="61"/>
-      <c r="B201" s="55" t="s">
+      <c r="A201" s="93"/>
+      <c r="B201" s="85" t="s">
         <v>432</v>
       </c>
-      <c r="C201" s="56" t="s">
+      <c r="C201" s="86" t="s">
         <v>433</v>
       </c>
       <c r="D201" s="15" t="s">
@@ -7768,9 +8932,9 @@
       </c>
     </row>
     <row r="202" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A202" s="61"/>
-      <c r="B202" s="55"/>
-      <c r="C202" s="56"/>
+      <c r="A202" s="93"/>
+      <c r="B202" s="85"/>
+      <c r="C202" s="86"/>
       <c r="D202" s="15" t="s">
         <v>435</v>
       </c>
@@ -7779,9 +8943,9 @@
       </c>
     </row>
     <row r="203" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A203" s="61"/>
-      <c r="B203" s="55"/>
-      <c r="C203" s="56"/>
+      <c r="A203" s="93"/>
+      <c r="B203" s="85"/>
+      <c r="C203" s="86"/>
       <c r="D203" s="15" t="s">
         <v>436</v>
       </c>
@@ -7790,9 +8954,9 @@
       </c>
     </row>
     <row r="204" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A204" s="61"/>
-      <c r="B204" s="55"/>
-      <c r="C204" s="56"/>
+      <c r="A204" s="93"/>
+      <c r="B204" s="85"/>
+      <c r="C204" s="86"/>
       <c r="D204" s="12" t="s">
         <v>440</v>
       </c>
@@ -7801,9 +8965,9 @@
       </c>
     </row>
     <row r="205" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="61"/>
-      <c r="B205" s="55"/>
-      <c r="C205" s="56"/>
+      <c r="A205" s="93"/>
+      <c r="B205" s="85"/>
+      <c r="C205" s="86"/>
       <c r="D205" s="12" t="s">
         <v>442</v>
       </c>
@@ -7812,9 +8976,9 @@
       </c>
     </row>
     <row r="206" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A206" s="61"/>
-      <c r="B206" s="55"/>
-      <c r="C206" s="56"/>
+      <c r="A206" s="93"/>
+      <c r="B206" s="85"/>
+      <c r="C206" s="86"/>
       <c r="D206" s="12" t="s">
         <v>444</v>
       </c>
@@ -7823,9 +8987,9 @@
       </c>
     </row>
     <row r="207" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A207" s="61"/>
-      <c r="B207" s="55"/>
-      <c r="C207" s="56"/>
+      <c r="A207" s="93"/>
+      <c r="B207" s="85"/>
+      <c r="C207" s="86"/>
       <c r="D207" s="12" t="s">
         <v>446</v>
       </c>
@@ -7834,17 +8998,17 @@
       </c>
     </row>
     <row r="208" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A208" s="61"/>
-      <c r="B208" s="55"/>
-      <c r="C208" s="56"/>
+      <c r="A208" s="93"/>
+      <c r="B208" s="85"/>
+      <c r="C208" s="86"/>
       <c r="D208" s="12" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="209" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A209" s="61"/>
-      <c r="B209" s="55"/>
-      <c r="C209" s="56"/>
+      <c r="A209" s="93"/>
+      <c r="B209" s="85"/>
+      <c r="C209" s="86"/>
       <c r="D209" s="12" t="s">
         <v>290</v>
       </c>
@@ -7853,11 +9017,11 @@
       </c>
     </row>
     <row r="210" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="61"/>
-      <c r="B210" s="55" t="s">
+      <c r="A210" s="93"/>
+      <c r="B210" s="85" t="s">
         <v>449</v>
       </c>
-      <c r="C210" s="56" t="s">
+      <c r="C210" s="86" t="s">
         <v>453</v>
       </c>
       <c r="D210" s="12" t="s">
@@ -7868,9 +9032,9 @@
       </c>
     </row>
     <row r="211" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A211" s="61"/>
-      <c r="B211" s="55"/>
-      <c r="C211" s="56"/>
+      <c r="A211" s="93"/>
+      <c r="B211" s="85"/>
+      <c r="C211" s="86"/>
       <c r="D211" s="12" t="s">
         <v>142</v>
       </c>
@@ -7879,9 +9043,9 @@
       </c>
     </row>
     <row r="212" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A212" s="61"/>
-      <c r="B212" s="55"/>
-      <c r="C212" s="56"/>
+      <c r="A212" s="93"/>
+      <c r="B212" s="85"/>
+      <c r="C212" s="86"/>
       <c r="D212" s="12" t="s">
         <v>451</v>
       </c>
@@ -7890,7 +9054,7 @@
       </c>
     </row>
     <row r="213" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A213" s="61"/>
+      <c r="A213" s="93"/>
       <c r="B213" s="18" t="s">
         <v>455</v>
       </c>
@@ -7921,10 +9085,10 @@
     </row>
     <row r="215" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="84"/>
-      <c r="B215" s="58" t="s">
+      <c r="B215" s="79" t="s">
         <v>675</v>
       </c>
-      <c r="C215" s="57" t="s">
+      <c r="C215" s="78" t="s">
         <v>676</v>
       </c>
       <c r="D215" s="38" t="s">
@@ -7936,8 +9100,8 @@
     </row>
     <row r="216" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="84"/>
-      <c r="B216" s="58"/>
-      <c r="C216" s="57"/>
+      <c r="B216" s="79"/>
+      <c r="C216" s="78"/>
       <c r="D216" s="38" t="s">
         <v>679</v>
       </c>
@@ -7947,8 +9111,8 @@
     </row>
     <row r="217" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="84"/>
-      <c r="B217" s="58"/>
-      <c r="C217" s="57"/>
+      <c r="B217" s="79"/>
+      <c r="C217" s="78"/>
       <c r="D217" s="38" t="s">
         <v>681</v>
       </c>
@@ -7958,8 +9122,8 @@
     </row>
     <row r="218" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="84"/>
-      <c r="B218" s="58"/>
-      <c r="C218" s="57"/>
+      <c r="B218" s="79"/>
+      <c r="C218" s="78"/>
       <c r="D218" s="38" t="s">
         <v>682</v>
       </c>
@@ -7969,10 +9133,10 @@
     </row>
     <row r="219" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="84"/>
-      <c r="B219" s="58" t="s">
+      <c r="B219" s="79" t="s">
         <v>685</v>
       </c>
-      <c r="C219" s="57" t="s">
+      <c r="C219" s="78" t="s">
         <v>686</v>
       </c>
       <c r="D219" s="38" t="s">
@@ -7984,8 +9148,8 @@
     </row>
     <row r="220" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="84"/>
-      <c r="B220" s="58"/>
-      <c r="C220" s="57"/>
+      <c r="B220" s="79"/>
+      <c r="C220" s="78"/>
       <c r="D220" s="38" t="s">
         <v>687</v>
       </c>
@@ -7995,8 +9159,8 @@
     </row>
     <row r="221" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="84"/>
-      <c r="B221" s="58"/>
-      <c r="C221" s="57"/>
+      <c r="B221" s="79"/>
+      <c r="C221" s="78"/>
       <c r="D221" s="38" t="s">
         <v>688</v>
       </c>
@@ -8017,10 +9181,10 @@
     </row>
     <row r="223" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="84"/>
-      <c r="B223" s="58" t="s">
+      <c r="B223" s="79" t="s">
         <v>695</v>
       </c>
-      <c r="C223" s="57" t="s">
+      <c r="C223" s="78" t="s">
         <v>696</v>
       </c>
       <c r="D223" s="38" t="s">
@@ -8032,8 +9196,8 @@
     </row>
     <row r="224" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="84"/>
-      <c r="B224" s="58"/>
-      <c r="C224" s="57"/>
+      <c r="B224" s="79"/>
+      <c r="C224" s="78"/>
       <c r="D224" s="38" t="s">
         <v>699</v>
       </c>
@@ -8043,8 +9207,8 @@
     </row>
     <row r="225" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="84"/>
-      <c r="B225" s="58"/>
-      <c r="C225" s="57"/>
+      <c r="B225" s="79"/>
+      <c r="C225" s="78"/>
       <c r="D225" s="38" t="s">
         <v>701</v>
       </c>
@@ -8054,8 +9218,8 @@
     </row>
     <row r="226" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="84"/>
-      <c r="B226" s="58"/>
-      <c r="C226" s="57"/>
+      <c r="B226" s="79"/>
+      <c r="C226" s="78"/>
       <c r="D226" s="38" t="s">
         <v>703</v>
       </c>
@@ -8065,8 +9229,8 @@
     </row>
     <row r="227" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="84"/>
-      <c r="B227" s="58"/>
-      <c r="C227" s="57"/>
+      <c r="B227" s="79"/>
+      <c r="C227" s="78"/>
       <c r="D227" s="38" t="s">
         <v>705</v>
       </c>
@@ -8076,10 +9240,10 @@
     </row>
     <row r="228" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="84"/>
-      <c r="B228" s="58" t="s">
+      <c r="B228" s="79" t="s">
         <v>707</v>
       </c>
-      <c r="C228" s="57" t="s">
+      <c r="C228" s="78" t="s">
         <v>708</v>
       </c>
       <c r="D228" s="38" t="s">
@@ -8091,8 +9255,8 @@
     </row>
     <row r="229" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="84"/>
-      <c r="B229" s="58"/>
-      <c r="C229" s="57"/>
+      <c r="B229" s="79"/>
+      <c r="C229" s="78"/>
       <c r="D229" s="38" t="s">
         <v>699</v>
       </c>
@@ -8102,8 +9266,8 @@
     </row>
     <row r="230" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="84"/>
-      <c r="B230" s="58"/>
-      <c r="C230" s="57"/>
+      <c r="B230" s="79"/>
+      <c r="C230" s="78"/>
       <c r="D230" s="38" t="s">
         <v>701</v>
       </c>
@@ -8113,8 +9277,8 @@
     </row>
     <row r="231" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="84"/>
-      <c r="B231" s="58"/>
-      <c r="C231" s="57"/>
+      <c r="B231" s="79"/>
+      <c r="C231" s="78"/>
       <c r="D231" s="38" t="s">
         <v>710</v>
       </c>
@@ -8124,8 +9288,8 @@
     </row>
     <row r="232" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="84"/>
-      <c r="B232" s="58"/>
-      <c r="C232" s="57"/>
+      <c r="B232" s="79"/>
+      <c r="C232" s="78"/>
       <c r="D232" s="38" t="s">
         <v>712</v>
       </c>
@@ -8135,7 +9299,7 @@
     </row>
     <row r="233" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="84"/>
-      <c r="B233" s="58" t="s">
+      <c r="B233" s="79" t="s">
         <v>718</v>
       </c>
       <c r="C233" s="80" t="s">
@@ -8150,7 +9314,7 @@
     </row>
     <row r="234" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="84"/>
-      <c r="B234" s="58"/>
+      <c r="B234" s="79"/>
       <c r="C234" s="81"/>
       <c r="D234" s="38" t="s">
         <v>699</v>
@@ -8161,7 +9325,7 @@
     </row>
     <row r="235" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="84"/>
-      <c r="B235" s="58"/>
+      <c r="B235" s="79"/>
       <c r="C235" s="81"/>
       <c r="D235" s="38" t="s">
         <v>701</v>
@@ -8172,7 +9336,7 @@
     </row>
     <row r="236" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="84"/>
-      <c r="B236" s="58"/>
+      <c r="B236" s="79"/>
       <c r="C236" s="81"/>
       <c r="D236" s="38" t="s">
         <v>703</v>
@@ -8183,7 +9347,7 @@
     </row>
     <row r="237" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="84"/>
-      <c r="B237" s="58"/>
+      <c r="B237" s="79"/>
       <c r="C237" s="81"/>
       <c r="D237" s="38" t="s">
         <v>705</v>
@@ -8204,7 +9368,7 @@
       </c>
     </row>
     <row r="239" spans="1:5" s="12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A239" s="76" t="s">
+      <c r="A239" s="74" t="s">
         <v>727</v>
       </c>
       <c r="B239" s="45" t="s">
@@ -8219,7 +9383,7 @@
       <c r="E239" s="45"/>
     </row>
     <row r="240" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A240" s="76"/>
+      <c r="A240" s="74"/>
       <c r="B240" s="45" t="s">
         <v>731</v>
       </c>
@@ -8230,7 +9394,7 @@
       <c r="E240" s="45"/>
     </row>
     <row r="241" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A241" s="76"/>
+      <c r="A241" s="74"/>
       <c r="B241" s="45" t="s">
         <v>733</v>
       </c>
@@ -8241,7 +9405,7 @@
       <c r="E241" s="45"/>
     </row>
     <row r="242" spans="1:5" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A242" s="76"/>
+      <c r="A242" s="74"/>
       <c r="B242" s="45" t="s">
         <v>735</v>
       </c>
@@ -8252,7 +9416,7 @@
       <c r="E242" s="45"/>
     </row>
     <row r="243" spans="1:5" s="12" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A243" s="76"/>
+      <c r="A243" s="74"/>
       <c r="B243" s="45" t="s">
         <v>673</v>
       </c>
@@ -8263,60 +9427,60 @@
       <c r="E243" s="45"/>
     </row>
     <row r="244" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A244" s="76"/>
-      <c r="B244" s="75" t="s">
+      <c r="A244" s="74"/>
+      <c r="B244" s="73" t="s">
         <v>738</v>
       </c>
-      <c r="C244" s="74" t="s">
+      <c r="C244" s="72" t="s">
         <v>739</v>
       </c>
       <c r="D244" s="45" t="s">
         <v>709</v>
       </c>
-      <c r="E244" s="77" t="s">
+      <c r="E244" s="75" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="245" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A245" s="76"/>
-      <c r="B245" s="75"/>
-      <c r="C245" s="74"/>
+      <c r="A245" s="74"/>
+      <c r="B245" s="73"/>
+      <c r="C245" s="72"/>
       <c r="D245" s="45" t="s">
         <v>699</v>
       </c>
-      <c r="E245" s="78"/>
+      <c r="E245" s="76"/>
     </row>
     <row r="246" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A246" s="76"/>
-      <c r="B246" s="75"/>
-      <c r="C246" s="74"/>
+      <c r="A246" s="74"/>
+      <c r="B246" s="73"/>
+      <c r="C246" s="72"/>
       <c r="D246" s="45" t="s">
         <v>701</v>
       </c>
-      <c r="E246" s="78"/>
+      <c r="E246" s="76"/>
     </row>
     <row r="247" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A247" s="76"/>
-      <c r="B247" s="75"/>
-      <c r="C247" s="74"/>
+      <c r="A247" s="74"/>
+      <c r="B247" s="73"/>
+      <c r="C247" s="72"/>
       <c r="D247" s="45" t="s">
         <v>710</v>
       </c>
-      <c r="E247" s="78"/>
+      <c r="E247" s="76"/>
     </row>
     <row r="248" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A248" s="76"/>
-      <c r="B248" s="75"/>
-      <c r="C248" s="74"/>
+      <c r="A248" s="74"/>
+      <c r="B248" s="73"/>
+      <c r="C248" s="72"/>
       <c r="D248" s="45" t="s">
         <v>711</v>
       </c>
-      <c r="E248" s="79"/>
+      <c r="E248" s="77"/>
     </row>
     <row r="249" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A249" s="76"/>
-      <c r="B249" s="75"/>
-      <c r="C249" s="74"/>
+      <c r="A249" s="74"/>
+      <c r="B249" s="73"/>
+      <c r="C249" s="72"/>
       <c r="D249" s="45" t="s">
         <v>740</v>
       </c>
@@ -8430,7 +9594,7 @@
       <c r="C270" s="37"/>
     </row>
     <row r="271" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A271" s="68" t="s">
+      <c r="A271" s="100" t="s">
         <v>557</v>
       </c>
       <c r="B271" s="27" t="s">
@@ -8441,7 +9605,7 @@
       </c>
     </row>
     <row r="272" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A272" s="68"/>
+      <c r="A272" s="100"/>
       <c r="B272" s="27" t="s">
         <v>560</v>
       </c>
@@ -8450,7 +9614,7 @@
       </c>
     </row>
     <row r="273" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A273" s="68"/>
+      <c r="A273" s="100"/>
       <c r="B273" s="27" t="s">
         <v>562</v>
       </c>
@@ -8459,7 +9623,7 @@
       </c>
     </row>
     <row r="274" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A274" s="68"/>
+      <c r="A274" s="100"/>
       <c r="B274" s="27" t="s">
         <v>564</v>
       </c>
@@ -8553,7 +9717,7 @@
       <c r="C291" s="20"/>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A292" s="62" t="s">
+      <c r="A292" s="94" t="s">
         <v>320</v>
       </c>
       <c r="B292" s="19" t="s">
@@ -8564,7 +9728,7 @@
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A293" s="63"/>
+      <c r="A293" s="95"/>
       <c r="B293" s="19" t="s">
         <v>306</v>
       </c>
@@ -8573,7 +9737,7 @@
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A294" s="63"/>
+      <c r="A294" s="95"/>
       <c r="B294" s="19" t="s">
         <v>308</v>
       </c>
@@ -8582,7 +9746,7 @@
       </c>
     </row>
     <row r="295" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A295" s="63"/>
+      <c r="A295" s="95"/>
       <c r="B295" s="19" t="s">
         <v>310</v>
       </c>
@@ -8591,7 +9755,7 @@
       </c>
     </row>
     <row r="296" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A296" s="63"/>
+      <c r="A296" s="95"/>
       <c r="B296" s="19" t="s">
         <v>312</v>
       </c>
@@ -8600,7 +9764,7 @@
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A297" s="63"/>
+      <c r="A297" s="95"/>
       <c r="B297" s="19" t="s">
         <v>314</v>
       </c>
@@ -8609,7 +9773,7 @@
       </c>
     </row>
     <row r="298" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A298" s="63"/>
+      <c r="A298" s="95"/>
       <c r="B298" s="19" t="s">
         <v>316</v>
       </c>
@@ -8618,7 +9782,7 @@
       </c>
     </row>
     <row r="299" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A299" s="63"/>
+      <c r="A299" s="95"/>
       <c r="B299" s="19" t="s">
         <v>318</v>
       </c>
@@ -8678,66 +9842,29 @@
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="C244:C249"/>
-    <mergeCell ref="B244:B249"/>
-    <mergeCell ref="A239:A249"/>
-    <mergeCell ref="E244:E248"/>
-    <mergeCell ref="C228:C232"/>
-    <mergeCell ref="B228:B232"/>
-    <mergeCell ref="C233:C238"/>
-    <mergeCell ref="B233:B238"/>
-    <mergeCell ref="A214:A238"/>
-    <mergeCell ref="C219:C221"/>
-    <mergeCell ref="B219:B221"/>
-    <mergeCell ref="C223:C227"/>
-    <mergeCell ref="B223:B227"/>
-    <mergeCell ref="D174:D175"/>
-    <mergeCell ref="D176:D177"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="C174:C180"/>
-    <mergeCell ref="B174:B180"/>
-    <mergeCell ref="C148:C150"/>
-    <mergeCell ref="B151:B154"/>
-    <mergeCell ref="C151:C154"/>
-    <mergeCell ref="B155:B157"/>
-    <mergeCell ref="C155:C157"/>
-    <mergeCell ref="F66:G68"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="B163:B167"/>
-    <mergeCell ref="C163:C167"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="C82:C87"/>
-    <mergeCell ref="B82:B87"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C121:C125"/>
-    <mergeCell ref="B121:B125"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A2:A21"/>
-    <mergeCell ref="B50:B60"/>
-    <mergeCell ref="C50:C60"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="A22:A46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="A47:A81"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="A110:A157"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="C117:C120"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="B128:B131"/>
+    <mergeCell ref="C128:C131"/>
+    <mergeCell ref="B132:B135"/>
+    <mergeCell ref="C132:C135"/>
+    <mergeCell ref="B136:B140"/>
+    <mergeCell ref="C136:C140"/>
+    <mergeCell ref="C197:C200"/>
+    <mergeCell ref="C201:C209"/>
+    <mergeCell ref="B201:B209"/>
+    <mergeCell ref="B210:B212"/>
+    <mergeCell ref="C210:C212"/>
+    <mergeCell ref="B184:B186"/>
+    <mergeCell ref="C184:C186"/>
+    <mergeCell ref="C215:C218"/>
+    <mergeCell ref="B215:B218"/>
     <mergeCell ref="A82:A87"/>
     <mergeCell ref="B88:B91"/>
     <mergeCell ref="C88:C91"/>
@@ -8762,29 +9889,66 @@
     <mergeCell ref="B197:B200"/>
     <mergeCell ref="A271:A274"/>
     <mergeCell ref="A174:A213"/>
-    <mergeCell ref="C197:C200"/>
-    <mergeCell ref="C201:C209"/>
-    <mergeCell ref="B201:B209"/>
-    <mergeCell ref="B210:B212"/>
-    <mergeCell ref="C210:C212"/>
-    <mergeCell ref="B184:B186"/>
-    <mergeCell ref="C184:C186"/>
-    <mergeCell ref="C215:C218"/>
-    <mergeCell ref="B215:B218"/>
-    <mergeCell ref="A110:A157"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="C117:C120"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="B128:B131"/>
-    <mergeCell ref="C128:C131"/>
-    <mergeCell ref="B132:B135"/>
-    <mergeCell ref="C132:C135"/>
-    <mergeCell ref="B136:B140"/>
-    <mergeCell ref="C136:C140"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="B50:B60"/>
+    <mergeCell ref="C50:C60"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="A22:A46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="A47:A81"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="F66:G68"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="B163:B167"/>
+    <mergeCell ref="C163:C167"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="C82:C87"/>
+    <mergeCell ref="B82:B87"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C121:C125"/>
+    <mergeCell ref="B121:B125"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D174:D175"/>
+    <mergeCell ref="D176:D177"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="C174:C180"/>
+    <mergeCell ref="B174:B180"/>
+    <mergeCell ref="C148:C150"/>
+    <mergeCell ref="B151:B154"/>
+    <mergeCell ref="C151:C154"/>
+    <mergeCell ref="B155:B157"/>
+    <mergeCell ref="C155:C157"/>
+    <mergeCell ref="C244:C249"/>
+    <mergeCell ref="B244:B249"/>
+    <mergeCell ref="A239:A249"/>
+    <mergeCell ref="E244:E248"/>
+    <mergeCell ref="C228:C232"/>
+    <mergeCell ref="B228:B232"/>
+    <mergeCell ref="C233:C238"/>
+    <mergeCell ref="B233:B238"/>
+    <mergeCell ref="A214:A238"/>
+    <mergeCell ref="C219:C221"/>
+    <mergeCell ref="B219:B221"/>
+    <mergeCell ref="C223:C227"/>
+    <mergeCell ref="B223:B227"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8799,10 +9963,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6ACF1E-CD6A-4FCA-B0FB-1587C5613655}">
-  <dimension ref="A4:D35"/>
+  <dimension ref="A4:E118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A86" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8810,10 +9974,11 @@
     <col min="2" max="2" width="53.25" style="47" customWidth="1"/>
     <col min="3" max="3" width="45.625" style="47" customWidth="1"/>
     <col min="4" max="4" width="42.5" style="47" customWidth="1"/>
+    <col min="5" max="5" width="41.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="71" t="s">
         <v>761</v>
       </c>
       <c r="B4" s="47" t="s">
@@ -8824,7 +9989,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="73"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="47" t="s">
         <v>764</v>
       </c>
@@ -8841,7 +10006,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="71" t="s">
         <v>768</v>
       </c>
       <c r="B7" s="47" t="s">
@@ -8852,7 +10017,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A8" s="73"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="47" t="s">
         <v>770</v>
       </c>
@@ -8861,13 +10026,13 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="73"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="47" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A10" s="73"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="47" t="s">
         <v>774</v>
       </c>
@@ -8876,7 +10041,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="73"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="47" t="s">
         <v>776</v>
       </c>
@@ -8885,7 +10050,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="69" t="s">
         <v>778</v>
       </c>
       <c r="B12" s="47" t="s">
@@ -8893,7 +10058,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="81" x14ac:dyDescent="0.15">
-      <c r="A13" s="52"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="47" t="s">
         <v>779</v>
       </c>
@@ -8902,7 +10067,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="52"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="47" t="s">
         <v>781</v>
       </c>
@@ -8911,7 +10076,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="52"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="47" t="s">
         <v>783</v>
       </c>
@@ -8920,7 +10085,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="71" t="s">
         <v>786</v>
       </c>
       <c r="B16" s="47" t="s">
@@ -8934,36 +10099,36 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="73"/>
-      <c r="B17" s="49" t="s">
+      <c r="A17" s="71"/>
+      <c r="B17" s="66" t="s">
         <v>790</v>
       </c>
       <c r="C17" s="47" t="s">
         <v>791</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="66" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="73"/>
-      <c r="B18" s="49"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="47" t="s">
         <v>792</v>
       </c>
-      <c r="D18" s="49"/>
+      <c r="D18" s="66"/>
     </row>
     <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="73"/>
-      <c r="B19" s="49"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="47" t="s">
         <v>793</v>
       </c>
-      <c r="D19" s="49"/>
+      <c r="D19" s="66"/>
     </row>
     <row r="20" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="73"/>
-      <c r="B20" s="49" t="s">
+      <c r="A20" s="71"/>
+      <c r="B20" s="66" t="s">
         <v>795</v>
       </c>
       <c r="C20" s="47" t="s">
@@ -8971,14 +10136,14 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A21" s="73"/>
-      <c r="B21" s="49"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="66"/>
       <c r="C21" s="47" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="73"/>
+      <c r="A22" s="71"/>
       <c r="B22" s="47" t="s">
         <v>798</v>
       </c>
@@ -8987,7 +10152,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="81" x14ac:dyDescent="0.15">
-      <c r="A23" s="73"/>
+      <c r="A23" s="71"/>
       <c r="B23" s="47" t="s">
         <v>800</v>
       </c>
@@ -8996,7 +10161,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A24" s="73"/>
+      <c r="A24" s="71"/>
       <c r="B24" s="47" t="s">
         <v>802</v>
       </c>
@@ -9005,7 +10170,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A25" s="85" t="s">
+      <c r="A25" s="103" t="s">
         <v>804</v>
       </c>
       <c r="B25" s="47" t="s">
@@ -9014,25 +10179,31 @@
       <c r="C25" s="47" t="s">
         <v>806</v>
       </c>
+      <c r="D25" s="47" t="s">
+        <v>964</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="85"/>
-      <c r="B26" s="49" t="s">
+      <c r="A26" s="103"/>
+      <c r="B26" s="66" t="s">
         <v>807</v>
       </c>
       <c r="C26" s="47" t="s">
         <v>808</v>
       </c>
+      <c r="D26" s="47" t="s">
+        <v>965</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="85"/>
-      <c r="B27" s="49"/>
+      <c r="A27" s="103"/>
+      <c r="B27" s="66"/>
       <c r="C27" s="47" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="85"/>
+      <c r="A28" s="103"/>
       <c r="B28" s="47" t="s">
         <v>810</v>
       </c>
@@ -9041,7 +10212,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="85"/>
+      <c r="A29" s="103"/>
       <c r="B29" s="47" t="s">
         <v>812</v>
       </c>
@@ -9053,7 +10224,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="85"/>
+      <c r="A30" s="103"/>
       <c r="B30" s="47" t="s">
         <v>815</v>
       </c>
@@ -9065,8 +10236,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="85"/>
-      <c r="B31" s="49" t="s">
+      <c r="A31" s="103"/>
+      <c r="B31" s="66" t="s">
         <v>818</v>
       </c>
       <c r="C31" s="47" t="s">
@@ -9074,14 +10245,14 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A32" s="85"/>
-      <c r="B32" s="49"/>
+      <c r="A32" s="103"/>
+      <c r="B32" s="66"/>
       <c r="C32" s="47" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A33" s="85"/>
+    <row r="33" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A33" s="103"/>
       <c r="B33" s="47" t="s">
         <v>821</v>
       </c>
@@ -9089,8 +10260,8 @@
         <v>822</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="85"/>
+    <row r="34" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="103"/>
       <c r="B34" s="47" t="s">
         <v>823</v>
       </c>
@@ -9098,31 +10269,948 @@
         <v>824</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
+    <row r="35" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="71" t="s">
+        <v>842</v>
+      </c>
+      <c r="B35" s="49" t="s">
+        <v>843</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>844</v>
+      </c>
+      <c r="D35" s="49"/>
+    </row>
+    <row r="36" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="71"/>
+      <c r="B36" s="49" t="s">
+        <v>845</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>846</v>
+      </c>
+      <c r="D36" s="49"/>
+    </row>
+    <row r="37" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="71"/>
+      <c r="B37" s="49" t="s">
+        <v>848</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>847</v>
+      </c>
+      <c r="D37" s="49"/>
+    </row>
+    <row r="38" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="71"/>
+      <c r="B38" s="49" t="s">
+        <v>850</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>849</v>
+      </c>
+      <c r="D38" s="49"/>
+    </row>
+    <row r="39" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="71"/>
+      <c r="B39" s="62" t="s">
+        <v>978</v>
+      </c>
+      <c r="C39" s="62" t="s">
+        <v>979</v>
+      </c>
+      <c r="D39" s="62"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="71" t="s">
         <v>825</v>
       </c>
+      <c r="B40" s="50" t="s">
+        <v>833</v>
+      </c>
+      <c r="C40" s="49"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="71"/>
+      <c r="B41" s="50" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="71"/>
+      <c r="B42" s="50" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="71"/>
+      <c r="B43" s="50" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="71"/>
+      <c r="B44" s="50" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="71"/>
+      <c r="B45" s="50" t="s">
+        <v>831</v>
+      </c>
+      <c r="C45" s="61" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="71"/>
+      <c r="B46" s="51" t="s">
+        <v>832</v>
+      </c>
+      <c r="D46" s="61" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="71"/>
+      <c r="B47" s="51" t="s">
+        <v>834</v>
+      </c>
+      <c r="D47" s="61" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="71"/>
+      <c r="B48" s="52" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="71"/>
+      <c r="B49" s="52" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="71"/>
+      <c r="B50" s="53" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="71"/>
+      <c r="B51" s="53" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="71"/>
+      <c r="B52" s="53" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="71"/>
+      <c r="B53" s="53" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="71"/>
+      <c r="B54" s="52" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="71"/>
+      <c r="B55" s="54" t="s">
+        <v>858</v>
+      </c>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="71"/>
+      <c r="B56" s="55" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="71"/>
+      <c r="B57" s="55" t="s">
+        <v>852</v>
+      </c>
+      <c r="C57" s="47" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="71"/>
+      <c r="B58" s="54" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="71"/>
+      <c r="B59" s="54" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="71"/>
+      <c r="B60" s="54" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="71"/>
+      <c r="B61" s="54" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="71"/>
+      <c r="B62" s="54" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="71"/>
+      <c r="B63" s="56" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="71"/>
+      <c r="B64" s="56" t="s">
+        <v>860</v>
+      </c>
+      <c r="C64" s="47" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" s="71"/>
+      <c r="B65" s="56" t="s">
+        <v>861</v>
+      </c>
+      <c r="C65" s="47" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66" s="71"/>
+      <c r="B66" s="56" t="s">
+        <v>862</v>
+      </c>
+      <c r="C66" s="47" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A67" s="71"/>
+      <c r="B67" s="47" t="s">
+        <v>863</v>
+      </c>
+      <c r="C67" s="47" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" s="102" t="s">
+        <v>955</v>
+      </c>
+      <c r="B72" s="47" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" s="102"/>
+      <c r="B73" s="47" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" s="102"/>
+      <c r="B74" s="47" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" s="102"/>
+      <c r="B75" s="47" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76" s="102"/>
+      <c r="B76" s="47" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" s="102"/>
+      <c r="B77" s="47" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78" s="102"/>
+      <c r="B78" s="47" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A79" s="102"/>
+      <c r="B79" s="60" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="B80" s="47" t="s">
+        <v>904</v>
+      </c>
+      <c r="C80" s="47" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B82" s="47" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>976</v>
+      </c>
+      <c r="B92" s="47" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>980</v>
+      </c>
+      <c r="B94" s="47" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B95" s="47" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B96" s="47" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B97" s="47" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B98" s="47" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C98" s="47" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>986</v>
+      </c>
+      <c r="B99" s="47" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B100" s="47" t="s">
+        <v>988</v>
+      </c>
+      <c r="C100" s="47" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="B101" s="47" t="s">
+        <v>990</v>
+      </c>
+      <c r="C101" s="47" t="s">
+        <v>991</v>
+      </c>
+      <c r="D101" s="47" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B102" s="47" t="s">
+        <v>993</v>
+      </c>
+      <c r="C102" s="47" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B103" s="47" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B104" s="63" t="s">
+        <v>996</v>
+      </c>
+      <c r="C104" s="63" t="s">
+        <v>997</v>
+      </c>
+      <c r="D104" s="47" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E104" s="63"/>
+    </row>
+    <row r="105" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+      <c r="B105" s="63" t="s">
+        <v>998</v>
+      </c>
+      <c r="C105" s="63" t="s">
+        <v>999</v>
+      </c>
+      <c r="D105" s="47" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B106" s="64" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C106" s="64" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D106" s="64" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+      <c r="B107" s="64" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C107" s="64" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D107" s="64" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="B108" s="64" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C108" s="64" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D108" s="64" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B109" s="64" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C109" s="64" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D109" s="64"/>
+    </row>
+    <row r="110" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="B110" s="63" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C110" s="63" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D110" s="47" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="162" x14ac:dyDescent="0.15">
+      <c r="B111" s="63" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C111" s="63" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D111" s="47" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="310.5" x14ac:dyDescent="0.15">
+      <c r="B112" s="63" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C112" s="63" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D112" s="47" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E112" s="30" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="B113" s="63" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C113" s="63" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D113" s="47" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B114" s="63" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C114" s="63" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D114" s="47" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B115" s="63" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C115" s="63" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B116" s="63" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C116" s="63" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B117" s="63" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C117" s="63" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B118" s="47" t="s">
+        <v>1034</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="A72:A79"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="A40:A67"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="A25:A34"/>
+    <mergeCell ref="A35:A39"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="D17:D19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A16:A24"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B79" r:id="rId1" xr:uid="{CACA8906-0393-4C12-BEA2-C9D20BD4BAC5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932D37D4-D4B1-4A72-9843-AD2858A48825}">
+  <dimension ref="A2:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="59" t="s">
+        <v>933</v>
+      </c>
+      <c r="B2" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="59" t="s">
+        <v>940</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>941</v>
+      </c>
+      <c r="F8" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>943</v>
+      </c>
+      <c r="B9" t="s">
+        <v>944</v>
+      </c>
+      <c r="C9" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>950</v>
+      </c>
+      <c r="B14" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>954</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44894EB-5D60-4B4C-8937-B0F6309CC0EA}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>887</v>
+      </c>
+      <c r="B3" t="s">
+        <v>888</v>
+      </c>
+      <c r="C3" t="s">
+        <v>906</v>
+      </c>
+      <c r="D3" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>968</v>
+      </c>
+      <c r="D7" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>969</v>
+      </c>
+      <c r="D8" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>972</v>
+      </c>
+      <c r="D9" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>973</v>
+      </c>
+      <c r="D10" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>924</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3751B6AB-E625-481C-B76D-741FD07BC4EB}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>932</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -9144,7 +11232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B98CA2-DE76-4FA1-8D41-1D5857C8AD0D}">
   <dimension ref="A1:B12"/>
   <sheetViews>

--- a/网站开发.xlsx
+++ b/网站开发.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1009030D-43F2-49BE-94E7-E0F06F492AA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67651FA2-EED6-4F9B-ABA2-30C125B2697E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="html" sheetId="1" r:id="rId1"/>
@@ -15,15 +15,16 @@
     <sheet name="JS_DOM" sheetId="6" r:id="rId5"/>
     <sheet name="JS_BOM" sheetId="7" r:id="rId6"/>
     <sheet name="书本推荐" sheetId="2" r:id="rId7"/>
-    <sheet name="快捷键" sheetId="4" r:id="rId8"/>
+    <sheet name="svg" sheetId="9" r:id="rId8"/>
+    <sheet name="英文单词" sheetId="10" r:id="rId9"/>
+    <sheet name="快捷键" sheetId="4" r:id="rId10"/>
   </sheets>
   <calcPr calcId="122211" calcMode="manual"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="1081">
   <si>
     <t>&lt;a&gt;&lt;/a&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3580,14 +3581,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>If 语句</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Switch 语句</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>document</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3868,10 +3861,6 @@
   </si>
   <si>
     <t>var str = ""  声明一个空字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i++ 先使用i再自增；++I 先自增再使用i</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4167,6 +4156,216 @@
   </si>
   <si>
     <t>返回表达式的类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;rect&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄绿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i++ 先使用i再自增；++i 先自增再使用i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数，详见下页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeof(...)或者typeof …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number(mix)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parseInt(string,radix)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parseFloat(string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toString(radix)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String(mix)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boolean()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换成数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"123"→123    null→0   undefined→NaN
+"abc"→NaN    true→1   false→0
+"123abc"→NaN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换成十进制整数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"123.9"→123    true→NaN   false→NaN
+"abc"→NaN   "123abc"→123
+radix表示进制，如parseInt（10,16）,将16进制的10转化为十进制，结果为16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转化成浮点数（可以带小数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"123.3abc"→123.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转化成字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true→"true"   NaN→"NaN"都会转化为字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转化成布尔值（true或false）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object.toString()
+undefined和null不能用
+radix表示进制，将十进制的类型转化成目标进制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本身返回字符串，如typeof（typeof(...)）,无论括号内是什么内容，这句结果都为String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isNaN（）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断是不是NaN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先通过Number()转化，再判断是不是NaN
+isNaN（"123"）→false   isNaN("abc")→true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>++  --  +  -(一元正负，放变量前面)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先通过Number()转化，再进行运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两侧只要有一个字符串，就做字符串相连</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch(n)
+{
+case 1:
+  执行代码块 1
+  break;
+case 2:
+  执行代码块 2
+  break;
+default:
+  n 与 case 1 和 case 2 不同时执行的代码
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首先设置表达式 n（通常是一个变量）。随后表达式的值会与结构中的每个 case 的值做比较。如果存在匹配，则与该 case 关联的代码块会被执行。请使用 break 来阻止代码自动地向下一个 case 运行。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> switch 
+语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if…else
+语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for
+循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for (语句 1; 语句 2; 语句 3)
+  {
+  被执行的代码块
+  }
+语句 1 在循环（代码块）开始前执行
+语句 2 定义运行循环（代码块）的条件
+语句 3 在循环（代码块）已被执行之后执行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4335,7 +4534,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4438,6 +4637,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -4528,7 +4739,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4690,6 +4901,20 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4814,6 +5039,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5511,8 +5741,8 @@
   <dimension ref="A1:N97"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B55" sqref="A55:XFD55"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5545,7 +5775,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="73" t="s">
         <v>576</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -5559,7 +5789,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="68"/>
+      <c r="A3" s="74"/>
       <c r="B3" s="21" t="s">
         <v>570</v>
       </c>
@@ -5568,7 +5798,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="68"/>
+      <c r="A4" s="74"/>
       <c r="B4" s="21" t="s">
         <v>572</v>
       </c>
@@ -5577,13 +5807,13 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="68"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="21" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="68"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
@@ -5592,7 +5822,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="68"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="21" t="s">
         <v>575</v>
       </c>
@@ -5601,7 +5831,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="68"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="21" t="s">
         <v>31</v>
       </c>
@@ -5620,7 +5850,7 @@
       <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="68"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="21" t="s">
         <v>59</v>
       </c>
@@ -5629,7 +5859,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="68"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="21" t="s">
         <v>62</v>
       </c>
@@ -5638,7 +5868,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="322.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="76" t="s">
         <v>600</v>
       </c>
       <c r="B11" s="21" t="s">
@@ -5658,7 +5888,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="70"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="21" t="s">
         <v>571</v>
       </c>
@@ -5667,11 +5897,11 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="70"/>
-      <c r="B13" s="65" t="s">
+      <c r="A13" s="76"/>
+      <c r="B13" s="71" t="s">
         <v>581</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="72" t="s">
         <v>582</v>
       </c>
       <c r="D13" t="s">
@@ -5685,10 +5915,10 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="70"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="65" t="s">
+      <c r="A14" s="76"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="71" t="s">
         <v>558</v>
       </c>
       <c r="E14" t="s">
@@ -5696,43 +5926,43 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="70"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="65"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="71"/>
       <c r="E15" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="70"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="65"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="71"/>
       <c r="E16" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="70"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="65"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="71"/>
       <c r="E17" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="70"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="65"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="71"/>
       <c r="E18" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="70"/>
+      <c r="A19" s="76"/>
       <c r="B19" s="21" t="s">
         <v>573</v>
       </c>
@@ -5747,7 +5977,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A20" s="70"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="21" t="s">
         <v>592</v>
       </c>
@@ -5759,11 +5989,11 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="70"/>
-      <c r="B21" s="65" t="s">
+      <c r="A21" s="76"/>
+      <c r="B21" s="71" t="s">
         <v>594</v>
       </c>
-      <c r="C21" s="69" t="s">
+      <c r="C21" s="75" t="s">
         <v>599</v>
       </c>
       <c r="D21" t="s">
@@ -5771,61 +6001,61 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="70"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="69"/>
+      <c r="A22" s="76"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="6" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="70"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="69"/>
+      <c r="A23" s="76"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="6" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="70"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="69"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="75"/>
       <c r="D24" s="57" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E24" s="58"/>
       <c r="F24" s="58" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="70"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="69"/>
+      <c r="A25" s="76"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="75"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="70"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="69"/>
+      <c r="A26" s="76"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="75"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="70"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="69"/>
+      <c r="A27" s="76"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="30" t="s">
         <v>597</v>
       </c>
@@ -5834,13 +6064,13 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="77" t="s">
         <v>601</v>
       </c>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="71" t="s">
         <v>602</v>
       </c>
-      <c r="C28" s="66" t="s">
+      <c r="C28" s="72" t="s">
         <v>629</v>
       </c>
       <c r="D28" t="s">
@@ -5854,9 +6084,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="71"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="66"/>
+      <c r="A29" s="77"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="72"/>
       <c r="D29" t="s">
         <v>630</v>
       </c>
@@ -5868,9 +6098,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="71"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="66"/>
+      <c r="A30" s="77"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="72"/>
       <c r="D30" t="s">
         <v>635</v>
       </c>
@@ -5882,17 +6112,17 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="71"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="66"/>
+      <c r="A31" s="77"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="72"/>
       <c r="E31" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="71"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="66"/>
+      <c r="A32" s="77"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="72"/>
       <c r="D32" t="s">
         <v>639</v>
       </c>
@@ -5904,9 +6134,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="71"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="66"/>
+      <c r="A33" s="77"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="72"/>
       <c r="D33" t="s">
         <v>642</v>
       </c>
@@ -5918,17 +6148,17 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="71"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="66"/>
+      <c r="A34" s="77"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="72"/>
       <c r="E34" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="71"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="66"/>
+      <c r="A35" s="77"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="72"/>
       <c r="D35" t="s">
         <v>646</v>
       </c>
@@ -5940,9 +6170,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="71"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="66"/>
+      <c r="A36" s="77"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="72"/>
       <c r="D36" t="s">
         <v>649</v>
       </c>
@@ -5954,10 +6184,10 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="71"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="65" t="s">
+      <c r="A37" s="77"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="71" t="s">
         <v>558</v>
       </c>
       <c r="E37" t="s">
@@ -5968,50 +6198,50 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="71"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="65"/>
+      <c r="A38" s="77"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="71"/>
       <c r="E38" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="71"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="65"/>
+      <c r="A39" s="77"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="71"/>
       <c r="E39" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="71"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="65"/>
+      <c r="A40" s="77"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="71"/>
       <c r="E40" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="71"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="65"/>
+      <c r="A41" s="77"/>
+      <c r="B41" s="71"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="71"/>
       <c r="E41" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="71"/>
+      <c r="A42" s="77"/>
       <c r="B42" s="21" t="s">
         <v>603</v>
       </c>
       <c r="C42" s="23" t="s">
         <v>604</v>
       </c>
-      <c r="D42" s="65" t="s">
+      <c r="D42" s="71" t="s">
         <v>869</v>
       </c>
       <c r="E42" t="s">
@@ -6019,97 +6249,97 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="71"/>
+      <c r="A43" s="77"/>
       <c r="B43" s="48"/>
       <c r="C43" s="49"/>
-      <c r="D43" s="65"/>
+      <c r="D43" s="71"/>
       <c r="E43" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="71"/>
+      <c r="A44" s="77"/>
       <c r="B44" s="48"/>
       <c r="C44" s="49"/>
-      <c r="D44" s="65"/>
+      <c r="D44" s="71"/>
       <c r="E44" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="71"/>
+      <c r="A45" s="77"/>
       <c r="B45" s="48"/>
       <c r="C45" s="49"/>
-      <c r="D45" s="65"/>
+      <c r="D45" s="71"/>
       <c r="E45" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="71"/>
+      <c r="A46" s="77"/>
       <c r="B46" s="48"/>
       <c r="C46" s="49"/>
-      <c r="D46" s="65"/>
+      <c r="D46" s="71"/>
       <c r="E46" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="71"/>
+      <c r="A47" s="77"/>
       <c r="B47" s="48"/>
       <c r="C47" s="49"/>
-      <c r="D47" s="65"/>
+      <c r="D47" s="71"/>
       <c r="E47" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="71"/>
+      <c r="A48" s="77"/>
       <c r="B48" s="48"/>
       <c r="C48" s="49"/>
-      <c r="D48" s="65"/>
+      <c r="D48" s="71"/>
       <c r="E48" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="71"/>
+      <c r="A49" s="77"/>
       <c r="B49" s="48"/>
       <c r="C49" s="49"/>
-      <c r="D49" s="65"/>
+      <c r="D49" s="71"/>
       <c r="E49" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="71"/>
+      <c r="A50" s="77"/>
       <c r="B50" s="48"/>
       <c r="C50" s="49"/>
-      <c r="D50" s="65"/>
+      <c r="D50" s="71"/>
       <c r="E50" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="71"/>
+      <c r="A51" s="77"/>
       <c r="B51" s="48"/>
       <c r="C51" s="49"/>
-      <c r="D51" s="65"/>
+      <c r="D51" s="71"/>
       <c r="E51" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="71"/>
+      <c r="A52" s="77"/>
       <c r="B52" s="48"/>
       <c r="C52" s="49"/>
-      <c r="D52" s="65"/>
+      <c r="D52" s="71"/>
       <c r="E52" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="71"/>
+      <c r="A53" s="77"/>
       <c r="B53" s="48"/>
       <c r="C53" s="49"/>
       <c r="D53" t="s">
@@ -6120,7 +6350,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="71"/>
+      <c r="A54" s="77"/>
       <c r="B54" s="48"/>
       <c r="C54" s="49"/>
       <c r="D54" t="s">
@@ -6131,7 +6361,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="71"/>
+      <c r="A55" s="77"/>
       <c r="B55" s="21" t="s">
         <v>605</v>
       </c>
@@ -6140,7 +6370,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" s="71"/>
+      <c r="A56" s="77"/>
       <c r="B56" s="21" t="s">
         <v>607</v>
       </c>
@@ -6149,7 +6379,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57" s="71"/>
+      <c r="A57" s="77"/>
       <c r="B57" s="21" t="s">
         <v>609</v>
       </c>
@@ -6158,7 +6388,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" s="71"/>
+      <c r="A58" s="77"/>
       <c r="B58" s="21" t="s">
         <v>611</v>
       </c>
@@ -6167,7 +6397,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A59" s="71"/>
+      <c r="A59" s="77"/>
       <c r="B59" s="21" t="s">
         <v>613</v>
       </c>
@@ -6176,7 +6406,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A60" s="71"/>
+      <c r="A60" s="77"/>
       <c r="B60" s="21" t="s">
         <v>615</v>
       </c>
@@ -6185,7 +6415,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A61" s="71"/>
+      <c r="A61" s="77"/>
       <c r="B61" s="21" t="s">
         <v>617</v>
       </c>
@@ -6194,7 +6424,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A62" s="71"/>
+      <c r="A62" s="77"/>
       <c r="B62" s="21" t="s">
         <v>619</v>
       </c>
@@ -6203,7 +6433,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A63" s="71"/>
+      <c r="A63" s="77"/>
       <c r="B63" s="21" t="s">
         <v>621</v>
       </c>
@@ -6212,7 +6442,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A64" s="71"/>
+      <c r="A64" s="77"/>
       <c r="B64" s="21" t="s">
         <v>623</v>
       </c>
@@ -6221,7 +6451,7 @@
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A65" s="71"/>
+      <c r="A65" s="77"/>
       <c r="B65" s="21" t="s">
         <v>625</v>
       </c>
@@ -6230,7 +6460,7 @@
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A66" s="71"/>
+      <c r="A66" s="77"/>
       <c r="B66" s="21" t="s">
         <v>627</v>
       </c>
@@ -6512,13 +6742,100 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B98CA2-DE76-4FA1-8D41-1D5857C8AD0D}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>746</v>
+      </c>
+      <c r="B3" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>748</v>
+      </c>
+      <c r="B4" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>751</v>
+      </c>
+      <c r="B9" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>752</v>
+      </c>
+      <c r="B10" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>755</v>
+      </c>
+      <c r="B11" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>757</v>
+      </c>
+      <c r="B12" t="s">
+        <v>758</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N310"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6542,7 +6859,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="94" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -6554,7 +6871,7 @@
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="88"/>
+      <c r="A3" s="94"/>
       <c r="B3" s="19" t="s">
         <v>208</v>
       </c>
@@ -6566,7 +6883,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="88"/>
+      <c r="A4" s="94"/>
       <c r="B4" s="19" t="s">
         <v>211</v>
       </c>
@@ -6575,7 +6892,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="88"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="19" t="s">
         <v>213</v>
       </c>
@@ -6587,11 +6904,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="88"/>
-      <c r="B6" s="65" t="s">
+      <c r="A6" s="94"/>
+      <c r="B6" s="71" t="s">
         <v>216</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="72" t="s">
         <v>217</v>
       </c>
       <c r="D6" t="s">
@@ -6602,9 +6919,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="88"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="66"/>
+      <c r="A7" s="94"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="72"/>
       <c r="D7" t="s">
         <v>220</v>
       </c>
@@ -6613,9 +6930,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="88"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="66"/>
+      <c r="A8" s="94"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="72"/>
       <c r="D8" t="s">
         <v>222</v>
       </c>
@@ -6624,9 +6941,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="88"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="66"/>
+      <c r="A9" s="94"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="72"/>
       <c r="D9" t="s">
         <v>224</v>
       </c>
@@ -6635,9 +6952,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="88"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="66"/>
+      <c r="A10" s="94"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="72"/>
       <c r="D10" t="s">
         <v>226</v>
       </c>
@@ -6646,9 +6963,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="88"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="66"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="72"/>
       <c r="D11" t="s">
         <v>228</v>
       </c>
@@ -6657,7 +6974,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="88"/>
+      <c r="A12" s="94"/>
       <c r="B12" s="19" t="s">
         <v>230</v>
       </c>
@@ -6669,7 +6986,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="88"/>
+      <c r="A13" s="94"/>
       <c r="B13" s="19" t="s">
         <v>233</v>
       </c>
@@ -6681,11 +6998,11 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="88"/>
-      <c r="B14" s="65" t="s">
+      <c r="A14" s="94"/>
+      <c r="B14" s="71" t="s">
         <v>236</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="72" t="s">
         <v>237</v>
       </c>
       <c r="D14" t="s">
@@ -6696,9 +7013,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="88"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="66"/>
+      <c r="A15" s="94"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="72"/>
       <c r="D15" t="s">
         <v>240</v>
       </c>
@@ -6707,11 +7024,11 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="88"/>
-      <c r="B16" s="65" t="s">
+      <c r="A16" s="94"/>
+      <c r="B16" s="71" t="s">
         <v>242</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="72" t="s">
         <v>250</v>
       </c>
       <c r="D16" t="s">
@@ -6722,9 +7039,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="88"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="66"/>
+      <c r="A17" s="94"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="72"/>
       <c r="D17" t="s">
         <v>244</v>
       </c>
@@ -6733,9 +7050,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="88"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="66"/>
+      <c r="A18" s="94"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="72"/>
       <c r="D18" t="s">
         <v>246</v>
       </c>
@@ -6744,9 +7061,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="88"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="66"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="72"/>
       <c r="D19" t="s">
         <v>248</v>
       </c>
@@ -6755,11 +7072,11 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="88"/>
-      <c r="B20" s="65" t="s">
+      <c r="A20" s="94"/>
+      <c r="B20" s="71" t="s">
         <v>252</v>
       </c>
-      <c r="C20" s="66" t="s">
+      <c r="C20" s="72" t="s">
         <v>251</v>
       </c>
       <c r="D20" t="s">
@@ -6773,9 +7090,9 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="88"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="66"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="72"/>
       <c r="D21" t="s">
         <v>255</v>
       </c>
@@ -6784,7 +7101,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="89" t="s">
+      <c r="A22" s="95" t="s">
         <v>67</v>
       </c>
       <c r="B22" s="19" t="s">
@@ -6795,7 +7112,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="89"/>
+      <c r="A23" s="95"/>
       <c r="B23" s="19" t="s">
         <v>70</v>
       </c>
@@ -6813,7 +7130,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="89"/>
+      <c r="A24" s="95"/>
       <c r="D24" t="s">
         <v>73</v>
       </c>
@@ -6822,7 +7139,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="89"/>
+      <c r="A25" s="95"/>
       <c r="D25" t="s">
         <v>74</v>
       </c>
@@ -6831,7 +7148,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="89"/>
+      <c r="A26" s="95"/>
       <c r="B26" s="19" t="s">
         <v>79</v>
       </c>
@@ -6846,19 +7163,19 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="89"/>
+      <c r="A27" s="95"/>
       <c r="D27" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="89"/>
+      <c r="A28" s="95"/>
       <c r="D28" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="89"/>
+      <c r="A29" s="95"/>
       <c r="D29" t="s">
         <v>84</v>
       </c>
@@ -6867,7 +7184,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="89"/>
+      <c r="A30" s="95"/>
       <c r="B30" s="19" t="s">
         <v>87</v>
       </c>
@@ -6879,7 +7196,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A31" s="89"/>
+      <c r="A31" s="95"/>
       <c r="B31" s="19" t="s">
         <v>90</v>
       </c>
@@ -6893,11 +7210,11 @@
         <v>94</v>
       </c>
       <c r="G31" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="89"/>
+      <c r="A32" s="95"/>
       <c r="D32" t="s">
         <v>93</v>
       </c>
@@ -6906,7 +7223,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A33" s="89"/>
+      <c r="A33" s="95"/>
       <c r="B33" s="19" t="s">
         <v>96</v>
       </c>
@@ -6924,19 +7241,19 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A34" s="89"/>
+      <c r="A34" s="95"/>
       <c r="D34" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="89"/>
+      <c r="A35" s="95"/>
       <c r="D35" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A36" s="89"/>
+      <c r="A36" s="95"/>
       <c r="D36" t="s">
         <v>101</v>
       </c>
@@ -6945,7 +7262,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A37" s="89"/>
+      <c r="A37" s="95"/>
       <c r="B37" s="19" t="s">
         <v>105</v>
       </c>
@@ -6967,7 +7284,7 @@
       <c r="L37" s="6"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A38" s="89"/>
+      <c r="A38" s="95"/>
       <c r="D38" t="s">
         <v>108</v>
       </c>
@@ -6981,7 +7298,7 @@
       <c r="L38" s="6"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A39" s="89"/>
+      <c r="A39" s="95"/>
       <c r="D39" t="s">
         <v>109</v>
       </c>
@@ -6995,7 +7312,7 @@
       <c r="L39" s="6"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="89"/>
+      <c r="A40" s="95"/>
       <c r="B40" s="19" t="s">
         <v>113</v>
       </c>
@@ -7015,7 +7332,7 @@
       <c r="L40" s="6"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A41" s="89"/>
+      <c r="A41" s="95"/>
       <c r="D41" t="s">
         <v>108</v>
       </c>
@@ -7029,7 +7346,7 @@
       <c r="L41" s="6"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A42" s="89"/>
+      <c r="A42" s="95"/>
       <c r="D42" t="s">
         <v>109</v>
       </c>
@@ -7043,7 +7360,7 @@
       <c r="L42" s="6"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A43" s="89"/>
+      <c r="A43" s="95"/>
       <c r="B43" s="19" t="s">
         <v>119</v>
       </c>
@@ -7055,13 +7372,13 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A44" s="89"/>
+      <c r="A44" s="95"/>
       <c r="D44" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A45" s="89"/>
+      <c r="A45" s="95"/>
       <c r="D45" t="s">
         <v>123</v>
       </c>
@@ -7070,7 +7387,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A46" s="89"/>
+      <c r="A46" s="95"/>
       <c r="D46" t="s">
         <v>124</v>
       </c>
@@ -7079,25 +7396,25 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A47" s="90" t="s">
+      <c r="A47" s="96" t="s">
         <v>130</v>
       </c>
       <c r="B47" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C47" s="66" t="s">
+      <c r="C47" s="72" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A48" s="90"/>
+      <c r="A48" s="96"/>
       <c r="B48" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="C48" s="66"/>
+      <c r="C48" s="72"/>
     </row>
     <row r="49" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="90"/>
+      <c r="A49" s="96"/>
       <c r="B49" s="19" t="s">
         <v>133</v>
       </c>
@@ -7109,11 +7426,11 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="90"/>
-      <c r="B50" s="65" t="s">
+      <c r="A50" s="96"/>
+      <c r="B50" s="71" t="s">
         <v>134</v>
       </c>
-      <c r="C50" s="66" t="s">
+      <c r="C50" s="72" t="s">
         <v>137</v>
       </c>
       <c r="D50" t="s">
@@ -7124,9 +7441,9 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="90"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="66"/>
+      <c r="A51" s="96"/>
+      <c r="B51" s="71"/>
+      <c r="C51" s="72"/>
       <c r="D51" t="s">
         <v>142</v>
       </c>
@@ -7135,9 +7452,9 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="90"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="66"/>
+      <c r="A52" s="96"/>
+      <c r="B52" s="71"/>
+      <c r="C52" s="72"/>
       <c r="D52" t="s">
         <v>144</v>
       </c>
@@ -7146,9 +7463,9 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="90"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="66"/>
+      <c r="A53" s="96"/>
+      <c r="B53" s="71"/>
+      <c r="C53" s="72"/>
       <c r="D53" t="s">
         <v>146</v>
       </c>
@@ -7157,9 +7474,9 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="90"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="66"/>
+      <c r="A54" s="96"/>
+      <c r="B54" s="71"/>
+      <c r="C54" s="72"/>
       <c r="D54" t="s">
         <v>148</v>
       </c>
@@ -7168,9 +7485,9 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="90"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="66"/>
+      <c r="A55" s="96"/>
+      <c r="B55" s="71"/>
+      <c r="C55" s="72"/>
       <c r="D55" t="s">
         <v>150</v>
       </c>
@@ -7179,9 +7496,9 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="90"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="66"/>
+      <c r="A56" s="96"/>
+      <c r="B56" s="71"/>
+      <c r="C56" s="72"/>
       <c r="D56" t="s">
         <v>152</v>
       </c>
@@ -7190,9 +7507,9 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="90"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="66"/>
+      <c r="A57" s="96"/>
+      <c r="B57" s="71"/>
+      <c r="C57" s="72"/>
       <c r="D57" t="s">
         <v>154</v>
       </c>
@@ -7201,9 +7518,9 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="90"/>
-      <c r="B58" s="65"/>
-      <c r="C58" s="66"/>
+      <c r="A58" s="96"/>
+      <c r="B58" s="71"/>
+      <c r="C58" s="72"/>
       <c r="D58" t="s">
         <v>156</v>
       </c>
@@ -7212,9 +7529,9 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="90"/>
-      <c r="B59" s="65"/>
-      <c r="C59" s="66"/>
+      <c r="A59" s="96"/>
+      <c r="B59" s="71"/>
+      <c r="C59" s="72"/>
       <c r="D59" t="s">
         <v>158</v>
       </c>
@@ -7223,9 +7540,9 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="90"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="66"/>
+      <c r="A60" s="96"/>
+      <c r="B60" s="71"/>
+      <c r="C60" s="72"/>
       <c r="D60" t="s">
         <v>160</v>
       </c>
@@ -7234,7 +7551,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="90"/>
+      <c r="A61" s="96"/>
       <c r="B61" s="19" t="s">
         <v>135</v>
       </c>
@@ -7243,7 +7560,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A62" s="90"/>
+      <c r="A62" s="96"/>
       <c r="B62" s="35" t="s">
         <v>162</v>
       </c>
@@ -7255,7 +7572,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="90"/>
+      <c r="A63" s="96"/>
       <c r="B63" s="19" t="s">
         <v>166</v>
       </c>
@@ -7264,7 +7581,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="90"/>
+      <c r="A64" s="96"/>
       <c r="B64" s="19" t="s">
         <v>167</v>
       </c>
@@ -7276,7 +7593,7 @@
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A65" s="90"/>
+      <c r="A65" s="96"/>
       <c r="B65" s="19" t="s">
         <v>168</v>
       </c>
@@ -7294,11 +7611,11 @@
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A66" s="90"/>
-      <c r="B66" s="65" t="s">
+      <c r="A66" s="96"/>
+      <c r="B66" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="C66" s="66" t="s">
+      <c r="C66" s="72" t="s">
         <v>173</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -7307,39 +7624,39 @@
       <c r="E66" t="s">
         <v>176</v>
       </c>
-      <c r="F66" s="87" t="s">
+      <c r="F66" s="93" t="s">
         <v>182</v>
       </c>
-      <c r="G66" s="87"/>
+      <c r="G66" s="93"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A67" s="90"/>
-      <c r="B67" s="65"/>
-      <c r="C67" s="66"/>
+      <c r="A67" s="96"/>
+      <c r="B67" s="71"/>
+      <c r="C67" s="72"/>
       <c r="D67" s="1" t="s">
         <v>180</v>
       </c>
       <c r="E67" t="s">
         <v>179</v>
       </c>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
+      <c r="F67" s="93"/>
+      <c r="G67" s="93"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A68" s="90"/>
-      <c r="B68" s="65"/>
-      <c r="C68" s="66"/>
+      <c r="A68" s="96"/>
+      <c r="B68" s="71"/>
+      <c r="C68" s="72"/>
       <c r="D68" s="1" t="s">
         <v>177</v>
       </c>
       <c r="E68" t="s">
         <v>178</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
+      <c r="F68" s="93"/>
+      <c r="G68" s="93"/>
     </row>
     <row r="69" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A69" s="90"/>
+      <c r="A69" s="96"/>
       <c r="B69" s="19" t="s">
         <v>170</v>
       </c>
@@ -7354,7 +7671,7 @@
       </c>
     </row>
     <row r="70" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A70" s="90"/>
+      <c r="A70" s="96"/>
       <c r="B70" s="19" t="s">
         <v>171</v>
       </c>
@@ -7363,11 +7680,11 @@
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A71" s="90"/>
-      <c r="B71" s="65" t="s">
+      <c r="A71" s="96"/>
+      <c r="B71" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="C71" s="66" t="s">
+      <c r="C71" s="72" t="s">
         <v>192</v>
       </c>
       <c r="D71" t="s">
@@ -7381,9 +7698,9 @@
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A72" s="90"/>
-      <c r="B72" s="65"/>
-      <c r="C72" s="66"/>
+      <c r="A72" s="96"/>
+      <c r="B72" s="71"/>
+      <c r="C72" s="72"/>
       <c r="D72" t="s">
         <v>195</v>
       </c>
@@ -7392,9 +7709,9 @@
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A73" s="90"/>
-      <c r="B73" s="65"/>
-      <c r="C73" s="66"/>
+      <c r="A73" s="96"/>
+      <c r="B73" s="71"/>
+      <c r="C73" s="72"/>
       <c r="D73" t="s">
         <v>197</v>
       </c>
@@ -7403,9 +7720,9 @@
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A74" s="90"/>
-      <c r="B74" s="65"/>
-      <c r="C74" s="66"/>
+      <c r="A74" s="96"/>
+      <c r="B74" s="71"/>
+      <c r="C74" s="72"/>
       <c r="D74" t="s">
         <v>199</v>
       </c>
@@ -7414,9 +7731,9 @@
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A75" s="90"/>
-      <c r="B75" s="65"/>
-      <c r="C75" s="66"/>
+      <c r="A75" s="96"/>
+      <c r="B75" s="71"/>
+      <c r="C75" s="72"/>
       <c r="D75" t="s">
         <v>201</v>
       </c>
@@ -7425,9 +7742,9 @@
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A76" s="90"/>
-      <c r="B76" s="65"/>
-      <c r="C76" s="66"/>
+      <c r="A76" s="96"/>
+      <c r="B76" s="71"/>
+      <c r="C76" s="72"/>
       <c r="D76" t="s">
         <v>156</v>
       </c>
@@ -7436,11 +7753,11 @@
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A77" s="90"/>
-      <c r="B77" s="65" t="s">
+      <c r="A77" s="96"/>
+      <c r="B77" s="71" t="s">
         <v>205</v>
       </c>
-      <c r="C77" s="66" t="s">
+      <c r="C77" s="72" t="s">
         <v>258</v>
       </c>
       <c r="D77" t="s">
@@ -7459,9 +7776,9 @@
       <c r="N77" s="6"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A78" s="90"/>
-      <c r="B78" s="65"/>
-      <c r="C78" s="66"/>
+      <c r="A78" s="96"/>
+      <c r="B78" s="71"/>
+      <c r="C78" s="72"/>
       <c r="D78" t="s">
         <v>260</v>
       </c>
@@ -7470,11 +7787,11 @@
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A79" s="90"/>
-      <c r="B79" s="65" t="s">
+      <c r="A79" s="96"/>
+      <c r="B79" s="71" t="s">
         <v>264</v>
       </c>
-      <c r="C79" s="66" t="s">
+      <c r="C79" s="72" t="s">
         <v>265</v>
       </c>
       <c r="D79" t="s">
@@ -7482,29 +7799,29 @@
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A80" s="90"/>
-      <c r="B80" s="65"/>
-      <c r="C80" s="66"/>
+      <c r="A80" s="96"/>
+      <c r="B80" s="71"/>
+      <c r="C80" s="72"/>
       <c r="D80" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A81" s="90"/>
-      <c r="B81" s="65"/>
-      <c r="C81" s="66"/>
+      <c r="A81" s="96"/>
+      <c r="B81" s="71"/>
+      <c r="C81" s="72"/>
       <c r="D81" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A82" s="91" t="s">
+      <c r="A82" s="97" t="s">
         <v>269</v>
       </c>
-      <c r="B82" s="65" t="s">
+      <c r="B82" s="71" t="s">
         <v>270</v>
       </c>
-      <c r="C82" s="66" t="s">
+      <c r="C82" s="72" t="s">
         <v>282</v>
       </c>
       <c r="D82" t="s">
@@ -7515,9 +7832,9 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A83" s="91"/>
-      <c r="B83" s="65"/>
-      <c r="C83" s="66"/>
+      <c r="A83" s="97"/>
+      <c r="B83" s="71"/>
+      <c r="C83" s="72"/>
       <c r="D83" t="s">
         <v>142</v>
       </c>
@@ -7526,9 +7843,9 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A84" s="91"/>
-      <c r="B84" s="65"/>
-      <c r="C84" s="66"/>
+      <c r="A84" s="97"/>
+      <c r="B84" s="71"/>
+      <c r="C84" s="72"/>
       <c r="D84" t="s">
         <v>273</v>
       </c>
@@ -7540,9 +7857,9 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A85" s="91"/>
-      <c r="B85" s="65"/>
-      <c r="C85" s="66"/>
+      <c r="A85" s="97"/>
+      <c r="B85" s="71"/>
+      <c r="C85" s="72"/>
       <c r="D85" t="s">
         <v>275</v>
       </c>
@@ -7551,9 +7868,9 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A86" s="91"/>
-      <c r="B86" s="65"/>
-      <c r="C86" s="66"/>
+      <c r="A86" s="97"/>
+      <c r="B86" s="71"/>
+      <c r="C86" s="72"/>
       <c r="D86" s="10" t="s">
         <v>277</v>
       </c>
@@ -7562,9 +7879,9 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A87" s="91"/>
-      <c r="B87" s="65"/>
-      <c r="C87" s="66"/>
+      <c r="A87" s="97"/>
+      <c r="B87" s="71"/>
+      <c r="C87" s="72"/>
       <c r="D87" s="11" t="s">
         <v>279</v>
       </c>
@@ -7573,13 +7890,13 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A88" s="92" t="s">
+      <c r="A88" s="98" t="s">
         <v>284</v>
       </c>
-      <c r="B88" s="65" t="s">
+      <c r="B88" s="71" t="s">
         <v>285</v>
       </c>
-      <c r="C88" s="66" t="s">
+      <c r="C88" s="72" t="s">
         <v>286</v>
       </c>
       <c r="D88" t="s">
@@ -7593,9 +7910,9 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A89" s="93"/>
-      <c r="B89" s="65"/>
-      <c r="C89" s="66"/>
+      <c r="A89" s="99"/>
+      <c r="B89" s="71"/>
+      <c r="C89" s="72"/>
       <c r="D89" t="s">
         <v>288</v>
       </c>
@@ -7604,9 +7921,9 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A90" s="93"/>
-      <c r="B90" s="65"/>
-      <c r="C90" s="66"/>
+      <c r="A90" s="99"/>
+      <c r="B90" s="71"/>
+      <c r="C90" s="72"/>
       <c r="D90" t="s">
         <v>290</v>
       </c>
@@ -7615,9 +7932,9 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A91" s="93"/>
-      <c r="B91" s="65"/>
-      <c r="C91" s="66"/>
+      <c r="A91" s="99"/>
+      <c r="B91" s="71"/>
+      <c r="C91" s="72"/>
       <c r="D91" t="s">
         <v>160</v>
       </c>
@@ -7626,11 +7943,11 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A92" s="93"/>
-      <c r="B92" s="65" t="s">
+      <c r="A92" s="99"/>
+      <c r="B92" s="71" t="s">
         <v>293</v>
       </c>
-      <c r="C92" s="66" t="s">
+      <c r="C92" s="72" t="s">
         <v>294</v>
       </c>
       <c r="D92" t="s">
@@ -7644,9 +7961,9 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A93" s="93"/>
-      <c r="B93" s="65"/>
-      <c r="C93" s="66"/>
+      <c r="A93" s="99"/>
+      <c r="B93" s="71"/>
+      <c r="C93" s="72"/>
       <c r="D93" t="s">
         <v>288</v>
       </c>
@@ -7655,9 +7972,9 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A94" s="93"/>
-      <c r="B94" s="65"/>
-      <c r="C94" s="66"/>
+      <c r="A94" s="99"/>
+      <c r="B94" s="71"/>
+      <c r="C94" s="72"/>
       <c r="D94" t="s">
         <v>290</v>
       </c>
@@ -7666,9 +7983,9 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A95" s="93"/>
-      <c r="B95" s="65"/>
-      <c r="C95" s="66"/>
+      <c r="A95" s="99"/>
+      <c r="B95" s="71"/>
+      <c r="C95" s="72"/>
       <c r="D95" t="s">
         <v>160</v>
       </c>
@@ -7677,7 +7994,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A96" s="93"/>
+      <c r="A96" s="99"/>
       <c r="B96" s="19" t="s">
         <v>301</v>
       </c>
@@ -7690,10 +8007,10 @@
     </row>
     <row r="97" spans="1:5" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A97" s="34"/>
-      <c r="B97" s="71" t="s">
+      <c r="B97" s="77" t="s">
         <v>665</v>
       </c>
-      <c r="C97" s="69" t="s">
+      <c r="C97" s="75" t="s">
         <v>668</v>
       </c>
       <c r="D97" t="s">
@@ -7705,8 +8022,8 @@
     </row>
     <row r="98" spans="1:5" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A98" s="34"/>
-      <c r="B98" s="71"/>
-      <c r="C98" s="69"/>
+      <c r="B98" s="77"/>
+      <c r="C98" s="75"/>
       <c r="D98" t="s">
         <v>667</v>
       </c>
@@ -7715,7 +8032,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A99" s="68" t="s">
+      <c r="A99" s="74" t="s">
         <v>321</v>
       </c>
       <c r="B99" s="18" t="s">
@@ -7726,7 +8043,7 @@
       </c>
     </row>
     <row r="100" spans="1:5" s="12" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A100" s="68"/>
+      <c r="A100" s="74"/>
       <c r="B100" s="18" t="s">
         <v>324</v>
       </c>
@@ -7738,7 +8055,7 @@
       </c>
     </row>
     <row r="101" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="68"/>
+      <c r="A101" s="74"/>
       <c r="B101" s="18" t="s">
         <v>326</v>
       </c>
@@ -7747,7 +8064,7 @@
       </c>
     </row>
     <row r="102" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="68"/>
+      <c r="A102" s="74"/>
       <c r="B102" s="18" t="s">
         <v>328</v>
       </c>
@@ -7762,7 +8079,7 @@
       </c>
     </row>
     <row r="103" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="68"/>
+      <c r="A103" s="74"/>
       <c r="B103" s="18"/>
       <c r="C103" s="20"/>
       <c r="D103" s="12" t="s">
@@ -7773,7 +8090,7 @@
       </c>
     </row>
     <row r="104" spans="1:5" s="12" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="68"/>
+      <c r="A104" s="74"/>
       <c r="B104" s="18" t="s">
         <v>330</v>
       </c>
@@ -7788,11 +8105,11 @@
       </c>
     </row>
     <row r="105" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="68"/>
-      <c r="B105" s="85" t="s">
+      <c r="A105" s="74"/>
+      <c r="B105" s="91" t="s">
         <v>332</v>
       </c>
-      <c r="C105" s="86" t="s">
+      <c r="C105" s="92" t="s">
         <v>333</v>
       </c>
       <c r="D105" s="12" t="s">
@@ -7803,9 +8120,9 @@
       </c>
     </row>
     <row r="106" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="68"/>
-      <c r="B106" s="85"/>
-      <c r="C106" s="86"/>
+      <c r="A106" s="74"/>
+      <c r="B106" s="91"/>
+      <c r="C106" s="92"/>
       <c r="D106" s="12" t="s">
         <v>342</v>
       </c>
@@ -7814,9 +8131,9 @@
       </c>
     </row>
     <row r="107" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="68"/>
-      <c r="B107" s="85"/>
-      <c r="C107" s="86"/>
+      <c r="A107" s="74"/>
+      <c r="B107" s="91"/>
+      <c r="C107" s="92"/>
       <c r="D107" s="12" t="s">
         <v>344</v>
       </c>
@@ -7825,9 +8142,9 @@
       </c>
     </row>
     <row r="108" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="68"/>
-      <c r="B108" s="85"/>
-      <c r="C108" s="86"/>
+      <c r="A108" s="74"/>
+      <c r="B108" s="91"/>
+      <c r="C108" s="92"/>
       <c r="D108" s="12" t="s">
         <v>346</v>
       </c>
@@ -7836,9 +8153,9 @@
       </c>
     </row>
     <row r="109" spans="1:5" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="68"/>
-      <c r="B109" s="85"/>
-      <c r="C109" s="86"/>
+      <c r="A109" s="74"/>
+      <c r="B109" s="91"/>
+      <c r="C109" s="92"/>
       <c r="D109" s="14" t="s">
         <v>349</v>
       </c>
@@ -7847,7 +8164,7 @@
       </c>
     </row>
     <row r="110" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="101" t="s">
+      <c r="A110" s="107" t="s">
         <v>458</v>
       </c>
       <c r="B110" s="33" t="s">
@@ -7858,11 +8175,11 @@
       </c>
     </row>
     <row r="111" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="101"/>
-      <c r="B111" s="85" t="s">
+      <c r="A111" s="107"/>
+      <c r="B111" s="91" t="s">
         <v>460</v>
       </c>
-      <c r="C111" s="86" t="s">
+      <c r="C111" s="92" t="s">
         <v>461</v>
       </c>
       <c r="D111" s="12" t="s">
@@ -7873,9 +8190,9 @@
       </c>
     </row>
     <row r="112" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="101"/>
-      <c r="B112" s="85"/>
-      <c r="C112" s="86"/>
+      <c r="A112" s="107"/>
+      <c r="B112" s="91"/>
+      <c r="C112" s="92"/>
       <c r="D112" s="12" t="s">
         <v>497</v>
       </c>
@@ -7884,7 +8201,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="101"/>
+      <c r="A113" s="107"/>
       <c r="B113" s="33" t="s">
         <v>462</v>
       </c>
@@ -7896,11 +8213,11 @@
       </c>
     </row>
     <row r="114" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="101"/>
-      <c r="B114" s="85" t="s">
+      <c r="A114" s="107"/>
+      <c r="B114" s="91" t="s">
         <v>464</v>
       </c>
-      <c r="C114" s="86" t="s">
+      <c r="C114" s="92" t="s">
         <v>503</v>
       </c>
       <c r="D114" s="12" t="s">
@@ -7911,9 +8228,9 @@
       </c>
     </row>
     <row r="115" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="101"/>
-      <c r="B115" s="85"/>
-      <c r="C115" s="86"/>
+      <c r="A115" s="107"/>
+      <c r="B115" s="91"/>
+      <c r="C115" s="92"/>
       <c r="D115" s="12" t="s">
         <v>288</v>
       </c>
@@ -7922,9 +8239,9 @@
       </c>
     </row>
     <row r="116" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="101"/>
-      <c r="B116" s="85"/>
-      <c r="C116" s="86"/>
+      <c r="A116" s="107"/>
+      <c r="B116" s="91"/>
+      <c r="C116" s="92"/>
       <c r="D116" s="12" t="s">
         <v>290</v>
       </c>
@@ -7933,11 +8250,11 @@
       </c>
     </row>
     <row r="117" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="101"/>
-      <c r="B117" s="85" t="s">
+      <c r="A117" s="107"/>
+      <c r="B117" s="91" t="s">
         <v>465</v>
       </c>
-      <c r="C117" s="86" t="s">
+      <c r="C117" s="92" t="s">
         <v>466</v>
       </c>
       <c r="D117" s="12" t="s">
@@ -7948,9 +8265,9 @@
       </c>
     </row>
     <row r="118" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="101"/>
-      <c r="B118" s="85"/>
-      <c r="C118" s="86"/>
+      <c r="A118" s="107"/>
+      <c r="B118" s="91"/>
+      <c r="C118" s="92"/>
       <c r="D118" s="12" t="s">
         <v>398</v>
       </c>
@@ -7959,9 +8276,9 @@
       </c>
     </row>
     <row r="119" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="101"/>
-      <c r="B119" s="85"/>
-      <c r="C119" s="86"/>
+      <c r="A119" s="107"/>
+      <c r="B119" s="91"/>
+      <c r="C119" s="92"/>
       <c r="D119" s="12" t="s">
         <v>506</v>
       </c>
@@ -7970,9 +8287,9 @@
       </c>
     </row>
     <row r="120" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="101"/>
-      <c r="B120" s="85"/>
-      <c r="C120" s="86"/>
+      <c r="A120" s="107"/>
+      <c r="B120" s="91"/>
+      <c r="C120" s="92"/>
       <c r="D120" s="12" t="s">
         <v>508</v>
       </c>
@@ -7981,11 +8298,11 @@
       </c>
     </row>
     <row r="121" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="101"/>
-      <c r="B121" s="85" t="s">
+      <c r="A121" s="107"/>
+      <c r="B121" s="91" t="s">
         <v>467</v>
       </c>
-      <c r="C121" s="86" t="s">
+      <c r="C121" s="92" t="s">
         <v>468</v>
       </c>
       <c r="D121" s="12" t="s">
@@ -7996,9 +8313,9 @@
       </c>
     </row>
     <row r="122" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="101"/>
-      <c r="B122" s="85"/>
-      <c r="C122" s="86"/>
+      <c r="A122" s="107"/>
+      <c r="B122" s="91"/>
+      <c r="C122" s="92"/>
       <c r="D122" s="12" t="s">
         <v>510</v>
       </c>
@@ -8007,9 +8324,9 @@
       </c>
     </row>
     <row r="123" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="101"/>
-      <c r="B123" s="85"/>
-      <c r="C123" s="86"/>
+      <c r="A123" s="107"/>
+      <c r="B123" s="91"/>
+      <c r="C123" s="92"/>
       <c r="D123" s="12" t="s">
         <v>512</v>
       </c>
@@ -8018,9 +8335,9 @@
       </c>
     </row>
     <row r="124" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="101"/>
-      <c r="B124" s="85"/>
-      <c r="C124" s="86"/>
+      <c r="A124" s="107"/>
+      <c r="B124" s="91"/>
+      <c r="C124" s="92"/>
       <c r="D124" s="12" t="s">
         <v>514</v>
       </c>
@@ -8029,9 +8346,9 @@
       </c>
     </row>
     <row r="125" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="101"/>
-      <c r="B125" s="85"/>
-      <c r="C125" s="86"/>
+      <c r="A125" s="107"/>
+      <c r="B125" s="91"/>
+      <c r="C125" s="92"/>
       <c r="D125" s="12" t="s">
         <v>516</v>
       </c>
@@ -8040,11 +8357,11 @@
       </c>
     </row>
     <row r="126" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="101"/>
-      <c r="B126" s="85" t="s">
+      <c r="A126" s="107"/>
+      <c r="B126" s="91" t="s">
         <v>469</v>
       </c>
-      <c r="C126" s="86" t="s">
+      <c r="C126" s="92" t="s">
         <v>470</v>
       </c>
       <c r="D126" s="12" t="s">
@@ -8058,9 +8375,9 @@
       </c>
     </row>
     <row r="127" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="101"/>
-      <c r="B127" s="85"/>
-      <c r="C127" s="86"/>
+      <c r="A127" s="107"/>
+      <c r="B127" s="91"/>
+      <c r="C127" s="92"/>
       <c r="D127" s="12" t="s">
         <v>290</v>
       </c>
@@ -8069,11 +8386,11 @@
       </c>
     </row>
     <row r="128" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="101"/>
-      <c r="B128" s="85" t="s">
+      <c r="A128" s="107"/>
+      <c r="B128" s="91" t="s">
         <v>471</v>
       </c>
-      <c r="C128" s="86" t="s">
+      <c r="C128" s="92" t="s">
         <v>472</v>
       </c>
       <c r="D128" t="s">
@@ -8084,9 +8401,9 @@
       </c>
     </row>
     <row r="129" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="101"/>
-      <c r="B129" s="85"/>
-      <c r="C129" s="86"/>
+      <c r="A129" s="107"/>
+      <c r="B129" s="91"/>
+      <c r="C129" s="92"/>
       <c r="D129" t="s">
         <v>195</v>
       </c>
@@ -8095,9 +8412,9 @@
       </c>
     </row>
     <row r="130" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="101"/>
-      <c r="B130" s="85"/>
-      <c r="C130" s="86"/>
+      <c r="A130" s="107"/>
+      <c r="B130" s="91"/>
+      <c r="C130" s="92"/>
       <c r="D130" t="s">
         <v>197</v>
       </c>
@@ -8106,9 +8423,9 @@
       </c>
     </row>
     <row r="131" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="101"/>
-      <c r="B131" s="85"/>
-      <c r="C131" s="86"/>
+      <c r="A131" s="107"/>
+      <c r="B131" s="91"/>
+      <c r="C131" s="92"/>
       <c r="D131" t="s">
         <v>201</v>
       </c>
@@ -8117,11 +8434,11 @@
       </c>
     </row>
     <row r="132" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="101"/>
-      <c r="B132" s="85" t="s">
+      <c r="A132" s="107"/>
+      <c r="B132" s="91" t="s">
         <v>473</v>
       </c>
-      <c r="C132" s="86" t="s">
+      <c r="C132" s="92" t="s">
         <v>474</v>
       </c>
       <c r="D132" s="12" t="s">
@@ -8132,9 +8449,9 @@
       </c>
     </row>
     <row r="133" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="101"/>
-      <c r="B133" s="85"/>
-      <c r="C133" s="86"/>
+      <c r="A133" s="107"/>
+      <c r="B133" s="91"/>
+      <c r="C133" s="92"/>
       <c r="D133" s="12" t="s">
         <v>522</v>
       </c>
@@ -8143,9 +8460,9 @@
       </c>
     </row>
     <row r="134" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="101"/>
-      <c r="B134" s="85"/>
-      <c r="C134" s="86"/>
+      <c r="A134" s="107"/>
+      <c r="B134" s="91"/>
+      <c r="C134" s="92"/>
       <c r="D134" s="12" t="s">
         <v>524</v>
       </c>
@@ -8154,9 +8471,9 @@
       </c>
     </row>
     <row r="135" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="101"/>
-      <c r="B135" s="85"/>
-      <c r="C135" s="86"/>
+      <c r="A135" s="107"/>
+      <c r="B135" s="91"/>
+      <c r="C135" s="92"/>
       <c r="D135" s="12" t="s">
         <v>526</v>
       </c>
@@ -8165,11 +8482,11 @@
       </c>
     </row>
     <row r="136" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="101"/>
-      <c r="B136" s="85" t="s">
+      <c r="A136" s="107"/>
+      <c r="B136" s="91" t="s">
         <v>475</v>
       </c>
-      <c r="C136" s="86" t="s">
+      <c r="C136" s="92" t="s">
         <v>476</v>
       </c>
       <c r="D136" s="12" t="s">
@@ -8180,9 +8497,9 @@
       </c>
     </row>
     <row r="137" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="101"/>
-      <c r="B137" s="85"/>
-      <c r="C137" s="86"/>
+      <c r="A137" s="107"/>
+      <c r="B137" s="91"/>
+      <c r="C137" s="92"/>
       <c r="D137" s="12" t="s">
         <v>529</v>
       </c>
@@ -8191,9 +8508,9 @@
       </c>
     </row>
     <row r="138" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="101"/>
-      <c r="B138" s="85"/>
-      <c r="C138" s="86"/>
+      <c r="A138" s="107"/>
+      <c r="B138" s="91"/>
+      <c r="C138" s="92"/>
       <c r="D138" s="12" t="s">
         <v>531</v>
       </c>
@@ -8202,9 +8519,9 @@
       </c>
     </row>
     <row r="139" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="101"/>
-      <c r="B139" s="85"/>
-      <c r="C139" s="86"/>
+      <c r="A139" s="107"/>
+      <c r="B139" s="91"/>
+      <c r="C139" s="92"/>
       <c r="D139" s="12" t="s">
         <v>533</v>
       </c>
@@ -8213,9 +8530,9 @@
       </c>
     </row>
     <row r="140" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="101"/>
-      <c r="B140" s="85"/>
-      <c r="C140" s="86"/>
+      <c r="A140" s="107"/>
+      <c r="B140" s="91"/>
+      <c r="C140" s="92"/>
       <c r="D140" s="12" t="s">
         <v>535</v>
       </c>
@@ -8224,7 +8541,7 @@
       </c>
     </row>
     <row r="141" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="101"/>
+      <c r="A141" s="107"/>
       <c r="B141" s="33" t="s">
         <v>477</v>
       </c>
@@ -8239,7 +8556,7 @@
       </c>
     </row>
     <row r="142" spans="1:5" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A142" s="101"/>
+      <c r="A142" s="107"/>
       <c r="B142" s="26" t="s">
         <v>479</v>
       </c>
@@ -8248,7 +8565,7 @@
       </c>
     </row>
     <row r="143" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="101"/>
+      <c r="A143" s="107"/>
       <c r="B143" s="26" t="s">
         <v>481</v>
       </c>
@@ -8257,7 +8574,7 @@
       </c>
     </row>
     <row r="144" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="101"/>
+      <c r="A144" s="107"/>
       <c r="B144" s="26" t="s">
         <v>482</v>
       </c>
@@ -8266,7 +8583,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="101"/>
+      <c r="A145" s="107"/>
       <c r="B145" s="27" t="s">
         <v>484</v>
       </c>
@@ -8275,7 +8592,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="101"/>
+      <c r="A146" s="107"/>
       <c r="B146" s="27" t="s">
         <v>486</v>
       </c>
@@ -8284,7 +8601,7 @@
       </c>
     </row>
     <row r="147" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="101"/>
+      <c r="A147" s="107"/>
       <c r="B147" s="27" t="s">
         <v>488</v>
       </c>
@@ -8293,11 +8610,11 @@
       </c>
     </row>
     <row r="148" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="101"/>
-      <c r="B148" s="85" t="s">
+      <c r="A148" s="107"/>
+      <c r="B148" s="91" t="s">
         <v>490</v>
       </c>
-      <c r="C148" s="86" t="s">
+      <c r="C148" s="92" t="s">
         <v>491</v>
       </c>
       <c r="D148" s="12" t="s">
@@ -8308,9 +8625,9 @@
       </c>
     </row>
     <row r="149" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="101"/>
-      <c r="B149" s="85"/>
-      <c r="C149" s="86"/>
+      <c r="A149" s="107"/>
+      <c r="B149" s="91"/>
+      <c r="C149" s="92"/>
       <c r="D149" s="12" t="s">
         <v>541</v>
       </c>
@@ -8319,9 +8636,9 @@
       </c>
     </row>
     <row r="150" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="101"/>
-      <c r="B150" s="85"/>
-      <c r="C150" s="86"/>
+      <c r="A150" s="107"/>
+      <c r="B150" s="91"/>
+      <c r="C150" s="92"/>
       <c r="D150" s="12" t="s">
         <v>543</v>
       </c>
@@ -8330,11 +8647,11 @@
       </c>
     </row>
     <row r="151" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="101"/>
-      <c r="B151" s="85" t="s">
+      <c r="A151" s="107"/>
+      <c r="B151" s="91" t="s">
         <v>492</v>
       </c>
-      <c r="C151" s="86" t="s">
+      <c r="C151" s="92" t="s">
         <v>493</v>
       </c>
       <c r="D151" s="12" t="s">
@@ -8345,9 +8662,9 @@
       </c>
     </row>
     <row r="152" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="101"/>
-      <c r="B152" s="85"/>
-      <c r="C152" s="86"/>
+      <c r="A152" s="107"/>
+      <c r="B152" s="91"/>
+      <c r="C152" s="92"/>
       <c r="D152" s="12" t="s">
         <v>140</v>
       </c>
@@ -8356,9 +8673,9 @@
       </c>
     </row>
     <row r="153" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="101"/>
-      <c r="B153" s="85"/>
-      <c r="C153" s="86"/>
+      <c r="A153" s="107"/>
+      <c r="B153" s="91"/>
+      <c r="C153" s="92"/>
       <c r="D153" s="12" t="s">
         <v>547</v>
       </c>
@@ -8367,9 +8684,9 @@
       </c>
     </row>
     <row r="154" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="101"/>
-      <c r="B154" s="85"/>
-      <c r="C154" s="86"/>
+      <c r="A154" s="107"/>
+      <c r="B154" s="91"/>
+      <c r="C154" s="92"/>
       <c r="D154" s="12" t="s">
         <v>549</v>
       </c>
@@ -8378,11 +8695,11 @@
       </c>
     </row>
     <row r="155" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="101"/>
-      <c r="B155" s="85" t="s">
+      <c r="A155" s="107"/>
+      <c r="B155" s="91" t="s">
         <v>494</v>
       </c>
-      <c r="C155" s="86" t="s">
+      <c r="C155" s="92" t="s">
         <v>551</v>
       </c>
       <c r="D155" s="12" t="s">
@@ -8393,9 +8710,9 @@
       </c>
     </row>
     <row r="156" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="101"/>
-      <c r="B156" s="85"/>
-      <c r="C156" s="86"/>
+      <c r="A156" s="107"/>
+      <c r="B156" s="91"/>
+      <c r="C156" s="92"/>
       <c r="D156" s="12" t="s">
         <v>553</v>
       </c>
@@ -8404,9 +8721,9 @@
       </c>
     </row>
     <row r="157" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="101"/>
-      <c r="B157" s="85"/>
-      <c r="C157" s="86"/>
+      <c r="A157" s="107"/>
+      <c r="B157" s="91"/>
+      <c r="C157" s="92"/>
       <c r="D157" s="12" t="s">
         <v>555</v>
       </c>
@@ -8415,7 +8732,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="96" t="s">
+      <c r="A158" s="102" t="s">
         <v>350</v>
       </c>
       <c r="B158" s="25" t="s">
@@ -8426,11 +8743,11 @@
       </c>
     </row>
     <row r="159" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="96"/>
-      <c r="B159" s="85" t="s">
+      <c r="A159" s="102"/>
+      <c r="B159" s="91" t="s">
         <v>353</v>
       </c>
-      <c r="C159" s="86" t="s">
+      <c r="C159" s="92" t="s">
         <v>354</v>
       </c>
       <c r="D159" s="12" t="s">
@@ -8441,19 +8758,19 @@
       </c>
     </row>
     <row r="160" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="96"/>
-      <c r="B160" s="85"/>
-      <c r="C160" s="86"/>
+      <c r="A160" s="102"/>
+      <c r="B160" s="91"/>
+      <c r="C160" s="92"/>
       <c r="D160" s="12" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="161" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="96"/>
-      <c r="B161" s="85" t="s">
+      <c r="A161" s="102"/>
+      <c r="B161" s="91" t="s">
         <v>355</v>
       </c>
-      <c r="C161" s="86" t="s">
+      <c r="C161" s="92" t="s">
         <v>356</v>
       </c>
       <c r="D161" s="12" t="s">
@@ -8461,19 +8778,19 @@
       </c>
     </row>
     <row r="162" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="96"/>
-      <c r="B162" s="85"/>
-      <c r="C162" s="86"/>
+      <c r="A162" s="102"/>
+      <c r="B162" s="91"/>
+      <c r="C162" s="92"/>
       <c r="D162" s="12" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="163" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="96"/>
-      <c r="B163" s="85" t="s">
+      <c r="A163" s="102"/>
+      <c r="B163" s="91" t="s">
         <v>357</v>
       </c>
-      <c r="C163" s="86" t="s">
+      <c r="C163" s="92" t="s">
         <v>371</v>
       </c>
       <c r="D163" s="12" t="s">
@@ -8487,9 +8804,9 @@
       </c>
     </row>
     <row r="164" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="96"/>
-      <c r="B164" s="85"/>
-      <c r="C164" s="86"/>
+      <c r="A164" s="102"/>
+      <c r="B164" s="91"/>
+      <c r="C164" s="92"/>
       <c r="D164" s="12" t="s">
         <v>363</v>
       </c>
@@ -8498,9 +8815,9 @@
       </c>
     </row>
     <row r="165" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="96"/>
-      <c r="B165" s="85"/>
-      <c r="C165" s="86"/>
+      <c r="A165" s="102"/>
+      <c r="B165" s="91"/>
+      <c r="C165" s="92"/>
       <c r="D165" s="12" t="s">
         <v>365</v>
       </c>
@@ -8509,9 +8826,9 @@
       </c>
     </row>
     <row r="166" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="96"/>
-      <c r="B166" s="85"/>
-      <c r="C166" s="86"/>
+      <c r="A166" s="102"/>
+      <c r="B166" s="91"/>
+      <c r="C166" s="92"/>
       <c r="D166" s="12" t="s">
         <v>359</v>
       </c>
@@ -8520,9 +8837,9 @@
       </c>
     </row>
     <row r="167" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="96"/>
-      <c r="B167" s="85"/>
-      <c r="C167" s="86"/>
+      <c r="A167" s="102"/>
+      <c r="B167" s="91"/>
+      <c r="C167" s="92"/>
       <c r="D167" s="12" t="s">
         <v>368</v>
       </c>
@@ -8531,13 +8848,13 @@
       </c>
     </row>
     <row r="168" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="97" t="s">
+      <c r="A168" s="103" t="s">
         <v>380</v>
       </c>
-      <c r="B168" s="85" t="s">
+      <c r="B168" s="91" t="s">
         <v>373</v>
       </c>
-      <c r="C168" s="86" t="s">
+      <c r="C168" s="92" t="s">
         <v>377</v>
       </c>
       <c r="D168" s="12" t="s">
@@ -8548,9 +8865,9 @@
       </c>
     </row>
     <row r="169" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="97"/>
-      <c r="B169" s="85"/>
-      <c r="C169" s="86"/>
+      <c r="A169" s="103"/>
+      <c r="B169" s="91"/>
+      <c r="C169" s="92"/>
       <c r="D169" s="12" t="s">
         <v>288</v>
       </c>
@@ -8559,9 +8876,9 @@
       </c>
     </row>
     <row r="170" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="97"/>
-      <c r="B170" s="85"/>
-      <c r="C170" s="86"/>
+      <c r="A170" s="103"/>
+      <c r="B170" s="91"/>
+      <c r="C170" s="92"/>
       <c r="D170" s="12" t="s">
         <v>290</v>
       </c>
@@ -8570,11 +8887,11 @@
       </c>
     </row>
     <row r="171" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="97"/>
-      <c r="B171" s="85" t="s">
+      <c r="A171" s="103"/>
+      <c r="B171" s="91" t="s">
         <v>378</v>
       </c>
-      <c r="C171" s="86" t="s">
+      <c r="C171" s="92" t="s">
         <v>379</v>
       </c>
       <c r="D171" s="12" t="s">
@@ -8585,9 +8902,9 @@
       </c>
     </row>
     <row r="172" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="97"/>
-      <c r="B172" s="85"/>
-      <c r="C172" s="86"/>
+      <c r="A172" s="103"/>
+      <c r="B172" s="91"/>
+      <c r="C172" s="92"/>
       <c r="D172" s="12" t="s">
         <v>288</v>
       </c>
@@ -8596,9 +8913,9 @@
       </c>
     </row>
     <row r="173" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="97"/>
-      <c r="B173" s="85"/>
-      <c r="C173" s="86"/>
+      <c r="A173" s="103"/>
+      <c r="B173" s="91"/>
+      <c r="C173" s="92"/>
       <c r="D173" s="12" t="s">
         <v>290</v>
       </c>
@@ -8607,16 +8924,16 @@
       </c>
     </row>
     <row r="174" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="93" t="s">
+      <c r="A174" s="99" t="s">
         <v>381</v>
       </c>
-      <c r="B174" s="85" t="s">
+      <c r="B174" s="91" t="s">
         <v>392</v>
       </c>
-      <c r="C174" s="86" t="s">
+      <c r="C174" s="92" t="s">
         <v>393</v>
       </c>
-      <c r="D174" s="85" t="s">
+      <c r="D174" s="91" t="s">
         <v>382</v>
       </c>
       <c r="E174" s="12" t="s">
@@ -8624,19 +8941,19 @@
       </c>
     </row>
     <row r="175" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="93"/>
-      <c r="B175" s="85"/>
-      <c r="C175" s="86"/>
-      <c r="D175" s="85"/>
+      <c r="A175" s="99"/>
+      <c r="B175" s="91"/>
+      <c r="C175" s="92"/>
+      <c r="D175" s="91"/>
       <c r="E175" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="176" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A176" s="93"/>
-      <c r="B176" s="85"/>
-      <c r="C176" s="86"/>
-      <c r="D176" s="85" t="s">
+      <c r="A176" s="99"/>
+      <c r="B176" s="91"/>
+      <c r="C176" s="92"/>
+      <c r="D176" s="91" t="s">
         <v>385</v>
       </c>
       <c r="E176" s="12" t="s">
@@ -8644,19 +8961,19 @@
       </c>
     </row>
     <row r="177" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="93"/>
-      <c r="B177" s="85"/>
-      <c r="C177" s="86"/>
-      <c r="D177" s="85"/>
+      <c r="A177" s="99"/>
+      <c r="B177" s="91"/>
+      <c r="C177" s="92"/>
+      <c r="D177" s="91"/>
       <c r="E177" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="178" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="93"/>
-      <c r="B178" s="85"/>
-      <c r="C178" s="86"/>
-      <c r="D178" s="85" t="s">
+      <c r="A178" s="99"/>
+      <c r="B178" s="91"/>
+      <c r="C178" s="92"/>
+      <c r="D178" s="91" t="s">
         <v>387</v>
       </c>
       <c r="E178" s="12" t="s">
@@ -8664,18 +8981,18 @@
       </c>
     </row>
     <row r="179" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="93"/>
-      <c r="B179" s="85"/>
-      <c r="C179" s="86"/>
-      <c r="D179" s="85"/>
+      <c r="A179" s="99"/>
+      <c r="B179" s="91"/>
+      <c r="C179" s="92"/>
+      <c r="D179" s="91"/>
       <c r="E179" s="12" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="180" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A180" s="93"/>
-      <c r="B180" s="85"/>
-      <c r="C180" s="86"/>
+      <c r="A180" s="99"/>
+      <c r="B180" s="91"/>
+      <c r="C180" s="92"/>
       <c r="D180" s="12" t="s">
         <v>390</v>
       </c>
@@ -8684,8 +9001,8 @@
       </c>
     </row>
     <row r="181" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="93"/>
-      <c r="B181" s="85" t="s">
+      <c r="A181" s="99"/>
+      <c r="B181" s="91" t="s">
         <v>394</v>
       </c>
       <c r="C181" s="20"/>
@@ -8694,27 +9011,27 @@
       </c>
     </row>
     <row r="182" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A182" s="93"/>
-      <c r="B182" s="85"/>
+      <c r="A182" s="99"/>
+      <c r="B182" s="91"/>
       <c r="C182" s="20"/>
       <c r="D182" s="12" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="183" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A183" s="93"/>
-      <c r="B183" s="85"/>
+      <c r="A183" s="99"/>
+      <c r="B183" s="91"/>
       <c r="C183" s="20"/>
       <c r="D183" s="12" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="184" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A184" s="93"/>
-      <c r="B184" s="85" t="s">
+      <c r="A184" s="99"/>
+      <c r="B184" s="91" t="s">
         <v>395</v>
       </c>
-      <c r="C184" s="86" t="s">
+      <c r="C184" s="92" t="s">
         <v>401</v>
       </c>
       <c r="D184" s="12" t="s">
@@ -8725,9 +9042,9 @@
       </c>
     </row>
     <row r="185" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A185" s="93"/>
-      <c r="B185" s="85"/>
-      <c r="C185" s="86"/>
+      <c r="A185" s="99"/>
+      <c r="B185" s="91"/>
+      <c r="C185" s="92"/>
       <c r="D185" s="12" t="s">
         <v>398</v>
       </c>
@@ -8736,9 +9053,9 @@
       </c>
     </row>
     <row r="186" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A186" s="93"/>
-      <c r="B186" s="85"/>
-      <c r="C186" s="86"/>
+      <c r="A186" s="99"/>
+      <c r="B186" s="91"/>
+      <c r="C186" s="92"/>
       <c r="D186" s="12" t="s">
         <v>140</v>
       </c>
@@ -8747,11 +9064,11 @@
       </c>
     </row>
     <row r="187" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A187" s="93"/>
-      <c r="B187" s="85" t="s">
+      <c r="A187" s="99"/>
+      <c r="B187" s="91" t="s">
         <v>402</v>
       </c>
-      <c r="C187" s="86" t="s">
+      <c r="C187" s="92" t="s">
         <v>403</v>
       </c>
       <c r="D187" s="12" t="s">
@@ -8762,9 +9079,9 @@
       </c>
     </row>
     <row r="188" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="93"/>
-      <c r="B188" s="85"/>
-      <c r="C188" s="86"/>
+      <c r="A188" s="99"/>
+      <c r="B188" s="91"/>
+      <c r="C188" s="92"/>
       <c r="D188" s="12" t="s">
         <v>398</v>
       </c>
@@ -8773,9 +9090,9 @@
       </c>
     </row>
     <row r="189" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="93"/>
-      <c r="B189" s="85"/>
-      <c r="C189" s="86"/>
+      <c r="A189" s="99"/>
+      <c r="B189" s="91"/>
+      <c r="C189" s="92"/>
       <c r="D189" s="12" t="s">
         <v>248</v>
       </c>
@@ -8784,11 +9101,11 @@
       </c>
     </row>
     <row r="190" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="93"/>
-      <c r="B190" s="85" t="s">
+      <c r="A190" s="99"/>
+      <c r="B190" s="91" t="s">
         <v>417</v>
       </c>
-      <c r="C190" s="98" t="s">
+      <c r="C190" s="104" t="s">
         <v>418</v>
       </c>
       <c r="D190" s="12" t="s">
@@ -8799,9 +9116,9 @@
       </c>
     </row>
     <row r="191" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A191" s="93"/>
-      <c r="B191" s="85"/>
-      <c r="C191" s="99"/>
+      <c r="A191" s="99"/>
+      <c r="B191" s="91"/>
+      <c r="C191" s="105"/>
       <c r="D191" s="12" t="s">
         <v>407</v>
       </c>
@@ -8810,9 +9127,9 @@
       </c>
     </row>
     <row r="192" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A192" s="93"/>
-      <c r="B192" s="85"/>
-      <c r="C192" s="99"/>
+      <c r="A192" s="99"/>
+      <c r="B192" s="91"/>
+      <c r="C192" s="105"/>
       <c r="D192" s="12" t="s">
         <v>409</v>
       </c>
@@ -8821,9 +9138,9 @@
       </c>
     </row>
     <row r="193" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A193" s="93"/>
-      <c r="B193" s="85"/>
-      <c r="C193" s="99"/>
+      <c r="A193" s="99"/>
+      <c r="B193" s="91"/>
+      <c r="C193" s="105"/>
       <c r="D193" s="12" t="s">
         <v>411</v>
       </c>
@@ -8832,9 +9149,9 @@
       </c>
     </row>
     <row r="194" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A194" s="93"/>
-      <c r="B194" s="85"/>
-      <c r="C194" s="99"/>
+      <c r="A194" s="99"/>
+      <c r="B194" s="91"/>
+      <c r="C194" s="105"/>
       <c r="D194" s="12" t="s">
         <v>413</v>
       </c>
@@ -8843,9 +9160,9 @@
       </c>
     </row>
     <row r="195" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A195" s="93"/>
-      <c r="B195" s="85"/>
-      <c r="C195" s="99"/>
+      <c r="A195" s="99"/>
+      <c r="B195" s="91"/>
+      <c r="C195" s="105"/>
       <c r="D195" s="12" t="s">
         <v>415</v>
       </c>
@@ -8854,7 +9171,7 @@
       </c>
     </row>
     <row r="196" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A196" s="93"/>
+      <c r="A196" s="99"/>
       <c r="B196" s="18" t="s">
         <v>419</v>
       </c>
@@ -8866,11 +9183,11 @@
       </c>
     </row>
     <row r="197" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A197" s="93"/>
-      <c r="B197" s="85" t="s">
+      <c r="A197" s="99"/>
+      <c r="B197" s="91" t="s">
         <v>422</v>
       </c>
-      <c r="C197" s="86" t="s">
+      <c r="C197" s="92" t="s">
         <v>423</v>
       </c>
       <c r="D197" s="15" t="s">
@@ -8884,9 +9201,9 @@
       </c>
     </row>
     <row r="198" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A198" s="93"/>
-      <c r="B198" s="85"/>
-      <c r="C198" s="86"/>
+      <c r="A198" s="99"/>
+      <c r="B198" s="91"/>
+      <c r="C198" s="92"/>
       <c r="D198" s="15" t="s">
         <v>424</v>
       </c>
@@ -8895,9 +9212,9 @@
       </c>
     </row>
     <row r="199" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="93"/>
-      <c r="B199" s="85"/>
-      <c r="C199" s="86"/>
+      <c r="A199" s="99"/>
+      <c r="B199" s="91"/>
+      <c r="C199" s="92"/>
       <c r="D199" s="15" t="s">
         <v>425</v>
       </c>
@@ -8906,9 +9223,9 @@
       </c>
     </row>
     <row r="200" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A200" s="93"/>
-      <c r="B200" s="85"/>
-      <c r="C200" s="86"/>
+      <c r="A200" s="99"/>
+      <c r="B200" s="91"/>
+      <c r="C200" s="92"/>
       <c r="D200" s="15" t="s">
         <v>426</v>
       </c>
@@ -8917,11 +9234,11 @@
       </c>
     </row>
     <row r="201" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A201" s="93"/>
-      <c r="B201" s="85" t="s">
+      <c r="A201" s="99"/>
+      <c r="B201" s="91" t="s">
         <v>432</v>
       </c>
-      <c r="C201" s="86" t="s">
+      <c r="C201" s="92" t="s">
         <v>433</v>
       </c>
       <c r="D201" s="15" t="s">
@@ -8932,9 +9249,9 @@
       </c>
     </row>
     <row r="202" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A202" s="93"/>
-      <c r="B202" s="85"/>
-      <c r="C202" s="86"/>
+      <c r="A202" s="99"/>
+      <c r="B202" s="91"/>
+      <c r="C202" s="92"/>
       <c r="D202" s="15" t="s">
         <v>435</v>
       </c>
@@ -8943,9 +9260,9 @@
       </c>
     </row>
     <row r="203" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A203" s="93"/>
-      <c r="B203" s="85"/>
-      <c r="C203" s="86"/>
+      <c r="A203" s="99"/>
+      <c r="B203" s="91"/>
+      <c r="C203" s="92"/>
       <c r="D203" s="15" t="s">
         <v>436</v>
       </c>
@@ -8954,9 +9271,9 @@
       </c>
     </row>
     <row r="204" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A204" s="93"/>
-      <c r="B204" s="85"/>
-      <c r="C204" s="86"/>
+      <c r="A204" s="99"/>
+      <c r="B204" s="91"/>
+      <c r="C204" s="92"/>
       <c r="D204" s="12" t="s">
         <v>440</v>
       </c>
@@ -8965,9 +9282,9 @@
       </c>
     </row>
     <row r="205" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="93"/>
-      <c r="B205" s="85"/>
-      <c r="C205" s="86"/>
+      <c r="A205" s="99"/>
+      <c r="B205" s="91"/>
+      <c r="C205" s="92"/>
       <c r="D205" s="12" t="s">
         <v>442</v>
       </c>
@@ -8976,9 +9293,9 @@
       </c>
     </row>
     <row r="206" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A206" s="93"/>
-      <c r="B206" s="85"/>
-      <c r="C206" s="86"/>
+      <c r="A206" s="99"/>
+      <c r="B206" s="91"/>
+      <c r="C206" s="92"/>
       <c r="D206" s="12" t="s">
         <v>444</v>
       </c>
@@ -8987,9 +9304,9 @@
       </c>
     </row>
     <row r="207" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A207" s="93"/>
-      <c r="B207" s="85"/>
-      <c r="C207" s="86"/>
+      <c r="A207" s="99"/>
+      <c r="B207" s="91"/>
+      <c r="C207" s="92"/>
       <c r="D207" s="12" t="s">
         <v>446</v>
       </c>
@@ -8998,17 +9315,17 @@
       </c>
     </row>
     <row r="208" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A208" s="93"/>
-      <c r="B208" s="85"/>
-      <c r="C208" s="86"/>
+      <c r="A208" s="99"/>
+      <c r="B208" s="91"/>
+      <c r="C208" s="92"/>
       <c r="D208" s="12" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="209" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A209" s="93"/>
-      <c r="B209" s="85"/>
-      <c r="C209" s="86"/>
+      <c r="A209" s="99"/>
+      <c r="B209" s="91"/>
+      <c r="C209" s="92"/>
       <c r="D209" s="12" t="s">
         <v>290</v>
       </c>
@@ -9017,11 +9334,11 @@
       </c>
     </row>
     <row r="210" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="93"/>
-      <c r="B210" s="85" t="s">
+      <c r="A210" s="99"/>
+      <c r="B210" s="91" t="s">
         <v>449</v>
       </c>
-      <c r="C210" s="86" t="s">
+      <c r="C210" s="92" t="s">
         <v>453</v>
       </c>
       <c r="D210" s="12" t="s">
@@ -9032,9 +9349,9 @@
       </c>
     </row>
     <row r="211" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A211" s="93"/>
-      <c r="B211" s="85"/>
-      <c r="C211" s="86"/>
+      <c r="A211" s="99"/>
+      <c r="B211" s="91"/>
+      <c r="C211" s="92"/>
       <c r="D211" s="12" t="s">
         <v>142</v>
       </c>
@@ -9043,9 +9360,9 @@
       </c>
     </row>
     <row r="212" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A212" s="93"/>
-      <c r="B212" s="85"/>
-      <c r="C212" s="86"/>
+      <c r="A212" s="99"/>
+      <c r="B212" s="91"/>
+      <c r="C212" s="92"/>
       <c r="D212" s="12" t="s">
         <v>451</v>
       </c>
@@ -9054,7 +9371,7 @@
       </c>
     </row>
     <row r="213" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A213" s="93"/>
+      <c r="A213" s="99"/>
       <c r="B213" s="18" t="s">
         <v>455</v>
       </c>
@@ -9069,7 +9386,7 @@
       </c>
     </row>
     <row r="214" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A214" s="84" t="s">
+      <c r="A214" s="90" t="s">
         <v>726</v>
       </c>
       <c r="B214" s="38" t="s">
@@ -9084,11 +9401,11 @@
       </c>
     </row>
     <row r="215" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A215" s="84"/>
-      <c r="B215" s="79" t="s">
+      <c r="A215" s="90"/>
+      <c r="B215" s="85" t="s">
         <v>675</v>
       </c>
-      <c r="C215" s="78" t="s">
+      <c r="C215" s="84" t="s">
         <v>676</v>
       </c>
       <c r="D215" s="38" t="s">
@@ -9099,9 +9416,9 @@
       </c>
     </row>
     <row r="216" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A216" s="84"/>
-      <c r="B216" s="79"/>
-      <c r="C216" s="78"/>
+      <c r="A216" s="90"/>
+      <c r="B216" s="85"/>
+      <c r="C216" s="84"/>
       <c r="D216" s="38" t="s">
         <v>679</v>
       </c>
@@ -9110,9 +9427,9 @@
       </c>
     </row>
     <row r="217" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A217" s="84"/>
-      <c r="B217" s="79"/>
-      <c r="C217" s="78"/>
+      <c r="A217" s="90"/>
+      <c r="B217" s="85"/>
+      <c r="C217" s="84"/>
       <c r="D217" s="38" t="s">
         <v>681</v>
       </c>
@@ -9121,9 +9438,9 @@
       </c>
     </row>
     <row r="218" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A218" s="84"/>
-      <c r="B218" s="79"/>
-      <c r="C218" s="78"/>
+      <c r="A218" s="90"/>
+      <c r="B218" s="85"/>
+      <c r="C218" s="84"/>
       <c r="D218" s="38" t="s">
         <v>682</v>
       </c>
@@ -9132,11 +9449,11 @@
       </c>
     </row>
     <row r="219" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A219" s="84"/>
-      <c r="B219" s="79" t="s">
+      <c r="A219" s="90"/>
+      <c r="B219" s="85" t="s">
         <v>685</v>
       </c>
-      <c r="C219" s="78" t="s">
+      <c r="C219" s="84" t="s">
         <v>686</v>
       </c>
       <c r="D219" s="38" t="s">
@@ -9147,9 +9464,9 @@
       </c>
     </row>
     <row r="220" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A220" s="84"/>
-      <c r="B220" s="79"/>
-      <c r="C220" s="78"/>
+      <c r="A220" s="90"/>
+      <c r="B220" s="85"/>
+      <c r="C220" s="84"/>
       <c r="D220" s="38" t="s">
         <v>687</v>
       </c>
@@ -9158,9 +9475,9 @@
       </c>
     </row>
     <row r="221" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="84"/>
-      <c r="B221" s="79"/>
-      <c r="C221" s="78"/>
+      <c r="A221" s="90"/>
+      <c r="B221" s="85"/>
+      <c r="C221" s="84"/>
       <c r="D221" s="38" t="s">
         <v>688</v>
       </c>
@@ -9169,7 +9486,7 @@
       </c>
     </row>
     <row r="222" spans="1:5" s="12" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A222" s="84"/>
+      <c r="A222" s="90"/>
       <c r="B222" s="38" t="s">
         <v>693</v>
       </c>
@@ -9180,11 +9497,11 @@
       <c r="E222" s="38"/>
     </row>
     <row r="223" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A223" s="84"/>
-      <c r="B223" s="79" t="s">
+      <c r="A223" s="90"/>
+      <c r="B223" s="85" t="s">
         <v>695</v>
       </c>
-      <c r="C223" s="78" t="s">
+      <c r="C223" s="84" t="s">
         <v>696</v>
       </c>
       <c r="D223" s="38" t="s">
@@ -9195,9 +9512,9 @@
       </c>
     </row>
     <row r="224" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A224" s="84"/>
-      <c r="B224" s="79"/>
-      <c r="C224" s="78"/>
+      <c r="A224" s="90"/>
+      <c r="B224" s="85"/>
+      <c r="C224" s="84"/>
       <c r="D224" s="38" t="s">
         <v>699</v>
       </c>
@@ -9206,9 +9523,9 @@
       </c>
     </row>
     <row r="225" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A225" s="84"/>
-      <c r="B225" s="79"/>
-      <c r="C225" s="78"/>
+      <c r="A225" s="90"/>
+      <c r="B225" s="85"/>
+      <c r="C225" s="84"/>
       <c r="D225" s="38" t="s">
         <v>701</v>
       </c>
@@ -9217,9 +9534,9 @@
       </c>
     </row>
     <row r="226" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A226" s="84"/>
-      <c r="B226" s="79"/>
-      <c r="C226" s="78"/>
+      <c r="A226" s="90"/>
+      <c r="B226" s="85"/>
+      <c r="C226" s="84"/>
       <c r="D226" s="38" t="s">
         <v>703</v>
       </c>
@@ -9228,9 +9545,9 @@
       </c>
     </row>
     <row r="227" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A227" s="84"/>
-      <c r="B227" s="79"/>
-      <c r="C227" s="78"/>
+      <c r="A227" s="90"/>
+      <c r="B227" s="85"/>
+      <c r="C227" s="84"/>
       <c r="D227" s="38" t="s">
         <v>705</v>
       </c>
@@ -9239,11 +9556,11 @@
       </c>
     </row>
     <row r="228" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A228" s="84"/>
-      <c r="B228" s="79" t="s">
+      <c r="A228" s="90"/>
+      <c r="B228" s="85" t="s">
         <v>707</v>
       </c>
-      <c r="C228" s="78" t="s">
+      <c r="C228" s="84" t="s">
         <v>708</v>
       </c>
       <c r="D228" s="38" t="s">
@@ -9254,9 +9571,9 @@
       </c>
     </row>
     <row r="229" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A229" s="84"/>
-      <c r="B229" s="79"/>
-      <c r="C229" s="78"/>
+      <c r="A229" s="90"/>
+      <c r="B229" s="85"/>
+      <c r="C229" s="84"/>
       <c r="D229" s="38" t="s">
         <v>699</v>
       </c>
@@ -9265,9 +9582,9 @@
       </c>
     </row>
     <row r="230" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A230" s="84"/>
-      <c r="B230" s="79"/>
-      <c r="C230" s="78"/>
+      <c r="A230" s="90"/>
+      <c r="B230" s="85"/>
+      <c r="C230" s="84"/>
       <c r="D230" s="38" t="s">
         <v>701</v>
       </c>
@@ -9276,9 +9593,9 @@
       </c>
     </row>
     <row r="231" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A231" s="84"/>
-      <c r="B231" s="79"/>
-      <c r="C231" s="78"/>
+      <c r="A231" s="90"/>
+      <c r="B231" s="85"/>
+      <c r="C231" s="84"/>
       <c r="D231" s="38" t="s">
         <v>710</v>
       </c>
@@ -9287,9 +9604,9 @@
       </c>
     </row>
     <row r="232" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A232" s="84"/>
-      <c r="B232" s="79"/>
-      <c r="C232" s="78"/>
+      <c r="A232" s="90"/>
+      <c r="B232" s="85"/>
+      <c r="C232" s="84"/>
       <c r="D232" s="38" t="s">
         <v>712</v>
       </c>
@@ -9298,11 +9615,11 @@
       </c>
     </row>
     <row r="233" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A233" s="84"/>
-      <c r="B233" s="79" t="s">
+      <c r="A233" s="90"/>
+      <c r="B233" s="85" t="s">
         <v>718</v>
       </c>
-      <c r="C233" s="80" t="s">
+      <c r="C233" s="86" t="s">
         <v>725</v>
       </c>
       <c r="D233" s="38" t="s">
@@ -9313,9 +9630,9 @@
       </c>
     </row>
     <row r="234" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A234" s="84"/>
-      <c r="B234" s="79"/>
-      <c r="C234" s="81"/>
+      <c r="A234" s="90"/>
+      <c r="B234" s="85"/>
+      <c r="C234" s="87"/>
       <c r="D234" s="38" t="s">
         <v>699</v>
       </c>
@@ -9324,9 +9641,9 @@
       </c>
     </row>
     <row r="235" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A235" s="84"/>
-      <c r="B235" s="79"/>
-      <c r="C235" s="81"/>
+      <c r="A235" s="90"/>
+      <c r="B235" s="85"/>
+      <c r="C235" s="87"/>
       <c r="D235" s="38" t="s">
         <v>701</v>
       </c>
@@ -9335,9 +9652,9 @@
       </c>
     </row>
     <row r="236" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A236" s="84"/>
-      <c r="B236" s="79"/>
-      <c r="C236" s="81"/>
+      <c r="A236" s="90"/>
+      <c r="B236" s="85"/>
+      <c r="C236" s="87"/>
       <c r="D236" s="38" t="s">
         <v>703</v>
       </c>
@@ -9346,9 +9663,9 @@
       </c>
     </row>
     <row r="237" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A237" s="84"/>
-      <c r="B237" s="79"/>
-      <c r="C237" s="81"/>
+      <c r="A237" s="90"/>
+      <c r="B237" s="85"/>
+      <c r="C237" s="87"/>
       <c r="D237" s="38" t="s">
         <v>705</v>
       </c>
@@ -9357,9 +9674,9 @@
       </c>
     </row>
     <row r="238" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A238" s="84"/>
-      <c r="B238" s="83"/>
-      <c r="C238" s="82"/>
+      <c r="A238" s="90"/>
+      <c r="B238" s="89"/>
+      <c r="C238" s="88"/>
       <c r="D238" s="44" t="s">
         <v>712</v>
       </c>
@@ -9368,7 +9685,7 @@
       </c>
     </row>
     <row r="239" spans="1:5" s="12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A239" s="74" t="s">
+      <c r="A239" s="80" t="s">
         <v>727</v>
       </c>
       <c r="B239" s="45" t="s">
@@ -9383,7 +9700,7 @@
       <c r="E239" s="45"/>
     </row>
     <row r="240" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A240" s="74"/>
+      <c r="A240" s="80"/>
       <c r="B240" s="45" t="s">
         <v>731</v>
       </c>
@@ -9394,7 +9711,7 @@
       <c r="E240" s="45"/>
     </row>
     <row r="241" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A241" s="74"/>
+      <c r="A241" s="80"/>
       <c r="B241" s="45" t="s">
         <v>733</v>
       </c>
@@ -9405,7 +9722,7 @@
       <c r="E241" s="45"/>
     </row>
     <row r="242" spans="1:5" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A242" s="74"/>
+      <c r="A242" s="80"/>
       <c r="B242" s="45" t="s">
         <v>735</v>
       </c>
@@ -9416,7 +9733,7 @@
       <c r="E242" s="45"/>
     </row>
     <row r="243" spans="1:5" s="12" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A243" s="74"/>
+      <c r="A243" s="80"/>
       <c r="B243" s="45" t="s">
         <v>673</v>
       </c>
@@ -9427,60 +9744,60 @@
       <c r="E243" s="45"/>
     </row>
     <row r="244" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A244" s="74"/>
-      <c r="B244" s="73" t="s">
+      <c r="A244" s="80"/>
+      <c r="B244" s="79" t="s">
         <v>738</v>
       </c>
-      <c r="C244" s="72" t="s">
+      <c r="C244" s="78" t="s">
         <v>739</v>
       </c>
       <c r="D244" s="45" t="s">
         <v>709</v>
       </c>
-      <c r="E244" s="75" t="s">
+      <c r="E244" s="81" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="245" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A245" s="74"/>
-      <c r="B245" s="73"/>
-      <c r="C245" s="72"/>
+      <c r="A245" s="80"/>
+      <c r="B245" s="79"/>
+      <c r="C245" s="78"/>
       <c r="D245" s="45" t="s">
         <v>699</v>
       </c>
-      <c r="E245" s="76"/>
+      <c r="E245" s="82"/>
     </row>
     <row r="246" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A246" s="74"/>
-      <c r="B246" s="73"/>
-      <c r="C246" s="72"/>
+      <c r="A246" s="80"/>
+      <c r="B246" s="79"/>
+      <c r="C246" s="78"/>
       <c r="D246" s="45" t="s">
         <v>701</v>
       </c>
-      <c r="E246" s="76"/>
+      <c r="E246" s="82"/>
     </row>
     <row r="247" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A247" s="74"/>
-      <c r="B247" s="73"/>
-      <c r="C247" s="72"/>
+      <c r="A247" s="80"/>
+      <c r="B247" s="79"/>
+      <c r="C247" s="78"/>
       <c r="D247" s="45" t="s">
         <v>710</v>
       </c>
-      <c r="E247" s="76"/>
+      <c r="E247" s="82"/>
     </row>
     <row r="248" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A248" s="74"/>
-      <c r="B248" s="73"/>
-      <c r="C248" s="72"/>
+      <c r="A248" s="80"/>
+      <c r="B248" s="79"/>
+      <c r="C248" s="78"/>
       <c r="D248" s="45" t="s">
         <v>711</v>
       </c>
-      <c r="E248" s="77"/>
+      <c r="E248" s="83"/>
     </row>
     <row r="249" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A249" s="74"/>
-      <c r="B249" s="73"/>
-      <c r="C249" s="72"/>
+      <c r="A249" s="80"/>
+      <c r="B249" s="79"/>
+      <c r="C249" s="78"/>
       <c r="D249" s="45" t="s">
         <v>740</v>
       </c>
@@ -9594,7 +9911,7 @@
       <c r="C270" s="37"/>
     </row>
     <row r="271" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A271" s="100" t="s">
+      <c r="A271" s="106" t="s">
         <v>557</v>
       </c>
       <c r="B271" s="27" t="s">
@@ -9605,7 +9922,7 @@
       </c>
     </row>
     <row r="272" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A272" s="100"/>
+      <c r="A272" s="106"/>
       <c r="B272" s="27" t="s">
         <v>560</v>
       </c>
@@ -9614,7 +9931,7 @@
       </c>
     </row>
     <row r="273" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A273" s="100"/>
+      <c r="A273" s="106"/>
       <c r="B273" s="27" t="s">
         <v>562</v>
       </c>
@@ -9623,7 +9940,7 @@
       </c>
     </row>
     <row r="274" spans="1:3" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A274" s="100"/>
+      <c r="A274" s="106"/>
       <c r="B274" s="27" t="s">
         <v>564</v>
       </c>
@@ -9717,7 +10034,7 @@
       <c r="C291" s="20"/>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A292" s="94" t="s">
+      <c r="A292" s="100" t="s">
         <v>320</v>
       </c>
       <c r="B292" s="19" t="s">
@@ -9728,7 +10045,7 @@
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A293" s="95"/>
+      <c r="A293" s="101"/>
       <c r="B293" s="19" t="s">
         <v>306</v>
       </c>
@@ -9737,7 +10054,7 @@
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A294" s="95"/>
+      <c r="A294" s="101"/>
       <c r="B294" s="19" t="s">
         <v>308</v>
       </c>
@@ -9746,7 +10063,7 @@
       </c>
     </row>
     <row r="295" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A295" s="95"/>
+      <c r="A295" s="101"/>
       <c r="B295" s="19" t="s">
         <v>310</v>
       </c>
@@ -9755,7 +10072,7 @@
       </c>
     </row>
     <row r="296" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A296" s="95"/>
+      <c r="A296" s="101"/>
       <c r="B296" s="19" t="s">
         <v>312</v>
       </c>
@@ -9764,7 +10081,7 @@
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A297" s="95"/>
+      <c r="A297" s="101"/>
       <c r="B297" s="19" t="s">
         <v>314</v>
       </c>
@@ -9773,7 +10090,7 @@
       </c>
     </row>
     <row r="298" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A298" s="95"/>
+      <c r="A298" s="101"/>
       <c r="B298" s="19" t="s">
         <v>316</v>
       </c>
@@ -9782,7 +10099,7 @@
       </c>
     </row>
     <row r="299" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A299" s="95"/>
+      <c r="A299" s="101"/>
       <c r="B299" s="19" t="s">
         <v>318</v>
       </c>
@@ -9963,10 +10280,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6ACF1E-CD6A-4FCA-B0FB-1587C5613655}">
-  <dimension ref="A4:E118"/>
+  <dimension ref="A4:E143"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9978,7 +10295,7 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="77" t="s">
         <v>761</v>
       </c>
       <c r="B4" s="47" t="s">
@@ -9989,7 +10306,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="71"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="47" t="s">
         <v>764</v>
       </c>
@@ -10006,7 +10323,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="77" t="s">
         <v>768</v>
       </c>
       <c r="B7" s="47" t="s">
@@ -10017,7 +10334,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A8" s="71"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="47" t="s">
         <v>770</v>
       </c>
@@ -10026,13 +10343,13 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="71"/>
+      <c r="A9" s="77"/>
       <c r="B9" s="47" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A10" s="71"/>
+      <c r="A10" s="77"/>
       <c r="B10" s="47" t="s">
         <v>774</v>
       </c>
@@ -10041,7 +10358,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="71"/>
+      <c r="A11" s="77"/>
       <c r="B11" s="47" t="s">
         <v>776</v>
       </c>
@@ -10050,7 +10367,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="75" t="s">
         <v>778</v>
       </c>
       <c r="B12" s="47" t="s">
@@ -10058,7 +10375,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="81" x14ac:dyDescent="0.15">
-      <c r="A13" s="69"/>
+      <c r="A13" s="75"/>
       <c r="B13" s="47" t="s">
         <v>779</v>
       </c>
@@ -10067,7 +10384,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="69"/>
+      <c r="A14" s="75"/>
       <c r="B14" s="47" t="s">
         <v>781</v>
       </c>
@@ -10076,7 +10393,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="69"/>
+      <c r="A15" s="75"/>
       <c r="B15" s="47" t="s">
         <v>783</v>
       </c>
@@ -10085,7 +10402,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="77" t="s">
         <v>786</v>
       </c>
       <c r="B16" s="47" t="s">
@@ -10099,36 +10416,36 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="71"/>
-      <c r="B17" s="66" t="s">
+      <c r="A17" s="77"/>
+      <c r="B17" s="72" t="s">
         <v>790</v>
       </c>
       <c r="C17" s="47" t="s">
         <v>791</v>
       </c>
-      <c r="D17" s="66" t="s">
+      <c r="D17" s="72" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="71"/>
-      <c r="B18" s="66"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="47" t="s">
         <v>792</v>
       </c>
-      <c r="D18" s="66"/>
+      <c r="D18" s="72"/>
     </row>
     <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="71"/>
-      <c r="B19" s="66"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="72"/>
       <c r="C19" s="47" t="s">
         <v>793</v>
       </c>
-      <c r="D19" s="66"/>
+      <c r="D19" s="72"/>
     </row>
     <row r="20" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="71"/>
-      <c r="B20" s="66" t="s">
+      <c r="A20" s="77"/>
+      <c r="B20" s="72" t="s">
         <v>795</v>
       </c>
       <c r="C20" s="47" t="s">
@@ -10136,14 +10453,14 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A21" s="71"/>
-      <c r="B21" s="66"/>
+      <c r="A21" s="77"/>
+      <c r="B21" s="72"/>
       <c r="C21" s="47" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="71"/>
+      <c r="A22" s="77"/>
       <c r="B22" s="47" t="s">
         <v>798</v>
       </c>
@@ -10152,7 +10469,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="81" x14ac:dyDescent="0.15">
-      <c r="A23" s="71"/>
+      <c r="A23" s="77"/>
       <c r="B23" s="47" t="s">
         <v>800</v>
       </c>
@@ -10161,7 +10478,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A24" s="71"/>
+      <c r="A24" s="77"/>
       <c r="B24" s="47" t="s">
         <v>802</v>
       </c>
@@ -10170,7 +10487,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A25" s="103" t="s">
+      <c r="A25" s="109" t="s">
         <v>804</v>
       </c>
       <c r="B25" s="47" t="s">
@@ -10180,30 +10497,30 @@
         <v>806</v>
       </c>
       <c r="D25" s="47" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="103"/>
-      <c r="B26" s="66" t="s">
+      <c r="A26" s="109"/>
+      <c r="B26" s="72" t="s">
         <v>807</v>
       </c>
       <c r="C26" s="47" t="s">
         <v>808</v>
       </c>
       <c r="D26" s="47" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="103"/>
-      <c r="B27" s="66"/>
+      <c r="A27" s="109"/>
+      <c r="B27" s="72"/>
       <c r="C27" s="47" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="103"/>
+      <c r="A28" s="109"/>
       <c r="B28" s="47" t="s">
         <v>810</v>
       </c>
@@ -10212,7 +10529,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="103"/>
+      <c r="A29" s="109"/>
       <c r="B29" s="47" t="s">
         <v>812</v>
       </c>
@@ -10224,7 +10541,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="103"/>
+      <c r="A30" s="109"/>
       <c r="B30" s="47" t="s">
         <v>815</v>
       </c>
@@ -10236,8 +10553,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="103"/>
-      <c r="B31" s="66" t="s">
+      <c r="A31" s="109"/>
+      <c r="B31" s="72" t="s">
         <v>818</v>
       </c>
       <c r="C31" s="47" t="s">
@@ -10245,628 +10562,851 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A32" s="103"/>
-      <c r="B32" s="66"/>
+      <c r="A32" s="109"/>
+      <c r="B32" s="72"/>
       <c r="C32" s="47" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A33" s="103"/>
-      <c r="B33" s="47" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="109"/>
+      <c r="B33" s="67" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+    </row>
+    <row r="34" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A34" s="109"/>
+      <c r="B34" s="47" t="s">
         <v>821</v>
       </c>
-      <c r="C33" s="47" t="s">
+      <c r="C34" s="47" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="103"/>
-      <c r="B34" s="47" t="s">
+    <row r="35" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="109"/>
+      <c r="B35" s="47" t="s">
         <v>823</v>
       </c>
-      <c r="C34" s="47" t="s">
+      <c r="C35" s="47" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="71" t="s">
+    <row r="36" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="109" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B36" s="67" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C36" s="67" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D36" s="67" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="109"/>
+      <c r="B37" s="67" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C37" s="67" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D37" s="67" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A38" s="109"/>
+      <c r="B38" s="67" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C38" s="67" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D38" s="67" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="109"/>
+      <c r="B39" s="67" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C39" s="67" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D39" s="67" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="109"/>
+      <c r="B40" s="67" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C40" s="67" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D40" s="67" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="109"/>
+      <c r="B41" s="67" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C41" s="67" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D41" s="67" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="109"/>
+      <c r="B42" s="67" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C42" s="67" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D42" s="67"/>
+    </row>
+    <row r="43" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="109"/>
+      <c r="B43" s="67" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C43" s="67" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D43" s="67" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="109"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="70" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D44" s="67" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="109"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="67" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D45" s="67" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A46" s="68"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="67"/>
+    </row>
+    <row r="47" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A47" s="68"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+    </row>
+    <row r="48" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A48" s="68"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="67"/>
+    </row>
+    <row r="49" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A49" s="68"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="67"/>
+    </row>
+    <row r="50" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A50" s="68"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="67"/>
+    </row>
+    <row r="51" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A51" s="68"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
+    </row>
+    <row r="52" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A52" s="68"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="67"/>
+    </row>
+    <row r="53" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A53" s="68"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="67"/>
+    </row>
+    <row r="54" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A54" s="68"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+    </row>
+    <row r="55" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A55" s="68"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="67"/>
+    </row>
+    <row r="56" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A56" s="68"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+    </row>
+    <row r="57" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A57" s="68"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+    </row>
+    <row r="58" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A58" s="68"/>
+      <c r="B58" s="67"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="67"/>
+    </row>
+    <row r="59" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A59" s="68"/>
+      <c r="B59" s="67"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="67"/>
+    </row>
+    <row r="60" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A60" s="77" t="s">
         <v>842</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B60" s="49" t="s">
         <v>843</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="C60" s="49" t="s">
         <v>844</v>
       </c>
-      <c r="D35" s="49"/>
-    </row>
-    <row r="36" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="71"/>
-      <c r="B36" s="49" t="s">
+      <c r="D60" s="49"/>
+    </row>
+    <row r="61" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A61" s="77"/>
+      <c r="B61" s="49" t="s">
         <v>845</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="C61" s="49" t="s">
         <v>846</v>
       </c>
-      <c r="D36" s="49"/>
-    </row>
-    <row r="37" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="71"/>
-      <c r="B37" s="49" t="s">
+      <c r="D61" s="49"/>
+    </row>
+    <row r="62" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A62" s="77"/>
+      <c r="B62" s="49" t="s">
         <v>848</v>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="C62" s="49" t="s">
         <v>847</v>
       </c>
-      <c r="D37" s="49"/>
-    </row>
-    <row r="38" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="71"/>
-      <c r="B38" s="49" t="s">
+      <c r="D62" s="49"/>
+    </row>
+    <row r="63" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A63" s="77"/>
+      <c r="B63" s="49" t="s">
         <v>850</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="C63" s="49" t="s">
         <v>849</v>
       </c>
-      <c r="D38" s="49"/>
-    </row>
-    <row r="39" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="71"/>
-      <c r="B39" s="62" t="s">
+      <c r="D63" s="49"/>
+    </row>
+    <row r="64" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A64" s="77"/>
+      <c r="B64" s="62" t="s">
+        <v>975</v>
+      </c>
+      <c r="C64" s="62" t="s">
+        <v>976</v>
+      </c>
+      <c r="D64" s="62"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="77" t="s">
+        <v>825</v>
+      </c>
+      <c r="B65" s="50" t="s">
+        <v>833</v>
+      </c>
+      <c r="C65" s="49"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" s="77"/>
+      <c r="B66" s="50" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" s="77"/>
+      <c r="B67" s="50" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" s="77"/>
+      <c r="B68" s="50" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" s="77"/>
+      <c r="B69" s="50" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" s="77"/>
+      <c r="B70" s="50" t="s">
+        <v>831</v>
+      </c>
+      <c r="C70" s="61" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" s="77"/>
+      <c r="B71" s="51" t="s">
+        <v>832</v>
+      </c>
+      <c r="D71" s="61" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" s="77"/>
+      <c r="B72" s="51" t="s">
+        <v>834</v>
+      </c>
+      <c r="D72" s="61" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" s="77"/>
+      <c r="B73" s="52" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" s="77"/>
+      <c r="B74" s="52" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" s="77"/>
+      <c r="B75" s="53" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" s="77"/>
+      <c r="B76" s="53" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" s="77"/>
+      <c r="B77" s="53" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" s="77"/>
+      <c r="B78" s="53" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="77"/>
+      <c r="B79" s="52" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="77"/>
+      <c r="B80" s="54" t="s">
+        <v>858</v>
+      </c>
+      <c r="C80" s="49"/>
+      <c r="D80" s="49"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81" s="77"/>
+      <c r="B81" s="55" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A82" s="77"/>
+      <c r="B82" s="55" t="s">
+        <v>852</v>
+      </c>
+      <c r="C82" s="47" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A83" s="77"/>
+      <c r="B83" s="54" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A84" s="77"/>
+      <c r="B84" s="54" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A85" s="77"/>
+      <c r="B85" s="54" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A86" s="77"/>
+      <c r="B86" s="54" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A87" s="77"/>
+      <c r="B87" s="54" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A88" s="77"/>
+      <c r="B88" s="56" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A89" s="77"/>
+      <c r="B89" s="56" t="s">
+        <v>860</v>
+      </c>
+      <c r="C89" s="47" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A90" s="77"/>
+      <c r="B90" s="56" t="s">
+        <v>861</v>
+      </c>
+      <c r="C90" s="47" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A91" s="77"/>
+      <c r="B91" s="56" t="s">
+        <v>862</v>
+      </c>
+      <c r="C91" s="47" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A92" s="77"/>
+      <c r="B92" s="47" t="s">
+        <v>863</v>
+      </c>
+      <c r="C92" s="47" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="69" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A94" s="69" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B94" s="47" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C94" s="47" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A95" s="69" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C95" s="47" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A97" s="108" t="s">
+        <v>953</v>
+      </c>
+      <c r="B97" s="47" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A98" s="108"/>
+      <c r="B98" s="47" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A99" s="108"/>
+      <c r="B99" s="47" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A100" s="108"/>
+      <c r="B100" s="47" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A101" s="108"/>
+      <c r="B101" s="47" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A102" s="108"/>
+      <c r="B102" s="47" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A103" s="108"/>
+      <c r="B103" s="47" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A104" s="108"/>
+      <c r="B104" s="60" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="B105" s="47" t="s">
+        <v>902</v>
+      </c>
+      <c r="C105" s="47" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B107" s="47" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>973</v>
+      </c>
+      <c r="B117" s="47" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>977</v>
+      </c>
+      <c r="B119" s="47" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B120" s="47" t="s">
         <v>978</v>
       </c>
-      <c r="C39" s="62" t="s">
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B121" s="47" t="s">
         <v>979</v>
       </c>
-      <c r="D39" s="62"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="71" t="s">
-        <v>825</v>
-      </c>
-      <c r="B40" s="50" t="s">
-        <v>833</v>
-      </c>
-      <c r="C40" s="49"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="71"/>
-      <c r="B41" s="50" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="71"/>
-      <c r="B42" s="50" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="71"/>
-      <c r="B43" s="50" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="71"/>
-      <c r="B44" s="50" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="71"/>
-      <c r="B45" s="50" t="s">
-        <v>831</v>
-      </c>
-      <c r="C45" s="61" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="71"/>
-      <c r="B46" s="51" t="s">
-        <v>832</v>
-      </c>
-      <c r="D46" s="61" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="71"/>
-      <c r="B47" s="51" t="s">
-        <v>834</v>
-      </c>
-      <c r="D47" s="61" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="71"/>
-      <c r="B48" s="52" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="71"/>
-      <c r="B49" s="52" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="71"/>
-      <c r="B50" s="53" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="71"/>
-      <c r="B51" s="53" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="71"/>
-      <c r="B52" s="53" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="71"/>
-      <c r="B53" s="53" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="71"/>
-      <c r="B54" s="52" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="71"/>
-      <c r="B55" s="54" t="s">
-        <v>858</v>
-      </c>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="71"/>
-      <c r="B56" s="55" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="71"/>
-      <c r="B57" s="55" t="s">
-        <v>852</v>
-      </c>
-      <c r="C57" s="47" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="71"/>
-      <c r="B58" s="54" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="71"/>
-      <c r="B59" s="54" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="71"/>
-      <c r="B60" s="54" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="71"/>
-      <c r="B61" s="54" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="71"/>
-      <c r="B62" s="54" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="71"/>
-      <c r="B63" s="56" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="71"/>
-      <c r="B64" s="56" t="s">
-        <v>860</v>
-      </c>
-      <c r="C64" s="47" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A65" s="71"/>
-      <c r="B65" s="56" t="s">
-        <v>861</v>
-      </c>
-      <c r="C65" s="47" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A66" s="71"/>
-      <c r="B66" s="56" t="s">
-        <v>862</v>
-      </c>
-      <c r="C66" s="47" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A67" s="71"/>
-      <c r="B67" s="47" t="s">
-        <v>863</v>
-      </c>
-      <c r="C67" s="47" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" s="102" t="s">
-        <v>955</v>
-      </c>
-      <c r="B72" s="47" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A73" s="102"/>
-      <c r="B73" s="47" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A74" s="102"/>
-      <c r="B74" s="47" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" s="102"/>
-      <c r="B75" s="47" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A76" s="102"/>
-      <c r="B76" s="47" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A77" s="102"/>
-      <c r="B77" s="47" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A78" s="102"/>
-      <c r="B78" s="47" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A79" s="102"/>
-      <c r="B79" s="60" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="B80" s="47" t="s">
-        <v>904</v>
-      </c>
-      <c r="C80" s="47" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B82" s="47" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A84" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A85" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A87" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A88" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A89" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A90" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A92" t="s">
-        <v>976</v>
-      </c>
-      <c r="B92" s="47" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A94" t="s">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B122" s="47" t="s">
         <v>980</v>
       </c>
-      <c r="B94" s="47" t="s">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B123" s="47" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C123" s="47" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
+        <v>983</v>
+      </c>
+      <c r="B124" s="47" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B95" s="47" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B96" s="47" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B97" s="47" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B98" s="47" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C98" s="47" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A99" t="s">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B125" s="47" t="s">
+        <v>985</v>
+      </c>
+      <c r="C125" s="47" t="s">
         <v>986</v>
       </c>
-      <c r="B99" s="47" t="s">
+    </row>
+    <row r="126" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="B126" s="47" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B100" s="47" t="s">
+      <c r="C126" s="47" t="s">
         <v>988</v>
       </c>
-      <c r="C100" s="47" t="s">
+      <c r="D126" s="47" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B101" s="47" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B127" s="47" t="s">
         <v>990</v>
       </c>
-      <c r="C101" s="47" t="s">
+      <c r="C127" s="47" t="s">
         <v>991</v>
       </c>
-      <c r="D101" s="47" t="s">
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B128" s="47" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B102" s="47" t="s">
+    <row r="129" spans="2:5" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B129" s="63" t="s">
         <v>993</v>
       </c>
-      <c r="C102" s="47" t="s">
+      <c r="C129" s="63" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B103" s="47" t="s">
+      <c r="D129" s="47" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E129" s="63"/>
+    </row>
+    <row r="130" spans="2:5" ht="81" x14ac:dyDescent="0.15">
+      <c r="B130" s="63" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="B104" s="63" t="s">
+      <c r="C130" s="63" t="s">
         <v>996</v>
       </c>
-      <c r="C104" s="63" t="s">
+      <c r="D130" s="47" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B131" s="64" t="s">
         <v>997</v>
       </c>
-      <c r="D104" s="47" t="s">
+      <c r="C131" s="64" t="s">
+        <v>998</v>
+      </c>
+      <c r="D131" s="64" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" ht="81" x14ac:dyDescent="0.15">
+      <c r="B132" s="64" t="s">
+        <v>999</v>
+      </c>
+      <c r="C132" s="64" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D132" s="64" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="B133" s="64" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C133" s="64" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D133" s="64" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B134" s="64" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C134" s="64" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D134" s="64"/>
+    </row>
+    <row r="135" spans="2:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="B135" s="63" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C135" s="63" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D135" s="47" t="s">
         <v>1024</v>
       </c>
-      <c r="E104" s="63"/>
-    </row>
-    <row r="105" spans="1:5" ht="81" x14ac:dyDescent="0.15">
-      <c r="B105" s="63" t="s">
-        <v>998</v>
-      </c>
-      <c r="C105" s="63" t="s">
-        <v>999</v>
-      </c>
-      <c r="D105" s="47" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B106" s="64" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C106" s="64" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D106" s="64" t="s">
+    </row>
+    <row r="136" spans="2:5" ht="162" x14ac:dyDescent="0.15">
+      <c r="B136" s="63" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C136" s="63" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D136" s="47" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" ht="310.5" x14ac:dyDescent="0.15">
+      <c r="B137" s="63" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C137" s="63" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D137" s="47" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E137" s="30" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="81" x14ac:dyDescent="0.15">
-      <c r="B107" s="64" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C107" s="64" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D107" s="64" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="B108" s="64" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C108" s="64" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D108" s="64" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B109" s="64" t="s">
+    <row r="138" spans="2:5" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="B138" s="63" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C138" s="63" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D138" s="47" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B139" s="63" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C139" s="63" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D139" s="47" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B140" s="63" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C140" s="63" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B141" s="63" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C141" s="63" t="s">
         <v>1020</v>
       </c>
-      <c r="C109" s="64" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D109" s="64"/>
-    </row>
-    <row r="110" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B110" s="63" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C110" s="63" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D110" s="47" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="162" x14ac:dyDescent="0.15">
-      <c r="B111" s="63" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C111" s="63" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D111" s="47" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="310.5" x14ac:dyDescent="0.15">
-      <c r="B112" s="63" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C112" s="63" t="s">
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B142" s="63" t="s">
         <v>1011</v>
       </c>
-      <c r="D112" s="47" t="s">
+      <c r="C142" s="63" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B143" s="47" t="s">
         <v>1031</v>
       </c>
-      <c r="E112" s="30" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="113" spans="2:4" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="B113" s="63" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C113" s="63" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D113" s="47" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B114" s="63" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C114" s="63" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D114" s="47" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B115" s="63" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C115" s="63" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B116" s="63" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C116" s="63" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B117" s="63" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C117" s="63" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B118" s="47" t="s">
-        <v>1034</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A72:A79"/>
+  <mergeCells count="14">
+    <mergeCell ref="A97:A104"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="A16:A24"/>
-    <mergeCell ref="A40:A67"/>
+    <mergeCell ref="A65:A92"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A25:A34"/>
-    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A25:A35"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="A36:A45"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A15"/>
@@ -10875,7 +11415,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B79" r:id="rId1" xr:uid="{CACA8906-0393-4C12-BEA2-C9D20BD4BAC5}"/>
+    <hyperlink ref="B104" r:id="rId1" xr:uid="{CACA8906-0393-4C12-BEA2-C9D20BD4BAC5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -10894,100 +11434,100 @@
   <sheetData>
     <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="59" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B2" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="59" t="s">
+        <v>938</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>939</v>
+      </c>
+      <c r="F8" t="s">
         <v>940</v>
-      </c>
-      <c r="B8" s="59" t="s">
-        <v>941</v>
-      </c>
-      <c r="F8" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B9" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C9" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B14" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
   </sheetData>
@@ -11013,133 +11553,133 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B3" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C3" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D3" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
+        <v>965</v>
+      </c>
+      <c r="D7" t="s">
         <v>968</v>
-      </c>
-      <c r="D7" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="D8" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="D9" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="D10" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
   </sheetData>
@@ -11161,47 +11701,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
   </sheetData>
@@ -11233,83 +11773,90 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B98CA2-DE76-4FA1-8D41-1D5857C8AD0D}">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B318B239-6C89-42E7-AB8B-1FA468372F72}">
+  <dimension ref="A4:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>744</v>
-      </c>
-      <c r="B2" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>746</v>
-      </c>
-      <c r="B3" t="s">
-        <v>747</v>
-      </c>
-    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>748</v>
+        <v>1037</v>
       </c>
       <c r="B4" t="s">
-        <v>749</v>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>750</v>
+      <c r="B8" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>751</v>
-      </c>
       <c r="B9" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>752</v>
-      </c>
-      <c r="B10" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>755</v>
-      </c>
-      <c r="B11" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>757</v>
-      </c>
-      <c r="B12" t="s">
-        <v>758</v>
+        <v>1039</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25966F74-240A-4061-BFAD-6943FE6AD218}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>1045</v>
       </c>
     </row>
   </sheetData>

--- a/网站开发.xlsx
+++ b/网站开发.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EBFE61-3207-467A-A8A9-7247089422A9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B14E39A-46D5-41E2-AD6D-49AE0D933EA7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2655" yWindow="2040" windowWidth="14025" windowHeight="7215" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="html" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="1289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="1319">
   <si>
     <t>&lt;a&gt;&lt;/a&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3733,12 +3733,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(function(){
-//do something...
-})();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>计时器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4298,11 +4292,6 @@
   <si>
     <t>原始值：字符串、数字、布尔、undefined、null
 引用值：数组、函数、object、date、RegExp（正则）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原始值存放在stack（栈），引用值放在heap（堆）。
-栈内存与栈内存之间的赋值是拷贝，相互独立。如a=10;b=a;a=20，b依然是10；引用值和引用值之间的赋值是通过拷贝地址，内容相互关联，改变一个引用值，其他的引用值也跟着变。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5103,14 +5092,6 @@
   </si>
   <si>
     <t>搜索数组中的元素，并返回它所在的位置。</t>
-  </si>
-  <si>
-    <t>array.forEach(function(currentValue, index, arr), thisValue)
-currentValue 必需。当前元素
-index 可选。当前元素的索引值。
-arr 可选。当前元素所属的数组对象。
-thisValue可选。传递给函数的值一般用 "this" 值。
-如果这个参数为空， "undefined" 会传递给 "this" 值</t>
   </si>
   <si>
     <t>1.只需要写函数名（已定义）或者函数体，不能写函数执行，如arr.forEach(myFunction())
@@ -5262,6 +5243,232 @@
       <t>提前，赋予函数体（不是函数等式）
 5.最后开始执行函数</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以释放内存，执行完就释放，适用于只执行一次的函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(function(){
+//do something...
+})();
+(function(a,b,c){    //w3c推荐
+//do something...
+}(1,2,3));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for(i=0;i&lt;10;i++){
+   arr[i]=function(){  //函数被定义时，内部
+      console.log(i);  代码可以不看，只有在执行
+   }                   时，调用具体的变量。
+}                
+for(j=0;j&lt;10;j++){
+   arr[j]();           //打印10个10
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在外部调用函数里边的函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>var mrDeng = {
+   name : "MrDeng",
+   age : 40,
+   sex : "male",
+   health : 100,
+   smoke : function(){   //对象里边的函数叫方法
+       console.log("I am smoking");
+       this.health- -;
+   }
+   drink : function(){
+       this.health++;
+       console.log("I am drinking");
+   }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转义字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造函数创建对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function Car(){ //为了区别于正常函数，认为将构造函数首字母大写（大驼峰式）
+   this.name = "BMW";
+   this.height = "1400";
+   this.lang = 1000;
+}
+person1 = new Person();//创建对象,使用关键字new后，系统才会在函数内第一行创建var this = {}  并在函数内末端执行return this  执行结果就是给对象添加属性和方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new出来的都可看做对象，可添加属性方法；但原始值不能添加属性方法，加了也是undefined</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始值：Undefined、Null、Boolean、Number 和 String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arguments为实参数组，可以在函数内部调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始值存放在stack（栈），引用值放在heap（堆）。
+栈内存与栈内存之间的赋值是拷贝，相互独立。如a=10;b=a;a=20，b依然是10；引用值和引用值之间的赋值是通过拷贝地址，内容相互关联，改变一个引用值(通过方法改变)，其他的引用值也跟着变。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>255前的是英文字符，占1个字节；255后是其他语言的字符（如中文），占2个字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prototype  原型，是对象的一个通用属性，在构造函数中应用较多，它定义了构造函数制造出的对象的公共祖先。通过该构造函数产生的对象，可以继承该原型的属性和方法。原型也是对象。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function Car(){ //为了区别于正常函数，认为将构造函数首字母大写（大驼峰式）
+   this.name = "BMW";
+   this.height = "1400";
+   this.lang = 1000;
+}
+car1 = new Car();//创建对象,使用关键字new后，系统才会在函数内第一行创建var this = {}  并在函数内末端执行return this  执行结果就是给对象添加属性和方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以将对象的共有相同属性写入原型，这样每次使用构造函数创建对象，可以少占用资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">function Car(color){ 
+   this.color = color;
+}
+Car.prototype={
+   name:"BMW",
+   lang:4900
+}
+car1 = new Car();   //car1将继承原型的name和
+                      lang属性
+console.log(car1.name); //打印"BMW"
+car1.name="BENZ";  //将覆盖继承过来的属性，但不
+                     会改变原型的属性
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>constructor返回对创建此对象的数组函数（构造函数）的引用。可以手动更改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__proto__  指向原型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呈上
+car1.__proto__  返回
+{name:"BMW",lang:4900}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">呈上
+car1.constructor 返回
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keys()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array.forEach(function(currentValue, index, arr), thisValue)
+currentValue 必需。当前元素,指array的元素
+index 可选。当前元素的索引值。
+arr 可选。当前元素所属的数组对象。
+thisValue可选。传递给函数的值一般用 "this" 值。
+如果这个参数为空， "undefined" 会传递给 "this" 值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string.split(separator,limit)  
+separator 可选，字符串或正则表达式，从该参数指定的地方分割 string Object；
+limit 可选，该参数可指定返回的数组的最大长度。如果设置了该参数，返回的子串不会多于这个参数指定的数组。如果没有设置该参数，整个字符串都会被分割，不考虑它的长度。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[]  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object["kevin garnet"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以代替原点运算符，访问属性名中有空格或为特殊符号的属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function(playerName, score){
+  scores[playerName] = score;
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在调用函数时，使用函数参数动态分配属性名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">function Person(name,age,sex){
+   this.name = name;
+   this.age = age;
+   this.sex
+}
+function Student(name,age,sex,tel,grade){
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Person.call(this,name,age,sex);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   this.tel = tel;
+   this.grade = grade;
+}
+var student = new Student("sunny",123,"male",139,2017);</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>call 改变构造函数中this的指向，用指定对象代替this，达到借用已有的构造函数创造对象
+call,apply,bind功能类似，传参方式不一样</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7163,7 +7370,7 @@
       <c r="B42" s="66"/>
       <c r="C42" s="68"/>
       <c r="D42" s="13" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
@@ -7743,7 +7950,7 @@
   <dimension ref="A1:N310"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D250" sqref="D250"/>
     </sheetView>
   </sheetViews>
@@ -8119,7 +8326,7 @@
         <v>94</v>
       </c>
       <c r="G31" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
@@ -10711,58 +10918,58 @@
     </row>
     <row r="250" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="100" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B250" s="13" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="C250" s="18" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="92"/>
       <c r="B251" s="13" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C251" s="48" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="92"/>
       <c r="B252" s="13" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C252" s="18" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="92"/>
       <c r="B253" s="13" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="C253" s="18" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="92"/>
       <c r="B254" s="13" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="C254" s="18" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="92"/>
       <c r="B255" s="13" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="C255" s="18" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11162,10 +11369,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6ACF1E-CD6A-4FCA-B0FB-1587C5613655}">
-  <dimension ref="A1:E225"/>
+  <dimension ref="A1:E232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11193,7 +11400,7 @@
         <v>764</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -11330,7 +11537,7 @@
       <c r="A17" s="66"/>
       <c r="B17" s="71"/>
       <c r="C17" s="14" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
@@ -11354,10 +11561,10 @@
     <row r="20" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A20" s="66"/>
       <c r="B20" s="14" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>1051</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="54" x14ac:dyDescent="0.15">
@@ -11383,12 +11590,12 @@
         <v>914</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A23" s="106"/>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="68" t="s">
         <v>803</v>
       </c>
       <c r="C23" s="14" t="s">
@@ -11398,1821 +11605,1960 @@
         <v>915</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1055</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A24" s="106"/>
-      <c r="B24" s="71"/>
+      <c r="B24" s="68"/>
       <c r="C24" s="14" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="106"/>
-      <c r="B25" s="14" t="s">
-        <v>806</v>
-      </c>
+      <c r="B25" s="68"/>
       <c r="C25" s="14" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A26" s="106"/>
       <c r="B26" s="14" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>809</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>810</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A27" s="106"/>
       <c r="B27" s="14" t="s">
+        <v>808</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>809</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>810</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="106"/>
+      <c r="B28" s="14" t="s">
         <v>811</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C28" s="14" t="s">
         <v>812</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D28" s="14" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="106"/>
-      <c r="B28" s="71" t="s">
+    <row r="29" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="106"/>
+      <c r="B29" s="68" t="s">
         <v>814</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C29" s="14" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A29" s="106"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="14" t="s">
+      <c r="D29" s="71" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="106"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="14" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="106"/>
-      <c r="B30" s="14" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="D30" s="71"/>
+    </row>
+    <row r="31" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="106"/>
-      <c r="B31" s="14" t="s">
-        <v>817</v>
-      </c>
+      <c r="B31" s="68"/>
       <c r="C31" s="14" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
+        <v>1292</v>
+      </c>
+      <c r="D31" s="71" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E31" s="71"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="106"/>
       <c r="B32" s="14" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A33" s="106"/>
+      <c r="B33" s="14" t="s">
+        <v>817</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="106"/>
+      <c r="B34" s="14" t="s">
         <v>819</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C34" s="14" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="106" t="s">
+      <c r="D34" s="14" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="106" t="s">
+        <v>993</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>995</v>
+      </c>
+      <c r="C35" s="14" t="s">
         <v>994</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>996</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>995</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="106"/>
-      <c r="B34" s="31" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="106"/>
-      <c r="B35" s="31" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>1036</v>
-      </c>
       <c r="D35" s="14" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="106"/>
       <c r="B36" s="31" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>997</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A37" s="106"/>
       <c r="B37" s="31" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>998</v>
+        <v>1035</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+        <v>1036</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A38" s="106"/>
       <c r="B38" s="31" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="106"/>
       <c r="B39" s="31" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A40" s="106"/>
       <c r="B40" s="31" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>998</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>1009</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="106"/>
-      <c r="B41" s="46" t="s">
-        <v>1075</v>
+      <c r="B41" s="31" t="s">
+        <v>1006</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>1076</v>
+        <v>999</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>1007</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="106"/>
-      <c r="B42" s="46" t="s">
-        <v>1013</v>
+      <c r="B42" s="31" t="s">
+        <v>1008</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="106"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="45" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>1078</v>
+      <c r="B43" s="46" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="106"/>
-      <c r="B44" s="46"/>
+      <c r="B44" s="46" t="s">
+        <v>1012</v>
+      </c>
       <c r="C44" s="14" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A45" s="106"/>
       <c r="B45" s="46"/>
-      <c r="C45" s="14" t="s">
-        <v>1081</v>
+      <c r="C45" s="45" t="s">
+        <v>1077</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="106"/>
       <c r="B46" s="46"/>
       <c r="C46" s="14" t="s">
-        <v>1084</v>
+        <v>1015</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="106"/>
       <c r="B47" s="46"/>
       <c r="C47" s="14" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>1085</v>
+        <v>1014</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="106"/>
       <c r="B48" s="46"/>
-      <c r="C48" s="45" t="s">
-        <v>1088</v>
+      <c r="C48" s="14" t="s">
+        <v>1082</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="47"/>
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A49" s="106"/>
       <c r="B49" s="46"/>
-      <c r="C49" s="45"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="66" t="s">
+      <c r="C49" s="14" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="106"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="45" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="47"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="45"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="66" t="s">
         <v>821</v>
       </c>
-      <c r="B50" s="31" t="s">
+      <c r="B52" s="31" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="66"/>
-      <c r="B51" s="31" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="66"/>
-      <c r="B52" s="31" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="66"/>
       <c r="B53" s="31" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="66"/>
       <c r="B54" s="31" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="66"/>
       <c r="B55" s="31" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="66"/>
+      <c r="B56" s="31" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="66"/>
+      <c r="B57" s="31" t="s">
         <v>827</v>
       </c>
-      <c r="C55" s="40" t="s">
+      <c r="C57" s="40" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="66"/>
-      <c r="B56" s="32" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D56" s="40" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="66"/>
+      <c r="B58" s="32" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="66"/>
-      <c r="B57" s="33" t="s">
+      <c r="C58" s="14" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D58" s="40" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" s="66"/>
+      <c r="B59" s="33" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="66"/>
-      <c r="B58" s="33" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" s="66"/>
+      <c r="B60" s="33" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="66"/>
-      <c r="B59" s="34" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="66"/>
-      <c r="B60" s="34" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="66"/>
       <c r="B61" s="34" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="66"/>
       <c r="B62" s="34" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" s="66"/>
+      <c r="B63" s="34" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" s="66"/>
+      <c r="B64" s="34" t="s">
         <v>833</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="66"/>
-      <c r="B63" s="33" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="66"/>
-      <c r="B64" s="35" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="66"/>
-      <c r="B65" s="36" t="s">
-        <v>844</v>
+      <c r="B65" s="33" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="66"/>
-      <c r="B66" s="36" t="s">
-        <v>845</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>857</v>
+      <c r="B66" s="35" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="66"/>
-      <c r="B67" s="35" t="s">
-        <v>846</v>
+      <c r="B67" s="36" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="66"/>
-      <c r="B68" s="35" t="s">
-        <v>847</v>
+      <c r="B68" s="36" t="s">
+        <v>845</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="66"/>
       <c r="B69" s="35" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="66"/>
       <c r="B70" s="35" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="66"/>
       <c r="B71" s="35" t="s">
-        <v>850</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>1057</v>
+        <v>848</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="66"/>
-      <c r="B72" s="37" t="s">
-        <v>852</v>
+      <c r="B72" s="35" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A73" s="66"/>
-      <c r="B73" s="37" t="s">
-        <v>853</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>858</v>
-      </c>
-      <c r="D73" s="14" t="s">
-        <v>1063</v>
+      <c r="B73" s="35" t="s">
+        <v>850</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="66"/>
       <c r="B74" s="37" t="s">
-        <v>854</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>859</v>
-      </c>
-      <c r="D74" s="14" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A75" s="66"/>
       <c r="B75" s="37" t="s">
+        <v>853</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>858</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" s="66"/>
+      <c r="B76" s="37" t="s">
+        <v>854</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>859</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" s="66"/>
+      <c r="B77" s="37" t="s">
         <v>855</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C77" s="14" t="s">
         <v>860</v>
       </c>
-      <c r="D75" s="14" t="s">
+      <c r="D77" s="14" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A78" s="66"/>
+      <c r="B78" s="14" t="s">
+        <v>856</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A79" s="66"/>
+      <c r="B79" s="68" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A80" s="66"/>
+      <c r="B80" s="68"/>
+      <c r="C80" s="14" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A81" s="68" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B81" s="44" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A82" s="68"/>
+      <c r="B82" s="44" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D82" s="14" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A76" s="66"/>
-      <c r="B76" s="14" t="s">
-        <v>856</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A77" s="68" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B77" s="44" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A78" s="68"/>
-      <c r="B78" s="44" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D78" s="14" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A79" s="68"/>
-      <c r="B79" s="14" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A80" s="68"/>
-      <c r="B80" s="14" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A81" s="68"/>
-      <c r="B81" s="14" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C81" s="14" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="68"/>
-      <c r="B82" s="14" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A83" s="68"/>
       <c r="B83" s="14" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A84" s="68"/>
       <c r="B84" s="14" t="s">
-        <v>1072</v>
+        <v>1021</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A85" s="68"/>
-      <c r="B85" t="s">
+      <c r="B85" s="14" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A86" s="68"/>
+      <c r="B86" s="14" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A87" s="68"/>
+      <c r="B87" s="14" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88" s="68"/>
+      <c r="B88" s="14" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A89" s="68"/>
+      <c r="B89" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C89" s="14" t="s">
         <v>1030</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="D89" s="14" t="s">
         <v>1031</v>
       </c>
-      <c r="D85" s="14" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A86" s="66" t="s">
+    </row>
+    <row r="90" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A90" s="66" t="s">
         <v>836</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="B90" s="14" t="s">
         <v>837</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="C90" s="14" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="66"/>
-      <c r="B87" s="14" t="s">
-        <v>839</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A88" s="66"/>
-      <c r="B88" s="14" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A89" s="66"/>
-      <c r="B89" s="14" t="s">
-        <v>842</v>
-      </c>
-      <c r="C89" s="14" t="s">
-        <v>841</v>
-      </c>
-      <c r="E89" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A90" s="66"/>
-      <c r="B90" s="14" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C90" s="14" t="s">
-        <v>843</v>
-      </c>
-      <c r="D90" s="14" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A91" s="66"/>
       <c r="B91" s="14" t="s">
-        <v>926</v>
+        <v>839</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="189" x14ac:dyDescent="0.15">
+        <v>840</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A92" s="66"/>
       <c r="B92" s="14" t="s">
-        <v>1265</v>
+        <v>1092</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>1266</v>
-      </c>
-      <c r="D92" s="14" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A93" s="66"/>
       <c r="B93" s="14" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+        <v>842</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A94" s="66"/>
       <c r="B94" s="14" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1094</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>843</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A95" s="66"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B95" s="14" t="s">
+        <v>926</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A96" s="66"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B96" s="14" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="127.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="66"/>
-    </row>
-    <row r="98" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B97" s="68" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C97" s="71" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D97" s="71"/>
+    </row>
+    <row r="98" spans="1:5" ht="190.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="66"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B98" s="68"/>
+      <c r="C98" s="14" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D98" s="14" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E98" s="20" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A99" s="66"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B99" s="68"/>
+      <c r="C99" s="14" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E99" s="20"/>
+    </row>
+    <row r="100" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A100" s="66"/>
-    </row>
-    <row r="101" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A101" s="44" t="s">
+      <c r="B100" s="68"/>
+      <c r="C100" s="14" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D100" s="14" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E100" s="20"/>
+    </row>
+    <row r="101" spans="1:5" ht="162" x14ac:dyDescent="0.15">
+      <c r="A101" s="66"/>
+      <c r="B101" s="68"/>
+      <c r="C101" s="14" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E101" s="20"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A102" s="66"/>
+      <c r="B102" s="68"/>
+      <c r="E102" s="20"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A103" s="66"/>
+      <c r="B103" s="68"/>
+      <c r="E103" s="20"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A104" s="66"/>
+      <c r="B104" s="68"/>
+      <c r="E104" s="20"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A105" s="66"/>
+      <c r="B105" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="66"/>
+      <c r="B106" s="14" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A107" s="68" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E107" s="14"/>
+    </row>
+    <row r="108" spans="1:5" ht="243" x14ac:dyDescent="0.15">
+      <c r="A108" s="68"/>
+      <c r="B108" s="68" t="s">
         <v>1268</v>
       </c>
-      <c r="B101" s="14" t="s">
+      <c r="C108" s="14" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D108" s="14" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="229.5" x14ac:dyDescent="0.15">
+      <c r="A109" s="68"/>
+      <c r="B109" s="68"/>
+      <c r="C109" s="14" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D109" s="14" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A110" s="68"/>
+      <c r="B110" s="68"/>
+      <c r="C110" s="14" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D110" s="14" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A111" s="68"/>
+      <c r="B111" s="14" t="s">
         <v>1269</v>
       </c>
-      <c r="C101" s="14" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="135" x14ac:dyDescent="0.15">
-      <c r="A102" s="44"/>
-      <c r="B102" s="68" t="s">
-        <v>1270</v>
-      </c>
-      <c r="C102" s="14" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D102" s="14" t="s">
-        <v>1282</v>
-      </c>
-      <c r="E102" s="14"/>
-    </row>
-    <row r="103" spans="1:5" ht="243" x14ac:dyDescent="0.15">
-      <c r="A103" s="44"/>
-      <c r="B103" s="68"/>
-      <c r="C103" s="14" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D103" s="14" t="s">
-        <v>1285</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A104" s="44"/>
-      <c r="C104" s="14" t="s">
-        <v>1287</v>
-      </c>
-      <c r="D104" s="14" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A105" s="44"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A106" s="44"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A107" s="44"/>
-      <c r="B107" s="14" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A112" t="s">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
         <v>924</v>
       </c>
-      <c r="B112" s="14" t="s">
+    </row>
+    <row r="116" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B116" s="14" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A114" t="s">
-        <v>928</v>
-      </c>
-      <c r="B114" s="14" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B115" s="14" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B116" s="14" t="s">
-        <v>930</v>
-      </c>
-    </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>927</v>
+      </c>
       <c r="B117" s="14" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A118" s="105" t="s">
+      <c r="B118" s="14" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B119" s="14" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B120" s="14" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A121" s="105" t="s">
+        <v>933</v>
+      </c>
+      <c r="B121" s="57" t="s">
         <v>934</v>
-      </c>
-      <c r="B118" s="57" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A119" s="105"/>
-      <c r="B119" s="58" t="s">
-        <v>936</v>
-      </c>
-      <c r="C119" s="14" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="105"/>
-      <c r="B120" s="58" t="s">
-        <v>938</v>
-      </c>
-      <c r="C120" s="14" t="s">
-        <v>939</v>
-      </c>
-      <c r="D120" s="14" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A121" s="105"/>
-      <c r="B121" s="59" t="s">
-        <v>941</v>
-      </c>
-      <c r="C121" s="14" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A122" s="105"/>
-      <c r="B122" s="57" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B122" s="58" t="s">
+        <v>935</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="105"/>
       <c r="B123" s="58" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E123" s="14"/>
-    </row>
-    <row r="124" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A124" s="105"/>
-      <c r="B124" s="58" t="s">
-        <v>1273</v>
+      <c r="B124" s="59" t="s">
+        <v>940</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>1274</v>
-      </c>
-      <c r="D124" s="14" t="s">
-        <v>1278</v>
-      </c>
-      <c r="E124" s="14" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A125" s="105"/>
-      <c r="B125" s="58" t="s">
-        <v>1275</v>
-      </c>
-      <c r="C125" s="14" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D125" s="14" t="s">
-        <v>1280</v>
+      <c r="B125" s="57" t="s">
+        <v>942</v>
       </c>
       <c r="E125" s="14"/>
     </row>
     <row r="126" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="105"/>
       <c r="B126" s="58" t="s">
-        <v>1223</v>
+        <v>943</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>1277</v>
+        <v>944</v>
       </c>
       <c r="D126" s="14" t="s">
-        <v>1281</v>
-      </c>
-      <c r="E126" s="14"/>
-    </row>
-    <row r="127" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1088</v>
+      </c>
+      <c r="E126" s="14" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="105"/>
       <c r="B127" s="58" t="s">
-        <v>946</v>
+        <v>1271</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>947</v>
+        <v>1272</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>972</v>
-      </c>
+        <v>1310</v>
+      </c>
+      <c r="E127" s="14"/>
     </row>
     <row r="128" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="105"/>
-      <c r="B128" s="49" t="s">
-        <v>948</v>
-      </c>
-      <c r="C128" s="56" t="s">
-        <v>949</v>
-      </c>
-      <c r="D128" s="41" t="s">
-        <v>976</v>
-      </c>
+      <c r="B128" s="58" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C128" s="14" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D128" s="14" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E128" s="14"/>
     </row>
     <row r="129" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="105"/>
-      <c r="B129" s="49" t="s">
-        <v>950</v>
-      </c>
-      <c r="C129" s="56" t="s">
-        <v>951</v>
-      </c>
-      <c r="D129" s="41" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B129" s="58" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C129" s="14" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D129" s="14" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="105"/>
-      <c r="B130" s="49" t="s">
-        <v>954</v>
-      </c>
-      <c r="C130" s="56" t="s">
-        <v>955</v>
-      </c>
-      <c r="D130" s="41" t="s">
-        <v>975</v>
+      <c r="B130" s="58" t="s">
+        <v>945</v>
+      </c>
+      <c r="C130" s="14" t="s">
+        <v>946</v>
+      </c>
+      <c r="D130" s="14" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="105"/>
       <c r="B131" s="49" t="s">
-        <v>968</v>
+        <v>947</v>
       </c>
       <c r="C131" s="56" t="s">
-        <v>969</v>
-      </c>
-      <c r="D131" s="41"/>
+        <v>948</v>
+      </c>
+      <c r="D131" s="41" t="s">
+        <v>975</v>
+      </c>
     </row>
     <row r="132" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="105"/>
-      <c r="B132" s="58" t="s">
-        <v>952</v>
-      </c>
-      <c r="C132" s="14" t="s">
-        <v>953</v>
-      </c>
-      <c r="D132" s="14" t="s">
-        <v>974</v>
+      <c r="B132" s="49" t="s">
+        <v>949</v>
+      </c>
+      <c r="C132" s="56" t="s">
+        <v>950</v>
+      </c>
+      <c r="D132" s="41" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="105"/>
-      <c r="B133" s="58" t="s">
-        <v>956</v>
-      </c>
-      <c r="C133" s="14" t="s">
-        <v>957</v>
-      </c>
-      <c r="D133" s="14" t="s">
-        <v>977</v>
+      <c r="B133" s="49" t="s">
+        <v>953</v>
+      </c>
+      <c r="C133" s="56" t="s">
+        <v>954</v>
+      </c>
+      <c r="D133" s="41" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="105"/>
-      <c r="B134" s="58" t="s">
-        <v>958</v>
-      </c>
-      <c r="C134" s="14" t="s">
-        <v>959</v>
-      </c>
-      <c r="D134" s="14" t="s">
-        <v>978</v>
-      </c>
-      <c r="E134" s="20" t="s">
-        <v>979</v>
-      </c>
+      <c r="B134" s="49" t="s">
+        <v>967</v>
+      </c>
+      <c r="C134" s="56" t="s">
+        <v>968</v>
+      </c>
+      <c r="D134" s="41"/>
     </row>
     <row r="135" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="105"/>
       <c r="B135" s="58" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="105"/>
       <c r="B136" s="58" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>982</v>
+        <v>976</v>
+      </c>
+      <c r="E136" s="20" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="105"/>
       <c r="B137" s="58" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>967</v>
+        <v>958</v>
+      </c>
+      <c r="D137" s="14" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="105"/>
       <c r="B138" s="58" t="s">
-        <v>970</v>
+        <v>959</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>971</v>
+        <v>960</v>
+      </c>
+      <c r="D138" s="14" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="105"/>
       <c r="B139" s="58" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>963</v>
+        <v>964</v>
+      </c>
+      <c r="D139" s="14" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="105"/>
       <c r="B140" s="58" t="s">
-        <v>1091</v>
+        <v>965</v>
+      </c>
+      <c r="C140" s="14" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="105"/>
-      <c r="B141" s="59" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A142" s="103" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B142" s="55" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="103"/>
-      <c r="B143" s="53" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C143" s="14" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A144" s="103"/>
-      <c r="B144" s="53" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C144" s="14" t="s">
-        <v>1099</v>
+      <c r="B141" s="58" t="s">
+        <v>969</v>
+      </c>
+      <c r="C141" s="14" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="105"/>
+      <c r="B142" s="58" t="s">
+        <v>961</v>
+      </c>
+      <c r="C142" s="14" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="105"/>
+      <c r="B143" s="58" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="105"/>
+      <c r="B144" s="59" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A145" s="103"/>
-      <c r="B145" s="53" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C145" s="14" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A145" s="103" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B145" s="55" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="103"/>
       <c r="B146" s="53" t="s">
-        <v>1102</v>
+        <v>1112</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>1103</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" s="103"/>
       <c r="B147" s="53" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" s="103"/>
       <c r="B148" s="53" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" s="103"/>
       <c r="B149" s="53" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" s="103"/>
-      <c r="B150" s="54" t="s">
-        <v>1110</v>
+      <c r="B150" s="53" t="s">
+        <v>1102</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" s="103"/>
-      <c r="B151" s="50" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C151"/>
-      <c r="D151"/>
+      <c r="B151" s="53" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C151" s="14" t="s">
+        <v>1105</v>
+      </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" s="103"/>
-      <c r="B152" s="51" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C152" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D152"/>
+      <c r="B152" s="53" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C152" s="14" t="s">
+        <v>1107</v>
+      </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" s="103"/>
-      <c r="B153" s="51" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C153" t="s">
-        <v>1121</v>
-      </c>
-      <c r="D153"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B153" s="54" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C153" s="14" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="103"/>
-      <c r="B154" s="51" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C154" t="s">
-        <v>1123</v>
-      </c>
+      <c r="B154" s="50" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C154"/>
       <c r="D154"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" s="103"/>
       <c r="B155" s="51" t="s">
-        <v>1124</v>
+        <v>1116</v>
       </c>
       <c r="C155" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
       <c r="D155"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" s="103"/>
       <c r="B156" s="51" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="C156" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
       <c r="D156"/>
     </row>
-    <row r="157" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" s="103"/>
-      <c r="B157" s="52" t="s">
-        <v>1128</v>
+      <c r="B157" s="51" t="s">
+        <v>1120</v>
       </c>
       <c r="C157" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="D157"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" s="103"/>
       <c r="B158" s="51" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="C158" t="s">
-        <v>1131</v>
+        <v>1123</v>
       </c>
       <c r="D158"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" s="103"/>
       <c r="B159" s="51" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
       <c r="C159" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="D159"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A160" s="103"/>
-      <c r="B160" s="51" t="s">
-        <v>1134</v>
+      <c r="B160" s="52" t="s">
+        <v>1126</v>
       </c>
       <c r="C160" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
       <c r="D160"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" s="103"/>
       <c r="B161" s="51" t="s">
-        <v>1136</v>
+        <v>1128</v>
       </c>
       <c r="C161" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
       <c r="D161"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" s="103"/>
       <c r="B162" s="51" t="s">
-        <v>1138</v>
+        <v>1130</v>
       </c>
       <c r="C162" t="s">
-        <v>1139</v>
+        <v>1131</v>
       </c>
       <c r="D162"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" s="103"/>
-      <c r="B163" s="53" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C163" s="14" t="s">
-        <v>1141</v>
-      </c>
+      <c r="B163" s="51" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D163"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" s="103"/>
-      <c r="B164" s="53" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C164" s="14" t="s">
-        <v>1143</v>
-      </c>
+      <c r="B164" s="51" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D164"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" s="103"/>
-      <c r="B165" s="53" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C165" s="14" t="s">
-        <v>1145</v>
-      </c>
-      <c r="D165" s="14" t="s">
-        <v>1155</v>
-      </c>
+      <c r="B165" s="51" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D165"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" s="103"/>
       <c r="B166" s="53" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="C166" s="14" t="s">
-        <v>1147</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" s="103"/>
       <c r="B167" s="53" t="s">
-        <v>1148</v>
+        <v>1140</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>1149</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" s="103"/>
       <c r="B168" s="53" t="s">
-        <v>1150</v>
+        <v>1142</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>1151</v>
+        <v>1143</v>
+      </c>
+      <c r="D168" s="14" t="s">
+        <v>1153</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" s="103"/>
       <c r="B169" s="53" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>1153</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" s="103"/>
       <c r="B170" s="53" t="s">
-        <v>962</v>
+        <v>1146</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>963</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171" s="103"/>
-      <c r="B171" s="54" t="s">
-        <v>970</v>
+      <c r="B171" s="53" t="s">
+        <v>1148</v>
       </c>
       <c r="C171" s="14" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A172" s="103"/>
+      <c r="B172" s="53" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C172" s="14" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A173" s="103"/>
+      <c r="B173" s="53" t="s">
+        <v>961</v>
+      </c>
+      <c r="C173" s="14" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A174" s="103"/>
+      <c r="B174" s="54" t="s">
+        <v>969</v>
+      </c>
+      <c r="C174" s="14" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A175" s="104" t="s">
         <v>1154</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A172" s="104" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B172" s="60" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C172" s="14" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A173" s="104"/>
-      <c r="B173" s="61" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C173" s="14" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A174" s="104"/>
-      <c r="B174" s="61" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C174" s="14" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A175" s="104"/>
-      <c r="B175" s="61" t="s">
-        <v>1162</v>
+      <c r="B175" s="60" t="s">
+        <v>1155</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>1163</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" s="104"/>
       <c r="B176" s="61" t="s">
-        <v>1164</v>
+        <v>1156</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177" s="104"/>
       <c r="B177" s="61" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
       <c r="C177" s="14" t="s">
-        <v>1167</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178" s="104"/>
       <c r="B178" s="61" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179" s="104"/>
-      <c r="B179" s="62" t="s">
-        <v>1170</v>
+      <c r="B179" s="61" t="s">
+        <v>1162</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>1171</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180" s="104"/>
-      <c r="B180" s="60" t="s">
-        <v>1116</v>
+      <c r="B180" s="61" t="s">
+        <v>1164</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>1117</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181" s="104"/>
       <c r="B181" s="61" t="s">
-        <v>1183</v>
+        <v>1166</v>
       </c>
       <c r="C181" s="14" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D181" s="14" t="s">
-        <v>1184</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182" s="104"/>
-      <c r="B182" s="61" t="s">
-        <v>1178</v>
+      <c r="B182" s="62" t="s">
+        <v>1168</v>
       </c>
       <c r="C182" s="14" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A183" s="104"/>
-      <c r="B183" s="61" t="s">
-        <v>1179</v>
+      <c r="B183" s="60" t="s">
+        <v>1114</v>
       </c>
       <c r="C183" s="14" t="s">
-        <v>1174</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184" s="104"/>
       <c r="B184" s="61" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C184" s="14" t="s">
-        <v>1175</v>
+        <v>1170</v>
+      </c>
+      <c r="D184" s="14" t="s">
+        <v>1182</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185" s="104"/>
       <c r="B185" s="61" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="C185" s="14" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A186" s="104"/>
       <c r="B186" s="61" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="C186" s="14" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A187" s="102" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B187" s="63" t="s">
-        <v>1157</v>
+      <c r="A187" s="104"/>
+      <c r="B187" s="61" t="s">
+        <v>1178</v>
       </c>
       <c r="C187" s="14" t="s">
-        <v>1117</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A188" s="102"/>
-      <c r="B188" s="64" t="s">
-        <v>1158</v>
+      <c r="A188" s="104"/>
+      <c r="B188" s="61" t="s">
+        <v>1179</v>
       </c>
       <c r="C188" s="14" t="s">
-        <v>1199</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A189" s="102"/>
-      <c r="B189" s="64" t="s">
-        <v>288</v>
+      <c r="A189" s="104"/>
+      <c r="B189" s="61" t="s">
+        <v>1180</v>
       </c>
       <c r="C189" s="14" t="s">
-        <v>1200</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A190" s="102"/>
-      <c r="B190" s="65" t="s">
-        <v>1170</v>
+      <c r="A190" s="102" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B190" s="63" t="s">
+        <v>1155</v>
       </c>
       <c r="C190" s="14" t="s">
-        <v>1201</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A191" s="102"/>
-      <c r="B191" s="63" t="s">
-        <v>1116</v>
+      <c r="B191" s="64" t="s">
+        <v>1156</v>
       </c>
       <c r="C191" s="14" t="s">
-        <v>1117</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A192" s="102"/>
       <c r="B192" s="64" t="s">
-        <v>1202</v>
+        <v>288</v>
       </c>
       <c r="C192" s="14" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193" s="102"/>
-      <c r="B193" s="64" t="s">
-        <v>1204</v>
+      <c r="B193" s="65" t="s">
+        <v>1168</v>
       </c>
       <c r="C193" s="14" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194" s="102"/>
-      <c r="B194" s="64" t="s">
-        <v>1206</v>
+      <c r="B194" s="63" t="s">
+        <v>1114</v>
       </c>
       <c r="C194" s="14" t="s">
-        <v>1207</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195" s="102"/>
       <c r="B195" s="64" t="s">
-        <v>1208</v>
+        <v>1200</v>
       </c>
       <c r="C195" s="14" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196" s="102"/>
       <c r="B196" s="64" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
       <c r="C196" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="D196" s="14" t="s">
-        <v>1263</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197" s="102"/>
       <c r="B197" s="64" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="C197" s="14" t="s">
-        <v>1213</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198" s="102"/>
       <c r="B198" s="64" t="s">
-        <v>944</v>
+        <v>1206</v>
       </c>
       <c r="C198" s="14" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A199" s="102"/>
       <c r="B199" s="64" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
       <c r="C199" s="14" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1209</v>
+      </c>
+      <c r="D199" s="14" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A200" s="102"/>
       <c r="B200" s="64" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="C200" s="14" t="s">
-        <v>1218</v>
+        <v>1211</v>
+      </c>
+      <c r="D200" s="14" t="s">
+        <v>1298</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201" s="102"/>
       <c r="B201" s="64" t="s">
-        <v>1219</v>
+        <v>943</v>
       </c>
       <c r="C201" s="14" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202" s="102"/>
       <c r="B202" s="64" t="s">
-        <v>1221</v>
+        <v>1213</v>
       </c>
       <c r="C202" s="14" t="s">
-        <v>1222</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203" s="102"/>
       <c r="B203" s="64" t="s">
-        <v>1223</v>
+        <v>1215</v>
       </c>
       <c r="C203" s="14" t="s">
-        <v>1224</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204" s="102"/>
       <c r="B204" s="64" t="s">
-        <v>1225</v>
+        <v>1217</v>
       </c>
       <c r="C204" s="14" t="s">
-        <v>1226</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205" s="102"/>
       <c r="B205" s="64" t="s">
-        <v>1227</v>
+        <v>1219</v>
       </c>
       <c r="C205" s="14" t="s">
-        <v>1228</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206" s="102"/>
       <c r="B206" s="64" t="s">
-        <v>1229</v>
+        <v>1221</v>
       </c>
       <c r="C206" s="14" t="s">
-        <v>1230</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A207" s="102"/>
       <c r="B207" s="64" t="s">
-        <v>1231</v>
+        <v>1223</v>
       </c>
       <c r="C207" s="14" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A208" s="102"/>
       <c r="B208" s="64" t="s">
-        <v>1233</v>
+        <v>1225</v>
       </c>
       <c r="C208" s="14" t="s">
-        <v>1234</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A209" s="102"/>
       <c r="B209" s="64" t="s">
-        <v>1235</v>
+        <v>1227</v>
       </c>
       <c r="C209" s="14" t="s">
-        <v>1236</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A210" s="102"/>
       <c r="B210" s="64" t="s">
-        <v>1237</v>
+        <v>1229</v>
       </c>
       <c r="C210" s="14" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A211" s="102"/>
       <c r="B211" s="64" t="s">
-        <v>956</v>
+        <v>1231</v>
       </c>
       <c r="C211" s="14" t="s">
-        <v>1239</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A212" s="102"/>
       <c r="B212" s="64" t="s">
-        <v>1240</v>
+        <v>1233</v>
       </c>
       <c r="C212" s="14" t="s">
-        <v>1241</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A213" s="102"/>
       <c r="B213" s="64" t="s">
-        <v>1242</v>
+        <v>1235</v>
       </c>
       <c r="C213" s="14" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A214" s="102"/>
       <c r="B214" s="64" t="s">
-        <v>1244</v>
+        <v>955</v>
       </c>
       <c r="C214" s="14" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A215" s="102"/>
       <c r="B215" s="64" t="s">
-        <v>1246</v>
+        <v>1238</v>
       </c>
       <c r="C215" s="14" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="102"/>
       <c r="B216" s="64" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="C216" s="14" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>1241</v>
+      </c>
+      <c r="D216" s="14" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A217" s="102"/>
       <c r="B217" s="64" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
       <c r="C217" s="14" t="s">
-        <v>1251</v>
-      </c>
-      <c r="D217" s="14" t="s">
-        <v>1267</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A218" s="102"/>
       <c r="B218" s="64" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="C218" s="14" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A219" s="102"/>
       <c r="B219" s="64" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="C219" s="14" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A220" s="102"/>
       <c r="B220" s="64" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="C220" s="14" t="s">
-        <v>1257</v>
+        <v>1249</v>
+      </c>
+      <c r="D220" s="14" t="s">
+        <v>1265</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A221" s="102"/>
       <c r="B221" s="64" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="C221" s="14" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A222" s="102"/>
       <c r="B222" s="64" t="s">
-        <v>1259</v>
+        <v>1252</v>
       </c>
       <c r="C222" s="14" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A223" s="102"/>
       <c r="B223" s="64" t="s">
-        <v>962</v>
+        <v>1254</v>
       </c>
       <c r="C223" s="14" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A224" s="102"/>
       <c r="B224" s="64" t="s">
-        <v>964</v>
+        <v>1256</v>
       </c>
       <c r="C224" s="14" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A225" s="102"/>
-      <c r="B225" s="65" t="s">
-        <v>970</v>
+      <c r="B225" s="64" t="s">
+        <v>1257</v>
       </c>
       <c r="C225" s="14" t="s">
-        <v>1262</v>
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A226" s="102"/>
+      <c r="B226" s="64" t="s">
+        <v>961</v>
+      </c>
+      <c r="C226" s="14" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A227" s="102"/>
+      <c r="B227" s="64" t="s">
+        <v>963</v>
+      </c>
+      <c r="C227" s="14" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A228" s="102"/>
+      <c r="B228" s="65" t="s">
+        <v>969</v>
+      </c>
+      <c r="C228" s="14" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A229" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B231" s="14" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B232" s="14" t="s">
+        <v>1309</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="25">
     <mergeCell ref="D13:D15"/>
-    <mergeCell ref="A118:A141"/>
+    <mergeCell ref="A121:A144"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A50:A76"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A22:A32"/>
-    <mergeCell ref="A86:A100"/>
-    <mergeCell ref="A33:A48"/>
-    <mergeCell ref="A77:A85"/>
-    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="A22:A34"/>
+    <mergeCell ref="A35:A50"/>
+    <mergeCell ref="A81:A89"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="A107:A111"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A187:A225"/>
+    <mergeCell ref="A190:A228"/>
     <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A142:A171"/>
-    <mergeCell ref="A172:A186"/>
+    <mergeCell ref="A145:A174"/>
+    <mergeCell ref="A175:A189"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="A90:A106"/>
+    <mergeCell ref="B97:B104"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A52:A80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13232,47 +13578,47 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C3" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C4" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C5" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C6" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
   </sheetData>
@@ -13530,7 +13876,7 @@
   <sheetData>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B4" t="s">
         <v>268</v>
@@ -13543,22 +13889,22 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
   </sheetData>
@@ -13580,13 +13926,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>987</v>
+      </c>
+      <c r="B1" t="s">
         <v>988</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="42" t="s">
         <v>989</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -13594,39 +13940,39 @@
         <v>81</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
+        <v>991</v>
+      </c>
+      <c r="C3" s="43" t="s">
         <v>992</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C5" t="s">
         <v>1026</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C6" t="s">
         <v>1028</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C7" t="s">
         <v>1034</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1035</v>
       </c>
     </row>
   </sheetData>

--- a/网站开发.xlsx
+++ b/网站开发.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B14E39A-46D5-41E2-AD6D-49AE0D933EA7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD8DDB6-2F3F-4C11-BB6F-0D81F4A79115}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2655" yWindow="2040" windowWidth="14025" windowHeight="7215" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="html" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="1319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="1354">
   <si>
     <t>&lt;a&gt;&lt;/a&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3557,30 +3557,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>getElementsByClass("...")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>getElementsByTagName("…")</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>console.log("…")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>innerHTML</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>innerText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>onClick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DOM，文档对象类型，提供访问和操作网页内容的方法和接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3618,10 +3598,6 @@
   </si>
   <si>
     <t>写入HTML，当文档加载完后，再触发使用，会覆盖文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alert("...")</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5469,6 +5445,170 @@
   <si>
     <t>call 改变构造函数中this的指向，用指定对象代替this，达到借用已有的构造函数创造对象
 call,apply,bind功能类似，传参方式不一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getElementsByClassName("...")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IE8及以下不支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getElementsByName("...")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不常用，name通常只有form、img、iframe使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是实时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取整个HTML文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>document</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历节点树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstChild</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastChild</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nextSibling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>previousSibling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个子节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一个子节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后一个兄弟节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前一个兄弟节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于元素节点树的遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parentElement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>children</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>childElementCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstElementChild</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastElementChild</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回当前元素的父元素节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只返回当前元素的元素子节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前元素的子元素节点个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IE不兼容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nextElementSibling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>previousElementSibling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点的四个属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nodeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nodeValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nodeType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attributes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素的标签名，以大写形式表示，只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text节点或注释节点的文本内容，可读写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Element节点的属性集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点类型有：元素节点--1、属性节点--2、文本节点--3、注释节点等，因此一个节点的子节点不光有子标签，还有文本注释之类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该节点的类型，只读，返回的是代号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素节点--1、属性节点--2、文本节点--3、注释节点--8、document--9、DocumentFragment--11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6041,15 +6181,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6057,28 +6188,28 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -6086,40 +6217,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6143,10 +6244,55 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -6157,12 +6303,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6907,7 +7047,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="66" t="s">
         <v>576</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -6921,7 +7061,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="70"/>
+      <c r="A3" s="67"/>
       <c r="B3" s="13" t="s">
         <v>570</v>
       </c>
@@ -6930,7 +7070,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="70"/>
+      <c r="A4" s="67"/>
       <c r="B4" s="13" t="s">
         <v>572</v>
       </c>
@@ -6939,13 +7079,13 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="70"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="13" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="70"/>
+      <c r="A6" s="67"/>
       <c r="B6" s="13" t="s">
         <v>11</v>
       </c>
@@ -6954,7 +7094,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="70"/>
+      <c r="A7" s="67"/>
       <c r="B7" s="13" t="s">
         <v>575</v>
       </c>
@@ -6963,7 +7103,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="70"/>
+      <c r="A8" s="67"/>
       <c r="B8" s="13" t="s">
         <v>31</v>
       </c>
@@ -6982,7 +7122,7 @@
       <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="70"/>
+      <c r="A9" s="67"/>
       <c r="B9" s="13" t="s">
         <v>59</v>
       </c>
@@ -6991,7 +7131,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="70"/>
+      <c r="A10" s="67"/>
       <c r="B10" s="13" t="s">
         <v>62</v>
       </c>
@@ -7000,7 +7140,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="322.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="71" t="s">
         <v>600</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -7020,7 +7160,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="72"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="13" t="s">
         <v>571</v>
       </c>
@@ -7029,11 +7169,11 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="72"/>
-      <c r="B13" s="67" t="s">
+      <c r="A13" s="71"/>
+      <c r="B13" s="68" t="s">
         <v>581</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="69" t="s">
         <v>582</v>
       </c>
       <c r="D13" t="s">
@@ -7047,10 +7187,10 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="72"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="67" t="s">
+      <c r="A14" s="71"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="68" t="s">
         <v>558</v>
       </c>
       <c r="E14" t="s">
@@ -7058,43 +7198,43 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="72"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="67"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="68"/>
       <c r="E15" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="72"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="67"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="68"/>
       <c r="E16" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="72"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="67"/>
+      <c r="A17" s="71"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="68"/>
       <c r="E17" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="72"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="67"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="68"/>
       <c r="E18" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="72"/>
+      <c r="A19" s="71"/>
       <c r="B19" s="13" t="s">
         <v>573</v>
       </c>
@@ -7109,7 +7249,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A20" s="72"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="13" t="s">
         <v>592</v>
       </c>
@@ -7121,11 +7261,11 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="72"/>
-      <c r="B21" s="67" t="s">
+      <c r="A21" s="71"/>
+      <c r="B21" s="68" t="s">
         <v>594</v>
       </c>
-      <c r="C21" s="68" t="s">
+      <c r="C21" s="70" t="s">
         <v>599</v>
       </c>
       <c r="D21" t="s">
@@ -7133,61 +7273,61 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="72"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="68"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="70"/>
       <c r="D22" s="6" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="72"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="68"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="70"/>
       <c r="D23" s="6" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="72"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="68"/>
+      <c r="A24" s="71"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="70"/>
       <c r="D24" s="38" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="39" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="72"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="68"/>
+      <c r="A25" s="71"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="70"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="72"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="68"/>
+      <c r="A26" s="71"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="70"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="72"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="68"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="70"/>
       <c r="D27" s="20" t="s">
         <v>597</v>
       </c>
@@ -7196,13 +7336,13 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="72" t="s">
         <v>601</v>
       </c>
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="72" t="s">
         <v>602</v>
       </c>
-      <c r="C28" s="68" t="s">
+      <c r="C28" s="70" t="s">
         <v>629</v>
       </c>
       <c r="D28" t="s">
@@ -7216,9 +7356,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="66"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="68"/>
+      <c r="A29" s="72"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="70"/>
       <c r="D29" t="s">
         <v>630</v>
       </c>
@@ -7230,9 +7370,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="66"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="68"/>
+      <c r="A30" s="72"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="70"/>
       <c r="D30" t="s">
         <v>635</v>
       </c>
@@ -7244,17 +7384,17 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="66"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="68"/>
+      <c r="A31" s="72"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="70"/>
       <c r="E31" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="66"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="68"/>
+      <c r="A32" s="72"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="70"/>
       <c r="D32" t="s">
         <v>639</v>
       </c>
@@ -7266,9 +7406,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="66"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="68"/>
+      <c r="A33" s="72"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="70"/>
       <c r="D33" t="s">
         <v>642</v>
       </c>
@@ -7280,17 +7420,17 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="66"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="68"/>
+      <c r="A34" s="72"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="70"/>
       <c r="E34" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="66"/>
-      <c r="B35" s="66"/>
-      <c r="C35" s="68"/>
+      <c r="A35" s="72"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="70"/>
       <c r="D35" t="s">
         <v>646</v>
       </c>
@@ -7302,9 +7442,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="66"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="68"/>
+      <c r="A36" s="72"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="70"/>
       <c r="D36" t="s">
         <v>649</v>
       </c>
@@ -7316,10 +7456,10 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="66"/>
-      <c r="B37" s="66"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="67" t="s">
+      <c r="A37" s="72"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="68" t="s">
         <v>558</v>
       </c>
       <c r="E37" t="s">
@@ -7330,58 +7470,58 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="66"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="67"/>
+      <c r="A38" s="72"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="68"/>
       <c r="E38" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="66"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="67"/>
+      <c r="A39" s="72"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="68"/>
       <c r="E39" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="66"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="67"/>
+      <c r="A40" s="72"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="68"/>
       <c r="E40" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="66"/>
-      <c r="B41" s="66"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="67"/>
+      <c r="A41" s="72"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="68"/>
       <c r="E41" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="66"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="68"/>
+      <c r="A42" s="72"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="70"/>
       <c r="D42" s="13" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="66"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="13" t="s">
         <v>603</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="D43" s="67" t="s">
+      <c r="D43" s="68" t="s">
         <v>862</v>
       </c>
       <c r="E43" t="s">
@@ -7389,77 +7529,77 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="66"/>
-      <c r="D44" s="67"/>
+      <c r="A44" s="72"/>
+      <c r="D44" s="68"/>
       <c r="E44" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="66"/>
-      <c r="D45" s="67"/>
+      <c r="A45" s="72"/>
+      <c r="D45" s="68"/>
       <c r="E45" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="66"/>
-      <c r="D46" s="67"/>
+      <c r="A46" s="72"/>
+      <c r="D46" s="68"/>
       <c r="E46" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="66"/>
-      <c r="D47" s="67"/>
+      <c r="A47" s="72"/>
+      <c r="D47" s="68"/>
       <c r="E47" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="66"/>
-      <c r="D48" s="67"/>
+      <c r="A48" s="72"/>
+      <c r="D48" s="68"/>
       <c r="E48" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="66"/>
-      <c r="D49" s="67"/>
+      <c r="A49" s="72"/>
+      <c r="D49" s="68"/>
       <c r="E49" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="66"/>
-      <c r="D50" s="67"/>
+      <c r="A50" s="72"/>
+      <c r="D50" s="68"/>
       <c r="E50" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="66"/>
-      <c r="D51" s="67"/>
+      <c r="A51" s="72"/>
+      <c r="D51" s="68"/>
       <c r="E51" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="66"/>
-      <c r="D52" s="67"/>
+      <c r="A52" s="72"/>
+      <c r="D52" s="68"/>
       <c r="E52" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="66"/>
-      <c r="D53" s="67"/>
+      <c r="A53" s="72"/>
+      <c r="D53" s="68"/>
       <c r="E53" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="66"/>
+      <c r="A54" s="72"/>
       <c r="D54" t="s">
         <v>874</v>
       </c>
@@ -7468,7 +7608,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="66"/>
+      <c r="A55" s="72"/>
       <c r="D55" t="s">
         <v>876</v>
       </c>
@@ -7477,7 +7617,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" s="66"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
         <v>605</v>
       </c>
@@ -7486,7 +7626,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57" s="66"/>
+      <c r="A57" s="72"/>
       <c r="B57" s="13" t="s">
         <v>607</v>
       </c>
@@ -7495,7 +7635,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" s="66"/>
+      <c r="A58" s="72"/>
       <c r="B58" s="13" t="s">
         <v>609</v>
       </c>
@@ -7504,7 +7644,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A59" s="66"/>
+      <c r="A59" s="72"/>
       <c r="B59" s="13" t="s">
         <v>611</v>
       </c>
@@ -7513,7 +7653,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A60" s="66"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="13" t="s">
         <v>613</v>
       </c>
@@ -7522,7 +7662,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A61" s="66"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
         <v>615</v>
       </c>
@@ -7531,7 +7671,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A62" s="66"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="13" t="s">
         <v>617</v>
       </c>
@@ -7540,7 +7680,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A63" s="66"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="13" t="s">
         <v>619</v>
       </c>
@@ -7549,7 +7689,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A64" s="66"/>
+      <c r="A64" s="72"/>
       <c r="B64" s="13" t="s">
         <v>621</v>
       </c>
@@ -7558,7 +7698,7 @@
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A65" s="66"/>
+      <c r="A65" s="72"/>
       <c r="B65" s="13" t="s">
         <v>623</v>
       </c>
@@ -7567,7 +7707,7 @@
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A66" s="66"/>
+      <c r="A66" s="72"/>
       <c r="B66" s="13" t="s">
         <v>625</v>
       </c>
@@ -7576,7 +7716,7 @@
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A67" s="66"/>
+      <c r="A67" s="72"/>
       <c r="B67" s="13" t="s">
         <v>627</v>
       </c>
@@ -7834,6 +7974,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A28:A67"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="D43:D53"/>
+    <mergeCell ref="C28:C42"/>
+    <mergeCell ref="B28:B42"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="D14:D18"/>
     <mergeCell ref="C13:C18"/>
@@ -7841,11 +7986,6 @@
     <mergeCell ref="C21:C27"/>
     <mergeCell ref="B21:B27"/>
     <mergeCell ref="A11:A27"/>
-    <mergeCell ref="A28:A67"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="D43:D53"/>
-    <mergeCell ref="C28:C42"/>
-    <mergeCell ref="B28:B42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7950,8 +8090,8 @@
   <dimension ref="A1:N310"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D250" sqref="D250"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B261" sqref="B261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8021,10 +8161,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="87"/>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="68" t="s">
         <v>216</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="69" t="s">
         <v>217</v>
       </c>
       <c r="D6" t="s">
@@ -8036,8 +8176,8 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="87"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="71"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="69"/>
       <c r="D7" t="s">
         <v>220</v>
       </c>
@@ -8047,8 +8187,8 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="87"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="71"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="69"/>
       <c r="D8" t="s">
         <v>222</v>
       </c>
@@ -8058,8 +8198,8 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="87"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="71"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="69"/>
       <c r="D9" t="s">
         <v>224</v>
       </c>
@@ -8069,8 +8209,8 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="87"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="71"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="69"/>
       <c r="D10" t="s">
         <v>226</v>
       </c>
@@ -8080,8 +8220,8 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="87"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="71"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="69"/>
       <c r="D11" t="s">
         <v>228</v>
       </c>
@@ -8115,10 +8255,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="87"/>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="68" t="s">
         <v>236</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="69" t="s">
         <v>237</v>
       </c>
       <c r="D14" t="s">
@@ -8130,8 +8270,8 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="87"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="71"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="69"/>
       <c r="D15" t="s">
         <v>240</v>
       </c>
@@ -8141,10 +8281,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="87"/>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="68" t="s">
         <v>242</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="69" t="s">
         <v>250</v>
       </c>
       <c r="D16" t="s">
@@ -8156,8 +8296,8 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="87"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="71"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="69"/>
       <c r="D17" t="s">
         <v>244</v>
       </c>
@@ -8167,8 +8307,8 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="87"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="71"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="69"/>
       <c r="D18" t="s">
         <v>246</v>
       </c>
@@ -8178,8 +8318,8 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="87"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="71"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="69"/>
       <c r="D19" t="s">
         <v>248</v>
       </c>
@@ -8189,10 +8329,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="87"/>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="68" t="s">
         <v>252</v>
       </c>
-      <c r="C20" s="71" t="s">
+      <c r="C20" s="69" t="s">
         <v>251</v>
       </c>
       <c r="D20" t="s">
@@ -8207,8 +8347,8 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="87"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="71"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="69"/>
       <c r="D21" t="s">
         <v>255</v>
       </c>
@@ -8326,7 +8466,7 @@
         <v>94</v>
       </c>
       <c r="G31" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
@@ -8518,7 +8658,7 @@
       <c r="B47" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C47" s="71" t="s">
+      <c r="C47" s="69" t="s">
         <v>165</v>
       </c>
     </row>
@@ -8527,7 +8667,7 @@
       <c r="B48" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C48" s="71"/>
+      <c r="C48" s="69"/>
     </row>
     <row r="49" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A49" s="89"/>
@@ -8543,10 +8683,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="89"/>
-      <c r="B50" s="67" t="s">
+      <c r="B50" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="C50" s="71" t="s">
+      <c r="C50" s="69" t="s">
         <v>137</v>
       </c>
       <c r="D50" t="s">
@@ -8558,8 +8698,8 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="89"/>
-      <c r="B51" s="67"/>
-      <c r="C51" s="71"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="69"/>
       <c r="D51" t="s">
         <v>142</v>
       </c>
@@ -8569,8 +8709,8 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="89"/>
-      <c r="B52" s="67"/>
-      <c r="C52" s="71"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="69"/>
       <c r="D52" t="s">
         <v>144</v>
       </c>
@@ -8580,8 +8720,8 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="89"/>
-      <c r="B53" s="67"/>
-      <c r="C53" s="71"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="69"/>
       <c r="D53" t="s">
         <v>146</v>
       </c>
@@ -8591,8 +8731,8 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="89"/>
-      <c r="B54" s="67"/>
-      <c r="C54" s="71"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="69"/>
       <c r="D54" t="s">
         <v>148</v>
       </c>
@@ -8602,8 +8742,8 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="89"/>
-      <c r="B55" s="67"/>
-      <c r="C55" s="71"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="69"/>
       <c r="D55" t="s">
         <v>150</v>
       </c>
@@ -8613,8 +8753,8 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="89"/>
-      <c r="B56" s="67"/>
-      <c r="C56" s="71"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="69"/>
       <c r="D56" t="s">
         <v>152</v>
       </c>
@@ -8624,8 +8764,8 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="89"/>
-      <c r="B57" s="67"/>
-      <c r="C57" s="71"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="69"/>
       <c r="D57" t="s">
         <v>154</v>
       </c>
@@ -8635,8 +8775,8 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="89"/>
-      <c r="B58" s="67"/>
-      <c r="C58" s="71"/>
+      <c r="B58" s="68"/>
+      <c r="C58" s="69"/>
       <c r="D58" t="s">
         <v>156</v>
       </c>
@@ -8646,8 +8786,8 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="89"/>
-      <c r="B59" s="67"/>
-      <c r="C59" s="71"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="69"/>
       <c r="D59" t="s">
         <v>158</v>
       </c>
@@ -8657,8 +8797,8 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="89"/>
-      <c r="B60" s="67"/>
-      <c r="C60" s="71"/>
+      <c r="B60" s="68"/>
+      <c r="C60" s="69"/>
       <c r="D60" t="s">
         <v>160</v>
       </c>
@@ -8728,10 +8868,10 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A66" s="89"/>
-      <c r="B66" s="67" t="s">
+      <c r="B66" s="68" t="s">
         <v>169</v>
       </c>
-      <c r="C66" s="71" t="s">
+      <c r="C66" s="69" t="s">
         <v>173</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -8740,36 +8880,36 @@
       <c r="E66" t="s">
         <v>176</v>
       </c>
-      <c r="F66" s="86" t="s">
+      <c r="F66" s="90" t="s">
         <v>182</v>
       </c>
-      <c r="G66" s="86"/>
+      <c r="G66" s="90"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A67" s="89"/>
-      <c r="B67" s="67"/>
-      <c r="C67" s="71"/>
+      <c r="B67" s="68"/>
+      <c r="C67" s="69"/>
       <c r="D67" s="1" t="s">
         <v>180</v>
       </c>
       <c r="E67" t="s">
         <v>179</v>
       </c>
-      <c r="F67" s="86"/>
-      <c r="G67" s="86"/>
+      <c r="F67" s="90"/>
+      <c r="G67" s="90"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A68" s="89"/>
-      <c r="B68" s="67"/>
-      <c r="C68" s="71"/>
+      <c r="B68" s="68"/>
+      <c r="C68" s="69"/>
       <c r="D68" s="1" t="s">
         <v>177</v>
       </c>
       <c r="E68" t="s">
         <v>178</v>
       </c>
-      <c r="F68" s="86"/>
-      <c r="G68" s="86"/>
+      <c r="F68" s="90"/>
+      <c r="G68" s="90"/>
     </row>
     <row r="69" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A69" s="89"/>
@@ -8797,10 +8937,10 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A71" s="89"/>
-      <c r="B71" s="67" t="s">
+      <c r="B71" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="C71" s="71" t="s">
+      <c r="C71" s="69" t="s">
         <v>192</v>
       </c>
       <c r="D71" t="s">
@@ -8815,8 +8955,8 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A72" s="89"/>
-      <c r="B72" s="67"/>
-      <c r="C72" s="71"/>
+      <c r="B72" s="68"/>
+      <c r="C72" s="69"/>
       <c r="D72" t="s">
         <v>195</v>
       </c>
@@ -8826,8 +8966,8 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A73" s="89"/>
-      <c r="B73" s="67"/>
-      <c r="C73" s="71"/>
+      <c r="B73" s="68"/>
+      <c r="C73" s="69"/>
       <c r="D73" t="s">
         <v>197</v>
       </c>
@@ -8837,8 +8977,8 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A74" s="89"/>
-      <c r="B74" s="67"/>
-      <c r="C74" s="71"/>
+      <c r="B74" s="68"/>
+      <c r="C74" s="69"/>
       <c r="D74" t="s">
         <v>199</v>
       </c>
@@ -8848,8 +8988,8 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A75" s="89"/>
-      <c r="B75" s="67"/>
-      <c r="C75" s="71"/>
+      <c r="B75" s="68"/>
+      <c r="C75" s="69"/>
       <c r="D75" t="s">
         <v>201</v>
       </c>
@@ -8859,8 +8999,8 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A76" s="89"/>
-      <c r="B76" s="67"/>
-      <c r="C76" s="71"/>
+      <c r="B76" s="68"/>
+      <c r="C76" s="69"/>
       <c r="D76" t="s">
         <v>156</v>
       </c>
@@ -8870,10 +9010,10 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A77" s="89"/>
-      <c r="B77" s="67" t="s">
+      <c r="B77" s="68" t="s">
         <v>205</v>
       </c>
-      <c r="C77" s="71" t="s">
+      <c r="C77" s="69" t="s">
         <v>258</v>
       </c>
       <c r="D77" t="s">
@@ -8893,8 +9033,8 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A78" s="89"/>
-      <c r="B78" s="67"/>
-      <c r="C78" s="71"/>
+      <c r="B78" s="68"/>
+      <c r="C78" s="69"/>
       <c r="D78" t="s">
         <v>260</v>
       </c>
@@ -8904,10 +9044,10 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A79" s="89"/>
-      <c r="B79" s="67" t="s">
+      <c r="B79" s="68" t="s">
         <v>264</v>
       </c>
-      <c r="C79" s="71" t="s">
+      <c r="C79" s="69" t="s">
         <v>265</v>
       </c>
       <c r="D79" t="s">
@@ -8916,28 +9056,28 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A80" s="89"/>
-      <c r="B80" s="67"/>
-      <c r="C80" s="71"/>
+      <c r="B80" s="68"/>
+      <c r="C80" s="69"/>
       <c r="D80" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="89"/>
-      <c r="B81" s="67"/>
-      <c r="C81" s="71"/>
+      <c r="B81" s="68"/>
+      <c r="C81" s="69"/>
       <c r="D81" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A82" s="90" t="s">
+      <c r="A82" s="78" t="s">
         <v>269</v>
       </c>
-      <c r="B82" s="67" t="s">
+      <c r="B82" s="68" t="s">
         <v>270</v>
       </c>
-      <c r="C82" s="71" t="s">
+      <c r="C82" s="69" t="s">
         <v>282</v>
       </c>
       <c r="D82" t="s">
@@ -8948,9 +9088,9 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A83" s="90"/>
-      <c r="B83" s="67"/>
-      <c r="C83" s="71"/>
+      <c r="A83" s="78"/>
+      <c r="B83" s="68"/>
+      <c r="C83" s="69"/>
       <c r="D83" t="s">
         <v>142</v>
       </c>
@@ -8959,9 +9099,9 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A84" s="90"/>
-      <c r="B84" s="67"/>
-      <c r="C84" s="71"/>
+      <c r="A84" s="78"/>
+      <c r="B84" s="68"/>
+      <c r="C84" s="69"/>
       <c r="D84" t="s">
         <v>273</v>
       </c>
@@ -8973,9 +9113,9 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A85" s="90"/>
-      <c r="B85" s="67"/>
-      <c r="C85" s="71"/>
+      <c r="A85" s="78"/>
+      <c r="B85" s="68"/>
+      <c r="C85" s="69"/>
       <c r="D85" t="s">
         <v>275</v>
       </c>
@@ -8984,9 +9124,9 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A86" s="90"/>
-      <c r="B86" s="67"/>
-      <c r="C86" s="71"/>
+      <c r="A86" s="78"/>
+      <c r="B86" s="68"/>
+      <c r="C86" s="69"/>
       <c r="D86" s="9" t="s">
         <v>277</v>
       </c>
@@ -8995,9 +9135,9 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A87" s="90"/>
-      <c r="B87" s="67"/>
-      <c r="C87" s="71"/>
+      <c r="A87" s="78"/>
+      <c r="B87" s="68"/>
+      <c r="C87" s="69"/>
       <c r="D87" s="10" t="s">
         <v>279</v>
       </c>
@@ -9006,13 +9146,13 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A88" s="91" t="s">
+      <c r="A88" s="79" t="s">
         <v>284</v>
       </c>
-      <c r="B88" s="67" t="s">
+      <c r="B88" s="68" t="s">
         <v>285</v>
       </c>
-      <c r="C88" s="71" t="s">
+      <c r="C88" s="69" t="s">
         <v>286</v>
       </c>
       <c r="D88" t="s">
@@ -9026,9 +9166,9 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A89" s="92"/>
-      <c r="B89" s="67"/>
-      <c r="C89" s="71"/>
+      <c r="A89" s="74"/>
+      <c r="B89" s="68"/>
+      <c r="C89" s="69"/>
       <c r="D89" t="s">
         <v>288</v>
       </c>
@@ -9037,9 +9177,9 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A90" s="92"/>
-      <c r="B90" s="67"/>
-      <c r="C90" s="71"/>
+      <c r="A90" s="74"/>
+      <c r="B90" s="68"/>
+      <c r="C90" s="69"/>
       <c r="D90" t="s">
         <v>290</v>
       </c>
@@ -9048,9 +9188,9 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A91" s="92"/>
-      <c r="B91" s="67"/>
-      <c r="C91" s="71"/>
+      <c r="A91" s="74"/>
+      <c r="B91" s="68"/>
+      <c r="C91" s="69"/>
       <c r="D91" t="s">
         <v>160</v>
       </c>
@@ -9059,11 +9199,11 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A92" s="92"/>
-      <c r="B92" s="67" t="s">
+      <c r="A92" s="74"/>
+      <c r="B92" s="68" t="s">
         <v>293</v>
       </c>
-      <c r="C92" s="71" t="s">
+      <c r="C92" s="69" t="s">
         <v>294</v>
       </c>
       <c r="D92" t="s">
@@ -9077,9 +9217,9 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A93" s="92"/>
-      <c r="B93" s="67"/>
-      <c r="C93" s="71"/>
+      <c r="A93" s="74"/>
+      <c r="B93" s="68"/>
+      <c r="C93" s="69"/>
       <c r="D93" t="s">
         <v>288</v>
       </c>
@@ -9088,9 +9228,9 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A94" s="92"/>
-      <c r="B94" s="67"/>
-      <c r="C94" s="71"/>
+      <c r="A94" s="74"/>
+      <c r="B94" s="68"/>
+      <c r="C94" s="69"/>
       <c r="D94" t="s">
         <v>290</v>
       </c>
@@ -9099,9 +9239,9 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A95" s="92"/>
-      <c r="B95" s="67"/>
-      <c r="C95" s="71"/>
+      <c r="A95" s="74"/>
+      <c r="B95" s="68"/>
+      <c r="C95" s="69"/>
       <c r="D95" t="s">
         <v>160</v>
       </c>
@@ -9110,7 +9250,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A96" s="92"/>
+      <c r="A96" s="74"/>
       <c r="B96" s="13" t="s">
         <v>301</v>
       </c>
@@ -9123,10 +9263,10 @@
     </row>
     <row r="97" spans="1:5" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A97" s="22"/>
-      <c r="B97" s="66" t="s">
+      <c r="B97" s="72" t="s">
         <v>665</v>
       </c>
-      <c r="C97" s="68" t="s">
+      <c r="C97" s="70" t="s">
         <v>668</v>
       </c>
       <c r="D97" t="s">
@@ -9138,8 +9278,8 @@
     </row>
     <row r="98" spans="1:5" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A98" s="22"/>
-      <c r="B98" s="66"/>
-      <c r="C98" s="68"/>
+      <c r="B98" s="72"/>
+      <c r="C98" s="70"/>
       <c r="D98" t="s">
         <v>667</v>
       </c>
@@ -9148,7 +9288,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A99" s="70" t="s">
+      <c r="A99" s="67" t="s">
         <v>321</v>
       </c>
       <c r="B99" s="13" t="s">
@@ -9159,7 +9299,7 @@
       </c>
     </row>
     <row r="100" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A100" s="70"/>
+      <c r="A100" s="67"/>
       <c r="B100" s="13" t="s">
         <v>324</v>
       </c>
@@ -9171,7 +9311,7 @@
       </c>
     </row>
     <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="70"/>
+      <c r="A101" s="67"/>
       <c r="B101" s="13" t="s">
         <v>326</v>
       </c>
@@ -9180,7 +9320,7 @@
       </c>
     </row>
     <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="70"/>
+      <c r="A102" s="67"/>
       <c r="B102" s="13" t="s">
         <v>328</v>
       </c>
@@ -9195,7 +9335,7 @@
       </c>
     </row>
     <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="70"/>
+      <c r="A103" s="67"/>
       <c r="D103" t="s">
         <v>337</v>
       </c>
@@ -9204,7 +9344,7 @@
       </c>
     </row>
     <row r="104" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="70"/>
+      <c r="A104" s="67"/>
       <c r="B104" s="13" t="s">
         <v>330</v>
       </c>
@@ -9219,11 +9359,11 @@
       </c>
     </row>
     <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="70"/>
-      <c r="B105" s="67" t="s">
+      <c r="A105" s="67"/>
+      <c r="B105" s="68" t="s">
         <v>332</v>
       </c>
-      <c r="C105" s="71" t="s">
+      <c r="C105" s="69" t="s">
         <v>333</v>
       </c>
       <c r="D105" t="s">
@@ -9234,9 +9374,9 @@
       </c>
     </row>
     <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="70"/>
-      <c r="B106" s="67"/>
-      <c r="C106" s="71"/>
+      <c r="A106" s="67"/>
+      <c r="B106" s="68"/>
+      <c r="C106" s="69"/>
       <c r="D106" t="s">
         <v>342</v>
       </c>
@@ -9245,9 +9385,9 @@
       </c>
     </row>
     <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="70"/>
-      <c r="B107" s="67"/>
-      <c r="C107" s="71"/>
+      <c r="A107" s="67"/>
+      <c r="B107" s="68"/>
+      <c r="C107" s="69"/>
       <c r="D107" t="s">
         <v>344</v>
       </c>
@@ -9256,9 +9396,9 @@
       </c>
     </row>
     <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="70"/>
-      <c r="B108" s="67"/>
-      <c r="C108" s="71"/>
+      <c r="A108" s="67"/>
+      <c r="B108" s="68"/>
+      <c r="C108" s="69"/>
       <c r="D108" t="s">
         <v>346</v>
       </c>
@@ -9267,9 +9407,9 @@
       </c>
     </row>
     <row r="109" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="70"/>
-      <c r="B109" s="67"/>
-      <c r="C109" s="71"/>
+      <c r="A109" s="67"/>
+      <c r="B109" s="68"/>
+      <c r="C109" s="69"/>
       <c r="D109" s="1" t="s">
         <v>349</v>
       </c>
@@ -9278,7 +9418,7 @@
       </c>
     </row>
     <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="101" t="s">
+      <c r="A110" s="75" t="s">
         <v>458</v>
       </c>
       <c r="B110" s="13" t="s">
@@ -9289,11 +9429,11 @@
       </c>
     </row>
     <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="101"/>
-      <c r="B111" s="67" t="s">
+      <c r="A111" s="75"/>
+      <c r="B111" s="68" t="s">
         <v>460</v>
       </c>
-      <c r="C111" s="71" t="s">
+      <c r="C111" s="69" t="s">
         <v>461</v>
       </c>
       <c r="D111" t="s">
@@ -9304,9 +9444,9 @@
       </c>
     </row>
     <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="101"/>
-      <c r="B112" s="67"/>
-      <c r="C112" s="71"/>
+      <c r="A112" s="75"/>
+      <c r="B112" s="68"/>
+      <c r="C112" s="69"/>
       <c r="D112" t="s">
         <v>497</v>
       </c>
@@ -9315,7 +9455,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="101"/>
+      <c r="A113" s="75"/>
       <c r="B113" s="13" t="s">
         <v>462</v>
       </c>
@@ -9327,11 +9467,11 @@
       </c>
     </row>
     <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="101"/>
-      <c r="B114" s="67" t="s">
+      <c r="A114" s="75"/>
+      <c r="B114" s="68" t="s">
         <v>464</v>
       </c>
-      <c r="C114" s="71" t="s">
+      <c r="C114" s="69" t="s">
         <v>503</v>
       </c>
       <c r="D114" t="s">
@@ -9342,9 +9482,9 @@
       </c>
     </row>
     <row r="115" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="101"/>
-      <c r="B115" s="67"/>
-      <c r="C115" s="71"/>
+      <c r="A115" s="75"/>
+      <c r="B115" s="68"/>
+      <c r="C115" s="69"/>
       <c r="D115" t="s">
         <v>288</v>
       </c>
@@ -9353,9 +9493,9 @@
       </c>
     </row>
     <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="101"/>
-      <c r="B116" s="67"/>
-      <c r="C116" s="71"/>
+      <c r="A116" s="75"/>
+      <c r="B116" s="68"/>
+      <c r="C116" s="69"/>
       <c r="D116" t="s">
         <v>290</v>
       </c>
@@ -9364,11 +9504,11 @@
       </c>
     </row>
     <row r="117" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="101"/>
-      <c r="B117" s="67" t="s">
+      <c r="A117" s="75"/>
+      <c r="B117" s="68" t="s">
         <v>465</v>
       </c>
-      <c r="C117" s="71" t="s">
+      <c r="C117" s="69" t="s">
         <v>466</v>
       </c>
       <c r="D117" t="s">
@@ -9379,9 +9519,9 @@
       </c>
     </row>
     <row r="118" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="101"/>
-      <c r="B118" s="67"/>
-      <c r="C118" s="71"/>
+      <c r="A118" s="75"/>
+      <c r="B118" s="68"/>
+      <c r="C118" s="69"/>
       <c r="D118" t="s">
         <v>398</v>
       </c>
@@ -9390,9 +9530,9 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="101"/>
-      <c r="B119" s="67"/>
-      <c r="C119" s="71"/>
+      <c r="A119" s="75"/>
+      <c r="B119" s="68"/>
+      <c r="C119" s="69"/>
       <c r="D119" t="s">
         <v>506</v>
       </c>
@@ -9401,9 +9541,9 @@
       </c>
     </row>
     <row r="120" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="101"/>
-      <c r="B120" s="67"/>
-      <c r="C120" s="71"/>
+      <c r="A120" s="75"/>
+      <c r="B120" s="68"/>
+      <c r="C120" s="69"/>
       <c r="D120" t="s">
         <v>508</v>
       </c>
@@ -9412,11 +9552,11 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="101"/>
-      <c r="B121" s="67" t="s">
+      <c r="A121" s="75"/>
+      <c r="B121" s="68" t="s">
         <v>467</v>
       </c>
-      <c r="C121" s="71" t="s">
+      <c r="C121" s="69" t="s">
         <v>468</v>
       </c>
       <c r="D121" t="s">
@@ -9427,9 +9567,9 @@
       </c>
     </row>
     <row r="122" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="101"/>
-      <c r="B122" s="67"/>
-      <c r="C122" s="71"/>
+      <c r="A122" s="75"/>
+      <c r="B122" s="68"/>
+      <c r="C122" s="69"/>
       <c r="D122" t="s">
         <v>510</v>
       </c>
@@ -9438,9 +9578,9 @@
       </c>
     </row>
     <row r="123" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="101"/>
-      <c r="B123" s="67"/>
-      <c r="C123" s="71"/>
+      <c r="A123" s="75"/>
+      <c r="B123" s="68"/>
+      <c r="C123" s="69"/>
       <c r="D123" t="s">
         <v>512</v>
       </c>
@@ -9449,9 +9589,9 @@
       </c>
     </row>
     <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="101"/>
-      <c r="B124" s="67"/>
-      <c r="C124" s="71"/>
+      <c r="A124" s="75"/>
+      <c r="B124" s="68"/>
+      <c r="C124" s="69"/>
       <c r="D124" t="s">
         <v>514</v>
       </c>
@@ -9460,9 +9600,9 @@
       </c>
     </row>
     <row r="125" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="101"/>
-      <c r="B125" s="67"/>
-      <c r="C125" s="71"/>
+      <c r="A125" s="75"/>
+      <c r="B125" s="68"/>
+      <c r="C125" s="69"/>
       <c r="D125" t="s">
         <v>516</v>
       </c>
@@ -9471,11 +9611,11 @@
       </c>
     </row>
     <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="101"/>
-      <c r="B126" s="67" t="s">
+      <c r="A126" s="75"/>
+      <c r="B126" s="68" t="s">
         <v>469</v>
       </c>
-      <c r="C126" s="71" t="s">
+      <c r="C126" s="69" t="s">
         <v>470</v>
       </c>
       <c r="D126" t="s">
@@ -9489,9 +9629,9 @@
       </c>
     </row>
     <row r="127" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="101"/>
-      <c r="B127" s="67"/>
-      <c r="C127" s="71"/>
+      <c r="A127" s="75"/>
+      <c r="B127" s="68"/>
+      <c r="C127" s="69"/>
       <c r="D127" t="s">
         <v>290</v>
       </c>
@@ -9500,11 +9640,11 @@
       </c>
     </row>
     <row r="128" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="101"/>
-      <c r="B128" s="67" t="s">
+      <c r="A128" s="75"/>
+      <c r="B128" s="68" t="s">
         <v>471</v>
       </c>
-      <c r="C128" s="71" t="s">
+      <c r="C128" s="69" t="s">
         <v>472</v>
       </c>
       <c r="D128" t="s">
@@ -9515,9 +9655,9 @@
       </c>
     </row>
     <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="101"/>
-      <c r="B129" s="67"/>
-      <c r="C129" s="71"/>
+      <c r="A129" s="75"/>
+      <c r="B129" s="68"/>
+      <c r="C129" s="69"/>
       <c r="D129" t="s">
         <v>195</v>
       </c>
@@ -9526,9 +9666,9 @@
       </c>
     </row>
     <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="101"/>
-      <c r="B130" s="67"/>
-      <c r="C130" s="71"/>
+      <c r="A130" s="75"/>
+      <c r="B130" s="68"/>
+      <c r="C130" s="69"/>
       <c r="D130" t="s">
         <v>197</v>
       </c>
@@ -9537,9 +9677,9 @@
       </c>
     </row>
     <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="101"/>
-      <c r="B131" s="67"/>
-      <c r="C131" s="71"/>
+      <c r="A131" s="75"/>
+      <c r="B131" s="68"/>
+      <c r="C131" s="69"/>
       <c r="D131" t="s">
         <v>201</v>
       </c>
@@ -9548,11 +9688,11 @@
       </c>
     </row>
     <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="101"/>
-      <c r="B132" s="67" t="s">
+      <c r="A132" s="75"/>
+      <c r="B132" s="68" t="s">
         <v>473</v>
       </c>
-      <c r="C132" s="71" t="s">
+      <c r="C132" s="69" t="s">
         <v>474</v>
       </c>
       <c r="D132" t="s">
@@ -9563,9 +9703,9 @@
       </c>
     </row>
     <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="101"/>
-      <c r="B133" s="67"/>
-      <c r="C133" s="71"/>
+      <c r="A133" s="75"/>
+      <c r="B133" s="68"/>
+      <c r="C133" s="69"/>
       <c r="D133" t="s">
         <v>522</v>
       </c>
@@ -9574,9 +9714,9 @@
       </c>
     </row>
     <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="101"/>
-      <c r="B134" s="67"/>
-      <c r="C134" s="71"/>
+      <c r="A134" s="75"/>
+      <c r="B134" s="68"/>
+      <c r="C134" s="69"/>
       <c r="D134" t="s">
         <v>524</v>
       </c>
@@ -9585,9 +9725,9 @@
       </c>
     </row>
     <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="101"/>
-      <c r="B135" s="67"/>
-      <c r="C135" s="71"/>
+      <c r="A135" s="75"/>
+      <c r="B135" s="68"/>
+      <c r="C135" s="69"/>
       <c r="D135" t="s">
         <v>526</v>
       </c>
@@ -9596,11 +9736,11 @@
       </c>
     </row>
     <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="101"/>
-      <c r="B136" s="67" t="s">
+      <c r="A136" s="75"/>
+      <c r="B136" s="68" t="s">
         <v>475</v>
       </c>
-      <c r="C136" s="71" t="s">
+      <c r="C136" s="69" t="s">
         <v>476</v>
       </c>
       <c r="D136" t="s">
@@ -9611,9 +9751,9 @@
       </c>
     </row>
     <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="101"/>
-      <c r="B137" s="67"/>
-      <c r="C137" s="71"/>
+      <c r="A137" s="75"/>
+      <c r="B137" s="68"/>
+      <c r="C137" s="69"/>
       <c r="D137" t="s">
         <v>529</v>
       </c>
@@ -9622,9 +9762,9 @@
       </c>
     </row>
     <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="101"/>
-      <c r="B138" s="67"/>
-      <c r="C138" s="71"/>
+      <c r="A138" s="75"/>
+      <c r="B138" s="68"/>
+      <c r="C138" s="69"/>
       <c r="D138" t="s">
         <v>531</v>
       </c>
@@ -9633,9 +9773,9 @@
       </c>
     </row>
     <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="101"/>
-      <c r="B139" s="67"/>
-      <c r="C139" s="71"/>
+      <c r="A139" s="75"/>
+      <c r="B139" s="68"/>
+      <c r="C139" s="69"/>
       <c r="D139" t="s">
         <v>533</v>
       </c>
@@ -9644,9 +9784,9 @@
       </c>
     </row>
     <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="101"/>
-      <c r="B140" s="67"/>
-      <c r="C140" s="71"/>
+      <c r="A140" s="75"/>
+      <c r="B140" s="68"/>
+      <c r="C140" s="69"/>
       <c r="D140" t="s">
         <v>535</v>
       </c>
@@ -9655,7 +9795,7 @@
       </c>
     </row>
     <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="101"/>
+      <c r="A141" s="75"/>
       <c r="B141" s="13" t="s">
         <v>477</v>
       </c>
@@ -9670,7 +9810,7 @@
       </c>
     </row>
     <row r="142" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A142" s="101"/>
+      <c r="A142" s="75"/>
       <c r="B142" s="16" t="s">
         <v>479</v>
       </c>
@@ -9679,7 +9819,7 @@
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A143" s="101"/>
+      <c r="A143" s="75"/>
       <c r="B143" s="16" t="s">
         <v>481</v>
       </c>
@@ -9688,7 +9828,7 @@
       </c>
     </row>
     <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="101"/>
+      <c r="A144" s="75"/>
       <c r="B144" s="16" t="s">
         <v>482</v>
       </c>
@@ -9697,7 +9837,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="101"/>
+      <c r="A145" s="75"/>
       <c r="B145" s="17" t="s">
         <v>484</v>
       </c>
@@ -9706,7 +9846,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="101"/>
+      <c r="A146" s="75"/>
       <c r="B146" s="17" t="s">
         <v>486</v>
       </c>
@@ -9715,7 +9855,7 @@
       </c>
     </row>
     <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="101"/>
+      <c r="A147" s="75"/>
       <c r="B147" s="17" t="s">
         <v>488</v>
       </c>
@@ -9724,11 +9864,11 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A148" s="101"/>
-      <c r="B148" s="67" t="s">
+      <c r="A148" s="75"/>
+      <c r="B148" s="68" t="s">
         <v>490</v>
       </c>
-      <c r="C148" s="71" t="s">
+      <c r="C148" s="69" t="s">
         <v>491</v>
       </c>
       <c r="D148" t="s">
@@ -9739,9 +9879,9 @@
       </c>
     </row>
     <row r="149" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="101"/>
-      <c r="B149" s="67"/>
-      <c r="C149" s="71"/>
+      <c r="A149" s="75"/>
+      <c r="B149" s="68"/>
+      <c r="C149" s="69"/>
       <c r="D149" t="s">
         <v>541</v>
       </c>
@@ -9750,9 +9890,9 @@
       </c>
     </row>
     <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="101"/>
-      <c r="B150" s="67"/>
-      <c r="C150" s="71"/>
+      <c r="A150" s="75"/>
+      <c r="B150" s="68"/>
+      <c r="C150" s="69"/>
       <c r="D150" t="s">
         <v>543</v>
       </c>
@@ -9761,11 +9901,11 @@
       </c>
     </row>
     <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="101"/>
-      <c r="B151" s="67" t="s">
+      <c r="A151" s="75"/>
+      <c r="B151" s="68" t="s">
         <v>492</v>
       </c>
-      <c r="C151" s="71" t="s">
+      <c r="C151" s="69" t="s">
         <v>493</v>
       </c>
       <c r="D151" t="s">
@@ -9776,9 +9916,9 @@
       </c>
     </row>
     <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="101"/>
-      <c r="B152" s="67"/>
-      <c r="C152" s="71"/>
+      <c r="A152" s="75"/>
+      <c r="B152" s="68"/>
+      <c r="C152" s="69"/>
       <c r="D152" t="s">
         <v>140</v>
       </c>
@@ -9787,9 +9927,9 @@
       </c>
     </row>
     <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="101"/>
-      <c r="B153" s="67"/>
-      <c r="C153" s="71"/>
+      <c r="A153" s="75"/>
+      <c r="B153" s="68"/>
+      <c r="C153" s="69"/>
       <c r="D153" t="s">
         <v>547</v>
       </c>
@@ -9798,9 +9938,9 @@
       </c>
     </row>
     <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="101"/>
-      <c r="B154" s="67"/>
-      <c r="C154" s="71"/>
+      <c r="A154" s="75"/>
+      <c r="B154" s="68"/>
+      <c r="C154" s="69"/>
       <c r="D154" t="s">
         <v>549</v>
       </c>
@@ -9809,11 +9949,11 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A155" s="101"/>
-      <c r="B155" s="67" t="s">
+      <c r="A155" s="75"/>
+      <c r="B155" s="68" t="s">
         <v>494</v>
       </c>
-      <c r="C155" s="71" t="s">
+      <c r="C155" s="69" t="s">
         <v>551</v>
       </c>
       <c r="D155" t="s">
@@ -9824,9 +9964,9 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A156" s="101"/>
-      <c r="B156" s="67"/>
-      <c r="C156" s="71"/>
+      <c r="A156" s="75"/>
+      <c r="B156" s="68"/>
+      <c r="C156" s="69"/>
       <c r="D156" t="s">
         <v>553</v>
       </c>
@@ -9835,9 +9975,9 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A157" s="101"/>
-      <c r="B157" s="67"/>
-      <c r="C157" s="71"/>
+      <c r="A157" s="75"/>
+      <c r="B157" s="68"/>
+      <c r="C157" s="69"/>
       <c r="D157" t="s">
         <v>555</v>
       </c>
@@ -9846,7 +9986,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="95" t="s">
+      <c r="A158" s="82" t="s">
         <v>350</v>
       </c>
       <c r="B158" s="13" t="s">
@@ -9857,11 +9997,11 @@
       </c>
     </row>
     <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="95"/>
-      <c r="B159" s="67" t="s">
+      <c r="A159" s="82"/>
+      <c r="B159" s="68" t="s">
         <v>353</v>
       </c>
-      <c r="C159" s="71" t="s">
+      <c r="C159" s="69" t="s">
         <v>354</v>
       </c>
       <c r="D159" t="s">
@@ -9872,19 +10012,19 @@
       </c>
     </row>
     <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="95"/>
-      <c r="B160" s="67"/>
-      <c r="C160" s="71"/>
+      <c r="A160" s="82"/>
+      <c r="B160" s="68"/>
+      <c r="C160" s="69"/>
       <c r="D160" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="95"/>
-      <c r="B161" s="67" t="s">
+      <c r="A161" s="82"/>
+      <c r="B161" s="68" t="s">
         <v>355</v>
       </c>
-      <c r="C161" s="71" t="s">
+      <c r="C161" s="69" t="s">
         <v>356</v>
       </c>
       <c r="D161" t="s">
@@ -9892,19 +10032,19 @@
       </c>
     </row>
     <row r="162" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="95"/>
-      <c r="B162" s="67"/>
-      <c r="C162" s="71"/>
+      <c r="A162" s="82"/>
+      <c r="B162" s="68"/>
+      <c r="C162" s="69"/>
       <c r="D162" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="95"/>
-      <c r="B163" s="67" t="s">
+      <c r="A163" s="82"/>
+      <c r="B163" s="68" t="s">
         <v>357</v>
       </c>
-      <c r="C163" s="71" t="s">
+      <c r="C163" s="69" t="s">
         <v>371</v>
       </c>
       <c r="D163" t="s">
@@ -9918,9 +10058,9 @@
       </c>
     </row>
     <row r="164" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="95"/>
-      <c r="B164" s="67"/>
-      <c r="C164" s="71"/>
+      <c r="A164" s="82"/>
+      <c r="B164" s="68"/>
+      <c r="C164" s="69"/>
       <c r="D164" t="s">
         <v>363</v>
       </c>
@@ -9929,9 +10069,9 @@
       </c>
     </row>
     <row r="165" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="95"/>
-      <c r="B165" s="67"/>
-      <c r="C165" s="71"/>
+      <c r="A165" s="82"/>
+      <c r="B165" s="68"/>
+      <c r="C165" s="69"/>
       <c r="D165" t="s">
         <v>365</v>
       </c>
@@ -9940,9 +10080,9 @@
       </c>
     </row>
     <row r="166" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="95"/>
-      <c r="B166" s="67"/>
-      <c r="C166" s="71"/>
+      <c r="A166" s="82"/>
+      <c r="B166" s="68"/>
+      <c r="C166" s="69"/>
       <c r="D166" t="s">
         <v>359</v>
       </c>
@@ -9951,9 +10091,9 @@
       </c>
     </row>
     <row r="167" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="95"/>
-      <c r="B167" s="67"/>
-      <c r="C167" s="71"/>
+      <c r="A167" s="82"/>
+      <c r="B167" s="68"/>
+      <c r="C167" s="69"/>
       <c r="D167" t="s">
         <v>368</v>
       </c>
@@ -9962,13 +10102,13 @@
       </c>
     </row>
     <row r="168" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="96" t="s">
+      <c r="A168" s="83" t="s">
         <v>380</v>
       </c>
-      <c r="B168" s="67" t="s">
+      <c r="B168" s="68" t="s">
         <v>373</v>
       </c>
-      <c r="C168" s="71" t="s">
+      <c r="C168" s="69" t="s">
         <v>377</v>
       </c>
       <c r="D168" t="s">
@@ -9979,9 +10119,9 @@
       </c>
     </row>
     <row r="169" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="96"/>
-      <c r="B169" s="67"/>
-      <c r="C169" s="71"/>
+      <c r="A169" s="83"/>
+      <c r="B169" s="68"/>
+      <c r="C169" s="69"/>
       <c r="D169" t="s">
         <v>288</v>
       </c>
@@ -9990,9 +10130,9 @@
       </c>
     </row>
     <row r="170" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="96"/>
-      <c r="B170" s="67"/>
-      <c r="C170" s="71"/>
+      <c r="A170" s="83"/>
+      <c r="B170" s="68"/>
+      <c r="C170" s="69"/>
       <c r="D170" t="s">
         <v>290</v>
       </c>
@@ -10001,11 +10141,11 @@
       </c>
     </row>
     <row r="171" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="96"/>
-      <c r="B171" s="67" t="s">
+      <c r="A171" s="83"/>
+      <c r="B171" s="68" t="s">
         <v>378</v>
       </c>
-      <c r="C171" s="71" t="s">
+      <c r="C171" s="69" t="s">
         <v>379</v>
       </c>
       <c r="D171" t="s">
@@ -10016,9 +10156,9 @@
       </c>
     </row>
     <row r="172" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="96"/>
-      <c r="B172" s="67"/>
-      <c r="C172" s="71"/>
+      <c r="A172" s="83"/>
+      <c r="B172" s="68"/>
+      <c r="C172" s="69"/>
       <c r="D172" t="s">
         <v>288</v>
       </c>
@@ -10027,9 +10167,9 @@
       </c>
     </row>
     <row r="173" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="96"/>
-      <c r="B173" s="67"/>
-      <c r="C173" s="71"/>
+      <c r="A173" s="83"/>
+      <c r="B173" s="68"/>
+      <c r="C173" s="69"/>
       <c r="D173" t="s">
         <v>290</v>
       </c>
@@ -10038,16 +10178,16 @@
       </c>
     </row>
     <row r="174" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="92" t="s">
+      <c r="A174" s="74" t="s">
         <v>381</v>
       </c>
-      <c r="B174" s="67" t="s">
+      <c r="B174" s="68" t="s">
         <v>392</v>
       </c>
-      <c r="C174" s="71" t="s">
+      <c r="C174" s="69" t="s">
         <v>393</v>
       </c>
-      <c r="D174" s="67" t="s">
+      <c r="D174" s="68" t="s">
         <v>382</v>
       </c>
       <c r="E174" t="s">
@@ -10055,19 +10195,19 @@
       </c>
     </row>
     <row r="175" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="92"/>
-      <c r="B175" s="67"/>
-      <c r="C175" s="71"/>
-      <c r="D175" s="67"/>
+      <c r="A175" s="74"/>
+      <c r="B175" s="68"/>
+      <c r="C175" s="69"/>
+      <c r="D175" s="68"/>
       <c r="E175" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A176" s="92"/>
-      <c r="B176" s="67"/>
-      <c r="C176" s="71"/>
-      <c r="D176" s="67" t="s">
+      <c r="A176" s="74"/>
+      <c r="B176" s="68"/>
+      <c r="C176" s="69"/>
+      <c r="D176" s="68" t="s">
         <v>385</v>
       </c>
       <c r="E176" t="s">
@@ -10075,19 +10215,19 @@
       </c>
     </row>
     <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="92"/>
-      <c r="B177" s="67"/>
-      <c r="C177" s="71"/>
-      <c r="D177" s="67"/>
+      <c r="A177" s="74"/>
+      <c r="B177" s="68"/>
+      <c r="C177" s="69"/>
+      <c r="D177" s="68"/>
       <c r="E177" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="92"/>
-      <c r="B178" s="67"/>
-      <c r="C178" s="71"/>
-      <c r="D178" s="67" t="s">
+      <c r="A178" s="74"/>
+      <c r="B178" s="68"/>
+      <c r="C178" s="69"/>
+      <c r="D178" s="68" t="s">
         <v>387</v>
       </c>
       <c r="E178" t="s">
@@ -10095,18 +10235,18 @@
       </c>
     </row>
     <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="92"/>
-      <c r="B179" s="67"/>
-      <c r="C179" s="71"/>
-      <c r="D179" s="67"/>
+      <c r="A179" s="74"/>
+      <c r="B179" s="68"/>
+      <c r="C179" s="69"/>
+      <c r="D179" s="68"/>
       <c r="E179" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A180" s="92"/>
-      <c r="B180" s="67"/>
-      <c r="C180" s="71"/>
+      <c r="A180" s="74"/>
+      <c r="B180" s="68"/>
+      <c r="C180" s="69"/>
       <c r="D180" t="s">
         <v>390</v>
       </c>
@@ -10115,8 +10255,8 @@
       </c>
     </row>
     <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="92"/>
-      <c r="B181" s="67" t="s">
+      <c r="A181" s="74"/>
+      <c r="B181" s="68" t="s">
         <v>394</v>
       </c>
       <c r="D181" t="s">
@@ -10124,25 +10264,25 @@
       </c>
     </row>
     <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A182" s="92"/>
-      <c r="B182" s="67"/>
+      <c r="A182" s="74"/>
+      <c r="B182" s="68"/>
       <c r="D182" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A183" s="92"/>
-      <c r="B183" s="67"/>
+      <c r="A183" s="74"/>
+      <c r="B183" s="68"/>
       <c r="D183" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A184" s="92"/>
-      <c r="B184" s="67" t="s">
+      <c r="A184" s="74"/>
+      <c r="B184" s="68" t="s">
         <v>395</v>
       </c>
-      <c r="C184" s="71" t="s">
+      <c r="C184" s="69" t="s">
         <v>401</v>
       </c>
       <c r="D184" t="s">
@@ -10153,9 +10293,9 @@
       </c>
     </row>
     <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A185" s="92"/>
-      <c r="B185" s="67"/>
-      <c r="C185" s="71"/>
+      <c r="A185" s="74"/>
+      <c r="B185" s="68"/>
+      <c r="C185" s="69"/>
       <c r="D185" t="s">
         <v>398</v>
       </c>
@@ -10164,9 +10304,9 @@
       </c>
     </row>
     <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A186" s="92"/>
-      <c r="B186" s="67"/>
-      <c r="C186" s="71"/>
+      <c r="A186" s="74"/>
+      <c r="B186" s="68"/>
+      <c r="C186" s="69"/>
       <c r="D186" t="s">
         <v>140</v>
       </c>
@@ -10175,11 +10315,11 @@
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A187" s="92"/>
-      <c r="B187" s="67" t="s">
+      <c r="A187" s="74"/>
+      <c r="B187" s="68" t="s">
         <v>402</v>
       </c>
-      <c r="C187" s="71" t="s">
+      <c r="C187" s="69" t="s">
         <v>403</v>
       </c>
       <c r="D187" t="s">
@@ -10190,9 +10330,9 @@
       </c>
     </row>
     <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="92"/>
-      <c r="B188" s="67"/>
-      <c r="C188" s="71"/>
+      <c r="A188" s="74"/>
+      <c r="B188" s="68"/>
+      <c r="C188" s="69"/>
       <c r="D188" t="s">
         <v>398</v>
       </c>
@@ -10201,9 +10341,9 @@
       </c>
     </row>
     <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="92"/>
-      <c r="B189" s="67"/>
-      <c r="C189" s="71"/>
+      <c r="A189" s="74"/>
+      <c r="B189" s="68"/>
+      <c r="C189" s="69"/>
       <c r="D189" t="s">
         <v>248</v>
       </c>
@@ -10212,11 +10352,11 @@
       </c>
     </row>
     <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="92"/>
-      <c r="B190" s="67" t="s">
+      <c r="A190" s="74"/>
+      <c r="B190" s="68" t="s">
         <v>417</v>
       </c>
-      <c r="C190" s="97" t="s">
+      <c r="C190" s="84" t="s">
         <v>418</v>
       </c>
       <c r="D190" t="s">
@@ -10227,9 +10367,9 @@
       </c>
     </row>
     <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A191" s="92"/>
-      <c r="B191" s="67"/>
-      <c r="C191" s="98"/>
+      <c r="A191" s="74"/>
+      <c r="B191" s="68"/>
+      <c r="C191" s="85"/>
       <c r="D191" t="s">
         <v>407</v>
       </c>
@@ -10238,9 +10378,9 @@
       </c>
     </row>
     <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A192" s="92"/>
-      <c r="B192" s="67"/>
-      <c r="C192" s="98"/>
+      <c r="A192" s="74"/>
+      <c r="B192" s="68"/>
+      <c r="C192" s="85"/>
       <c r="D192" t="s">
         <v>409</v>
       </c>
@@ -10249,9 +10389,9 @@
       </c>
     </row>
     <row r="193" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A193" s="92"/>
-      <c r="B193" s="67"/>
-      <c r="C193" s="98"/>
+      <c r="A193" s="74"/>
+      <c r="B193" s="68"/>
+      <c r="C193" s="85"/>
       <c r="D193" t="s">
         <v>411</v>
       </c>
@@ -10260,9 +10400,9 @@
       </c>
     </row>
     <row r="194" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A194" s="92"/>
-      <c r="B194" s="67"/>
-      <c r="C194" s="98"/>
+      <c r="A194" s="74"/>
+      <c r="B194" s="68"/>
+      <c r="C194" s="85"/>
       <c r="D194" t="s">
         <v>413</v>
       </c>
@@ -10271,9 +10411,9 @@
       </c>
     </row>
     <row r="195" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A195" s="92"/>
-      <c r="B195" s="67"/>
-      <c r="C195" s="98"/>
+      <c r="A195" s="74"/>
+      <c r="B195" s="68"/>
+      <c r="C195" s="85"/>
       <c r="D195" t="s">
         <v>415</v>
       </c>
@@ -10282,7 +10422,7 @@
       </c>
     </row>
     <row r="196" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A196" s="92"/>
+      <c r="A196" s="74"/>
       <c r="B196" s="13" t="s">
         <v>419</v>
       </c>
@@ -10294,11 +10434,11 @@
       </c>
     </row>
     <row r="197" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A197" s="92"/>
-      <c r="B197" s="67" t="s">
+      <c r="A197" s="74"/>
+      <c r="B197" s="68" t="s">
         <v>422</v>
       </c>
-      <c r="C197" s="71" t="s">
+      <c r="C197" s="69" t="s">
         <v>423</v>
       </c>
       <c r="D197" t="s">
@@ -10312,9 +10452,9 @@
       </c>
     </row>
     <row r="198" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A198" s="92"/>
-      <c r="B198" s="67"/>
-      <c r="C198" s="71"/>
+      <c r="A198" s="74"/>
+      <c r="B198" s="68"/>
+      <c r="C198" s="69"/>
       <c r="D198" t="s">
         <v>424</v>
       </c>
@@ -10323,9 +10463,9 @@
       </c>
     </row>
     <row r="199" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="92"/>
-      <c r="B199" s="67"/>
-      <c r="C199" s="71"/>
+      <c r="A199" s="74"/>
+      <c r="B199" s="68"/>
+      <c r="C199" s="69"/>
       <c r="D199" t="s">
         <v>425</v>
       </c>
@@ -10334,9 +10474,9 @@
       </c>
     </row>
     <row r="200" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A200" s="92"/>
-      <c r="B200" s="67"/>
-      <c r="C200" s="71"/>
+      <c r="A200" s="74"/>
+      <c r="B200" s="68"/>
+      <c r="C200" s="69"/>
       <c r="D200" t="s">
         <v>426</v>
       </c>
@@ -10345,11 +10485,11 @@
       </c>
     </row>
     <row r="201" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A201" s="92"/>
-      <c r="B201" s="67" t="s">
+      <c r="A201" s="74"/>
+      <c r="B201" s="68" t="s">
         <v>432</v>
       </c>
-      <c r="C201" s="71" t="s">
+      <c r="C201" s="69" t="s">
         <v>433</v>
       </c>
       <c r="D201" t="s">
@@ -10360,9 +10500,9 @@
       </c>
     </row>
     <row r="202" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A202" s="92"/>
-      <c r="B202" s="67"/>
-      <c r="C202" s="71"/>
+      <c r="A202" s="74"/>
+      <c r="B202" s="68"/>
+      <c r="C202" s="69"/>
       <c r="D202" t="s">
         <v>435</v>
       </c>
@@ -10371,9 +10511,9 @@
       </c>
     </row>
     <row r="203" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A203" s="92"/>
-      <c r="B203" s="67"/>
-      <c r="C203" s="71"/>
+      <c r="A203" s="74"/>
+      <c r="B203" s="68"/>
+      <c r="C203" s="69"/>
       <c r="D203" t="s">
         <v>436</v>
       </c>
@@ -10382,9 +10522,9 @@
       </c>
     </row>
     <row r="204" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A204" s="92"/>
-      <c r="B204" s="67"/>
-      <c r="C204" s="71"/>
+      <c r="A204" s="74"/>
+      <c r="B204" s="68"/>
+      <c r="C204" s="69"/>
       <c r="D204" t="s">
         <v>440</v>
       </c>
@@ -10393,9 +10533,9 @@
       </c>
     </row>
     <row r="205" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="92"/>
-      <c r="B205" s="67"/>
-      <c r="C205" s="71"/>
+      <c r="A205" s="74"/>
+      <c r="B205" s="68"/>
+      <c r="C205" s="69"/>
       <c r="D205" t="s">
         <v>442</v>
       </c>
@@ -10404,9 +10544,9 @@
       </c>
     </row>
     <row r="206" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A206" s="92"/>
-      <c r="B206" s="67"/>
-      <c r="C206" s="71"/>
+      <c r="A206" s="74"/>
+      <c r="B206" s="68"/>
+      <c r="C206" s="69"/>
       <c r="D206" t="s">
         <v>444</v>
       </c>
@@ -10415,9 +10555,9 @@
       </c>
     </row>
     <row r="207" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A207" s="92"/>
-      <c r="B207" s="67"/>
-      <c r="C207" s="71"/>
+      <c r="A207" s="74"/>
+      <c r="B207" s="68"/>
+      <c r="C207" s="69"/>
       <c r="D207" t="s">
         <v>446</v>
       </c>
@@ -10426,17 +10566,17 @@
       </c>
     </row>
     <row r="208" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A208" s="92"/>
-      <c r="B208" s="67"/>
-      <c r="C208" s="71"/>
+      <c r="A208" s="74"/>
+      <c r="B208" s="68"/>
+      <c r="C208" s="69"/>
       <c r="D208" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A209" s="92"/>
-      <c r="B209" s="67"/>
-      <c r="C209" s="71"/>
+      <c r="A209" s="74"/>
+      <c r="B209" s="68"/>
+      <c r="C209" s="69"/>
       <c r="D209" t="s">
         <v>290</v>
       </c>
@@ -10445,11 +10585,11 @@
       </c>
     </row>
     <row r="210" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="92"/>
-      <c r="B210" s="67" t="s">
+      <c r="A210" s="74"/>
+      <c r="B210" s="68" t="s">
         <v>449</v>
       </c>
-      <c r="C210" s="71" t="s">
+      <c r="C210" s="69" t="s">
         <v>453</v>
       </c>
       <c r="D210" t="s">
@@ -10460,9 +10600,9 @@
       </c>
     </row>
     <row r="211" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A211" s="92"/>
-      <c r="B211" s="67"/>
-      <c r="C211" s="71"/>
+      <c r="A211" s="74"/>
+      <c r="B211" s="68"/>
+      <c r="C211" s="69"/>
       <c r="D211" t="s">
         <v>142</v>
       </c>
@@ -10471,9 +10611,9 @@
       </c>
     </row>
     <row r="212" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A212" s="92"/>
-      <c r="B212" s="67"/>
-      <c r="C212" s="71"/>
+      <c r="A212" s="74"/>
+      <c r="B212" s="68"/>
+      <c r="C212" s="69"/>
       <c r="D212" t="s">
         <v>451</v>
       </c>
@@ -10482,7 +10622,7 @@
       </c>
     </row>
     <row r="213" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A213" s="92"/>
+      <c r="A213" s="74"/>
       <c r="B213" s="13" t="s">
         <v>455</v>
       </c>
@@ -10497,7 +10637,7 @@
       </c>
     </row>
     <row r="214" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A214" s="85" t="s">
+      <c r="A214" s="101" t="s">
         <v>726</v>
       </c>
       <c r="B214" s="23" t="s">
@@ -10512,11 +10652,11 @@
       </c>
     </row>
     <row r="215" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A215" s="85"/>
-      <c r="B215" s="80" t="s">
+      <c r="A215" s="101"/>
+      <c r="B215" s="77" t="s">
         <v>675</v>
       </c>
-      <c r="C215" s="79" t="s">
+      <c r="C215" s="76" t="s">
         <v>676</v>
       </c>
       <c r="D215" s="23" t="s">
@@ -10527,9 +10667,9 @@
       </c>
     </row>
     <row r="216" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A216" s="85"/>
-      <c r="B216" s="80"/>
-      <c r="C216" s="79"/>
+      <c r="A216" s="101"/>
+      <c r="B216" s="77"/>
+      <c r="C216" s="76"/>
       <c r="D216" s="23" t="s">
         <v>679</v>
       </c>
@@ -10538,9 +10678,9 @@
       </c>
     </row>
     <row r="217" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A217" s="85"/>
-      <c r="B217" s="80"/>
-      <c r="C217" s="79"/>
+      <c r="A217" s="101"/>
+      <c r="B217" s="77"/>
+      <c r="C217" s="76"/>
       <c r="D217" s="23" t="s">
         <v>681</v>
       </c>
@@ -10549,9 +10689,9 @@
       </c>
     </row>
     <row r="218" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A218" s="85"/>
-      <c r="B218" s="80"/>
-      <c r="C218" s="79"/>
+      <c r="A218" s="101"/>
+      <c r="B218" s="77"/>
+      <c r="C218" s="76"/>
       <c r="D218" s="23" t="s">
         <v>682</v>
       </c>
@@ -10560,11 +10700,11 @@
       </c>
     </row>
     <row r="219" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A219" s="85"/>
-      <c r="B219" s="80" t="s">
+      <c r="A219" s="101"/>
+      <c r="B219" s="77" t="s">
         <v>685</v>
       </c>
-      <c r="C219" s="79" t="s">
+      <c r="C219" s="76" t="s">
         <v>686</v>
       </c>
       <c r="D219" s="23" t="s">
@@ -10575,9 +10715,9 @@
       </c>
     </row>
     <row r="220" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A220" s="85"/>
-      <c r="B220" s="80"/>
-      <c r="C220" s="79"/>
+      <c r="A220" s="101"/>
+      <c r="B220" s="77"/>
+      <c r="C220" s="76"/>
       <c r="D220" s="23" t="s">
         <v>687</v>
       </c>
@@ -10586,9 +10726,9 @@
       </c>
     </row>
     <row r="221" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="85"/>
-      <c r="B221" s="80"/>
-      <c r="C221" s="79"/>
+      <c r="A221" s="101"/>
+      <c r="B221" s="77"/>
+      <c r="C221" s="76"/>
       <c r="D221" s="23" t="s">
         <v>688</v>
       </c>
@@ -10597,7 +10737,7 @@
       </c>
     </row>
     <row r="222" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A222" s="85"/>
+      <c r="A222" s="101"/>
       <c r="B222" s="23" t="s">
         <v>693</v>
       </c>
@@ -10608,11 +10748,11 @@
       <c r="E222" s="23"/>
     </row>
     <row r="223" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A223" s="85"/>
-      <c r="B223" s="80" t="s">
+      <c r="A223" s="101"/>
+      <c r="B223" s="77" t="s">
         <v>695</v>
       </c>
-      <c r="C223" s="79" t="s">
+      <c r="C223" s="76" t="s">
         <v>696</v>
       </c>
       <c r="D223" s="23" t="s">
@@ -10623,9 +10763,9 @@
       </c>
     </row>
     <row r="224" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A224" s="85"/>
-      <c r="B224" s="80"/>
-      <c r="C224" s="79"/>
+      <c r="A224" s="101"/>
+      <c r="B224" s="77"/>
+      <c r="C224" s="76"/>
       <c r="D224" s="23" t="s">
         <v>699</v>
       </c>
@@ -10634,9 +10774,9 @@
       </c>
     </row>
     <row r="225" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A225" s="85"/>
-      <c r="B225" s="80"/>
-      <c r="C225" s="79"/>
+      <c r="A225" s="101"/>
+      <c r="B225" s="77"/>
+      <c r="C225" s="76"/>
       <c r="D225" s="23" t="s">
         <v>701</v>
       </c>
@@ -10645,9 +10785,9 @@
       </c>
     </row>
     <row r="226" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A226" s="85"/>
-      <c r="B226" s="80"/>
-      <c r="C226" s="79"/>
+      <c r="A226" s="101"/>
+      <c r="B226" s="77"/>
+      <c r="C226" s="76"/>
       <c r="D226" s="23" t="s">
         <v>703</v>
       </c>
@@ -10656,9 +10796,9 @@
       </c>
     </row>
     <row r="227" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A227" s="85"/>
-      <c r="B227" s="80"/>
-      <c r="C227" s="79"/>
+      <c r="A227" s="101"/>
+      <c r="B227" s="77"/>
+      <c r="C227" s="76"/>
       <c r="D227" s="23" t="s">
         <v>705</v>
       </c>
@@ -10667,11 +10807,11 @@
       </c>
     </row>
     <row r="228" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A228" s="85"/>
-      <c r="B228" s="80" t="s">
+      <c r="A228" s="101"/>
+      <c r="B228" s="77" t="s">
         <v>707</v>
       </c>
-      <c r="C228" s="79" t="s">
+      <c r="C228" s="76" t="s">
         <v>708</v>
       </c>
       <c r="D228" s="23" t="s">
@@ -10682,9 +10822,9 @@
       </c>
     </row>
     <row r="229" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A229" s="85"/>
-      <c r="B229" s="80"/>
-      <c r="C229" s="79"/>
+      <c r="A229" s="101"/>
+      <c r="B229" s="77"/>
+      <c r="C229" s="76"/>
       <c r="D229" s="23" t="s">
         <v>699</v>
       </c>
@@ -10693,9 +10833,9 @@
       </c>
     </row>
     <row r="230" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A230" s="85"/>
-      <c r="B230" s="80"/>
-      <c r="C230" s="79"/>
+      <c r="A230" s="101"/>
+      <c r="B230" s="77"/>
+      <c r="C230" s="76"/>
       <c r="D230" s="23" t="s">
         <v>701</v>
       </c>
@@ -10704,9 +10844,9 @@
       </c>
     </row>
     <row r="231" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A231" s="85"/>
-      <c r="B231" s="80"/>
-      <c r="C231" s="79"/>
+      <c r="A231" s="101"/>
+      <c r="B231" s="77"/>
+      <c r="C231" s="76"/>
       <c r="D231" s="23" t="s">
         <v>710</v>
       </c>
@@ -10715,9 +10855,9 @@
       </c>
     </row>
     <row r="232" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A232" s="85"/>
-      <c r="B232" s="80"/>
-      <c r="C232" s="79"/>
+      <c r="A232" s="101"/>
+      <c r="B232" s="77"/>
+      <c r="C232" s="76"/>
       <c r="D232" s="23" t="s">
         <v>712</v>
       </c>
@@ -10726,11 +10866,11 @@
       </c>
     </row>
     <row r="233" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A233" s="85"/>
-      <c r="B233" s="80" t="s">
+      <c r="A233" s="101"/>
+      <c r="B233" s="77" t="s">
         <v>718</v>
       </c>
-      <c r="C233" s="81" t="s">
+      <c r="C233" s="97" t="s">
         <v>725</v>
       </c>
       <c r="D233" s="23" t="s">
@@ -10741,9 +10881,9 @@
       </c>
     </row>
     <row r="234" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A234" s="85"/>
-      <c r="B234" s="80"/>
-      <c r="C234" s="82"/>
+      <c r="A234" s="101"/>
+      <c r="B234" s="77"/>
+      <c r="C234" s="98"/>
       <c r="D234" s="23" t="s">
         <v>699</v>
       </c>
@@ -10752,9 +10892,9 @@
       </c>
     </row>
     <row r="235" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A235" s="85"/>
-      <c r="B235" s="80"/>
-      <c r="C235" s="82"/>
+      <c r="A235" s="101"/>
+      <c r="B235" s="77"/>
+      <c r="C235" s="98"/>
       <c r="D235" s="23" t="s">
         <v>701</v>
       </c>
@@ -10763,9 +10903,9 @@
       </c>
     </row>
     <row r="236" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A236" s="85"/>
-      <c r="B236" s="80"/>
-      <c r="C236" s="82"/>
+      <c r="A236" s="101"/>
+      <c r="B236" s="77"/>
+      <c r="C236" s="98"/>
       <c r="D236" s="23" t="s">
         <v>703</v>
       </c>
@@ -10774,9 +10914,9 @@
       </c>
     </row>
     <row r="237" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A237" s="85"/>
-      <c r="B237" s="80"/>
-      <c r="C237" s="82"/>
+      <c r="A237" s="101"/>
+      <c r="B237" s="77"/>
+      <c r="C237" s="98"/>
       <c r="D237" s="23" t="s">
         <v>705</v>
       </c>
@@ -10785,9 +10925,9 @@
       </c>
     </row>
     <row r="238" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A238" s="85"/>
-      <c r="B238" s="84"/>
-      <c r="C238" s="83"/>
+      <c r="A238" s="101"/>
+      <c r="B238" s="100"/>
+      <c r="C238" s="99"/>
       <c r="D238" s="28" t="s">
         <v>712</v>
       </c>
@@ -10796,7 +10936,7 @@
       </c>
     </row>
     <row r="239" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A239" s="75" t="s">
+      <c r="A239" s="93" t="s">
         <v>727</v>
       </c>
       <c r="B239" s="29" t="s">
@@ -10811,7 +10951,7 @@
       <c r="E239" s="29"/>
     </row>
     <row r="240" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A240" s="75"/>
+      <c r="A240" s="93"/>
       <c r="B240" s="29" t="s">
         <v>731</v>
       </c>
@@ -10822,7 +10962,7 @@
       <c r="E240" s="29"/>
     </row>
     <row r="241" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A241" s="75"/>
+      <c r="A241" s="93"/>
       <c r="B241" s="29" t="s">
         <v>733</v>
       </c>
@@ -10833,7 +10973,7 @@
       <c r="E241" s="29"/>
     </row>
     <row r="242" spans="1:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="A242" s="75"/>
+      <c r="A242" s="93"/>
       <c r="B242" s="29" t="s">
         <v>735</v>
       </c>
@@ -10844,7 +10984,7 @@
       <c r="E242" s="29"/>
     </row>
     <row r="243" spans="1:5" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A243" s="75"/>
+      <c r="A243" s="93"/>
       <c r="B243" s="29" t="s">
         <v>673</v>
       </c>
@@ -10855,60 +10995,60 @@
       <c r="E243" s="29"/>
     </row>
     <row r="244" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A244" s="75"/>
-      <c r="B244" s="74" t="s">
+      <c r="A244" s="93"/>
+      <c r="B244" s="92" t="s">
         <v>738</v>
       </c>
-      <c r="C244" s="73" t="s">
+      <c r="C244" s="91" t="s">
         <v>739</v>
       </c>
       <c r="D244" s="29" t="s">
         <v>709</v>
       </c>
-      <c r="E244" s="76" t="s">
+      <c r="E244" s="94" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A245" s="75"/>
-      <c r="B245" s="74"/>
-      <c r="C245" s="73"/>
+      <c r="A245" s="93"/>
+      <c r="B245" s="92"/>
+      <c r="C245" s="91"/>
       <c r="D245" s="29" t="s">
         <v>699</v>
       </c>
-      <c r="E245" s="77"/>
+      <c r="E245" s="95"/>
     </row>
     <row r="246" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A246" s="75"/>
-      <c r="B246" s="74"/>
-      <c r="C246" s="73"/>
+      <c r="A246" s="93"/>
+      <c r="B246" s="92"/>
+      <c r="C246" s="91"/>
       <c r="D246" s="29" t="s">
         <v>701</v>
       </c>
-      <c r="E246" s="77"/>
+      <c r="E246" s="95"/>
     </row>
     <row r="247" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A247" s="75"/>
-      <c r="B247" s="74"/>
-      <c r="C247" s="73"/>
+      <c r="A247" s="93"/>
+      <c r="B247" s="92"/>
+      <c r="C247" s="91"/>
       <c r="D247" s="29" t="s">
         <v>710</v>
       </c>
-      <c r="E247" s="77"/>
+      <c r="E247" s="95"/>
     </row>
     <row r="248" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A248" s="75"/>
-      <c r="B248" s="74"/>
-      <c r="C248" s="73"/>
+      <c r="A248" s="93"/>
+      <c r="B248" s="92"/>
+      <c r="C248" s="91"/>
       <c r="D248" s="29" t="s">
         <v>711</v>
       </c>
-      <c r="E248" s="78"/>
+      <c r="E248" s="96"/>
     </row>
     <row r="249" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A249" s="75"/>
-      <c r="B249" s="74"/>
-      <c r="C249" s="73"/>
+      <c r="A249" s="93"/>
+      <c r="B249" s="92"/>
+      <c r="C249" s="91"/>
       <c r="D249" s="29" t="s">
         <v>740</v>
       </c>
@@ -10917,59 +11057,59 @@
       </c>
     </row>
     <row r="250" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A250" s="100" t="s">
-        <v>1195</v>
+      <c r="A250" s="73" t="s">
+        <v>1189</v>
       </c>
       <c r="B250" s="13" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C250" s="18" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A251" s="74"/>
+      <c r="B251" s="13" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C251" s="48" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A252" s="74"/>
+      <c r="B252" s="13" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C252" s="18" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A253" s="74"/>
+      <c r="B253" s="13" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C253" s="18" t="s">
         <v>1183</v>
       </c>
-      <c r="C250" s="18" t="s">
+    </row>
+    <row r="254" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A254" s="74"/>
+      <c r="B254" s="13" t="s">
         <v>1184</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A251" s="92"/>
-      <c r="B251" s="13" t="s">
+      <c r="C254" s="18" t="s">
         <v>1185</v>
       </c>
-      <c r="C251" s="48" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A252" s="92"/>
-      <c r="B252" s="13" t="s">
+    </row>
+    <row r="255" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A255" s="74"/>
+      <c r="B255" s="13" t="s">
         <v>1186</v>
       </c>
-      <c r="C252" s="18" t="s">
+      <c r="C255" s="18" t="s">
         <v>1187</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A253" s="92"/>
-      <c r="B253" s="13" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C253" s="18" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A254" s="92"/>
-      <c r="B254" s="13" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C254" s="18" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A255" s="92"/>
-      <c r="B255" s="13" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C255" s="18" t="s">
-        <v>1193</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10993,7 +11133,9 @@
       <c r="C260" s="18"/>
     </row>
     <row r="261" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A261" s="27"/>
+      <c r="A261" s="12" t="s">
+        <v>1313</v>
+      </c>
       <c r="C261" s="18"/>
     </row>
     <row r="262" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11033,7 +11175,7 @@
       <c r="C270" s="18"/>
     </row>
     <row r="271" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A271" s="99" t="s">
+      <c r="A271" s="86" t="s">
         <v>557</v>
       </c>
       <c r="B271" s="17" t="s">
@@ -11044,7 +11186,7 @@
       </c>
     </row>
     <row r="272" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A272" s="99"/>
+      <c r="A272" s="86"/>
       <c r="B272" s="17" t="s">
         <v>560</v>
       </c>
@@ -11053,7 +11195,7 @@
       </c>
     </row>
     <row r="273" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A273" s="99"/>
+      <c r="A273" s="86"/>
       <c r="B273" s="17" t="s">
         <v>562</v>
       </c>
@@ -11062,7 +11204,7 @@
       </c>
     </row>
     <row r="274" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A274" s="99"/>
+      <c r="A274" s="86"/>
       <c r="B274" s="17" t="s">
         <v>564</v>
       </c>
@@ -11122,7 +11264,7 @@
       <c r="A291" s="12"/>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A292" s="93" t="s">
+      <c r="A292" s="80" t="s">
         <v>320</v>
       </c>
       <c r="B292" s="13" t="s">
@@ -11133,7 +11275,7 @@
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A293" s="94"/>
+      <c r="A293" s="81"/>
       <c r="B293" s="13" t="s">
         <v>306</v>
       </c>
@@ -11142,7 +11284,7 @@
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A294" s="94"/>
+      <c r="A294" s="81"/>
       <c r="B294" s="13" t="s">
         <v>308</v>
       </c>
@@ -11151,7 +11293,7 @@
       </c>
     </row>
     <row r="295" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A295" s="94"/>
+      <c r="A295" s="81"/>
       <c r="B295" s="13" t="s">
         <v>310</v>
       </c>
@@ -11160,7 +11302,7 @@
       </c>
     </row>
     <row r="296" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A296" s="94"/>
+      <c r="A296" s="81"/>
       <c r="B296" s="13" t="s">
         <v>312</v>
       </c>
@@ -11169,7 +11311,7 @@
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A297" s="94"/>
+      <c r="A297" s="81"/>
       <c r="B297" s="13" t="s">
         <v>314</v>
       </c>
@@ -11178,7 +11320,7 @@
       </c>
     </row>
     <row r="298" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A298" s="94"/>
+      <c r="A298" s="81"/>
       <c r="B298" s="13" t="s">
         <v>316</v>
       </c>
@@ -11187,7 +11329,7 @@
       </c>
     </row>
     <row r="299" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A299" s="94"/>
+      <c r="A299" s="81"/>
       <c r="B299" s="13" t="s">
         <v>318</v>
       </c>
@@ -11247,6 +11389,90 @@
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="C244:C249"/>
+    <mergeCell ref="B244:B249"/>
+    <mergeCell ref="A239:A249"/>
+    <mergeCell ref="E244:E248"/>
+    <mergeCell ref="C228:C232"/>
+    <mergeCell ref="B228:B232"/>
+    <mergeCell ref="C233:C238"/>
+    <mergeCell ref="B233:B238"/>
+    <mergeCell ref="A214:A238"/>
+    <mergeCell ref="C219:C221"/>
+    <mergeCell ref="B219:B221"/>
+    <mergeCell ref="C223:C227"/>
+    <mergeCell ref="B223:B227"/>
+    <mergeCell ref="D174:D175"/>
+    <mergeCell ref="D176:D177"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="C174:C180"/>
+    <mergeCell ref="B174:B180"/>
+    <mergeCell ref="C148:C150"/>
+    <mergeCell ref="B151:B154"/>
+    <mergeCell ref="C151:C154"/>
+    <mergeCell ref="B155:B157"/>
+    <mergeCell ref="C155:C157"/>
+    <mergeCell ref="F66:G68"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="B163:B167"/>
+    <mergeCell ref="C163:C167"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="C82:C87"/>
+    <mergeCell ref="B82:B87"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C121:C125"/>
+    <mergeCell ref="B121:B125"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="B50:B60"/>
+    <mergeCell ref="C50:C60"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="A22:A46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="A47:A81"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="A82:A87"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="A88:A96"/>
+    <mergeCell ref="A292:A299"/>
+    <mergeCell ref="C105:C109"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="A99:A109"/>
+    <mergeCell ref="A158:A167"/>
+    <mergeCell ref="B168:B170"/>
+    <mergeCell ref="C168:C170"/>
+    <mergeCell ref="B171:B173"/>
+    <mergeCell ref="C171:C173"/>
+    <mergeCell ref="A168:A173"/>
+    <mergeCell ref="B181:B183"/>
+    <mergeCell ref="C187:C189"/>
+    <mergeCell ref="B187:B189"/>
+    <mergeCell ref="B190:B195"/>
+    <mergeCell ref="C190:C195"/>
+    <mergeCell ref="B197:B200"/>
+    <mergeCell ref="A271:A274"/>
+    <mergeCell ref="A174:A213"/>
     <mergeCell ref="A250:A255"/>
     <mergeCell ref="A110:A157"/>
     <mergeCell ref="B111:B112"/>
@@ -11271,90 +11497,6 @@
     <mergeCell ref="C184:C186"/>
     <mergeCell ref="C215:C218"/>
     <mergeCell ref="B215:B218"/>
-    <mergeCell ref="A82:A87"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="A88:A96"/>
-    <mergeCell ref="A292:A299"/>
-    <mergeCell ref="C105:C109"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="A99:A109"/>
-    <mergeCell ref="A158:A167"/>
-    <mergeCell ref="B168:B170"/>
-    <mergeCell ref="C168:C170"/>
-    <mergeCell ref="B171:B173"/>
-    <mergeCell ref="C171:C173"/>
-    <mergeCell ref="A168:A173"/>
-    <mergeCell ref="B181:B183"/>
-    <mergeCell ref="C187:C189"/>
-    <mergeCell ref="B187:B189"/>
-    <mergeCell ref="B190:B195"/>
-    <mergeCell ref="C190:C195"/>
-    <mergeCell ref="B197:B200"/>
-    <mergeCell ref="A271:A274"/>
-    <mergeCell ref="A174:A213"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A2:A21"/>
-    <mergeCell ref="B50:B60"/>
-    <mergeCell ref="C50:C60"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="A22:A46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="A47:A81"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="C71:C76"/>
-    <mergeCell ref="F66:G68"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="B163:B167"/>
-    <mergeCell ref="C163:C167"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="C82:C87"/>
-    <mergeCell ref="B82:B87"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C121:C125"/>
-    <mergeCell ref="B121:B125"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D174:D175"/>
-    <mergeCell ref="D176:D177"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="C174:C180"/>
-    <mergeCell ref="B174:B180"/>
-    <mergeCell ref="C148:C150"/>
-    <mergeCell ref="B151:B154"/>
-    <mergeCell ref="C151:C154"/>
-    <mergeCell ref="B155:B157"/>
-    <mergeCell ref="C155:C157"/>
-    <mergeCell ref="C244:C249"/>
-    <mergeCell ref="B244:B249"/>
-    <mergeCell ref="A239:A249"/>
-    <mergeCell ref="E244:E248"/>
-    <mergeCell ref="C228:C232"/>
-    <mergeCell ref="B228:B232"/>
-    <mergeCell ref="C233:C238"/>
-    <mergeCell ref="B233:B238"/>
-    <mergeCell ref="A214:A238"/>
-    <mergeCell ref="C219:C221"/>
-    <mergeCell ref="B219:B221"/>
-    <mergeCell ref="C223:C227"/>
-    <mergeCell ref="B223:B227"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -11371,8 +11513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6ACF1E-CD6A-4FCA-B0FB-1587C5613655}">
   <dimension ref="A1:E232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11384,7 +11526,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="81" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="72" t="s">
         <v>761</v>
       </c>
       <c r="B1" s="14" t="s">
@@ -11395,16 +11537,16 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="66"/>
+      <c r="A2" s="72"/>
       <c r="B2" s="14" t="s">
         <v>764</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="72" t="s">
         <v>765</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -11415,7 +11557,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A4" s="66"/>
+      <c r="A4" s="72"/>
       <c r="B4" s="14" t="s">
         <v>767</v>
       </c>
@@ -11424,13 +11566,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="66"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="14" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A6" s="66"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="14" t="s">
         <v>771</v>
       </c>
@@ -11439,7 +11581,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="66"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="14" t="s">
         <v>773</v>
       </c>
@@ -11448,7 +11590,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>775</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -11456,7 +11598,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="81" x14ac:dyDescent="0.15">
-      <c r="A9" s="68"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="14" t="s">
         <v>776</v>
       </c>
@@ -11465,7 +11607,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="68"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="14" t="s">
         <v>778</v>
       </c>
@@ -11474,7 +11616,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="68"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="14" t="s">
         <v>780</v>
       </c>
@@ -11483,7 +11625,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="72" t="s">
         <v>783</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -11497,36 +11639,36 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="66"/>
-      <c r="B13" s="71" t="s">
+      <c r="A13" s="72"/>
+      <c r="B13" s="69" t="s">
         <v>787</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>788</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="69" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="66"/>
-      <c r="B14" s="71"/>
+      <c r="A14" s="72"/>
+      <c r="B14" s="69"/>
       <c r="C14" s="14" t="s">
         <v>789</v>
       </c>
-      <c r="D14" s="71"/>
+      <c r="D14" s="69"/>
     </row>
     <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="66"/>
-      <c r="B15" s="71"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="69"/>
       <c r="C15" s="14" t="s">
         <v>790</v>
       </c>
-      <c r="D15" s="71"/>
+      <c r="D15" s="69"/>
     </row>
     <row r="16" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="66"/>
-      <c r="B16" s="71" t="s">
+      <c r="A16" s="72"/>
+      <c r="B16" s="69" t="s">
         <v>792</v>
       </c>
       <c r="C16" s="14" t="s">
@@ -11534,14 +11676,14 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A17" s="66"/>
-      <c r="B17" s="71"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="14" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="66"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="14" t="s">
         <v>794</v>
       </c>
@@ -11550,7 +11692,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="81" x14ac:dyDescent="0.15">
-      <c r="A19" s="66"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="14" t="s">
         <v>796</v>
       </c>
@@ -11559,16 +11701,16 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A20" s="66"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="14" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A21" s="66"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="14" t="s">
         <v>798</v>
       </c>
@@ -11577,7 +11719,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A22" s="106" t="s">
+      <c r="A22" s="103" t="s">
         <v>800</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -11587,43 +11729,43 @@
         <v>802</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="106"/>
-      <c r="B23" s="68" t="s">
+      <c r="A23" s="103"/>
+      <c r="B23" s="70" t="s">
         <v>803</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>804</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="106"/>
-      <c r="B24" s="68"/>
+      <c r="A24" s="103"/>
+      <c r="B24" s="70"/>
       <c r="C24" s="14" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="106"/>
-      <c r="B25" s="68"/>
+      <c r="A25" s="103"/>
+      <c r="B25" s="70"/>
       <c r="C25" s="14" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="106"/>
+      <c r="A26" s="103"/>
       <c r="B26" s="14" t="s">
         <v>806</v>
       </c>
@@ -11632,7 +11774,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="106"/>
+      <c r="A27" s="103"/>
       <c r="B27" s="14" t="s">
         <v>808</v>
       </c>
@@ -11643,11 +11785,11 @@
         <v>810</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="106"/>
+      <c r="A28" s="103"/>
       <c r="B28" s="14" t="s">
         <v>811</v>
       </c>
@@ -11659,44 +11801,44 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="106"/>
-      <c r="B29" s="68" t="s">
+      <c r="A29" s="103"/>
+      <c r="B29" s="70" t="s">
         <v>814</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>815</v>
       </c>
-      <c r="D29" s="71" t="s">
-        <v>1290</v>
+      <c r="D29" s="69" t="s">
+        <v>1284</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="106"/>
-      <c r="B30" s="68"/>
+      <c r="A30" s="103"/>
+      <c r="B30" s="70"/>
       <c r="C30" s="14" t="s">
         <v>816</v>
       </c>
-      <c r="D30" s="71"/>
+      <c r="D30" s="69"/>
     </row>
     <row r="31" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="106"/>
-      <c r="B31" s="68"/>
+      <c r="A31" s="103"/>
+      <c r="B31" s="70"/>
       <c r="C31" s="14" t="s">
-        <v>1292</v>
-      </c>
-      <c r="D31" s="71" t="s">
-        <v>1293</v>
-      </c>
-      <c r="E31" s="71"/>
+        <v>1286</v>
+      </c>
+      <c r="D31" s="69" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E31" s="69"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="106"/>
+      <c r="A32" s="103"/>
       <c r="B32" s="14" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A33" s="106"/>
+      <c r="A33" s="103"/>
       <c r="B33" s="14" t="s">
         <v>817</v>
       </c>
@@ -11705,7 +11847,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="106"/>
+      <c r="A34" s="103"/>
       <c r="B34" s="14" t="s">
         <v>819</v>
       </c>
@@ -11713,192 +11855,192 @@
         <v>820</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="106" t="s">
+      <c r="A35" s="103" t="s">
+        <v>987</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>989</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>988</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="103"/>
+      <c r="B36" s="31" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="103"/>
+      <c r="B37" s="31" t="s">
+        <v>995</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A38" s="103"/>
+      <c r="B38" s="31" t="s">
+        <v>996</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>990</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="103"/>
+      <c r="B39" s="31" t="s">
+        <v>998</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>991</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="103"/>
+      <c r="B40" s="31" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>992</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="103"/>
+      <c r="B41" s="31" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>993</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>995</v>
-      </c>
-      <c r="C35" s="14" t="s">
+      <c r="D41" s="14" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="103"/>
+      <c r="B42" s="31" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C42" s="14" t="s">
         <v>994</v>
       </c>
-      <c r="D35" s="14" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="106"/>
-      <c r="B36" s="31" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="106"/>
-      <c r="B37" s="31" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A38" s="106"/>
-      <c r="B38" s="31" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>996</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="106"/>
-      <c r="B39" s="31" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>997</v>
-      </c>
-      <c r="D39" s="14" t="s">
+    </row>
+    <row r="43" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="103"/>
+      <c r="B43" s="46" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="103"/>
+      <c r="B44" s="46" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C44" s="14" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="106"/>
-      <c r="B40" s="31" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>998</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="106"/>
-      <c r="B41" s="31" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>999</v>
-      </c>
-      <c r="D41" s="14" t="s">
+      <c r="D44" s="14" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="106"/>
-      <c r="B42" s="31" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="106"/>
-      <c r="B43" s="46" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="106"/>
-      <c r="B44" s="46" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>1013</v>
-      </c>
-    </row>
     <row r="45" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A45" s="106"/>
+      <c r="A45" s="103"/>
       <c r="B45" s="46"/>
       <c r="C45" s="45" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="106"/>
+      <c r="A46" s="103"/>
       <c r="B46" s="46"/>
       <c r="C46" s="14" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="106"/>
+      <c r="A47" s="103"/>
       <c r="B47" s="46"/>
       <c r="C47" s="14" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="106"/>
+      <c r="A48" s="103"/>
       <c r="B48" s="46"/>
       <c r="C48" s="14" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A49" s="106"/>
+      <c r="A49" s="103"/>
       <c r="B49" s="46"/>
       <c r="C49" s="14" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="106"/>
+      <c r="A50" s="103"/>
       <c r="B50" s="46"/>
       <c r="C50" s="45" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11907,7 +12049,7 @@
       <c r="C51" s="45"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="66" t="s">
+      <c r="A52" s="72" t="s">
         <v>821</v>
       </c>
       <c r="B52" s="31" t="s">
@@ -11915,31 +12057,31 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="66"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="31" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="66"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="31" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="66"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="31" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="66"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="31" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="66"/>
+      <c r="A57" s="72"/>
       <c r="B57" s="31" t="s">
         <v>827</v>
       </c>
@@ -11948,73 +12090,73 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="66"/>
+      <c r="A58" s="72"/>
       <c r="B58" s="32" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="66"/>
+      <c r="A59" s="72"/>
       <c r="B59" s="33" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="66"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="33" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="66"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="34" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="66"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="34" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="66"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="34" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="66"/>
+      <c r="A64" s="72"/>
       <c r="B64" s="34" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="66"/>
+      <c r="A65" s="72"/>
       <c r="B65" s="33" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="66"/>
+      <c r="A66" s="72"/>
       <c r="B66" s="35" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="66"/>
+      <c r="A67" s="72"/>
       <c r="B67" s="36" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" s="66"/>
+      <c r="A68" s="72"/>
       <c r="B68" s="36" t="s">
         <v>845</v>
       </c>
@@ -12023,46 +12165,46 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="66"/>
+      <c r="A69" s="72"/>
       <c r="B69" s="35" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" s="66"/>
+      <c r="A70" s="72"/>
       <c r="B70" s="35" t="s">
         <v>847</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" s="66"/>
+      <c r="A71" s="72"/>
       <c r="B71" s="35" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72" s="66"/>
+      <c r="A72" s="72"/>
       <c r="B72" s="35" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A73" s="66"/>
+      <c r="A73" s="72"/>
       <c r="B73" s="35" t="s">
         <v>850</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="66"/>
+      <c r="A74" s="72"/>
       <c r="B74" s="37" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A75" s="66"/>
+      <c r="A75" s="72"/>
       <c r="B75" s="37" t="s">
         <v>853</v>
       </c>
@@ -12070,11 +12212,11 @@
         <v>858</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="66"/>
+      <c r="A76" s="72"/>
       <c r="B76" s="37" t="s">
         <v>854</v>
       </c>
@@ -12082,11 +12224,11 @@
         <v>859</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="66"/>
+      <c r="A77" s="72"/>
       <c r="B77" s="37" t="s">
         <v>855</v>
       </c>
@@ -12094,11 +12236,11 @@
         <v>860</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A78" s="66"/>
+      <c r="A78" s="72"/>
       <c r="B78" s="14" t="s">
         <v>856</v>
       </c>
@@ -12107,118 +12249,118 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A79" s="66"/>
-      <c r="B79" s="68" t="s">
-        <v>1312</v>
+      <c r="A79" s="72"/>
+      <c r="B79" s="70" t="s">
+        <v>1306</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A80" s="66"/>
-      <c r="B80" s="68"/>
+      <c r="A80" s="72"/>
+      <c r="B80" s="70"/>
       <c r="C80" s="14" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A81" s="68" t="s">
-        <v>1067</v>
+      <c r="A81" s="70" t="s">
+        <v>1061</v>
       </c>
       <c r="B81" s="44" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A82" s="70"/>
+      <c r="B82" s="44" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A83" s="70"/>
+      <c r="B83" s="14" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A84" s="70"/>
+      <c r="B84" s="14" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A85" s="70"/>
+      <c r="B85" s="14" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A86" s="70"/>
+      <c r="B86" s="14" t="s">
         <v>1018</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C86" s="14" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A87" s="70"/>
+      <c r="B87" s="14" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C87" s="14" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="68"/>
-      <c r="B82" s="44" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D82" s="14" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88" s="70"/>
+      <c r="B88" s="14" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A83" s="68"/>
-      <c r="B83" s="14" t="s">
+      <c r="C88" s="14" t="s">
         <v>1065</v>
       </c>
-      <c r="C83" s="14" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A84" s="68"/>
-      <c r="B84" s="14" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A85" s="68"/>
-      <c r="B85" s="14" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A86" s="68"/>
-      <c r="B86" s="14" t="s">
+    </row>
+    <row r="89" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A89" s="70"/>
+      <c r="B89" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C89" s="14" t="s">
         <v>1024</v>
       </c>
-      <c r="C86" s="14" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A87" s="68"/>
-      <c r="B87" s="14" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A88" s="68"/>
-      <c r="B88" s="14" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A89" s="68"/>
-      <c r="B89" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C89" s="14" t="s">
-        <v>1030</v>
-      </c>
       <c r="D89" s="14" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A90" s="66" t="s">
+      <c r="A90" s="72" t="s">
         <v>836</v>
       </c>
       <c r="B90" s="14" t="s">
@@ -12229,7 +12371,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="66"/>
+      <c r="A91" s="72"/>
       <c r="B91" s="14" t="s">
         <v>839</v>
       </c>
@@ -12237,20 +12379,20 @@
         <v>840</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A92" s="66"/>
+      <c r="A92" s="72"/>
       <c r="B92" s="14" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A93" s="66"/>
+      <c r="A93" s="72"/>
       <c r="B93" s="14" t="s">
         <v>842</v>
       </c>
@@ -12258,1282 +12400,1294 @@
         <v>841</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="E93" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A94" s="66"/>
+      <c r="A94" s="72"/>
       <c r="B94" s="14" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="C94" s="14" t="s">
         <v>843</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="108" x14ac:dyDescent="0.15">
-      <c r="A95" s="66"/>
+      <c r="A95" s="72"/>
       <c r="B95" s="14" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="D95" s="14" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="189" x14ac:dyDescent="0.15">
+      <c r="A96" s="72"/>
+      <c r="B96" s="14" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="127.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="72"/>
+      <c r="B97" s="70" t="s">
         <v>1286</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="189" x14ac:dyDescent="0.15">
-      <c r="A96" s="66"/>
-      <c r="B96" s="14" t="s">
+      <c r="C97" s="69" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D97" s="69"/>
+    </row>
+    <row r="98" spans="1:5" ht="190.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="72"/>
+      <c r="B98" s="70"/>
+      <c r="C98" s="14" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D98" s="14" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E98" s="20" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A99" s="72"/>
+      <c r="B99" s="70"/>
+      <c r="C99" s="14" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E99" s="20"/>
+    </row>
+    <row r="100" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A100" s="72"/>
+      <c r="B100" s="70"/>
+      <c r="C100" s="14" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D100" s="14" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E100" s="20"/>
+    </row>
+    <row r="101" spans="1:5" ht="162" x14ac:dyDescent="0.15">
+      <c r="A101" s="72"/>
+      <c r="B101" s="70"/>
+      <c r="C101" s="14" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E101" s="20"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A102" s="72"/>
+      <c r="B102" s="70"/>
+      <c r="E102" s="20"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A103" s="72"/>
+      <c r="B103" s="70"/>
+      <c r="E103" s="20"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A104" s="72"/>
+      <c r="B104" s="70"/>
+      <c r="E104" s="20"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A105" s="72"/>
+      <c r="B105" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="72"/>
+      <c r="B106" s="14" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A107" s="70" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E107" s="14"/>
+    </row>
+    <row r="108" spans="1:5" ht="243" x14ac:dyDescent="0.15">
+      <c r="A108" s="70"/>
+      <c r="B108" s="70" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D108" s="14" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="229.5" x14ac:dyDescent="0.15">
+      <c r="A109" s="70"/>
+      <c r="B109" s="70"/>
+      <c r="C109" s="14" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D109" s="14" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A110" s="70"/>
+      <c r="B110" s="70"/>
+      <c r="C110" s="14" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D110" s="14" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A111" s="70"/>
+      <c r="B111" s="14" t="s">
         <v>1263</v>
-      </c>
-      <c r="C96" s="14" t="s">
-        <v>1264</v>
-      </c>
-      <c r="D96" s="14" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="127.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="66"/>
-      <c r="B97" s="68" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C97" s="71" t="s">
-        <v>1300</v>
-      </c>
-      <c r="D97" s="71"/>
-    </row>
-    <row r="98" spans="1:5" ht="190.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="66"/>
-      <c r="B98" s="68"/>
-      <c r="C98" s="14" t="s">
-        <v>1299</v>
-      </c>
-      <c r="D98" s="14" t="s">
-        <v>1302</v>
-      </c>
-      <c r="E98" s="20" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A99" s="66"/>
-      <c r="B99" s="68"/>
-      <c r="C99" s="14" t="s">
-        <v>1304</v>
-      </c>
-      <c r="D99" s="14" t="s">
-        <v>1305</v>
-      </c>
-      <c r="E99" s="20"/>
-    </row>
-    <row r="100" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A100" s="66"/>
-      <c r="B100" s="68"/>
-      <c r="C100" s="14" t="s">
-        <v>1303</v>
-      </c>
-      <c r="D100" s="14" t="s">
-        <v>1306</v>
-      </c>
-      <c r="E100" s="20"/>
-    </row>
-    <row r="101" spans="1:5" ht="162" x14ac:dyDescent="0.15">
-      <c r="A101" s="66"/>
-      <c r="B101" s="68"/>
-      <c r="C101" s="14" t="s">
-        <v>1318</v>
-      </c>
-      <c r="D101" s="14" t="s">
-        <v>1317</v>
-      </c>
-      <c r="E101" s="20"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A102" s="66"/>
-      <c r="B102" s="68"/>
-      <c r="E102" s="20"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A103" s="66"/>
-      <c r="B103" s="68"/>
-      <c r="E103" s="20"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A104" s="66"/>
-      <c r="B104" s="68"/>
-      <c r="E104" s="20"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A105" s="66"/>
-      <c r="B105" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="66"/>
-      <c r="B106" s="14" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C106" s="14" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A107" s="68" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B107" s="14" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C107" s="14" t="s">
-        <v>1270</v>
-      </c>
-      <c r="E107" s="14"/>
-    </row>
-    <row r="108" spans="1:5" ht="243" x14ac:dyDescent="0.15">
-      <c r="A108" s="68"/>
-      <c r="B108" s="68" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C108" s="14" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D108" s="14" t="s">
-        <v>1279</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="229.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="68"/>
-      <c r="B109" s="68"/>
-      <c r="C109" s="14" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D109" s="14" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A110" s="68"/>
-      <c r="B110" s="68"/>
-      <c r="C110" s="14" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D110" s="14" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A111" s="68"/>
-      <c r="B111" s="14" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B116" s="14" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B118" s="14" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B119" s="14" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B120" s="14" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A121" s="102" t="s">
+        <v>927</v>
+      </c>
+      <c r="B121" s="57" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A122" s="102"/>
+      <c r="B122" s="58" t="s">
+        <v>929</v>
+      </c>
+      <c r="C122" s="14" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A121" s="105" t="s">
+    <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="102"/>
+      <c r="B123" s="58" t="s">
+        <v>931</v>
+      </c>
+      <c r="C123" s="14" t="s">
+        <v>932</v>
+      </c>
+      <c r="D123" s="14" t="s">
         <v>933</v>
       </c>
-      <c r="B121" s="57" t="s">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A124" s="102"/>
+      <c r="B124" s="59" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A122" s="105"/>
-      <c r="B122" s="58" t="s">
+      <c r="C124" s="14" t="s">
         <v>935</v>
       </c>
-      <c r="C122" s="14" t="s">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A125" s="102"/>
+      <c r="B125" s="57" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="105"/>
-      <c r="B123" s="58" t="s">
+      <c r="E125" s="14"/>
+    </row>
+    <row r="126" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="102"/>
+      <c r="B126" s="58" t="s">
         <v>937</v>
       </c>
-      <c r="C123" s="14" t="s">
+      <c r="C126" s="14" t="s">
         <v>938</v>
       </c>
-      <c r="D123" s="14" t="s">
+      <c r="D126" s="14" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E126" s="14" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="102"/>
+      <c r="B127" s="58" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C127" s="14" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D127" s="14" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E127" s="14"/>
+    </row>
+    <row r="128" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="102"/>
+      <c r="B128" s="58" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C128" s="14" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D128" s="14" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E128" s="14"/>
+    </row>
+    <row r="129" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="102"/>
+      <c r="B129" s="58" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C129" s="14" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D129" s="14" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="102"/>
+      <c r="B130" s="58" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A124" s="105"/>
-      <c r="B124" s="59" t="s">
+      <c r="C130" s="14" t="s">
         <v>940</v>
       </c>
-      <c r="C124" s="14" t="s">
+      <c r="D130" s="14" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="102"/>
+      <c r="B131" s="49" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A125" s="105"/>
-      <c r="B125" s="57" t="s">
+      <c r="C131" s="56" t="s">
         <v>942</v>
       </c>
-      <c r="E125" s="14"/>
-    </row>
-    <row r="126" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="105"/>
-      <c r="B126" s="58" t="s">
+      <c r="D131" s="41" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="102"/>
+      <c r="B132" s="49" t="s">
         <v>943</v>
       </c>
-      <c r="C126" s="14" t="s">
+      <c r="C132" s="56" t="s">
         <v>944</v>
       </c>
-      <c r="D126" s="14" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E126" s="14" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="105"/>
-      <c r="B127" s="58" t="s">
-        <v>1271</v>
-      </c>
-      <c r="C127" s="14" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D127" s="14" t="s">
-        <v>1310</v>
-      </c>
-      <c r="E127" s="14"/>
-    </row>
-    <row r="128" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="105"/>
-      <c r="B128" s="58" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C128" s="14" t="s">
-        <v>1274</v>
-      </c>
-      <c r="D128" s="14" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E128" s="14"/>
-    </row>
-    <row r="129" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="105"/>
-      <c r="B129" s="58" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C129" s="14" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D129" s="14" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="105"/>
-      <c r="B130" s="58" t="s">
+      <c r="D132" s="41" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="102"/>
+      <c r="B133" s="49" t="s">
+        <v>947</v>
+      </c>
+      <c r="C133" s="56" t="s">
+        <v>948</v>
+      </c>
+      <c r="D133" s="41" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="102"/>
+      <c r="B134" s="49" t="s">
+        <v>961</v>
+      </c>
+      <c r="C134" s="56" t="s">
+        <v>962</v>
+      </c>
+      <c r="D134" s="41"/>
+    </row>
+    <row r="135" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="102"/>
+      <c r="B135" s="58" t="s">
         <v>945</v>
       </c>
-      <c r="C130" s="14" t="s">
+      <c r="C135" s="14" t="s">
         <v>946</v>
       </c>
-      <c r="D130" s="14" t="s">
+      <c r="D135" s="14" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="102"/>
+      <c r="B136" s="58" t="s">
+        <v>949</v>
+      </c>
+      <c r="C136" s="14" t="s">
+        <v>950</v>
+      </c>
+      <c r="D136" s="14" t="s">
+        <v>970</v>
+      </c>
+      <c r="E136" s="20" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="102"/>
+      <c r="B137" s="58" t="s">
+        <v>951</v>
+      </c>
+      <c r="C137" s="14" t="s">
+        <v>952</v>
+      </c>
+      <c r="D137" s="14" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="105"/>
-      <c r="B131" s="49" t="s">
-        <v>947</v>
-      </c>
-      <c r="C131" s="56" t="s">
-        <v>948</v>
-      </c>
-      <c r="D131" s="41" t="s">
+    <row r="138" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="102"/>
+      <c r="B138" s="58" t="s">
+        <v>953</v>
+      </c>
+      <c r="C138" s="14" t="s">
+        <v>954</v>
+      </c>
+      <c r="D138" s="14" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="102"/>
+      <c r="B139" s="58" t="s">
+        <v>957</v>
+      </c>
+      <c r="C139" s="14" t="s">
+        <v>958</v>
+      </c>
+      <c r="D139" s="14" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="105"/>
-      <c r="B132" s="49" t="s">
-        <v>949</v>
-      </c>
-      <c r="C132" s="56" t="s">
-        <v>950</v>
-      </c>
-      <c r="D132" s="41" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="105"/>
-      <c r="B133" s="49" t="s">
-        <v>953</v>
-      </c>
-      <c r="C133" s="56" t="s">
-        <v>954</v>
-      </c>
-      <c r="D133" s="41" t="s">
+    <row r="140" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="102"/>
+      <c r="B140" s="58" t="s">
+        <v>959</v>
+      </c>
+      <c r="C140" s="14" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="102"/>
+      <c r="B141" s="58" t="s">
+        <v>963</v>
+      </c>
+      <c r="C141" s="14" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="102"/>
+      <c r="B142" s="58" t="s">
+        <v>955</v>
+      </c>
+      <c r="C142" s="14" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="102"/>
+      <c r="B143" s="58" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="102"/>
+      <c r="B144" s="59" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="105"/>
-      <c r="B134" s="49" t="s">
-        <v>967</v>
-      </c>
-      <c r="C134" s="56" t="s">
-        <v>968</v>
-      </c>
-      <c r="D134" s="41"/>
-    </row>
-    <row r="135" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="105"/>
-      <c r="B135" s="58" t="s">
-        <v>951</v>
-      </c>
-      <c r="C135" s="14" t="s">
-        <v>952</v>
-      </c>
-      <c r="D135" s="14" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="105"/>
-      <c r="B136" s="58" t="s">
-        <v>955</v>
-      </c>
-      <c r="C136" s="14" t="s">
-        <v>956</v>
-      </c>
-      <c r="D136" s="14" t="s">
-        <v>976</v>
-      </c>
-      <c r="E136" s="20" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="105"/>
-      <c r="B137" s="58" t="s">
-        <v>957</v>
-      </c>
-      <c r="C137" s="14" t="s">
-        <v>958</v>
-      </c>
-      <c r="D137" s="14" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="105"/>
-      <c r="B138" s="58" t="s">
-        <v>959</v>
-      </c>
-      <c r="C138" s="14" t="s">
-        <v>960</v>
-      </c>
-      <c r="D138" s="14" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="105"/>
-      <c r="B139" s="58" t="s">
-        <v>963</v>
-      </c>
-      <c r="C139" s="14" t="s">
-        <v>964</v>
-      </c>
-      <c r="D139" s="14" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="105"/>
-      <c r="B140" s="58" t="s">
-        <v>965</v>
-      </c>
-      <c r="C140" s="14" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="105"/>
-      <c r="B141" s="58" t="s">
-        <v>969</v>
-      </c>
-      <c r="C141" s="14" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="105"/>
-      <c r="B142" s="58" t="s">
-        <v>961</v>
-      </c>
-      <c r="C142" s="14" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="105"/>
-      <c r="B143" s="58" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="105"/>
-      <c r="B144" s="59" t="s">
-        <v>980</v>
-      </c>
-    </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A145" s="103" t="s">
-        <v>1110</v>
+      <c r="A145" s="105" t="s">
+        <v>1104</v>
       </c>
       <c r="B145" s="55" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="103"/>
+      <c r="A146" s="105"/>
       <c r="B146" s="53" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A147" s="103"/>
+      <c r="A147" s="105"/>
       <c r="B147" s="53" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C147" s="14" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A148" s="105"/>
+      <c r="B148" s="53" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C148" s="14" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A149" s="105"/>
+      <c r="B149" s="53" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C149" s="14" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A150" s="105"/>
+      <c r="B150" s="53" t="s">
         <v>1096</v>
       </c>
-      <c r="C147" s="14" t="s">
+      <c r="C150" s="14" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A148" s="103"/>
-      <c r="B148" s="53" t="s">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A151" s="105"/>
+      <c r="B151" s="53" t="s">
         <v>1098</v>
       </c>
-      <c r="C148" s="14" t="s">
+      <c r="C151" s="14" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A149" s="103"/>
-      <c r="B149" s="53" t="s">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A152" s="105"/>
+      <c r="B152" s="53" t="s">
         <v>1100</v>
       </c>
-      <c r="C149" s="14" t="s">
+      <c r="C152" s="14" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A150" s="103"/>
-      <c r="B150" s="53" t="s">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A153" s="105"/>
+      <c r="B153" s="54" t="s">
         <v>1102</v>
       </c>
-      <c r="C150" s="14" t="s">
+      <c r="C153" s="14" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A151" s="103"/>
-      <c r="B151" s="53" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C151" s="14" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A152" s="103"/>
-      <c r="B152" s="53" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C152" s="14" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A153" s="103"/>
-      <c r="B153" s="54" t="s">
+    <row r="154" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="105"/>
+      <c r="B154" s="50" t="s">
         <v>1108</v>
-      </c>
-      <c r="C153" s="14" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="103"/>
-      <c r="B154" s="50" t="s">
-        <v>1114</v>
       </c>
       <c r="C154"/>
       <c r="D154"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A155" s="103"/>
+      <c r="A155" s="105"/>
       <c r="B155" s="51" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D155"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A156" s="105"/>
+      <c r="B156" s="51" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D156"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A157" s="105"/>
+      <c r="B157" s="51" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D157"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A158" s="105"/>
+      <c r="B158" s="51" t="s">
         <v>1116</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C158" t="s">
         <v>1117</v>
       </c>
-      <c r="D155"/>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A156" s="103"/>
-      <c r="B156" s="51" t="s">
+      <c r="D158"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A159" s="105"/>
+      <c r="B159" s="51" t="s">
         <v>1118</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C159" t="s">
         <v>1119</v>
       </c>
-      <c r="D156"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A157" s="103"/>
-      <c r="B157" s="51" t="s">
+      <c r="D159"/>
+    </row>
+    <row r="160" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A160" s="105"/>
+      <c r="B160" s="52" t="s">
         <v>1120</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C160" t="s">
         <v>1121</v>
       </c>
-      <c r="D157"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A158" s="103"/>
-      <c r="B158" s="51" t="s">
+      <c r="D160"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A161" s="105"/>
+      <c r="B161" s="51" t="s">
         <v>1122</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C161" t="s">
         <v>1123</v>
       </c>
-      <c r="D158"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A159" s="103"/>
-      <c r="B159" s="51" t="s">
+      <c r="D161"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A162" s="105"/>
+      <c r="B162" s="51" t="s">
         <v>1124</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C162" t="s">
         <v>1125</v>
       </c>
-      <c r="D159"/>
-    </row>
-    <row r="160" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A160" s="103"/>
-      <c r="B160" s="52" t="s">
+      <c r="D162"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A163" s="105"/>
+      <c r="B163" s="51" t="s">
         <v>1126</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C163" t="s">
         <v>1127</v>
       </c>
-      <c r="D160"/>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161" s="103"/>
-      <c r="B161" s="51" t="s">
+      <c r="D163"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A164" s="105"/>
+      <c r="B164" s="51" t="s">
         <v>1128</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C164" t="s">
         <v>1129</v>
       </c>
-      <c r="D161"/>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A162" s="103"/>
-      <c r="B162" s="51" t="s">
+      <c r="D164"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A165" s="105"/>
+      <c r="B165" s="51" t="s">
         <v>1130</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C165" t="s">
         <v>1131</v>
       </c>
-      <c r="D162"/>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A163" s="103"/>
-      <c r="B163" s="51" t="s">
+      <c r="D165"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A166" s="105"/>
+      <c r="B166" s="53" t="s">
         <v>1132</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C166" s="14" t="s">
         <v>1133</v>
       </c>
-      <c r="D163"/>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A164" s="103"/>
-      <c r="B164" s="51" t="s">
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A167" s="105"/>
+      <c r="B167" s="53" t="s">
         <v>1134</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C167" s="14" t="s">
         <v>1135</v>
       </c>
-      <c r="D164"/>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A165" s="103"/>
-      <c r="B165" s="51" t="s">
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A168" s="105"/>
+      <c r="B168" s="53" t="s">
         <v>1136</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C168" s="14" t="s">
         <v>1137</v>
       </c>
-      <c r="D165"/>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A166" s="103"/>
-      <c r="B166" s="53" t="s">
+      <c r="D168" s="14" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A169" s="105"/>
+      <c r="B169" s="53" t="s">
         <v>1138</v>
       </c>
-      <c r="C166" s="14" t="s">
+      <c r="C169" s="14" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A167" s="103"/>
-      <c r="B167" s="53" t="s">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A170" s="105"/>
+      <c r="B170" s="53" t="s">
         <v>1140</v>
       </c>
-      <c r="C167" s="14" t="s">
+      <c r="C170" s="14" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A168" s="103"/>
-      <c r="B168" s="53" t="s">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A171" s="105"/>
+      <c r="B171" s="53" t="s">
         <v>1142</v>
       </c>
-      <c r="C168" s="14" t="s">
+      <c r="C171" s="14" t="s">
         <v>1143</v>
       </c>
-      <c r="D168" s="14" t="s">
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A172" s="105"/>
+      <c r="B172" s="53" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C172" s="14" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A173" s="105"/>
+      <c r="B173" s="53" t="s">
+        <v>955</v>
+      </c>
+      <c r="C173" s="14" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A174" s="105"/>
+      <c r="B174" s="54" t="s">
+        <v>963</v>
+      </c>
+      <c r="C174" s="14" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A175" s="106" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B175" s="60" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C175" s="14" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A176" s="106"/>
+      <c r="B176" s="61" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C176" s="14" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A177" s="106"/>
+      <c r="B177" s="61" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C177" s="14" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A169" s="103"/>
-      <c r="B169" s="53" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C169" s="14" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A170" s="103"/>
-      <c r="B170" s="53" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C170" s="14" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A171" s="103"/>
-      <c r="B171" s="53" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C171" s="14" t="s">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A178" s="106"/>
+      <c r="B178" s="61" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C178" s="14" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A179" s="106"/>
+      <c r="B179" s="61" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C179" s="14" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A180" s="106"/>
+      <c r="B180" s="61" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C180" s="14" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A181" s="106"/>
+      <c r="B181" s="61" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C181" s="14" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A182" s="106"/>
+      <c r="B182" s="62" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C182" s="14" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A183" s="106"/>
+      <c r="B183" s="60" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C183" s="14" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A184" s="106"/>
+      <c r="B184" s="61" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C184" s="14" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D184" s="14" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A185" s="106"/>
+      <c r="B185" s="61" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C185" s="14" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A186" s="106"/>
+      <c r="B186" s="61" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C186" s="14" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A187" s="106"/>
+      <c r="B187" s="61" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C187" s="14" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A188" s="106"/>
+      <c r="B188" s="61" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C188" s="14" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A189" s="106"/>
+      <c r="B189" s="61" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C189" s="14" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A190" s="104" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B190" s="63" t="s">
         <v>1149</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A172" s="103"/>
-      <c r="B172" s="53" t="s">
+      <c r="C190" s="14" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A191" s="104"/>
+      <c r="B191" s="64" t="s">
         <v>1150</v>
       </c>
-      <c r="C172" s="14" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A173" s="103"/>
-      <c r="B173" s="53" t="s">
-        <v>961</v>
-      </c>
-      <c r="C173" s="14" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A174" s="103"/>
-      <c r="B174" s="54" t="s">
-        <v>969</v>
-      </c>
-      <c r="C174" s="14" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A175" s="104" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B175" s="60" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C175" s="14" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A176" s="104"/>
-      <c r="B176" s="61" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C176" s="14" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A177" s="104"/>
-      <c r="B177" s="61" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C177" s="14" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A178" s="104"/>
-      <c r="B178" s="61" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C178" s="14" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A179" s="104"/>
-      <c r="B179" s="61" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C179" s="14" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A180" s="104"/>
-      <c r="B180" s="61" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C180" s="14" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A181" s="104"/>
-      <c r="B181" s="61" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C181" s="14" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A182" s="104"/>
-      <c r="B182" s="62" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C182" s="14" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A183" s="104"/>
-      <c r="B183" s="60" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C183" s="14" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A184" s="104"/>
-      <c r="B184" s="61" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C184" s="14" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D184" s="14" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A185" s="104"/>
-      <c r="B185" s="61" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C185" s="14" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A186" s="104"/>
-      <c r="B186" s="61" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C186" s="14" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A187" s="104"/>
-      <c r="B187" s="61" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C187" s="14" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A188" s="104"/>
-      <c r="B188" s="61" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C188" s="14" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A189" s="104"/>
-      <c r="B189" s="61" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C189" s="14" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A190" s="102" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B190" s="63" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C190" s="14" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A191" s="102"/>
-      <c r="B191" s="64" t="s">
-        <v>1156</v>
-      </c>
       <c r="C191" s="14" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A192" s="102"/>
+      <c r="A192" s="104"/>
       <c r="B192" s="64" t="s">
         <v>288</v>
       </c>
       <c r="C192" s="14" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A193" s="104"/>
+      <c r="B193" s="65" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C193" s="14" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A194" s="104"/>
+      <c r="B194" s="63" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C194" s="14" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A195" s="104"/>
+      <c r="B195" s="64" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C195" s="14" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A196" s="104"/>
+      <c r="B196" s="64" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C196" s="14" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A197" s="104"/>
+      <c r="B197" s="64" t="s">
         <v>1198</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A193" s="102"/>
-      <c r="B193" s="65" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C193" s="14" t="s">
+      <c r="C197" s="14" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A194" s="102"/>
-      <c r="B194" s="63" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C194" s="14" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A195" s="102"/>
-      <c r="B195" s="64" t="s">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A198" s="104"/>
+      <c r="B198" s="64" t="s">
         <v>1200</v>
       </c>
-      <c r="C195" s="14" t="s">
+      <c r="C198" s="14" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A196" s="102"/>
-      <c r="B196" s="64" t="s">
+    <row r="199" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A199" s="104"/>
+      <c r="B199" s="64" t="s">
         <v>1202</v>
       </c>
-      <c r="C196" s="14" t="s">
+      <c r="C199" s="14" t="s">
         <v>1203</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A197" s="102"/>
-      <c r="B197" s="64" t="s">
+      <c r="D199" s="14" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A200" s="104"/>
+      <c r="B200" s="64" t="s">
         <v>1204</v>
       </c>
-      <c r="C197" s="14" t="s">
+      <c r="C200" s="14" t="s">
         <v>1205</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A198" s="102"/>
-      <c r="B198" s="64" t="s">
+      <c r="D200" s="14" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A201" s="104"/>
+      <c r="B201" s="64" t="s">
+        <v>937</v>
+      </c>
+      <c r="C201" s="14" t="s">
         <v>1206</v>
       </c>
-      <c r="C198" s="14" t="s">
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A202" s="104"/>
+      <c r="B202" s="64" t="s">
         <v>1207</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A199" s="102"/>
-      <c r="B199" s="64" t="s">
+      <c r="C202" s="14" t="s">
         <v>1208</v>
       </c>
-      <c r="C199" s="14" t="s">
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A203" s="104"/>
+      <c r="B203" s="64" t="s">
         <v>1209</v>
       </c>
-      <c r="D199" s="14" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A200" s="102"/>
-      <c r="B200" s="64" t="s">
+      <c r="C203" s="14" t="s">
         <v>1210</v>
       </c>
-      <c r="C200" s="14" t="s">
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A204" s="104"/>
+      <c r="B204" s="64" t="s">
         <v>1211</v>
       </c>
-      <c r="D200" s="14" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A201" s="102"/>
-      <c r="B201" s="64" t="s">
-        <v>943</v>
-      </c>
-      <c r="C201" s="14" t="s">
+      <c r="C204" s="14" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A202" s="102"/>
-      <c r="B202" s="64" t="s">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A205" s="104"/>
+      <c r="B205" s="64" t="s">
         <v>1213</v>
       </c>
-      <c r="C202" s="14" t="s">
+      <c r="C205" s="14" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A203" s="102"/>
-      <c r="B203" s="64" t="s">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A206" s="104"/>
+      <c r="B206" s="64" t="s">
         <v>1215</v>
       </c>
-      <c r="C203" s="14" t="s">
+      <c r="C206" s="14" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A204" s="102"/>
-      <c r="B204" s="64" t="s">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A207" s="104"/>
+      <c r="B207" s="64" t="s">
         <v>1217</v>
       </c>
-      <c r="C204" s="14" t="s">
+      <c r="C207" s="14" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A205" s="102"/>
-      <c r="B205" s="64" t="s">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A208" s="104"/>
+      <c r="B208" s="64" t="s">
         <v>1219</v>
       </c>
-      <c r="C205" s="14" t="s">
+      <c r="C208" s="14" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A206" s="102"/>
-      <c r="B206" s="64" t="s">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A209" s="104"/>
+      <c r="B209" s="64" t="s">
         <v>1221</v>
       </c>
-      <c r="C206" s="14" t="s">
+      <c r="C209" s="14" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A207" s="102"/>
-      <c r="B207" s="64" t="s">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A210" s="104"/>
+      <c r="B210" s="64" t="s">
         <v>1223</v>
       </c>
-      <c r="C207" s="14" t="s">
+      <c r="C210" s="14" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A208" s="102"/>
-      <c r="B208" s="64" t="s">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A211" s="104"/>
+      <c r="B211" s="64" t="s">
         <v>1225</v>
       </c>
-      <c r="C208" s="14" t="s">
+      <c r="C211" s="14" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A209" s="102"/>
-      <c r="B209" s="64" t="s">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A212" s="104"/>
+      <c r="B212" s="64" t="s">
         <v>1227</v>
       </c>
-      <c r="C209" s="14" t="s">
+      <c r="C212" s="14" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A210" s="102"/>
-      <c r="B210" s="64" t="s">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A213" s="104"/>
+      <c r="B213" s="64" t="s">
         <v>1229</v>
       </c>
-      <c r="C210" s="14" t="s">
+      <c r="C213" s="14" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A211" s="102"/>
-      <c r="B211" s="64" t="s">
+    <row r="214" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A214" s="104"/>
+      <c r="B214" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="C214" s="14" t="s">
         <v>1231</v>
       </c>
-      <c r="C211" s="14" t="s">
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A215" s="104"/>
+      <c r="B215" s="64" t="s">
         <v>1232</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A212" s="102"/>
-      <c r="B212" s="64" t="s">
+      <c r="C215" s="14" t="s">
         <v>1233</v>
       </c>
-      <c r="C212" s="14" t="s">
+    </row>
+    <row r="216" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A216" s="104"/>
+      <c r="B216" s="64" t="s">
         <v>1234</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A213" s="102"/>
-      <c r="B213" s="64" t="s">
+      <c r="C216" s="14" t="s">
         <v>1235</v>
       </c>
-      <c r="C213" s="14" t="s">
+      <c r="D216" s="14" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A217" s="104"/>
+      <c r="B217" s="64" t="s">
         <v>1236</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A214" s="102"/>
-      <c r="B214" s="64" t="s">
+      <c r="C217" s="14" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A218" s="104"/>
+      <c r="B218" s="64" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C218" s="14" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A219" s="104"/>
+      <c r="B219" s="64" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C219" s="14" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A220" s="104"/>
+      <c r="B220" s="64" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C220" s="14" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D220" s="14" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A221" s="104"/>
+      <c r="B221" s="64" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C221" s="14" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A222" s="104"/>
+      <c r="B222" s="64" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C222" s="14" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A223" s="104"/>
+      <c r="B223" s="64" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C223" s="14" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A224" s="104"/>
+      <c r="B224" s="64" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C224" s="14" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A225" s="104"/>
+      <c r="B225" s="64" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C225" s="14" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A226" s="104"/>
+      <c r="B226" s="64" t="s">
         <v>955</v>
       </c>
-      <c r="C214" s="14" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A215" s="102"/>
-      <c r="B215" s="64" t="s">
-        <v>1238</v>
-      </c>
-      <c r="C215" s="14" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A216" s="102"/>
-      <c r="B216" s="64" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C216" s="14" t="s">
-        <v>1241</v>
-      </c>
-      <c r="D216" s="14" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A217" s="102"/>
-      <c r="B217" s="64" t="s">
-        <v>1242</v>
-      </c>
-      <c r="C217" s="14" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A218" s="102"/>
-      <c r="B218" s="64" t="s">
-        <v>1244</v>
-      </c>
-      <c r="C218" s="14" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A219" s="102"/>
-      <c r="B219" s="64" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C219" s="14" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A220" s="102"/>
-      <c r="B220" s="64" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C220" s="14" t="s">
-        <v>1249</v>
-      </c>
-      <c r="D220" s="14" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A221" s="102"/>
-      <c r="B221" s="64" t="s">
-        <v>1250</v>
-      </c>
-      <c r="C221" s="14" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A222" s="102"/>
-      <c r="B222" s="64" t="s">
+      <c r="C226" s="14" t="s">
         <v>1252</v>
       </c>
-      <c r="C222" s="14" t="s">
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A227" s="104"/>
+      <c r="B227" s="64" t="s">
+        <v>957</v>
+      </c>
+      <c r="C227" s="14" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A223" s="102"/>
-      <c r="B223" s="64" t="s">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A228" s="104"/>
+      <c r="B228" s="65" t="s">
+        <v>963</v>
+      </c>
+      <c r="C228" s="14" t="s">
         <v>1254</v>
-      </c>
-      <c r="C223" s="14" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A224" s="102"/>
-      <c r="B224" s="64" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C224" s="14" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A225" s="102"/>
-      <c r="B225" s="64" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C225" s="14" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A226" s="102"/>
-      <c r="B226" s="64" t="s">
-        <v>961</v>
-      </c>
-      <c r="C226" s="14" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A227" s="102"/>
-      <c r="B227" s="64" t="s">
-        <v>963</v>
-      </c>
-      <c r="C227" s="14" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A228" s="102"/>
-      <c r="B228" s="65" t="s">
-        <v>969</v>
-      </c>
-      <c r="C228" s="14" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B231" s="14" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B232" s="14" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A190:A228"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A145:A174"/>
+    <mergeCell ref="A175:A189"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="A90:A106"/>
+    <mergeCell ref="B97:B104"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A52:A80"/>
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="A121:A144"/>
     <mergeCell ref="B16:B17"/>
@@ -13547,18 +13701,6 @@
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="C97:D97"/>
     <mergeCell ref="A107:A111"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A190:A228"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A145:A174"/>
-    <mergeCell ref="A175:A189"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="A90:A106"/>
-    <mergeCell ref="B97:B104"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A52:A80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13578,47 +13720,47 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="C2" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="C3" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="C4" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="C5" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="C6" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
     </row>
   </sheetData>
@@ -13630,10 +13772,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44894EB-5D60-4B4C-8937-B0F6309CC0EA}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13643,12 +13785,12 @@
     <col min="3" max="3" width="29.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>878</v>
       </c>
@@ -13656,125 +13798,262 @@
         <v>879</v>
       </c>
       <c r="C3" t="s">
+        <v>890</v>
+      </c>
+      <c r="D3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B5" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>910</v>
+      </c>
+      <c r="C9" t="s">
+        <v>913</v>
+      </c>
+      <c r="G9" s="72" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>911</v>
+      </c>
+      <c r="C10" t="s">
+        <v>912</v>
+      </c>
+      <c r="G10" s="72"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B11" t="s">
+        <v>915</v>
+      </c>
+      <c r="C11" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>914</v>
+      </c>
+      <c r="C12" t="s">
+        <v>916</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E17" s="72" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E18" s="72"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E19" s="72"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E20" s="72"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E21" s="72"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E22" s="72"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E23" s="72"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>895</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C4" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C5" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C6" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C7" t="s">
-        <v>916</v>
-      </c>
-      <c r="D7" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C8" t="s">
-        <v>917</v>
-      </c>
-      <c r="D8" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C9" t="s">
-        <v>920</v>
-      </c>
-      <c r="D9" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C10" t="s">
-        <v>921</v>
-      </c>
-      <c r="D10" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C19" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>905</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="E17:E23"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13793,47 +14072,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
     </row>
   </sheetData>
@@ -13876,7 +14155,7 @@
   <sheetData>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="B4" t="s">
         <v>268</v>
@@ -13889,22 +14168,22 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
     </row>
   </sheetData>
@@ -13926,13 +14205,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="B1" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -13940,39 +14219,39 @@
         <v>81</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="C5" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="C6" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C7" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
     </row>
   </sheetData>

--- a/网站开发.xlsx
+++ b/网站开发.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD8DDB6-2F3F-4C11-BB6F-0D81F4A79115}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4493E033-03AB-41AA-A487-26F97F4E6051}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="html" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="1354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="1356">
   <si>
     <t>&lt;a&gt;&lt;/a&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1414,10 +1414,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CSS 定位属性（Positioning）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>absolute</t>
   </si>
   <si>
@@ -1446,14 +1442,6 @@
   </si>
   <si>
     <t>默认值。没有定位，元素出现在正常的流中（忽略 top, bottom, left, right 或者 z-index 声明）。</t>
-  </si>
-  <si>
-    <t>position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规定元素的定位类型。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>top|left|bottom|right</t>
@@ -3889,16 +3877,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">arrayObject.sort(sortby)
-对数组进行排序，并返回新数组如果调用该方法时没有使用参数，将按字母顺序对数组中的元素进行排序，说得更精确点，是按照字符编码的顺序进行排序。要实现这一点，首先应把数组的元素都转换成字符串（如有必要），以便进行比较。
-如果想按照其他标准进行排序，就需要提供比较函数，该函数要比较两个值，然后返回一个用于说明这两个值的相对顺序的数字。比较函数应该具有两个参数 a 和 b，其返回值如下：
-若 a 小于 b，在排序后的数组中 a 应该出现在 b 之前，则返回一个小于 0 的值。
-若 a 等于 b，则返回 0。
-若 a 大于 b，则返回一个大于 0 的值。
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;script type="text/javascript"&gt;
 function sortNumber(a,b)
 {
@@ -5609,6 +5587,44 @@
   </si>
   <si>
     <t>元素节点--1、属性节点--2、文本节点--3、注释节点--8、document--9、DocumentFragment--11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrayObject.sort(sortby) //sortby为排序规则，必须为函数，若不填sortby，则按ASCII码比较；
+sortby必须是带参数的函数，两个比较对象；
+看返回值 1.当返回值为负数时，前面的数放前面
+         2.为正数，后面的数在前
+         3.0，不动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr=[1,3,2,4,3,2,5,2];
+arr.sort(function(a,b){   //直接调用
+   return a-b;         //升序
+})
+function down(a,b){
+   return b-a;        //降序
+}
+arr.sort(down)      //先命名，后调用
+function random(a,b){
+   return Math.random() - 0.5  //随机排序
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrapper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7037,7 +7053,7 @@
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
@@ -7048,22 +7064,22 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="66" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>566</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>569</v>
-      </c>
       <c r="F2" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="67"/>
       <c r="B3" s="13" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>13</v>
@@ -7072,7 +7088,7 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="67"/>
       <c r="B4" s="13" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>14</v>
@@ -7081,7 +7097,7 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="67"/>
       <c r="B5" s="13" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
@@ -7096,7 +7112,7 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="67"/>
       <c r="B7" s="13" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>12</v>
@@ -7141,13 +7157,13 @@
     </row>
     <row r="11" spans="1:14" ht="322.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="71" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -7156,34 +7172,34 @@
         <v>16</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="71"/>
       <c r="B12" s="13" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="71"/>
       <c r="B13" s="68" t="s">
+        <v>578</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>579</v>
+      </c>
+      <c r="D13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E13" t="s">
         <v>581</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="F13" t="s">
         <v>582</v>
-      </c>
-      <c r="D13" t="s">
-        <v>583</v>
-      </c>
-      <c r="E13" t="s">
-        <v>584</v>
-      </c>
-      <c r="F13" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7191,10 +7207,10 @@
       <c r="B14" s="68"/>
       <c r="C14" s="69"/>
       <c r="D14" s="68" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E14" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7203,7 +7219,7 @@
       <c r="C15" s="69"/>
       <c r="D15" s="68"/>
       <c r="E15" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7212,7 +7228,7 @@
       <c r="C16" s="69"/>
       <c r="D16" s="68"/>
       <c r="E16" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7221,7 +7237,7 @@
       <c r="C17" s="69"/>
       <c r="D17" s="68"/>
       <c r="E17" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7230,13 +7246,13 @@
       <c r="C18" s="69"/>
       <c r="D18" s="68"/>
       <c r="E18" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="71"/>
       <c r="B19" s="13" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>3</v>
@@ -7251,25 +7267,25 @@
     <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="71"/>
       <c r="B20" s="13" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="71"/>
       <c r="B21" s="68" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C21" s="70" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D21" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -7277,11 +7293,11 @@
       <c r="B22" s="68"/>
       <c r="C22" s="70"/>
       <c r="D22" s="6" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -7289,11 +7305,11 @@
       <c r="B23" s="68"/>
       <c r="C23" s="70"/>
       <c r="D23" s="6" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
@@ -7301,11 +7317,11 @@
       <c r="B24" s="68"/>
       <c r="C24" s="70"/>
       <c r="D24" s="38" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="39" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -7329,30 +7345,30 @@
       <c r="B27" s="68"/>
       <c r="C27" s="70"/>
       <c r="D27" s="20" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="72" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B28" s="72" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C28" s="70" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D28" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E28" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F28" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
@@ -7360,13 +7376,13 @@
       <c r="B29" s="72"/>
       <c r="C29" s="70"/>
       <c r="D29" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E29" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F29" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
@@ -7374,13 +7390,13 @@
       <c r="B30" s="72"/>
       <c r="C30" s="70"/>
       <c r="D30" t="s">
+        <v>632</v>
+      </c>
+      <c r="E30" t="s">
+        <v>633</v>
+      </c>
+      <c r="F30" t="s">
         <v>635</v>
-      </c>
-      <c r="E30" t="s">
-        <v>636</v>
-      </c>
-      <c r="F30" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -7388,7 +7404,7 @@
       <c r="B31" s="72"/>
       <c r="C31" s="70"/>
       <c r="E31" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -7396,13 +7412,13 @@
       <c r="B32" s="72"/>
       <c r="C32" s="70"/>
       <c r="D32" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E32" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="F32" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
@@ -7410,13 +7426,13 @@
       <c r="B33" s="72"/>
       <c r="C33" s="70"/>
       <c r="D33" t="s">
+        <v>639</v>
+      </c>
+      <c r="E33" t="s">
+        <v>640</v>
+      </c>
+      <c r="F33" t="s">
         <v>642</v>
-      </c>
-      <c r="E33" t="s">
-        <v>643</v>
-      </c>
-      <c r="F33" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -7424,7 +7440,7 @@
       <c r="B34" s="72"/>
       <c r="C34" s="70"/>
       <c r="E34" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
@@ -7432,13 +7448,13 @@
       <c r="B35" s="72"/>
       <c r="C35" s="70"/>
       <c r="D35" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E35" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F35" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
@@ -7446,13 +7462,13 @@
       <c r="B36" s="72"/>
       <c r="C36" s="70"/>
       <c r="D36" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E36" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F36" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
@@ -7460,13 +7476,13 @@
       <c r="B37" s="72"/>
       <c r="C37" s="70"/>
       <c r="D37" s="68" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E37" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="F37" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
@@ -7475,7 +7491,7 @@
       <c r="C38" s="70"/>
       <c r="D38" s="68"/>
       <c r="E38" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
@@ -7484,7 +7500,7 @@
       <c r="C39" s="70"/>
       <c r="D39" s="68"/>
       <c r="E39" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -7493,7 +7509,7 @@
       <c r="C40" s="70"/>
       <c r="D40" s="68"/>
       <c r="E40" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
@@ -7502,7 +7518,7 @@
       <c r="C41" s="70"/>
       <c r="D41" s="68"/>
       <c r="E41" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
@@ -7510,218 +7526,218 @@
       <c r="B42" s="72"/>
       <c r="C42" s="70"/>
       <c r="D42" s="13" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="72"/>
       <c r="B43" s="13" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D43" s="68" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="E43" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="72"/>
       <c r="D44" s="68"/>
       <c r="E44" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="72"/>
       <c r="D45" s="68"/>
       <c r="E45" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="72"/>
       <c r="D46" s="68"/>
       <c r="E46" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="72"/>
       <c r="D47" s="68"/>
       <c r="E47" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="72"/>
       <c r="D48" s="68"/>
       <c r="E48" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="72"/>
       <c r="D49" s="68"/>
       <c r="E49" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="72"/>
       <c r="D50" s="68"/>
       <c r="E50" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="72"/>
       <c r="D51" s="68"/>
       <c r="E51" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="72"/>
       <c r="D52" s="68"/>
       <c r="E52" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="72"/>
       <c r="D53" s="68"/>
       <c r="E53" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="72"/>
       <c r="D54" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="F54" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="72"/>
       <c r="D55" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="F55" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="72"/>
       <c r="B56" s="13" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="72"/>
       <c r="B57" s="13" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="72"/>
       <c r="B58" s="13" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="72"/>
       <c r="B59" s="13" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="72"/>
       <c r="B60" s="13" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="72"/>
       <c r="B61" s="13" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="72"/>
       <c r="B62" s="13" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="72"/>
       <c r="B63" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="72"/>
       <c r="B64" s="13" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A65" s="72"/>
       <c r="B65" s="13" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A66" s="72"/>
       <c r="B66" s="13" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A67" s="72"/>
       <c r="B67" s="13" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.15">
@@ -7746,7 +7762,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B74" s="13" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>28</v>
@@ -8014,68 +8030,68 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B2" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B4" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>748</v>
+      </c>
+      <c r="B9" t="s">
         <v>751</v>
-      </c>
-      <c r="B9" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B10" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B11" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B12" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
   </sheetData>
@@ -8089,9 +8105,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N310"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B261" sqref="B261"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D205" sqref="D205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8466,7 +8482,7 @@
         <v>94</v>
       </c>
       <c r="G31" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
@@ -9264,16 +9280,16 @@
     <row r="97" spans="1:5" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A97" s="22"/>
       <c r="B97" s="72" t="s">
+        <v>662</v>
+      </c>
+      <c r="C97" s="70" t="s">
         <v>665</v>
       </c>
-      <c r="C97" s="70" t="s">
-        <v>668</v>
-      </c>
       <c r="D97" t="s">
+        <v>663</v>
+      </c>
+      <c r="E97" t="s">
         <v>666</v>
-      </c>
-      <c r="E97" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="31.5" x14ac:dyDescent="0.15">
@@ -9281,10 +9297,10 @@
       <c r="B98" s="72"/>
       <c r="C98" s="70"/>
       <c r="D98" t="s">
+        <v>664</v>
+      </c>
+      <c r="E98" t="s">
         <v>667</v>
-      </c>
-      <c r="E98" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -9419,28 +9435,28 @@
     </row>
     <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="75" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B110" s="13" t="s">
         <v>201</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="75"/>
       <c r="B111" s="68" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C111" s="69" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D111" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E111" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9448,37 +9464,37 @@
       <c r="B112" s="68"/>
       <c r="C112" s="69"/>
       <c r="D112" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E112" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="75"/>
       <c r="B113" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D113" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="75"/>
       <c r="B114" s="68" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C114" s="69" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D114" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E114" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9489,7 +9505,7 @@
         <v>288</v>
       </c>
       <c r="E115" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9500,22 +9516,22 @@
         <v>290</v>
       </c>
       <c r="E116" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="75"/>
       <c r="B117" s="68" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C117" s="69" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D117" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E117" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9523,10 +9539,10 @@
       <c r="B118" s="68"/>
       <c r="C118" s="69"/>
       <c r="D118" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E118" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9534,10 +9550,10 @@
       <c r="B119" s="68"/>
       <c r="C119" s="69"/>
       <c r="D119" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E119" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9545,25 +9561,25 @@
       <c r="B120" s="68"/>
       <c r="C120" s="69"/>
       <c r="D120" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E120" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="75"/>
       <c r="B121" s="68" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C121" s="69" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D121" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="E121" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9571,10 +9587,10 @@
       <c r="B122" s="68"/>
       <c r="C122" s="69"/>
       <c r="D122" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E122" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9582,10 +9598,10 @@
       <c r="B123" s="68"/>
       <c r="C123" s="69"/>
       <c r="D123" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E123" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9593,10 +9609,10 @@
       <c r="B124" s="68"/>
       <c r="C124" s="69"/>
       <c r="D124" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E124" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9604,28 +9620,28 @@
       <c r="B125" s="68"/>
       <c r="C125" s="69"/>
       <c r="D125" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E125" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="75"/>
       <c r="B126" s="68" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C126" s="69" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D126" t="s">
         <v>288</v>
       </c>
       <c r="E126" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F126" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9636,16 +9652,16 @@
         <v>290</v>
       </c>
       <c r="E127" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="75"/>
       <c r="B128" s="68" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C128" s="69" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D128" t="s">
         <v>193</v>
@@ -9690,16 +9706,16 @@
     <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="75"/>
       <c r="B132" s="68" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C132" s="69" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D132" t="s">
         <v>140</v>
       </c>
       <c r="E132" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9707,10 +9723,10 @@
       <c r="B133" s="68"/>
       <c r="C133" s="69"/>
       <c r="D133" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E133" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9718,10 +9734,10 @@
       <c r="B134" s="68"/>
       <c r="C134" s="69"/>
       <c r="D134" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E134" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9729,25 +9745,25 @@
       <c r="B135" s="68"/>
       <c r="C135" s="69"/>
       <c r="D135" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E135" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="75"/>
       <c r="B136" s="68" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C136" s="69" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D136" t="s">
         <v>238</v>
       </c>
       <c r="E136" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9755,10 +9771,10 @@
       <c r="B137" s="68"/>
       <c r="C137" s="69"/>
       <c r="D137" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E137" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9766,10 +9782,10 @@
       <c r="B138" s="68"/>
       <c r="C138" s="69"/>
       <c r="D138" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E138" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9777,10 +9793,10 @@
       <c r="B139" s="68"/>
       <c r="C139" s="69"/>
       <c r="D139" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E139" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9788,94 +9804,94 @@
       <c r="B140" s="68"/>
       <c r="C140" s="69"/>
       <c r="D140" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E140" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="75"/>
       <c r="B141" s="13" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D141" t="s">
         <v>288</v>
       </c>
       <c r="E141" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A142" s="75"/>
       <c r="B142" s="16" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C142" s="19" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A143" s="75"/>
       <c r="B143" s="16" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C143" s="19" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="75"/>
       <c r="B144" s="16" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C144" s="19" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="75"/>
       <c r="B145" s="17" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="75"/>
       <c r="B146" s="17" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="75"/>
       <c r="B147" s="17" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148" s="75"/>
       <c r="B148" s="68" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C148" s="69" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D148" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E148" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9883,10 +9899,10 @@
       <c r="B149" s="68"/>
       <c r="C149" s="69"/>
       <c r="D149" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E149" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9894,25 +9910,25 @@
       <c r="B150" s="68"/>
       <c r="C150" s="69"/>
       <c r="D150" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E150" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="75"/>
       <c r="B151" s="68" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C151" s="69" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D151" t="s">
         <v>238</v>
       </c>
       <c r="E151" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9923,7 +9939,7 @@
         <v>140</v>
       </c>
       <c r="E152" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9931,10 +9947,10 @@
       <c r="B153" s="68"/>
       <c r="C153" s="69"/>
       <c r="D153" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E153" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9942,25 +9958,25 @@
       <c r="B154" s="68"/>
       <c r="C154" s="69"/>
       <c r="D154" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E154" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A155" s="75"/>
       <c r="B155" s="68" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C155" s="69" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D155" t="s">
         <v>238</v>
       </c>
       <c r="E155" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.15">
@@ -9968,10 +9984,10 @@
       <c r="B156" s="68"/>
       <c r="C156" s="69"/>
       <c r="D156" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E156" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.15">
@@ -9979,10 +9995,10 @@
       <c r="B157" s="68"/>
       <c r="C157" s="69"/>
       <c r="D157" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E157" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10178,86 +10194,84 @@
       </c>
     </row>
     <row r="174" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="74" t="s">
-        <v>381</v>
-      </c>
-      <c r="B174" s="68" t="s">
-        <v>392</v>
-      </c>
-      <c r="C174" s="69" t="s">
-        <v>393</v>
-      </c>
-      <c r="D174" s="68" t="s">
-        <v>382</v>
+      <c r="A174" s="74"/>
+      <c r="B174" s="72" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C174" s="70" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D174" t="s">
+        <v>389</v>
       </c>
       <c r="E174" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="74"/>
-      <c r="B175" s="68"/>
-      <c r="C175" s="69"/>
-      <c r="D175" s="68"/>
+      <c r="B175" s="72"/>
+      <c r="C175" s="70"/>
+      <c r="D175" s="68" t="s">
+        <v>386</v>
+      </c>
       <c r="E175" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="74"/>
-      <c r="B176" s="68"/>
-      <c r="C176" s="69"/>
-      <c r="D176" s="68" t="s">
-        <v>385</v>
-      </c>
+      <c r="B176" s="72"/>
+      <c r="C176" s="70"/>
+      <c r="D176" s="68"/>
       <c r="E176" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="74"/>
-      <c r="B177" s="68"/>
-      <c r="C177" s="69"/>
-      <c r="D177" s="68"/>
+      <c r="B177" s="72"/>
+      <c r="C177" s="70"/>
+      <c r="D177" s="68" t="s">
+        <v>381</v>
+      </c>
       <c r="E177" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="74"/>
-      <c r="B178" s="68"/>
-      <c r="C178" s="69"/>
-      <c r="D178" s="68" t="s">
-        <v>387</v>
-      </c>
+      <c r="B178" s="72"/>
+      <c r="C178" s="70"/>
+      <c r="D178" s="68"/>
       <c r="E178" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="74"/>
-      <c r="B179" s="68"/>
-      <c r="C179" s="69"/>
-      <c r="D179" s="68"/>
+      <c r="B179" s="72"/>
+      <c r="C179" s="70"/>
+      <c r="D179" s="68" t="s">
+        <v>384</v>
+      </c>
       <c r="E179" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="74"/>
-      <c r="B180" s="68"/>
-      <c r="C180" s="69"/>
-      <c r="D180" t="s">
-        <v>390</v>
-      </c>
+      <c r="B180" s="72"/>
+      <c r="C180" s="70"/>
+      <c r="D180" s="68"/>
       <c r="E180" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="74"/>
       <c r="B181" s="68" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D181" t="s">
         <v>275</v>
@@ -10280,16 +10294,16 @@
     <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="74"/>
       <c r="B184" s="68" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C184" s="69" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D184" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E184" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10297,10 +10311,10 @@
       <c r="B185" s="68"/>
       <c r="C185" s="69"/>
       <c r="D185" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E185" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10311,22 +10325,22 @@
         <v>140</v>
       </c>
       <c r="E186" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A187" s="74"/>
       <c r="B187" s="68" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C187" s="69" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D187" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E187" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10334,10 +10348,10 @@
       <c r="B188" s="68"/>
       <c r="C188" s="69"/>
       <c r="D188" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E188" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10348,22 +10362,22 @@
         <v>248</v>
       </c>
       <c r="E189" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="74"/>
       <c r="B190" s="68" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C190" s="84" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D190" t="s">
         <v>140</v>
       </c>
       <c r="E190" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10371,10 +10385,10 @@
       <c r="B191" s="68"/>
       <c r="C191" s="85"/>
       <c r="D191" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E191" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10382,10 +10396,10 @@
       <c r="B192" s="68"/>
       <c r="C192" s="85"/>
       <c r="D192" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E192" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10393,10 +10407,10 @@
       <c r="B193" s="68"/>
       <c r="C193" s="85"/>
       <c r="D193" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E193" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10404,10 +10418,10 @@
       <c r="B194" s="68"/>
       <c r="C194" s="85"/>
       <c r="D194" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E194" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10415,40 +10429,40 @@
       <c r="B195" s="68"/>
       <c r="C195" s="85"/>
       <c r="D195" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E195" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="74"/>
       <c r="B196" s="13" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C196" s="14" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="74"/>
       <c r="B197" s="68" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C197" s="69" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D197" t="s">
         <v>89</v>
       </c>
       <c r="E197" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F197" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10456,10 +10470,10 @@
       <c r="B198" s="68"/>
       <c r="C198" s="69"/>
       <c r="D198" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E198" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10467,10 +10481,10 @@
       <c r="B199" s="68"/>
       <c r="C199" s="69"/>
       <c r="D199" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E199" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10478,25 +10492,25 @@
       <c r="B200" s="68"/>
       <c r="C200" s="69"/>
       <c r="D200" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E200" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="74"/>
       <c r="B201" s="68" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C201" s="69" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D201" t="s">
+        <v>431</v>
+      </c>
+      <c r="E201" t="s">
         <v>434</v>
-      </c>
-      <c r="E201" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10504,10 +10518,10 @@
       <c r="B202" s="68"/>
       <c r="C202" s="69"/>
       <c r="D202" t="s">
+        <v>432</v>
+      </c>
+      <c r="E202" t="s">
         <v>435</v>
-      </c>
-      <c r="E202" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10515,10 +10529,10 @@
       <c r="B203" s="68"/>
       <c r="C203" s="69"/>
       <c r="D203" t="s">
+        <v>433</v>
+      </c>
+      <c r="E203" t="s">
         <v>436</v>
-      </c>
-      <c r="E203" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10526,10 +10540,10 @@
       <c r="B204" s="68"/>
       <c r="C204" s="69"/>
       <c r="D204" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E204" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10537,10 +10551,10 @@
       <c r="B205" s="68"/>
       <c r="C205" s="69"/>
       <c r="D205" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E205" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10548,10 +10562,10 @@
       <c r="B206" s="68"/>
       <c r="C206" s="69"/>
       <c r="D206" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E206" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10559,10 +10573,10 @@
       <c r="B207" s="68"/>
       <c r="C207" s="69"/>
       <c r="D207" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E207" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10581,22 +10595,22 @@
         <v>290</v>
       </c>
       <c r="E209" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="74"/>
       <c r="B210" s="68" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C210" s="69" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D210" t="s">
         <v>271</v>
       </c>
       <c r="E210" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10607,7 +10621,7 @@
         <v>142</v>
       </c>
       <c r="E211" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10615,55 +10629,55 @@
       <c r="B212" s="68"/>
       <c r="C212" s="69"/>
       <c r="D212" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E212" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="74"/>
       <c r="B213" s="13" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C213" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="D213" t="s">
+        <v>453</v>
+      </c>
+      <c r="E213" t="s">
         <v>454</v>
-      </c>
-      <c r="D213" t="s">
-        <v>456</v>
-      </c>
-      <c r="E213" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="101" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B214" s="23" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C214" s="24"/>
       <c r="D214" s="23" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E214" s="23" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="101"/>
       <c r="B215" s="77" t="s">
+        <v>672</v>
+      </c>
+      <c r="C215" s="76" t="s">
+        <v>673</v>
+      </c>
+      <c r="D215" s="23" t="s">
+        <v>674</v>
+      </c>
+      <c r="E215" s="23" t="s">
         <v>675</v>
-      </c>
-      <c r="C215" s="76" t="s">
-        <v>676</v>
-      </c>
-      <c r="D215" s="23" t="s">
-        <v>677</v>
-      </c>
-      <c r="E215" s="23" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10671,10 +10685,10 @@
       <c r="B216" s="77"/>
       <c r="C216" s="76"/>
       <c r="D216" s="23" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E216" s="23" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10682,10 +10696,10 @@
       <c r="B217" s="77"/>
       <c r="C217" s="76"/>
       <c r="D217" s="23" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E217" s="23" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10693,25 +10707,25 @@
       <c r="B218" s="77"/>
       <c r="C218" s="76"/>
       <c r="D218" s="23" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="E218" s="23" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="101"/>
       <c r="B219" s="77" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C219" s="76" t="s">
+        <v>683</v>
+      </c>
+      <c r="D219" s="23" t="s">
         <v>686</v>
       </c>
-      <c r="D219" s="23" t="s">
-        <v>689</v>
-      </c>
       <c r="E219" s="23" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10719,10 +10733,10 @@
       <c r="B220" s="77"/>
       <c r="C220" s="76"/>
       <c r="D220" s="23" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="E220" s="23" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10730,19 +10744,19 @@
       <c r="B221" s="77"/>
       <c r="C221" s="76"/>
       <c r="D221" s="23" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E221" s="23" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A222" s="101"/>
       <c r="B222" s="23" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C222" s="25" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D222" s="23"/>
       <c r="E222" s="23"/>
@@ -10750,16 +10764,16 @@
     <row r="223" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="101"/>
       <c r="B223" s="77" t="s">
+        <v>692</v>
+      </c>
+      <c r="C223" s="76" t="s">
+        <v>693</v>
+      </c>
+      <c r="D223" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="E223" s="23" t="s">
         <v>695</v>
-      </c>
-      <c r="C223" s="76" t="s">
-        <v>696</v>
-      </c>
-      <c r="D223" s="23" t="s">
-        <v>697</v>
-      </c>
-      <c r="E223" s="23" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10767,10 +10781,10 @@
       <c r="B224" s="77"/>
       <c r="C224" s="76"/>
       <c r="D224" s="23" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E224" s="23" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10778,10 +10792,10 @@
       <c r="B225" s="77"/>
       <c r="C225" s="76"/>
       <c r="D225" s="23" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E225" s="23" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10789,10 +10803,10 @@
       <c r="B226" s="77"/>
       <c r="C226" s="76"/>
       <c r="D226" s="23" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E226" s="23" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10800,25 +10814,25 @@
       <c r="B227" s="77"/>
       <c r="C227" s="76"/>
       <c r="D227" s="23" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E227" s="23" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="101"/>
       <c r="B228" s="77" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C228" s="76" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D228" s="23" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="E228" s="23" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10826,10 +10840,10 @@
       <c r="B229" s="77"/>
       <c r="C229" s="76"/>
       <c r="D229" s="23" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E229" s="23" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10837,10 +10851,10 @@
       <c r="B230" s="77"/>
       <c r="C230" s="76"/>
       <c r="D230" s="23" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E230" s="23" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10848,10 +10862,10 @@
       <c r="B231" s="77"/>
       <c r="C231" s="76"/>
       <c r="D231" s="23" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E231" s="26" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10859,25 +10873,25 @@
       <c r="B232" s="77"/>
       <c r="C232" s="76"/>
       <c r="D232" s="23" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E232" s="26" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="101"/>
       <c r="B233" s="77" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C233" s="97" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D233" s="23" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="E233" s="23" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10885,10 +10899,10 @@
       <c r="B234" s="77"/>
       <c r="C234" s="98"/>
       <c r="D234" s="23" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E234" s="23" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10896,10 +10910,10 @@
       <c r="B235" s="77"/>
       <c r="C235" s="98"/>
       <c r="D235" s="23" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E235" s="23" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10907,10 +10921,10 @@
       <c r="B236" s="77"/>
       <c r="C236" s="98"/>
       <c r="D236" s="23" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E236" s="23" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10918,10 +10932,10 @@
       <c r="B237" s="77"/>
       <c r="C237" s="98"/>
       <c r="D237" s="23" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E237" s="23" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10929,34 +10943,34 @@
       <c r="B238" s="100"/>
       <c r="C238" s="99"/>
       <c r="D238" s="28" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E238" s="28" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="93" t="s">
+        <v>724</v>
+      </c>
+      <c r="B239" s="29" t="s">
+        <v>725</v>
+      </c>
+      <c r="C239" s="30" t="s">
+        <v>726</v>
+      </c>
+      <c r="D239" s="29" t="s">
         <v>727</v>
-      </c>
-      <c r="B239" s="29" t="s">
-        <v>728</v>
-      </c>
-      <c r="C239" s="30" t="s">
-        <v>729</v>
-      </c>
-      <c r="D239" s="29" t="s">
-        <v>730</v>
       </c>
       <c r="E239" s="29"/>
     </row>
     <row r="240" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="93"/>
       <c r="B240" s="29" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C240" s="30" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D240" s="29"/>
       <c r="E240" s="29"/>
@@ -10964,10 +10978,10 @@
     <row r="241" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="93"/>
       <c r="B241" s="29" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C241" s="30" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D241" s="29"/>
       <c r="E241" s="29"/>
@@ -10975,10 +10989,10 @@
     <row r="242" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A242" s="93"/>
       <c r="B242" s="29" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C242" s="30" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="D242" s="29"/>
       <c r="E242" s="29"/>
@@ -10986,10 +11000,10 @@
     <row r="243" spans="1:5" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A243" s="93"/>
       <c r="B243" s="29" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C243" s="30" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D243" s="29"/>
       <c r="E243" s="29"/>
@@ -10997,16 +11011,16 @@
     <row r="244" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="93"/>
       <c r="B244" s="92" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C244" s="91" t="s">
+        <v>736</v>
+      </c>
+      <c r="D244" s="29" t="s">
+        <v>706</v>
+      </c>
+      <c r="E244" s="94" t="s">
         <v>739</v>
-      </c>
-      <c r="D244" s="29" t="s">
-        <v>709</v>
-      </c>
-      <c r="E244" s="94" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11014,7 +11028,7 @@
       <c r="B245" s="92"/>
       <c r="C245" s="91"/>
       <c r="D245" s="29" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E245" s="95"/>
     </row>
@@ -11023,7 +11037,7 @@
       <c r="B246" s="92"/>
       <c r="C246" s="91"/>
       <c r="D246" s="29" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E246" s="95"/>
     </row>
@@ -11032,7 +11046,7 @@
       <c r="B247" s="92"/>
       <c r="C247" s="91"/>
       <c r="D247" s="29" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E247" s="95"/>
     </row>
@@ -11041,7 +11055,7 @@
       <c r="B248" s="92"/>
       <c r="C248" s="91"/>
       <c r="D248" s="29" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E248" s="96"/>
     </row>
@@ -11050,66 +11064,66 @@
       <c r="B249" s="92"/>
       <c r="C249" s="91"/>
       <c r="D249" s="29" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E249" s="29" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="73" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="B250" s="13" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="C250" s="18" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="74"/>
       <c r="B251" s="13" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="C251" s="48" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="74"/>
       <c r="B252" s="13" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="C252" s="18" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="74"/>
       <c r="B253" s="13" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="C253" s="18" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="74"/>
       <c r="B254" s="13" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="C254" s="18" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="74"/>
       <c r="B255" s="13" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="C255" s="18" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11134,7 +11148,7 @@
     </row>
     <row r="261" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="12" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="C261" s="18"/>
     </row>
@@ -11176,40 +11190,40 @@
     </row>
     <row r="271" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="86" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B271" s="17" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C271" s="19" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="86"/>
       <c r="B272" s="17" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C272" s="19" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="86"/>
       <c r="B273" s="17" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C273" s="19" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="86"/>
       <c r="B274" s="17" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C274" s="19" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11339,52 +11353,52 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B305" s="13" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B306" s="13" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B307" s="13" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B308" s="13" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B309" s="13" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B310" s="13" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
   </sheetData>
@@ -11402,16 +11416,16 @@
     <mergeCell ref="B219:B221"/>
     <mergeCell ref="C223:C227"/>
     <mergeCell ref="B223:B227"/>
-    <mergeCell ref="D174:D175"/>
-    <mergeCell ref="D176:D177"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="C174:C180"/>
-    <mergeCell ref="B174:B180"/>
+    <mergeCell ref="D177:D178"/>
+    <mergeCell ref="D179:D180"/>
+    <mergeCell ref="D175:D176"/>
     <mergeCell ref="C148:C150"/>
     <mergeCell ref="B151:B154"/>
     <mergeCell ref="C151:C154"/>
     <mergeCell ref="B155:B157"/>
     <mergeCell ref="C155:C157"/>
+    <mergeCell ref="B174:B180"/>
+    <mergeCell ref="C174:C180"/>
     <mergeCell ref="F66:G68"/>
     <mergeCell ref="B66:B68"/>
     <mergeCell ref="C66:C68"/>
@@ -11513,8 +11527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6ACF1E-CD6A-4FCA-B0FB-1587C5613655}">
   <dimension ref="A1:E232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127"/>
+    <sheetView topLeftCell="A199" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D216" sqref="D216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11527,134 +11541,134 @@
   <sheetData>
     <row r="1" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="A1" s="72" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="72"/>
       <c r="B2" s="14" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="72" t="s">
+        <v>762</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>763</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>765</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>766</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A4" s="72"/>
       <c r="B4" s="14" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="72"/>
       <c r="B5" s="14" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A6" s="72"/>
       <c r="B6" s="14" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A7" s="72"/>
       <c r="B7" s="14" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="70" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="A9" s="70"/>
       <c r="B9" s="14" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A10" s="70"/>
       <c r="B10" s="14" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="70"/>
       <c r="B11" s="14" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A12" s="72" t="s">
+        <v>780</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>781</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>783</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>784</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>786</v>
-      </c>
       <c r="D12" s="14" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13" s="72"/>
       <c r="B13" s="69" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C13" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="D13" s="69" t="s">
         <v>788</v>
-      </c>
-      <c r="D13" s="69" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A14" s="72"/>
       <c r="B14" s="69"/>
       <c r="C14" s="14" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D14" s="69"/>
     </row>
@@ -11662,161 +11676,161 @@
       <c r="A15" s="72"/>
       <c r="B15" s="69"/>
       <c r="C15" s="14" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D15" s="69"/>
     </row>
     <row r="16" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" s="72"/>
       <c r="B16" s="69" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A17" s="72"/>
       <c r="B17" s="69"/>
       <c r="C17" s="14" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A18" s="72"/>
       <c r="B18" s="14" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A19" s="72"/>
       <c r="B19" s="14" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A20" s="72"/>
       <c r="B20" s="14" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A21" s="72"/>
       <c r="B21" s="14" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A22" s="103" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A23" s="103"/>
       <c r="B23" s="70" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A24" s="103"/>
       <c r="B24" s="70"/>
       <c r="C24" s="14" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="103"/>
       <c r="B25" s="70"/>
       <c r="C25" s="14" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A26" s="103"/>
       <c r="B26" s="14" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A27" s="103"/>
       <c r="B27" s="14" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A28" s="103"/>
       <c r="B28" s="14" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A29" s="103"/>
       <c r="B29" s="70" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="D29" s="69" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="103"/>
       <c r="B30" s="70"/>
       <c r="C30" s="14" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D30" s="69"/>
     </row>
@@ -11824,223 +11838,223 @@
       <c r="A31" s="103"/>
       <c r="B31" s="70"/>
       <c r="C31" s="14" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="D31" s="69" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="E31" s="69"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="103"/>
       <c r="B32" s="14" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="103"/>
       <c r="B33" s="14" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A34" s="103"/>
       <c r="B34" s="14" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="103" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="103"/>
       <c r="B36" s="31" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A37" s="103"/>
       <c r="B37" s="31" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A38" s="103"/>
       <c r="B38" s="31" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="103"/>
       <c r="B39" s="31" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A40" s="103"/>
       <c r="B40" s="31" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="103"/>
       <c r="B41" s="31" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="103"/>
       <c r="B42" s="31" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="103"/>
       <c r="B43" s="46" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="103"/>
       <c r="B44" s="46" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A45" s="103"/>
       <c r="B45" s="46"/>
       <c r="C45" s="45" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="103"/>
       <c r="B46" s="46"/>
       <c r="C46" s="14" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="103"/>
       <c r="B47" s="46"/>
       <c r="C47" s="14" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="103"/>
       <c r="B48" s="46"/>
       <c r="C48" s="14" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A49" s="103"/>
       <c r="B49" s="46"/>
       <c r="C49" s="14" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="103"/>
       <c r="B50" s="46"/>
       <c r="C50" s="45" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -12050,405 +12064,405 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="72" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="72"/>
       <c r="B53" s="31" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="72"/>
       <c r="B54" s="31" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="72"/>
       <c r="B55" s="31" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="72"/>
       <c r="B56" s="31" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="72"/>
       <c r="B57" s="31" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="72"/>
       <c r="B58" s="32" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="72"/>
       <c r="B59" s="33" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="72"/>
       <c r="B60" s="33" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="72"/>
       <c r="B61" s="34" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="72"/>
       <c r="B62" s="34" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="72"/>
       <c r="B63" s="34" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="72"/>
       <c r="B64" s="34" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="72"/>
       <c r="B65" s="33" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="72"/>
       <c r="B66" s="35" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="72"/>
       <c r="B67" s="36" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="72"/>
       <c r="B68" s="36" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="72"/>
       <c r="B69" s="35" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="72"/>
       <c r="B70" s="35" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="72"/>
       <c r="B71" s="35" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="72"/>
       <c r="B72" s="35" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A73" s="72"/>
       <c r="B73" s="35" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="72"/>
       <c r="B74" s="37" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A75" s="72"/>
       <c r="B75" s="37" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="72"/>
       <c r="B76" s="37" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="72"/>
       <c r="B77" s="37" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A78" s="72"/>
       <c r="B78" s="14" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A79" s="72"/>
       <c r="B79" s="70" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A80" s="72"/>
       <c r="B80" s="70"/>
       <c r="C80" s="14" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A81" s="70" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="B81" s="44" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A82" s="70"/>
       <c r="B82" s="44" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A83" s="70"/>
       <c r="B83" s="14" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A84" s="70"/>
       <c r="B84" s="14" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A85" s="70"/>
       <c r="B85" s="14" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A86" s="70"/>
       <c r="B86" s="14" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="70"/>
       <c r="B87" s="14" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="70"/>
       <c r="B88" s="14" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A89" s="70"/>
       <c r="B89" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A90" s="72" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A91" s="72"/>
       <c r="B91" s="14" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A92" s="72"/>
       <c r="B92" s="14" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A93" s="72"/>
       <c r="B93" s="14" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="E93" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A94" s="72"/>
       <c r="B94" s="14" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A95" s="72"/>
       <c r="B95" s="14" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="189" x14ac:dyDescent="0.15">
       <c r="A96" s="72"/>
       <c r="B96" s="14" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="127.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="72"/>
       <c r="B97" s="70" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="C97" s="69" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="D97" s="69"/>
     </row>
@@ -12456,23 +12470,23 @@
       <c r="A98" s="72"/>
       <c r="B98" s="70"/>
       <c r="C98" s="14" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="E98" s="20" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A99" s="72"/>
       <c r="B99" s="70"/>
       <c r="C99" s="14" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="E99" s="20"/>
     </row>
@@ -12480,10 +12494,10 @@
       <c r="A100" s="72"/>
       <c r="B100" s="70"/>
       <c r="C100" s="14" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="E100" s="20"/>
     </row>
@@ -12491,10 +12505,10 @@
       <c r="A101" s="72"/>
       <c r="B101" s="70"/>
       <c r="C101" s="14" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="E101" s="20"/>
     </row>
@@ -12516,446 +12530,449 @@
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" s="72"/>
       <c r="B105" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="72"/>
       <c r="B106" s="14" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" s="70" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C107" s="14" t="s">
         <v>1260</v>
-      </c>
-      <c r="B107" s="14" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C107" s="14" t="s">
-        <v>1264</v>
       </c>
       <c r="E107" s="14"/>
     </row>
     <row r="108" spans="1:5" ht="243" x14ac:dyDescent="0.15">
       <c r="A108" s="70"/>
       <c r="B108" s="70" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="229.5" x14ac:dyDescent="0.15">
       <c r="A109" s="70"/>
       <c r="B109" s="70"/>
       <c r="C109" s="14" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A110" s="70"/>
       <c r="B110" s="70"/>
       <c r="C110" s="14" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="D110" s="14" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" s="70"/>
       <c r="B111" s="14" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B116" s="14" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B118" s="14" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B119" s="14" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B120" s="14" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A121" s="102" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B121" s="57" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A122" s="102"/>
       <c r="B122" s="58" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="102"/>
       <c r="B123" s="58" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A124" s="102"/>
       <c r="B124" s="59" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A125" s="102"/>
       <c r="B125" s="57" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="E125" s="14"/>
     </row>
     <row r="126" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="102"/>
       <c r="B126" s="58" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="D126" s="14" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="102"/>
       <c r="B127" s="58" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="E127" s="14"/>
     </row>
     <row r="128" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="102"/>
       <c r="B128" s="58" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C128" s="14" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D128" s="14" t="s">
         <v>1267</v>
-      </c>
-      <c r="C128" s="14" t="s">
-        <v>1268</v>
-      </c>
-      <c r="D128" s="14" t="s">
-        <v>1271</v>
       </c>
       <c r="E128" s="14"/>
     </row>
     <row r="129" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="102"/>
       <c r="B129" s="58" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="102"/>
       <c r="B130" s="58" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="D130" s="14" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="102"/>
       <c r="B131" s="49" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="C131" s="56" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="D131" s="41" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="102"/>
       <c r="B132" s="49" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C132" s="56" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="D132" s="41" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="102"/>
       <c r="B133" s="49" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C133" s="56" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="D133" s="41" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="102"/>
       <c r="B134" s="49" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C134" s="56" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="D134" s="41"/>
     </row>
     <row r="135" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="102"/>
       <c r="B135" s="58" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="102"/>
       <c r="B136" s="58" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="E136" s="20" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="102"/>
       <c r="B137" s="58" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>971</v>
+        <v>1350</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>1351</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="102"/>
       <c r="B138" s="58" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="102"/>
       <c r="B139" s="58" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="102"/>
       <c r="B140" s="58" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="102"/>
       <c r="B141" s="58" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="102"/>
       <c r="B142" s="58" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="102"/>
       <c r="B143" s="58" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="102"/>
       <c r="B144" s="59" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" s="105" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="B145" s="55" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="105"/>
       <c r="B146" s="53" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" s="105"/>
       <c r="B147" s="53" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" s="105"/>
       <c r="B148" s="53" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" s="105"/>
       <c r="B149" s="53" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" s="105"/>
       <c r="B150" s="53" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" s="105"/>
       <c r="B151" s="53" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" s="105"/>
       <c r="B152" s="53" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" s="105"/>
       <c r="B153" s="54" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="105"/>
       <c r="B154" s="50" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="C154"/>
       <c r="D154"/>
@@ -12963,355 +12980,355 @@
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" s="105"/>
       <c r="B155" s="51" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="C155" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="D155"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" s="105"/>
       <c r="B156" s="51" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="C156" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="D156"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" s="105"/>
       <c r="B157" s="51" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="C157" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="D157"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" s="105"/>
       <c r="B158" s="51" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="C158" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="D158"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" s="105"/>
       <c r="B159" s="51" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="C159" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="D159"/>
     </row>
     <row r="160" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A160" s="105"/>
       <c r="B160" s="52" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="C160" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="D160"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" s="105"/>
       <c r="B161" s="51" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="C161" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="D161"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" s="105"/>
       <c r="B162" s="51" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="C162" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="D162"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" s="105"/>
       <c r="B163" s="51" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="C163" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="D163"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" s="105"/>
       <c r="B164" s="51" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="C164" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="D164"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" s="105"/>
       <c r="B165" s="51" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="C165" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="D165"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" s="105"/>
       <c r="B166" s="53" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C166" s="14" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" s="105"/>
       <c r="B167" s="53" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" s="105"/>
       <c r="B168" s="53" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="D168" s="14" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" s="105"/>
       <c r="B169" s="53" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" s="105"/>
       <c r="B170" s="53" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171" s="105"/>
       <c r="B171" s="53" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C171" s="14" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172" s="105"/>
       <c r="B172" s="53" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" s="105"/>
       <c r="B173" s="53" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" s="105"/>
       <c r="B174" s="54" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" s="106" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="B175" s="60" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" s="106"/>
       <c r="B176" s="61" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177" s="106"/>
       <c r="B177" s="61" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="C177" s="14" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178" s="106"/>
       <c r="B178" s="61" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179" s="106"/>
       <c r="B179" s="61" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180" s="106"/>
       <c r="B180" s="61" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181" s="106"/>
       <c r="B181" s="61" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="C181" s="14" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182" s="106"/>
       <c r="B182" s="62" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="C182" s="14" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A183" s="106"/>
       <c r="B183" s="60" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="C183" s="14" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184" s="106"/>
       <c r="B184" s="61" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="C184" s="14" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="D184" s="14" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185" s="106"/>
       <c r="B185" s="61" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="C185" s="14" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A186" s="106"/>
       <c r="B186" s="61" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="C186" s="14" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A187" s="106"/>
       <c r="B187" s="61" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="C187" s="14" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A188" s="106"/>
       <c r="B188" s="61" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="C188" s="14" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A189" s="106"/>
       <c r="B189" s="61" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="C189" s="14" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A190" s="104" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="B190" s="63" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C190" s="14" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A191" s="104"/>
       <c r="B191" s="64" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="C191" s="14" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.15">
@@ -13320,358 +13337,358 @@
         <v>288</v>
       </c>
       <c r="C192" s="14" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193" s="104"/>
       <c r="B193" s="65" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="C193" s="14" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194" s="104"/>
       <c r="B194" s="63" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="C194" s="14" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195" s="104"/>
       <c r="B195" s="64" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="C195" s="14" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196" s="104"/>
       <c r="B196" s="64" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="C196" s="14" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197" s="104"/>
       <c r="B197" s="64" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="C197" s="14" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198" s="104"/>
       <c r="B198" s="64" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="C198" s="14" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A199" s="104"/>
       <c r="B199" s="64" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="C199" s="14" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="D199" s="14" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A200" s="104"/>
       <c r="B200" s="64" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="C200" s="14" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="D200" s="14" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201" s="104"/>
       <c r="B201" s="64" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C201" s="14" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202" s="104"/>
       <c r="B202" s="64" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="C202" s="14" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203" s="104"/>
       <c r="B203" s="64" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="C203" s="14" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204" s="104"/>
       <c r="B204" s="64" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="C204" s="14" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205" s="104"/>
       <c r="B205" s="64" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="C205" s="14" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206" s="104"/>
       <c r="B206" s="64" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="C206" s="14" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A207" s="104"/>
       <c r="B207" s="64" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="C207" s="14" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A208" s="104"/>
       <c r="B208" s="64" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="C208" s="14" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A209" s="104"/>
       <c r="B209" s="64" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="C209" s="14" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A210" s="104"/>
       <c r="B210" s="64" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="C210" s="14" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A211" s="104"/>
       <c r="B211" s="64" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="C211" s="14" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A212" s="104"/>
       <c r="B212" s="64" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="C212" s="14" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A213" s="104"/>
       <c r="B213" s="64" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="C213" s="14" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A214" s="104"/>
       <c r="B214" s="64" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C214" s="14" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A215" s="104"/>
       <c r="B215" s="64" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="C215" s="14" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="104"/>
       <c r="B216" s="64" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="C216" s="14" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="D216" s="14" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A217" s="104"/>
       <c r="B217" s="64" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="C217" s="14" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A218" s="104"/>
       <c r="B218" s="64" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="C218" s="14" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A219" s="104"/>
       <c r="B219" s="64" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="C219" s="14" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A220" s="104"/>
       <c r="B220" s="64" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="C220" s="14" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="D220" s="14" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A221" s="104"/>
       <c r="B221" s="64" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="C221" s="14" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A222" s="104"/>
       <c r="B222" s="64" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="C222" s="14" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A223" s="104"/>
       <c r="B223" s="64" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="C223" s="14" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A224" s="104"/>
       <c r="B224" s="64" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="C224" s="14" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A225" s="104"/>
       <c r="B225" s="64" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="C225" s="14" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A226" s="104"/>
       <c r="B226" s="64" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="C226" s="14" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A227" s="104"/>
       <c r="B227" s="64" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="C227" s="14" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A228" s="104"/>
       <c r="B228" s="65" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C228" s="14" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B231" s="14" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B232" s="14" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
     </row>
   </sheetData>
@@ -13720,47 +13737,47 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="C2" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="C3" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="C4" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="C5" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="C6" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
     </row>
   </sheetData>
@@ -13787,266 +13804,266 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="B3" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="C3" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="D3" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="B4" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="B5" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="C6" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="C8" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
+        <v>907</v>
+      </c>
+      <c r="C9" t="s">
         <v>910</v>
       </c>
-      <c r="C9" t="s">
-        <v>913</v>
-      </c>
       <c r="G9" s="72" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C10" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G10" s="72"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="B11" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="C11" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C12" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="E12" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C13" t="s">
         <v>1323</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C14" t="s">
         <v>1324</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1328</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C15" t="s">
         <v>1325</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1329</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C16" t="s">
         <v>1326</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1330</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="B17" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="C17" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="E17" s="72" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="C18" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="E18" s="72"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="C19" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="E19" s="72"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="E20" s="72"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="E21" s="72"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="E22" s="72"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="E23" s="72"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B24" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C24" t="s">
         <v>1344</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1348</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C25" t="s">
         <v>1345</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="C26" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="E26" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="C27" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
   </sheetData>
@@ -14072,47 +14089,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
   </sheetData>
@@ -14155,7 +14172,7 @@
   <sheetData>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="B4" t="s">
         <v>268</v>
@@ -14168,22 +14185,22 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
   </sheetData>
@@ -14195,23 +14212,23 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25966F74-240A-4061-BFAD-6943FE6AD218}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="B1" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -14219,39 +14236,47 @@
         <v>81</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="C5" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="C6" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="C7" t="s">
-        <v>1028</v>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1353</v>
       </c>
     </row>
   </sheetData>

--- a/网站开发.xlsx
+++ b/网站开发.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E391B6D-B400-4F73-A496-A157BC3D160B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BD20D9-4994-4984-857B-023BE4C2570D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="html" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="1387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="1389">
   <si>
     <t>&lt;a&gt;&lt;/a&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5843,6 +5843,15 @@
   </si>
   <si>
     <t>清空浮动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渐变效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linear-gradient
+radial-gradient</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6256,7 +6265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6470,10 +6479,28 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6484,35 +6511,68 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6535,64 +6595,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -6603,6 +6609,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6858,13 +6870,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>563096</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>204</xdr:row>
       <xdr:rowOff>108678</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6902,13 +6914,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>227</xdr:row>
+      <xdr:row>228</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>557893</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:row>232</xdr:row>
       <xdr:rowOff>28713</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7166,13 +7178,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>18705</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>18957</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7532,8 +7544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B21" sqref="B21:B22"/>
     </sheetView>
   </sheetViews>
@@ -7567,7 +7579,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="93" t="s">
         <v>517</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -7581,7 +7593,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="88"/>
+      <c r="A3" s="94"/>
       <c r="B3" s="13" t="s">
         <v>512</v>
       </c>
@@ -7599,7 +7611,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="88"/>
+      <c r="A4" s="94"/>
       <c r="B4" s="65" t="s">
         <v>513</v>
       </c>
@@ -7608,13 +7620,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="88"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="65" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="88"/>
+      <c r="A6" s="94"/>
       <c r="B6" s="13" t="s">
         <v>45</v>
       </c>
@@ -7623,7 +7635,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="95" t="s">
         <v>541</v>
       </c>
       <c r="B7" s="65" t="s">
@@ -7634,11 +7646,11 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="91"/>
-      <c r="B8" s="85" t="s">
+      <c r="A8" s="95"/>
+      <c r="B8" s="87" t="s">
         <v>519</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="86" t="s">
         <v>520</v>
       </c>
       <c r="D8" t="s">
@@ -7655,9 +7667,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="91"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="84"/>
+      <c r="A9" s="95"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="86"/>
       <c r="D9" t="s">
         <v>1290</v>
       </c>
@@ -7670,9 +7682,9 @@
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="91"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="84"/>
+      <c r="A10" s="95"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="86"/>
       <c r="D10" t="s">
         <v>1291</v>
       </c>
@@ -7685,9 +7697,9 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="91"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="84"/>
+      <c r="A11" s="95"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="86"/>
       <c r="D11" t="s">
         <v>1292</v>
       </c>
@@ -7700,9 +7712,9 @@
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="91"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="84"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="86"/>
       <c r="D12" t="s">
         <v>1293</v>
       </c>
@@ -7715,7 +7727,7 @@
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="91"/>
+      <c r="A13" s="95"/>
       <c r="B13" s="68" t="s">
         <v>1302</v>
       </c>
@@ -7727,8 +7739,8 @@
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="91"/>
-      <c r="B14" s="89" t="s">
+      <c r="A14" s="95"/>
+      <c r="B14" s="91" t="s">
         <v>522</v>
       </c>
       <c r="C14" s="90" t="s">
@@ -7745,10 +7757,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="91"/>
-      <c r="B15" s="89"/>
+      <c r="A15" s="95"/>
+      <c r="B15" s="91"/>
       <c r="C15" s="90"/>
-      <c r="D15" s="89" t="s">
+      <c r="D15" s="91" t="s">
         <v>507</v>
       </c>
       <c r="E15" t="s">
@@ -7756,43 +7768,43 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="91"/>
-      <c r="B16" s="89"/>
+      <c r="A16" s="95"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="90"/>
-      <c r="D16" s="89"/>
+      <c r="D16" s="91"/>
       <c r="E16" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="91"/>
-      <c r="B17" s="89"/>
+      <c r="A17" s="95"/>
+      <c r="B17" s="91"/>
       <c r="C17" s="90"/>
-      <c r="D17" s="89"/>
+      <c r="D17" s="91"/>
       <c r="E17" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="91"/>
-      <c r="B18" s="89"/>
+      <c r="A18" s="95"/>
+      <c r="B18" s="91"/>
       <c r="C18" s="90"/>
-      <c r="D18" s="89"/>
+      <c r="D18" s="91"/>
       <c r="E18" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="91"/>
-      <c r="B19" s="89"/>
+      <c r="A19" s="95"/>
+      <c r="B19" s="91"/>
       <c r="C19" s="90"/>
-      <c r="D19" s="89"/>
+      <c r="D19" s="91"/>
       <c r="E19" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="91"/>
+      <c r="A20" s="95"/>
       <c r="B20" s="13" t="s">
         <v>514</v>
       </c>
@@ -7807,11 +7819,11 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="91"/>
-      <c r="B21" s="85" t="s">
+      <c r="A21" s="95"/>
+      <c r="B21" s="87" t="s">
         <v>533</v>
       </c>
-      <c r="C21" s="84" t="s">
+      <c r="C21" s="86" t="s">
         <v>537</v>
       </c>
       <c r="D21" s="20" t="s">
@@ -7819,19 +7831,19 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="91"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="84"/>
+      <c r="A22" s="95"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="86"/>
       <c r="D22" s="72" t="s">
         <v>1304</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="91"/>
-      <c r="B23" s="89" t="s">
+      <c r="A23" s="95"/>
+      <c r="B23" s="91" t="s">
         <v>535</v>
       </c>
-      <c r="C23" s="84" t="s">
+      <c r="C23" s="86" t="s">
         <v>540</v>
       </c>
       <c r="D23" t="s">
@@ -7839,9 +7851,9 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="91"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="84"/>
+      <c r="A24" s="95"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="86"/>
       <c r="D24" s="6" t="s">
         <v>818</v>
       </c>
@@ -7851,9 +7863,9 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="91"/>
-      <c r="B25" s="89"/>
-      <c r="C25" s="84"/>
+      <c r="A25" s="95"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="86"/>
       <c r="D25" s="6" t="s">
         <v>817</v>
       </c>
@@ -7863,9 +7875,9 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="91"/>
-      <c r="B26" s="89"/>
-      <c r="C26" s="84"/>
+      <c r="A26" s="95"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="86"/>
       <c r="D26" s="37" t="s">
         <v>814</v>
       </c>
@@ -7875,25 +7887,25 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="91"/>
-      <c r="B27" s="89"/>
-      <c r="C27" s="84"/>
+      <c r="A27" s="95"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="86"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="91"/>
-      <c r="B28" s="89"/>
-      <c r="C28" s="84"/>
+      <c r="A28" s="95"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="86"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="91"/>
-      <c r="B29" s="89"/>
-      <c r="C29" s="84"/>
+      <c r="A29" s="95"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="86"/>
       <c r="D29" s="19" t="s">
         <v>538</v>
       </c>
@@ -7902,7 +7914,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="86" t="s">
+      <c r="A30" s="92" t="s">
         <v>1313</v>
       </c>
       <c r="B30" s="73" t="s">
@@ -7915,7 +7927,7 @@
       <c r="E30" s="73"/>
     </row>
     <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="86"/>
+      <c r="A31" s="92"/>
       <c r="B31" s="73" t="s">
         <v>516</v>
       </c>
@@ -7926,7 +7938,7 @@
       <c r="E31" s="73"/>
     </row>
     <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="86"/>
+      <c r="A32" s="92"/>
       <c r="B32" s="73" t="s">
         <v>24</v>
       </c>
@@ -7937,7 +7949,7 @@
       <c r="E32" s="73"/>
     </row>
     <row r="33" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="86"/>
+      <c r="A33" s="92"/>
       <c r="B33" s="73" t="s">
         <v>43</v>
       </c>
@@ -7948,7 +7960,7 @@
       <c r="E33" s="73"/>
     </row>
     <row r="34" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="86"/>
+      <c r="A34" s="92"/>
       <c r="B34" s="73" t="s">
         <v>1308</v>
       </c>
@@ -7959,7 +7971,7 @@
       <c r="E34" s="73"/>
     </row>
     <row r="35" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="86"/>
+      <c r="A35" s="92"/>
       <c r="B35" s="73" t="s">
         <v>1309</v>
       </c>
@@ -7970,7 +7982,7 @@
       <c r="E35" s="73"/>
     </row>
     <row r="36" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="86"/>
+      <c r="A36" s="92"/>
       <c r="B36" s="73" t="s">
         <v>1312</v>
       </c>
@@ -7981,7 +7993,7 @@
       <c r="E36" s="73"/>
     </row>
     <row r="37" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="86"/>
+      <c r="A37" s="92"/>
       <c r="B37" s="73" t="s">
         <v>1315</v>
       </c>
@@ -7992,7 +8004,7 @@
       <c r="E37" s="73"/>
     </row>
     <row r="38" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="86"/>
+      <c r="A38" s="92"/>
       <c r="B38" s="73" t="s">
         <v>1317</v>
       </c>
@@ -8003,7 +8015,7 @@
       <c r="E38" s="73"/>
     </row>
     <row r="39" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="86"/>
+      <c r="A39" s="92"/>
       <c r="B39" s="73" t="s">
         <v>1318</v>
       </c>
@@ -8014,11 +8026,11 @@
       <c r="E39" s="73"/>
     </row>
     <row r="40" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="86"/>
-      <c r="B40" s="85" t="s">
+      <c r="A40" s="92"/>
+      <c r="B40" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="84" t="s">
+      <c r="C40" s="86" t="s">
         <v>19</v>
       </c>
       <c r="D40" t="s">
@@ -8030,9 +8042,9 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="86"/>
-      <c r="B41" s="85"/>
-      <c r="C41" s="84"/>
+      <c r="A41" s="92"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="86"/>
       <c r="D41" t="s">
         <v>1340</v>
       </c>
@@ -8044,16 +8056,16 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="86"/>
-      <c r="B42" s="85"/>
-      <c r="C42" s="84"/>
+      <c r="A42" s="92"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="86"/>
       <c r="D42" t="s">
         <v>1342</v>
       </c>
       <c r="E42" s="74"/>
     </row>
     <row r="43" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="86"/>
+      <c r="A43" s="92"/>
       <c r="B43" s="73" t="s">
         <v>20</v>
       </c>
@@ -8069,7 +8081,7 @@
       <c r="K43" s="3"/>
     </row>
     <row r="44" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="86"/>
+      <c r="A44" s="92"/>
       <c r="B44" s="73" t="s">
         <v>532</v>
       </c>
@@ -8083,26 +8095,26 @@
       <c r="K44" s="3"/>
     </row>
     <row r="45" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="86"/>
+      <c r="A45" s="92"/>
       <c r="B45" s="76"/>
       <c r="C45" s="75"/>
       <c r="E45" s="74"/>
     </row>
     <row r="46" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="86"/>
+      <c r="A46" s="92"/>
       <c r="B46" s="76"/>
       <c r="C46" s="75"/>
       <c r="E46" s="74"/>
     </row>
     <row r="47" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="86"/>
+      <c r="A47" s="92"/>
       <c r="B47" s="73"/>
       <c r="C47" s="75"/>
       <c r="D47" s="19"/>
       <c r="E47" s="73"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" s="85" t="s">
+      <c r="A48" s="87" t="s">
         <v>1324</v>
       </c>
       <c r="B48" s="69" t="s">
@@ -8113,8 +8125,8 @@
       </c>
     </row>
     <row r="49" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="85"/>
-      <c r="B49" s="89" t="s">
+      <c r="A49" s="87"/>
+      <c r="B49" s="91" t="s">
         <v>26</v>
       </c>
       <c r="C49" s="90" t="s">
@@ -8128,8 +8140,8 @@
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A50" s="85"/>
-      <c r="B50" s="89"/>
+      <c r="A50" s="87"/>
+      <c r="B50" s="91"/>
       <c r="C50" s="90"/>
       <c r="D50" s="77" t="s">
         <v>1330</v>
@@ -8142,8 +8154,8 @@
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A51" s="85"/>
-      <c r="B51" s="89"/>
+      <c r="A51" s="87"/>
+      <c r="B51" s="91"/>
       <c r="C51" s="90"/>
       <c r="D51" s="77" t="s">
         <v>1331</v>
@@ -8156,7 +8168,7 @@
       </c>
     </row>
     <row r="52" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A52" s="85"/>
+      <c r="A52" s="87"/>
       <c r="B52" s="69" t="s">
         <v>27</v>
       </c>
@@ -8171,7 +8183,7 @@
       </c>
     </row>
     <row r="53" spans="1:13" ht="54" x14ac:dyDescent="0.15">
-      <c r="A53" s="85"/>
+      <c r="A53" s="87"/>
       <c r="B53" s="70" t="s">
         <v>31</v>
       </c>
@@ -8180,13 +8192,13 @@
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A54" s="85" t="s">
+      <c r="A54" s="87" t="s">
         <v>1335</v>
       </c>
-      <c r="B54" s="85" t="s">
+      <c r="B54" s="87" t="s">
         <v>1334</v>
       </c>
-      <c r="C54" s="84" t="s">
+      <c r="C54" s="86" t="s">
         <v>14</v>
       </c>
       <c r="D54" t="s">
@@ -8204,9 +8216,9 @@
       <c r="M54" s="2"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A55" s="85"/>
-      <c r="B55" s="85"/>
-      <c r="C55" s="84"/>
+      <c r="A55" s="87"/>
+      <c r="B55" s="87"/>
+      <c r="C55" s="86"/>
       <c r="D55" t="s">
         <v>41</v>
       </c>
@@ -8222,9 +8234,9 @@
       <c r="M55" s="2"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A56" s="85"/>
-      <c r="B56" s="85"/>
-      <c r="C56" s="84"/>
+      <c r="A56" s="87"/>
+      <c r="B56" s="87"/>
+      <c r="C56" s="86"/>
       <c r="D56" t="s">
         <v>39</v>
       </c>
@@ -8240,9 +8252,9 @@
       <c r="M56" s="2"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A57" s="85"/>
-      <c r="B57" s="85"/>
-      <c r="C57" s="84"/>
+      <c r="A57" s="87"/>
+      <c r="B57" s="87"/>
+      <c r="C57" s="86"/>
       <c r="D57" t="s">
         <v>1338</v>
       </c>
@@ -8258,9 +8270,9 @@
       <c r="M57" s="2"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A58" s="85"/>
-      <c r="B58" s="85"/>
-      <c r="C58" s="84"/>
+      <c r="A58" s="87"/>
+      <c r="B58" s="87"/>
+      <c r="C58" s="86"/>
       <c r="D58" t="s">
         <v>1336</v>
       </c>
@@ -8276,13 +8288,13 @@
       <c r="M58" s="2"/>
     </row>
     <row r="59" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="85" t="s">
+      <c r="A59" s="87" t="s">
         <v>542</v>
       </c>
-      <c r="B59" s="85" t="s">
+      <c r="B59" s="87" t="s">
         <v>543</v>
       </c>
-      <c r="C59" s="84" t="s">
+      <c r="C59" s="86" t="s">
         <v>570</v>
       </c>
       <c r="D59" s="80" t="s">
@@ -8296,9 +8308,9 @@
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A60" s="85"/>
-      <c r="B60" s="85"/>
-      <c r="C60" s="84"/>
+      <c r="A60" s="87"/>
+      <c r="B60" s="87"/>
+      <c r="C60" s="86"/>
       <c r="D60" t="s">
         <v>571</v>
       </c>
@@ -8310,9 +8322,9 @@
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A61" s="85"/>
-      <c r="B61" s="85"/>
-      <c r="C61" s="84"/>
+      <c r="A61" s="87"/>
+      <c r="B61" s="87"/>
+      <c r="C61" s="86"/>
       <c r="D61" t="s">
         <v>576</v>
       </c>
@@ -8324,17 +8336,17 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A62" s="85"/>
-      <c r="B62" s="85"/>
-      <c r="C62" s="84"/>
+      <c r="A62" s="87"/>
+      <c r="B62" s="87"/>
+      <c r="C62" s="86"/>
       <c r="E62" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A63" s="85"/>
-      <c r="B63" s="85"/>
-      <c r="C63" s="84"/>
+      <c r="A63" s="87"/>
+      <c r="B63" s="87"/>
+      <c r="C63" s="86"/>
       <c r="D63" t="s">
         <v>580</v>
       </c>
@@ -8346,9 +8358,9 @@
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A64" s="85"/>
-      <c r="B64" s="85"/>
-      <c r="C64" s="84"/>
+      <c r="A64" s="87"/>
+      <c r="B64" s="87"/>
+      <c r="C64" s="86"/>
       <c r="D64" s="80" t="s">
         <v>583</v>
       </c>
@@ -8363,9 +8375,9 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65" s="85"/>
-      <c r="B65" s="85"/>
-      <c r="C65" s="84"/>
+      <c r="A65" s="87"/>
+      <c r="B65" s="87"/>
+      <c r="C65" s="86"/>
       <c r="E65" t="s">
         <v>585</v>
       </c>
@@ -8374,9 +8386,9 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" s="85"/>
-      <c r="B66" s="85"/>
-      <c r="C66" s="84"/>
+      <c r="A66" s="87"/>
+      <c r="B66" s="87"/>
+      <c r="C66" s="86"/>
       <c r="D66" s="80" t="s">
         <v>587</v>
       </c>
@@ -8388,9 +8400,9 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A67" s="85"/>
-      <c r="B67" s="85"/>
-      <c r="C67" s="84"/>
+      <c r="A67" s="87"/>
+      <c r="B67" s="87"/>
+      <c r="C67" s="86"/>
       <c r="D67" t="s">
         <v>590</v>
       </c>
@@ -8402,10 +8414,10 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A68" s="85"/>
-      <c r="B68" s="85"/>
-      <c r="C68" s="84"/>
-      <c r="D68" s="89" t="s">
+      <c r="A68" s="87"/>
+      <c r="B68" s="87"/>
+      <c r="C68" s="86"/>
+      <c r="D68" s="91" t="s">
         <v>507</v>
       </c>
       <c r="E68" t="s">
@@ -8416,58 +8428,58 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A69" s="85"/>
-      <c r="B69" s="85"/>
-      <c r="C69" s="84"/>
-      <c r="D69" s="89"/>
+      <c r="A69" s="87"/>
+      <c r="B69" s="87"/>
+      <c r="C69" s="86"/>
+      <c r="D69" s="91"/>
       <c r="E69" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A70" s="85"/>
-      <c r="B70" s="85"/>
-      <c r="C70" s="84"/>
-      <c r="D70" s="89"/>
+      <c r="A70" s="87"/>
+      <c r="B70" s="87"/>
+      <c r="C70" s="86"/>
+      <c r="D70" s="91"/>
       <c r="E70" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A71" s="85"/>
-      <c r="B71" s="85"/>
-      <c r="C71" s="84"/>
-      <c r="D71" s="89"/>
+      <c r="A71" s="87"/>
+      <c r="B71" s="87"/>
+      <c r="C71" s="86"/>
+      <c r="D71" s="91"/>
       <c r="E71" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A72" s="85"/>
-      <c r="B72" s="85"/>
-      <c r="C72" s="84"/>
-      <c r="D72" s="89"/>
+      <c r="A72" s="87"/>
+      <c r="B72" s="87"/>
+      <c r="C72" s="86"/>
+      <c r="D72" s="91"/>
       <c r="E72" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A73" s="85"/>
-      <c r="B73" s="85"/>
-      <c r="C73" s="84"/>
+      <c r="A73" s="87"/>
+      <c r="B73" s="87"/>
+      <c r="C73" s="86"/>
       <c r="D73" s="13" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74" s="85"/>
-      <c r="B74" s="85" t="s">
+      <c r="A74" s="87"/>
+      <c r="B74" s="87" t="s">
         <v>544</v>
       </c>
-      <c r="C74" s="84" t="s">
+      <c r="C74" s="86" t="s">
         <v>545</v>
       </c>
-      <c r="D74" s="92" t="s">
+      <c r="D74" s="85" t="s">
         <v>791</v>
       </c>
       <c r="E74" s="80" t="s">
@@ -8476,135 +8488,135 @@
       <c r="F74" t="s">
         <v>1349</v>
       </c>
-      <c r="G74" s="84" t="s">
+      <c r="G74" s="86" t="s">
         <v>1351</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75" s="85"/>
-      <c r="B75" s="85"/>
-      <c r="C75" s="84"/>
-      <c r="D75" s="92"/>
+      <c r="A75" s="87"/>
+      <c r="B75" s="87"/>
+      <c r="C75" s="86"/>
+      <c r="D75" s="85"/>
       <c r="E75" s="80" t="s">
         <v>793</v>
       </c>
       <c r="F75" t="s">
         <v>1348</v>
       </c>
-      <c r="G75" s="84"/>
+      <c r="G75" s="86"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76" s="85"/>
-      <c r="B76" s="85"/>
-      <c r="C76" s="84"/>
-      <c r="D76" s="92"/>
+      <c r="A76" s="87"/>
+      <c r="B76" s="87"/>
+      <c r="C76" s="86"/>
+      <c r="D76" s="85"/>
       <c r="E76" t="s">
         <v>794</v>
       </c>
-      <c r="G76" s="84"/>
+      <c r="G76" s="86"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="85"/>
-      <c r="B77" s="85"/>
-      <c r="C77" s="84"/>
-      <c r="D77" s="92"/>
+      <c r="A77" s="87"/>
+      <c r="B77" s="87"/>
+      <c r="C77" s="86"/>
+      <c r="D77" s="85"/>
       <c r="E77" t="s">
         <v>795</v>
       </c>
-      <c r="G77" s="84"/>
+      <c r="G77" s="86"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78" s="85"/>
-      <c r="B78" s="85"/>
-      <c r="C78" s="84"/>
-      <c r="D78" s="92"/>
+      <c r="A78" s="87"/>
+      <c r="B78" s="87"/>
+      <c r="C78" s="86"/>
+      <c r="D78" s="85"/>
       <c r="E78" t="s">
         <v>796</v>
       </c>
-      <c r="G78" s="84"/>
+      <c r="G78" s="86"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79" s="85"/>
-      <c r="B79" s="85"/>
-      <c r="C79" s="84"/>
-      <c r="D79" s="92"/>
+      <c r="A79" s="87"/>
+      <c r="B79" s="87"/>
+      <c r="C79" s="86"/>
+      <c r="D79" s="85"/>
       <c r="E79" s="80" t="s">
         <v>797</v>
       </c>
-      <c r="G79" s="84"/>
+      <c r="G79" s="86"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80" s="85"/>
-      <c r="B80" s="85"/>
-      <c r="C80" s="84"/>
-      <c r="D80" s="92"/>
+      <c r="A80" s="87"/>
+      <c r="B80" s="87"/>
+      <c r="C80" s="86"/>
+      <c r="D80" s="85"/>
       <c r="E80" s="80" t="s">
         <v>798</v>
       </c>
       <c r="F80" t="s">
         <v>1347</v>
       </c>
-      <c r="G80" s="84"/>
+      <c r="G80" s="86"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A81" s="85"/>
-      <c r="B81" s="85"/>
-      <c r="C81" s="84"/>
-      <c r="D81" s="92"/>
+      <c r="A81" s="87"/>
+      <c r="B81" s="87"/>
+      <c r="C81" s="86"/>
+      <c r="D81" s="85"/>
       <c r="E81" t="s">
         <v>799</v>
       </c>
-      <c r="G81" s="84"/>
+      <c r="G81" s="86"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A82" s="85"/>
-      <c r="B82" s="85"/>
-      <c r="C82" s="84"/>
-      <c r="D82" s="92"/>
+      <c r="A82" s="87"/>
+      <c r="B82" s="87"/>
+      <c r="C82" s="86"/>
+      <c r="D82" s="85"/>
       <c r="E82" s="80" t="s">
         <v>800</v>
       </c>
-      <c r="G82" s="84"/>
+      <c r="G82" s="86"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83" s="85"/>
-      <c r="B83" s="85"/>
-      <c r="C83" s="84"/>
-      <c r="D83" s="92"/>
+      <c r="A83" s="87"/>
+      <c r="B83" s="87"/>
+      <c r="C83" s="86"/>
+      <c r="D83" s="85"/>
       <c r="E83" s="80" t="s">
         <v>801</v>
       </c>
-      <c r="G83" s="84"/>
+      <c r="G83" s="86"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A84" s="85"/>
-      <c r="B84" s="85"/>
-      <c r="C84" s="84"/>
-      <c r="D84" s="92"/>
+      <c r="A84" s="87"/>
+      <c r="B84" s="87"/>
+      <c r="C84" s="86"/>
+      <c r="D84" s="85"/>
       <c r="E84" s="80" t="s">
         <v>802</v>
       </c>
       <c r="F84" t="s">
         <v>1350</v>
       </c>
-      <c r="G84" s="84"/>
+      <c r="G84" s="86"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A85" s="85"/>
-      <c r="B85" s="85"/>
-      <c r="C85" s="84"/>
+      <c r="A85" s="87"/>
+      <c r="B85" s="87"/>
+      <c r="C85" s="86"/>
       <c r="D85" t="s">
         <v>803</v>
       </c>
       <c r="F85" t="s">
         <v>804</v>
       </c>
-      <c r="G85" s="84"/>
+      <c r="G85" s="86"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A86" s="85"/>
-      <c r="B86" s="85"/>
-      <c r="C86" s="84"/>
+      <c r="A86" s="87"/>
+      <c r="B86" s="87"/>
+      <c r="C86" s="86"/>
       <c r="D86" t="s">
         <v>1352</v>
       </c>
@@ -8614,22 +8626,22 @@
       <c r="F86" t="s">
         <v>1353</v>
       </c>
-      <c r="G86" s="84"/>
+      <c r="G86" s="86"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A87" s="85"/>
-      <c r="B87" s="85"/>
-      <c r="C87" s="84"/>
+      <c r="A87" s="87"/>
+      <c r="B87" s="87"/>
+      <c r="C87" s="86"/>
       <c r="D87" s="80" t="s">
         <v>805</v>
       </c>
       <c r="F87" t="s">
         <v>806</v>
       </c>
-      <c r="G87" s="84"/>
+      <c r="G87" s="86"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A88" s="85"/>
+      <c r="A88" s="87"/>
       <c r="B88" s="13" t="s">
         <v>546</v>
       </c>
@@ -8638,7 +8650,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A89" s="85"/>
+      <c r="A89" s="87"/>
       <c r="B89" s="13" t="s">
         <v>548</v>
       </c>
@@ -8647,7 +8659,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A90" s="85"/>
+      <c r="A90" s="87"/>
       <c r="B90" s="82" t="s">
         <v>550</v>
       </c>
@@ -8656,7 +8668,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A91" s="85"/>
+      <c r="A91" s="87"/>
       <c r="B91" s="82" t="s">
         <v>552</v>
       </c>
@@ -8665,7 +8677,7 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A92" s="85"/>
+      <c r="A92" s="87"/>
       <c r="B92" s="82" t="s">
         <v>554</v>
       </c>
@@ -8674,7 +8686,7 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A93" s="85"/>
+      <c r="A93" s="87"/>
       <c r="B93" s="13" t="s">
         <v>556</v>
       </c>
@@ -8683,7 +8695,7 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A94" s="85"/>
+      <c r="A94" s="87"/>
       <c r="B94" s="13" t="s">
         <v>558</v>
       </c>
@@ -8692,7 +8704,7 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A95" s="85"/>
+      <c r="A95" s="87"/>
       <c r="B95" s="13" t="s">
         <v>560</v>
       </c>
@@ -8701,7 +8713,7 @@
       </c>
     </row>
     <row r="96" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A96" s="85"/>
+      <c r="A96" s="87"/>
       <c r="B96" s="13" t="s">
         <v>562</v>
       </c>
@@ -8710,7 +8722,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A97" s="85"/>
+      <c r="A97" s="87"/>
       <c r="B97" s="13" t="s">
         <v>564</v>
       </c>
@@ -8719,7 +8731,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A98" s="85"/>
+      <c r="A98" s="87"/>
       <c r="B98" s="13" t="s">
         <v>566</v>
       </c>
@@ -8728,7 +8740,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A99" s="85"/>
+      <c r="A99" s="87"/>
       <c r="B99" s="13" t="s">
         <v>568</v>
       </c>
@@ -8737,7 +8749,7 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A106" s="93" t="s">
+      <c r="A106" s="88" t="s">
         <v>1321</v>
       </c>
       <c r="B106" s="13" t="s">
@@ -8748,7 +8760,7 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A107" s="94"/>
+      <c r="A107" s="89"/>
       <c r="B107" s="13" t="s">
         <v>1323</v>
       </c>
@@ -8757,7 +8769,7 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A108" s="94"/>
+      <c r="A108" s="89"/>
       <c r="B108" s="13" t="s">
         <v>37</v>
       </c>
@@ -8766,7 +8778,7 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A109" s="94"/>
+      <c r="A109" s="89"/>
       <c r="B109" s="13" t="s">
         <v>36</v>
       </c>
@@ -8794,19 +8806,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="D74:D84"/>
-    <mergeCell ref="C59:C73"/>
-    <mergeCell ref="B59:B73"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="C74:C87"/>
-    <mergeCell ref="B74:B87"/>
-    <mergeCell ref="A59:A99"/>
     <mergeCell ref="G74:G87"/>
     <mergeCell ref="C40:C42"/>
     <mergeCell ref="B40:B42"/>
@@ -8823,6 +8822,19 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="D68:D72"/>
+    <mergeCell ref="D74:D84"/>
+    <mergeCell ref="C59:C73"/>
+    <mergeCell ref="B59:B73"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="C74:C87"/>
+    <mergeCell ref="B74:B87"/>
+    <mergeCell ref="A59:A99"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8924,11 +8936,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N312"/>
+  <dimension ref="A1:N313"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8952,7 +8964,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="87" t="s">
         <v>1354</v>
       </c>
       <c r="B2" s="73" t="s">
@@ -8961,14 +8973,14 @@
       <c r="C2" s="74"/>
     </row>
     <row r="3" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="85"/>
+      <c r="A3" s="87"/>
       <c r="B3" s="73" t="s">
         <v>1356</v>
       </c>
       <c r="C3" s="74"/>
     </row>
     <row r="4" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="85"/>
+      <c r="A4" s="87"/>
       <c r="B4" s="73" t="s">
         <v>1357</v>
       </c>
@@ -9114,7 +9126,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="106" t="s">
+      <c r="A21" s="113" t="s">
         <v>47</v>
       </c>
       <c r="B21" s="15" t="s">
@@ -9126,7 +9138,7 @@
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="106"/>
+      <c r="A22" s="113"/>
       <c r="B22" s="13" t="s">
         <v>189</v>
       </c>
@@ -9138,7 +9150,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="106"/>
+      <c r="A23" s="113"/>
       <c r="B23" s="13" t="s">
         <v>192</v>
       </c>
@@ -9147,7 +9159,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="106"/>
+      <c r="A24" s="113"/>
       <c r="B24" s="13" t="s">
         <v>194</v>
       </c>
@@ -9159,8 +9171,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="106"/>
-      <c r="B25" s="89" t="s">
+      <c r="A25" s="113"/>
+      <c r="B25" s="91" t="s">
         <v>197</v>
       </c>
       <c r="C25" s="90" t="s">
@@ -9174,8 +9186,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="106"/>
-      <c r="B26" s="89"/>
+      <c r="A26" s="113"/>
+      <c r="B26" s="91"/>
       <c r="C26" s="90"/>
       <c r="D26" t="s">
         <v>201</v>
@@ -9185,8 +9197,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="106"/>
-      <c r="B27" s="89"/>
+      <c r="A27" s="113"/>
+      <c r="B27" s="91"/>
       <c r="C27" s="90"/>
       <c r="D27" t="s">
         <v>203</v>
@@ -9196,8 +9208,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="106"/>
-      <c r="B28" s="89"/>
+      <c r="A28" s="113"/>
+      <c r="B28" s="91"/>
       <c r="C28" s="90"/>
       <c r="D28" t="s">
         <v>205</v>
@@ -9207,8 +9219,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="106"/>
-      <c r="B29" s="89"/>
+      <c r="A29" s="113"/>
+      <c r="B29" s="91"/>
       <c r="C29" s="90"/>
       <c r="D29" t="s">
         <v>207</v>
@@ -9218,8 +9230,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="106"/>
-      <c r="B30" s="89"/>
+      <c r="A30" s="113"/>
+      <c r="B30" s="91"/>
       <c r="C30" s="90"/>
       <c r="D30" t="s">
         <v>209</v>
@@ -9229,7 +9241,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="106"/>
+      <c r="A31" s="113"/>
       <c r="B31" s="13" t="s">
         <v>211</v>
       </c>
@@ -9241,7 +9253,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="106"/>
+      <c r="A32" s="113"/>
       <c r="B32" s="13" t="s">
         <v>214</v>
       </c>
@@ -9253,8 +9265,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="106"/>
-      <c r="B33" s="89" t="s">
+      <c r="A33" s="113"/>
+      <c r="B33" s="91" t="s">
         <v>217</v>
       </c>
       <c r="C33" s="90" t="s">
@@ -9268,8 +9280,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="106"/>
-      <c r="B34" s="89"/>
+      <c r="A34" s="113"/>
+      <c r="B34" s="91"/>
       <c r="C34" s="90"/>
       <c r="D34" t="s">
         <v>221</v>
@@ -9279,8 +9291,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="106"/>
-      <c r="B35" s="89" t="s">
+      <c r="A35" s="113"/>
+      <c r="B35" s="91" t="s">
         <v>223</v>
       </c>
       <c r="C35" s="90" t="s">
@@ -9294,8 +9306,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="106"/>
-      <c r="B36" s="89"/>
+      <c r="A36" s="113"/>
+      <c r="B36" s="91"/>
       <c r="C36" s="90"/>
       <c r="D36" t="s">
         <v>225</v>
@@ -9305,8 +9317,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="106"/>
-      <c r="B37" s="89"/>
+      <c r="A37" s="113"/>
+      <c r="B37" s="91"/>
       <c r="C37" s="90"/>
       <c r="D37" t="s">
         <v>227</v>
@@ -9316,8 +9328,8 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="106"/>
-      <c r="B38" s="89"/>
+      <c r="A38" s="113"/>
+      <c r="B38" s="91"/>
       <c r="C38" s="90"/>
       <c r="D38" t="s">
         <v>229</v>
@@ -9327,8 +9339,8 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="106"/>
-      <c r="B39" s="89" t="s">
+      <c r="A39" s="113"/>
+      <c r="B39" s="91" t="s">
         <v>233</v>
       </c>
       <c r="C39" s="90" t="s">
@@ -9345,8 +9357,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="106"/>
-      <c r="B40" s="89"/>
+      <c r="A40" s="113"/>
+      <c r="B40" s="91"/>
       <c r="C40" s="90"/>
       <c r="D40" t="s">
         <v>236</v>
@@ -9356,209 +9368,205 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="107" t="s">
+      <c r="A41" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="87" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="107"/>
-      <c r="B42" s="13" t="s">
+    <row r="42" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="114"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="84" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="114"/>
+      <c r="B43" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C43" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>53</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E43" t="s">
         <v>56</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F43" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="107"/>
-      <c r="D43" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="114"/>
+      <c r="D44" t="s">
         <v>54</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E44" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="107"/>
-      <c r="D44" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="114"/>
+      <c r="D45" t="s">
         <v>55</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E45" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="107"/>
-      <c r="B45" s="13" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="114"/>
+      <c r="B46" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C46" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>62</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F46" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="107"/>
-      <c r="D46" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="114"/>
+      <c r="D47" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="107"/>
-      <c r="D47" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="114"/>
+      <c r="D48" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="107"/>
-      <c r="D48" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A49" s="114"/>
+      <c r="D49" t="s">
         <v>65</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E49" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A49" s="107"/>
-      <c r="B49" s="13" t="s">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A50" s="114"/>
+      <c r="B50" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C50" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D50" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A50" s="107"/>
-      <c r="B50" s="13" t="s">
+    <row r="51" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A51" s="114"/>
+      <c r="B51" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C51" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E51" t="s">
         <v>75</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G51" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A51" s="107"/>
-      <c r="D51" t="s">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A52" s="114"/>
+      <c r="D52" t="s">
         <v>74</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E52" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A52" s="107"/>
-      <c r="B52" s="13" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A53" s="114"/>
+      <c r="B53" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C53" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D53" t="s">
         <v>79</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E53" t="s">
         <v>83</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F53" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A53" s="107"/>
-      <c r="D53" t="s">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A54" s="114"/>
+      <c r="D54" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="107"/>
-      <c r="D54" s="5" t="s">
+    <row r="55" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="114"/>
+      <c r="D55" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A55" s="107"/>
-      <c r="D55" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A56" s="114"/>
+      <c r="D56" t="s">
         <v>82</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E56" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A56" s="107"/>
-      <c r="B56" s="13" t="s">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A57" s="114"/>
+      <c r="B57" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C57" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D57" t="s">
         <v>87</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E57" t="s">
         <v>93</v>
       </c>
-      <c r="H56" s="6" t="s">
+      <c r="H57" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A57" s="107"/>
-      <c r="D57" t="s">
-        <v>89</v>
-      </c>
-      <c r="E57" t="s">
-        <v>92</v>
-      </c>
-      <c r="H57" s="6"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A58" s="107"/>
+      <c r="A58" s="114"/>
       <c r="D58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
@@ -9567,18 +9575,12 @@
       <c r="L58" s="6"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A59" s="107"/>
-      <c r="B59" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>95</v>
-      </c>
+      <c r="A59" s="114"/>
       <c r="D59" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E59" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
@@ -9587,12 +9589,18 @@
       <c r="L59" s="6"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A60" s="107"/>
+      <c r="A60" s="114"/>
+      <c r="B60" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>95</v>
+      </c>
       <c r="D60" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E60" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
@@ -9601,12 +9609,12 @@
       <c r="L60" s="6"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A61" s="107"/>
+      <c r="A61" s="114"/>
       <c r="D61" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E61" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
@@ -9615,2407 +9623,2417 @@
       <c r="L61" s="6"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A62" s="107"/>
-      <c r="B62" s="13" t="s">
+      <c r="A62" s="114"/>
+      <c r="D62" t="s">
+        <v>90</v>
+      </c>
+      <c r="E62" t="s">
+        <v>96</v>
+      </c>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A63" s="114"/>
+      <c r="B63" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C63" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D63" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A63" s="107"/>
-      <c r="D63" t="s">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A64" s="114"/>
+      <c r="D64" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A64" s="107"/>
-      <c r="D64" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" s="114"/>
+      <c r="D65" t="s">
         <v>104</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E65" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="107"/>
-      <c r="D65" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" s="114"/>
+      <c r="D66" t="s">
         <v>105</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E66" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="108" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B67" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C66" s="90" t="s">
+      <c r="C67" s="90" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="108"/>
-      <c r="B67" s="13" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" s="115"/>
+      <c r="B68" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C67" s="90"/>
-    </row>
-    <row r="68" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A68" s="108"/>
-      <c r="B68" s="13" t="s">
+      <c r="C68" s="90"/>
+    </row>
+    <row r="69" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A69" s="115"/>
+      <c r="B69" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C69" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="108"/>
-      <c r="B69" s="89" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" s="115"/>
+      <c r="B70" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="C69" s="90" t="s">
+      <c r="C70" s="90" t="s">
         <v>118</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D70" t="s">
         <v>121</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E70" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" s="108"/>
-      <c r="B70" s="89"/>
-      <c r="C70" s="90"/>
-      <c r="D70" t="s">
-        <v>123</v>
-      </c>
-      <c r="E70" t="s">
-        <v>124</v>
-      </c>
-    </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" s="108"/>
-      <c r="B71" s="89"/>
+      <c r="A71" s="115"/>
+      <c r="B71" s="91"/>
       <c r="C71" s="90"/>
       <c r="D71" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E71" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72" s="108"/>
-      <c r="B72" s="89"/>
+      <c r="A72" s="115"/>
+      <c r="B72" s="91"/>
       <c r="C72" s="90"/>
       <c r="D72" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E72" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="108"/>
-      <c r="B73" s="89"/>
+      <c r="A73" s="115"/>
+      <c r="B73" s="91"/>
       <c r="C73" s="90"/>
       <c r="D73" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E73" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="108"/>
-      <c r="B74" s="89"/>
+      <c r="A74" s="115"/>
+      <c r="B74" s="91"/>
       <c r="C74" s="90"/>
       <c r="D74" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E74" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="108"/>
-      <c r="B75" s="89"/>
+      <c r="A75" s="115"/>
+      <c r="B75" s="91"/>
       <c r="C75" s="90"/>
       <c r="D75" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E75" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="108"/>
-      <c r="B76" s="89"/>
+      <c r="A76" s="115"/>
+      <c r="B76" s="91"/>
       <c r="C76" s="90"/>
       <c r="D76" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E76" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="108"/>
-      <c r="B77" s="89"/>
+      <c r="A77" s="115"/>
+      <c r="B77" s="91"/>
       <c r="C77" s="90"/>
       <c r="D77" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E77" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="108"/>
-      <c r="B78" s="89"/>
+      <c r="A78" s="115"/>
+      <c r="B78" s="91"/>
       <c r="C78" s="90"/>
       <c r="D78" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E78" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" s="108"/>
-      <c r="B79" s="89"/>
+      <c r="A79" s="115"/>
+      <c r="B79" s="91"/>
       <c r="C79" s="90"/>
       <c r="D79" t="s">
+        <v>139</v>
+      </c>
+      <c r="E79" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80" s="115"/>
+      <c r="B80" s="91"/>
+      <c r="C80" s="90"/>
+      <c r="D80" t="s">
         <v>141</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E80" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" s="108"/>
-      <c r="B80" s="13" t="s">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A81" s="115"/>
+      <c r="B81" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C81" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A81" s="108"/>
-      <c r="B81" s="14" t="s">
+    <row r="82" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A82" s="115"/>
+      <c r="B82" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C82" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D82" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A82" s="108"/>
-      <c r="B82" s="13" t="s">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A83" s="115"/>
+      <c r="B83" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C83" s="14" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A83" s="108"/>
-      <c r="B83" s="13" t="s">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A84" s="115"/>
+      <c r="B84" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C84" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D84" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A84" s="108"/>
-      <c r="B84" s="13" t="s">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A85" s="115"/>
+      <c r="B85" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C85" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D85" t="s">
         <v>167</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E85" t="s">
         <v>168</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="F85" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A85" s="108"/>
-      <c r="B85" s="89" t="s">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A86" s="115"/>
+      <c r="B86" s="91" t="s">
         <v>150</v>
       </c>
-      <c r="C85" s="90" t="s">
+      <c r="C86" s="90" t="s">
         <v>154</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E86" t="s">
         <v>157</v>
       </c>
-      <c r="F85" s="111" t="s">
+      <c r="F86" s="112" t="s">
         <v>163</v>
       </c>
-      <c r="G85" s="111"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A86" s="108"/>
-      <c r="B86" s="89"/>
-      <c r="C86" s="90"/>
-      <c r="D86" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E86" t="s">
-        <v>160</v>
-      </c>
-      <c r="F86" s="111"/>
-      <c r="G86" s="111"/>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A87" s="108"/>
-      <c r="B87" s="89"/>
+      <c r="G86" s="112"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A87" s="115"/>
+      <c r="B87" s="91"/>
       <c r="C87" s="90"/>
       <c r="D87" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E87" t="s">
+        <v>160</v>
+      </c>
+      <c r="F87" s="112"/>
+      <c r="G87" s="112"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A88" s="115"/>
+      <c r="B88" s="91"/>
+      <c r="C88" s="90"/>
+      <c r="D88" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E88" t="s">
         <v>159</v>
       </c>
-      <c r="F87" s="111"/>
-      <c r="G87" s="111"/>
-    </row>
-    <row r="88" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A88" s="108"/>
-      <c r="B88" s="13" t="s">
+      <c r="F88" s="112"/>
+      <c r="G88" s="112"/>
+    </row>
+    <row r="89" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A89" s="115"/>
+      <c r="B89" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C88" s="17" t="s">
+      <c r="C89" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E89" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A89" s="108"/>
-      <c r="B89" s="13" t="s">
+    <row r="90" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A90" s="115"/>
+      <c r="B90" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C89" s="14" t="s">
+      <c r="C90" s="14" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A90" s="108"/>
-      <c r="B90" s="89" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A91" s="115"/>
+      <c r="B91" s="91" t="s">
         <v>165</v>
       </c>
-      <c r="C90" s="90" t="s">
+      <c r="C91" s="90" t="s">
         <v>173</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D91" t="s">
         <v>174</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E91" t="s">
         <v>175</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F91" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A91" s="108"/>
-      <c r="B91" s="89"/>
-      <c r="C91" s="90"/>
-      <c r="D91" t="s">
-        <v>176</v>
-      </c>
-      <c r="E91" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A92" s="108"/>
-      <c r="B92" s="89"/>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A92" s="115"/>
+      <c r="B92" s="91"/>
       <c r="C92" s="90"/>
       <c r="D92" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A93" s="108"/>
-      <c r="B93" s="89"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A93" s="115"/>
+      <c r="B93" s="91"/>
       <c r="C93" s="90"/>
       <c r="D93" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A94" s="108"/>
-      <c r="B94" s="89"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A94" s="115"/>
+      <c r="B94" s="91"/>
       <c r="C94" s="90"/>
       <c r="D94" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A95" s="108"/>
-      <c r="B95" s="89"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A95" s="115"/>
+      <c r="B95" s="91"/>
       <c r="C95" s="90"/>
       <c r="D95" t="s">
+        <v>182</v>
+      </c>
+      <c r="E95" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A96" s="115"/>
+      <c r="B96" s="91"/>
+      <c r="C96" s="90"/>
+      <c r="D96" t="s">
         <v>137</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E96" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A96" s="108"/>
-      <c r="B96" s="89" t="s">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A97" s="115"/>
+      <c r="B97" s="91" t="s">
         <v>186</v>
       </c>
-      <c r="C96" s="90" t="s">
+      <c r="C97" s="90" t="s">
         <v>239</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D97" t="s">
         <v>240</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E97" t="s">
         <v>243</v>
       </c>
-      <c r="I96" s="6" t="s">
+      <c r="I97" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
-      <c r="L96" s="6"/>
-      <c r="M96" s="6"/>
-      <c r="N96" s="6"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A97" s="108"/>
-      <c r="B97" s="89"/>
-      <c r="C97" s="90"/>
-      <c r="D97" t="s">
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A98" s="115"/>
+      <c r="B98" s="91"/>
+      <c r="C98" s="90"/>
+      <c r="D98" t="s">
         <v>241</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E98" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A98" s="108"/>
-      <c r="B98" s="89" t="s">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A99" s="115"/>
+      <c r="B99" s="91" t="s">
         <v>245</v>
       </c>
-      <c r="C98" s="90" t="s">
+      <c r="C99" s="90" t="s">
         <v>246</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D99" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A99" s="108"/>
-      <c r="B99" s="89"/>
-      <c r="C99" s="90"/>
-      <c r="D99" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A100" s="108"/>
-      <c r="B100" s="89"/>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A100" s="115"/>
+      <c r="B100" s="91"/>
       <c r="C100" s="90"/>
       <c r="D100" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A101" s="115"/>
+      <c r="B101" s="91"/>
+      <c r="C101" s="90"/>
+      <c r="D101" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A101" s="109" t="s">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A102" s="109" t="s">
         <v>250</v>
       </c>
-      <c r="B101" s="89" t="s">
+      <c r="B102" s="91" t="s">
         <v>251</v>
       </c>
-      <c r="C101" s="90" t="s">
+      <c r="C102" s="90" t="s">
         <v>263</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D102" t="s">
         <v>252</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E102" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A102" s="109"/>
-      <c r="B102" s="89"/>
-      <c r="C102" s="90"/>
-      <c r="D102" t="s">
-        <v>123</v>
-      </c>
-      <c r="E102" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A103" s="109"/>
-      <c r="B103" s="89"/>
+      <c r="B103" s="91"/>
       <c r="C103" s="90"/>
       <c r="D103" t="s">
-        <v>254</v>
+        <v>123</v>
       </c>
       <c r="E103" t="s">
-        <v>255</v>
-      </c>
-      <c r="F103" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A104" s="109"/>
-      <c r="B104" s="89"/>
+      <c r="B104" s="91"/>
       <c r="C104" s="90"/>
       <c r="D104" t="s">
+        <v>254</v>
+      </c>
+      <c r="E104" t="s">
+        <v>255</v>
+      </c>
+      <c r="F104" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A105" s="109"/>
+      <c r="B105" s="91"/>
+      <c r="C105" s="90"/>
+      <c r="D105" t="s">
         <v>256</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E105" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A105" s="109"/>
-      <c r="B105" s="89"/>
-      <c r="C105" s="90"/>
-      <c r="D105" s="9" t="s">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A106" s="109"/>
+      <c r="B106" s="91"/>
+      <c r="C106" s="90"/>
+      <c r="D106" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="E105" s="10" t="s">
+      <c r="E106" s="10" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A106" s="109"/>
-      <c r="B106" s="89"/>
-      <c r="C106" s="90"/>
-      <c r="D106" s="10" t="s">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A107" s="109"/>
+      <c r="B107" s="91"/>
+      <c r="C107" s="90"/>
+      <c r="D107" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="E106" s="10" t="s">
+      <c r="E107" s="10" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A107" s="110" t="s">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A108" s="110" t="s">
         <v>265</v>
       </c>
-      <c r="B107" s="89" t="s">
+      <c r="B108" s="91" t="s">
         <v>266</v>
       </c>
-      <c r="C107" s="90" t="s">
+      <c r="C108" s="90" t="s">
         <v>267</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D108" t="s">
         <v>256</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E108" t="s">
         <v>268</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F108" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A108" s="96"/>
-      <c r="B108" s="89"/>
-      <c r="C108" s="90"/>
-      <c r="D108" t="s">
-        <v>269</v>
-      </c>
-      <c r="E108" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A109" s="96"/>
-      <c r="B109" s="89"/>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A109" s="111"/>
+      <c r="B109" s="91"/>
       <c r="C109" s="90"/>
       <c r="D109" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E109" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A110" s="96"/>
-      <c r="B110" s="89"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A110" s="111"/>
+      <c r="B110" s="91"/>
       <c r="C110" s="90"/>
       <c r="D110" t="s">
+        <v>271</v>
+      </c>
+      <c r="E110" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A111" s="111"/>
+      <c r="B111" s="91"/>
+      <c r="C111" s="90"/>
+      <c r="D111" t="s">
         <v>141</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E111" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A111" s="96"/>
-      <c r="B111" s="89" t="s">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A112" s="111"/>
+      <c r="B112" s="91" t="s">
         <v>274</v>
       </c>
-      <c r="C111" s="90" t="s">
+      <c r="C112" s="90" t="s">
         <v>275</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D112" t="s">
         <v>256</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E112" t="s">
         <v>276</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F112" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A112" s="96"/>
-      <c r="B112" s="89"/>
-      <c r="C112" s="90"/>
-      <c r="D112" t="s">
-        <v>269</v>
-      </c>
-      <c r="E112" t="s">
-        <v>277</v>
-      </c>
-    </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A113" s="96"/>
-      <c r="B113" s="89"/>
+      <c r="A113" s="111"/>
+      <c r="B113" s="91"/>
       <c r="C113" s="90"/>
       <c r="D113" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E113" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A114" s="96"/>
-      <c r="B114" s="89"/>
+      <c r="A114" s="111"/>
+      <c r="B114" s="91"/>
       <c r="C114" s="90"/>
       <c r="D114" t="s">
+        <v>271</v>
+      </c>
+      <c r="E114" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A115" s="111"/>
+      <c r="B115" s="91"/>
+      <c r="C115" s="90"/>
+      <c r="D115" t="s">
         <v>141</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E115" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A115" s="96"/>
-      <c r="B115" s="13" t="s">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A116" s="111"/>
+      <c r="B116" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="C115" s="14" t="s">
+      <c r="C116" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D116" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A116" s="21"/>
-      <c r="B116" s="85" t="s">
-        <v>594</v>
-      </c>
-      <c r="C116" s="84" t="s">
-        <v>597</v>
-      </c>
-      <c r="D116" t="s">
-        <v>595</v>
-      </c>
-      <c r="E116" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A117" s="21"/>
-      <c r="B117" s="85"/>
-      <c r="C117" s="84"/>
+      <c r="B117" s="87" t="s">
+        <v>594</v>
+      </c>
+      <c r="C117" s="86" t="s">
+        <v>597</v>
+      </c>
       <c r="D117" t="s">
+        <v>595</v>
+      </c>
+      <c r="E117" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A118" s="21"/>
+      <c r="B118" s="87"/>
+      <c r="C118" s="86"/>
+      <c r="D118" t="s">
         <v>596</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E118" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A118" s="88" t="s">
+    <row r="119" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A119" s="94" t="s">
         <v>302</v>
       </c>
-      <c r="B118" s="13" t="s">
+      <c r="B119" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="C118" s="14" t="s">
+      <c r="C119" s="14" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A119" s="88"/>
-      <c r="B119" s="13" t="s">
+    <row r="120" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A120" s="94"/>
+      <c r="B120" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="C119" s="14" t="s">
+      <c r="C120" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="D119" s="73" t="s">
+      <c r="D120" s="73" t="s">
         <v>1378</v>
       </c>
-      <c r="E119" s="11" t="s">
+      <c r="E120" s="11" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="88"/>
-      <c r="B120" s="13" t="s">
+    <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="94"/>
+      <c r="B121" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="C120" s="14" t="s">
+      <c r="C121" s="14" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="88"/>
-      <c r="B121" s="13" t="s">
+    <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="94"/>
+      <c r="B122" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="C121" s="14" t="s">
+      <c r="C122" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D122" t="s">
         <v>316</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E122" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="88"/>
-      <c r="D122" t="s">
+    <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="94"/>
+      <c r="D123" t="s">
         <v>318</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E123" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="88"/>
-      <c r="B123" s="13" t="s">
+    <row r="124" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="94"/>
+      <c r="B124" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="C123" s="14" t="s">
+      <c r="C124" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D124" t="s">
         <v>320</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E124" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="88"/>
-      <c r="B124" s="89" t="s">
+    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="94"/>
+      <c r="B125" s="91" t="s">
         <v>313</v>
       </c>
-      <c r="C124" s="90" t="s">
+      <c r="C125" s="90" t="s">
         <v>314</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D125" t="s">
         <v>219</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E125" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="88"/>
-      <c r="B125" s="89"/>
-      <c r="C125" s="90"/>
-      <c r="D125" t="s">
-        <v>323</v>
-      </c>
-      <c r="E125" t="s">
-        <v>324</v>
-      </c>
-    </row>
     <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="88"/>
-      <c r="B126" s="89"/>
+      <c r="A126" s="94"/>
+      <c r="B126" s="91"/>
       <c r="C126" s="90"/>
       <c r="D126" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E126" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="88"/>
-      <c r="B127" s="89"/>
+      <c r="A127" s="94"/>
+      <c r="B127" s="91"/>
       <c r="C127" s="90"/>
       <c r="D127" t="s">
+        <v>325</v>
+      </c>
+      <c r="E127" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="94"/>
+      <c r="B128" s="91"/>
+      <c r="C128" s="90"/>
+      <c r="D128" t="s">
         <v>327</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E128" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A128" s="88"/>
-      <c r="B128" s="89"/>
-      <c r="C128" s="90"/>
-      <c r="D128" s="1" t="s">
+    <row r="129" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A129" s="94"/>
+      <c r="B129" s="91"/>
+      <c r="C129" s="90"/>
+      <c r="D129" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E129" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="97" t="s">
+    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="124" t="s">
         <v>435</v>
       </c>
-      <c r="B129" s="13" t="s">
+      <c r="B130" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="C129" s="14" t="s">
+      <c r="C130" s="14" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="97"/>
-      <c r="B130" s="89" t="s">
+    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="124"/>
+      <c r="B131" s="91" t="s">
         <v>437</v>
       </c>
-      <c r="C130" s="90" t="s">
+      <c r="C131" s="90" t="s">
         <v>438</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D131" t="s">
         <v>458</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E131" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="97"/>
-      <c r="B131" s="89"/>
-      <c r="C131" s="90"/>
-      <c r="D131" t="s">
+    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="124"/>
+      <c r="B132" s="91"/>
+      <c r="C132" s="90"/>
+      <c r="D132" t="s">
         <v>460</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E132" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="97"/>
-      <c r="B132" s="13" t="s">
+    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="124"/>
+      <c r="B133" s="13" t="s">
         <v>439</v>
       </c>
-      <c r="C132" s="14" t="s">
+      <c r="C133" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D133" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="97"/>
-      <c r="B133" s="89" t="s">
+    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="124"/>
+      <c r="B134" s="91" t="s">
         <v>441</v>
       </c>
-      <c r="C133" s="90" t="s">
+      <c r="C134" s="90" t="s">
         <v>466</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D134" t="s">
         <v>433</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E134" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="97"/>
-      <c r="B134" s="89"/>
-      <c r="C134" s="90"/>
-      <c r="D134" t="s">
-        <v>269</v>
-      </c>
-      <c r="E134" t="s">
-        <v>464</v>
-      </c>
-    </row>
     <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="97"/>
-      <c r="B135" s="89"/>
+      <c r="A135" s="124"/>
+      <c r="B135" s="91"/>
       <c r="C135" s="90"/>
       <c r="D135" t="s">
+        <v>269</v>
+      </c>
+      <c r="E135" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="124"/>
+      <c r="B136" s="91"/>
+      <c r="C136" s="90"/>
+      <c r="D136" t="s">
         <v>271</v>
       </c>
-      <c r="E135" t="s">
+      <c r="E136" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="97"/>
-      <c r="B136" s="89" t="s">
+    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="124"/>
+      <c r="B137" s="91" t="s">
         <v>442</v>
       </c>
-      <c r="C136" s="90" t="s">
+      <c r="C137" s="90" t="s">
         <v>443</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D137" t="s">
         <v>373</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E137" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="97"/>
-      <c r="B137" s="89"/>
-      <c r="C137" s="90"/>
-      <c r="D137" t="s">
-        <v>375</v>
-      </c>
-      <c r="E137" t="s">
-        <v>468</v>
-      </c>
-    </row>
     <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="97"/>
-      <c r="B138" s="89"/>
+      <c r="A138" s="124"/>
+      <c r="B138" s="91"/>
       <c r="C138" s="90"/>
       <c r="D138" t="s">
-        <v>469</v>
+        <v>375</v>
       </c>
       <c r="E138" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="97"/>
-      <c r="B139" s="89"/>
+      <c r="A139" s="124"/>
+      <c r="B139" s="91"/>
       <c r="C139" s="90"/>
       <c r="D139" t="s">
+        <v>469</v>
+      </c>
+      <c r="E139" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="124"/>
+      <c r="B140" s="91"/>
+      <c r="C140" s="90"/>
+      <c r="D140" t="s">
         <v>471</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E140" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="97"/>
-      <c r="B140" s="89" t="s">
+    <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="124"/>
+      <c r="B141" s="91" t="s">
         <v>444</v>
       </c>
-      <c r="C140" s="90" t="s">
+      <c r="C141" s="90" t="s">
         <v>445</v>
       </c>
-      <c r="D140" s="80" t="s">
+      <c r="D141" s="80" t="s">
         <v>688</v>
       </c>
-      <c r="E140" s="80" t="s">
+      <c r="E141" s="80" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="97"/>
-      <c r="B141" s="89"/>
-      <c r="C141" s="90"/>
-      <c r="D141" s="80" t="s">
+    <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="124"/>
+      <c r="B142" s="91"/>
+      <c r="C142" s="90"/>
+      <c r="D142" s="80" t="s">
         <v>473</v>
       </c>
-      <c r="E141" s="80" t="s">
+      <c r="E142" s="80" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="97"/>
-      <c r="B142" s="89"/>
-      <c r="C142" s="90"/>
-      <c r="D142" t="s">
+    <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="124"/>
+      <c r="B143" s="91"/>
+      <c r="C143" s="90"/>
+      <c r="D143" t="s">
         <v>475</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E143" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="97"/>
-      <c r="B143" s="89"/>
-      <c r="C143" s="90"/>
-      <c r="D143" s="80" t="s">
+    <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="124"/>
+      <c r="B144" s="91"/>
+      <c r="C144" s="90"/>
+      <c r="D144" s="80" t="s">
         <v>477</v>
       </c>
-      <c r="E143" s="80" t="s">
+      <c r="E144" s="80" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="97"/>
-      <c r="B144" s="89"/>
-      <c r="C144" s="90"/>
-      <c r="D144" t="s">
+    <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="124"/>
+      <c r="B145" s="91"/>
+      <c r="C145" s="90"/>
+      <c r="D145" t="s">
         <v>479</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E145" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="97"/>
-      <c r="B145" s="89" t="s">
+    <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="124"/>
+      <c r="B146" s="91" t="s">
         <v>446</v>
       </c>
-      <c r="C145" s="90" t="s">
+      <c r="C146" s="90" t="s">
         <v>447</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D146" t="s">
         <v>269</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E146" t="s">
         <v>481</v>
       </c>
-      <c r="F145" t="s">
+      <c r="F146" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="97"/>
-      <c r="B146" s="89"/>
-      <c r="C146" s="90"/>
-      <c r="D146" t="s">
+    <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="124"/>
+      <c r="B147" s="91"/>
+      <c r="C147" s="90"/>
+      <c r="D147" t="s">
         <v>271</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E147" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="97"/>
-      <c r="B147" s="89" t="s">
+    <row r="148" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="124"/>
+      <c r="B148" s="91" t="s">
         <v>448</v>
       </c>
-      <c r="C147" s="90" t="s">
+      <c r="C148" s="90" t="s">
         <v>449</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D148" t="s">
         <v>174</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E148" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="97"/>
-      <c r="B148" s="89"/>
-      <c r="C148" s="90"/>
-      <c r="D148" t="s">
-        <v>176</v>
-      </c>
-      <c r="E148" t="s">
-        <v>177</v>
-      </c>
-    </row>
     <row r="149" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="97"/>
-      <c r="B149" s="89"/>
+      <c r="A149" s="124"/>
+      <c r="B149" s="91"/>
       <c r="C149" s="90"/>
       <c r="D149" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E149" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="97"/>
-      <c r="B150" s="89"/>
+      <c r="A150" s="124"/>
+      <c r="B150" s="91"/>
       <c r="C150" s="90"/>
       <c r="D150" t="s">
+        <v>178</v>
+      </c>
+      <c r="E150" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="124"/>
+      <c r="B151" s="91"/>
+      <c r="C151" s="90"/>
+      <c r="D151" t="s">
         <v>182</v>
       </c>
-      <c r="E150" t="s">
+      <c r="E151" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="97"/>
-      <c r="B151" s="89" t="s">
+    <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="124"/>
+      <c r="B152" s="91" t="s">
         <v>450</v>
       </c>
-      <c r="C151" s="90" t="s">
+      <c r="C152" s="90" t="s">
         <v>451</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D152" t="s">
         <v>121</v>
       </c>
-      <c r="E151" t="s">
+      <c r="E152" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="97"/>
-      <c r="B152" s="89"/>
-      <c r="C152" s="90"/>
-      <c r="D152" t="s">
-        <v>485</v>
-      </c>
-      <c r="E152" t="s">
-        <v>486</v>
-      </c>
-    </row>
     <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="97"/>
-      <c r="B153" s="89"/>
+      <c r="A153" s="124"/>
+      <c r="B153" s="91"/>
       <c r="C153" s="90"/>
       <c r="D153" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E153" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="97"/>
-      <c r="B154" s="89"/>
+      <c r="A154" s="124"/>
+      <c r="B154" s="91"/>
       <c r="C154" s="90"/>
       <c r="D154" t="s">
+        <v>487</v>
+      </c>
+      <c r="E154" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="124"/>
+      <c r="B155" s="91"/>
+      <c r="C155" s="90"/>
+      <c r="D155" t="s">
         <v>489</v>
       </c>
-      <c r="E154" t="s">
+      <c r="E155" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="97"/>
-      <c r="B155" s="89" t="s">
+    <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="124"/>
+      <c r="B156" s="91" t="s">
         <v>452</v>
       </c>
-      <c r="C155" s="90" t="s">
+      <c r="C156" s="90" t="s">
         <v>453</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D156" t="s">
         <v>219</v>
       </c>
-      <c r="E155" t="s">
+      <c r="E156" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="97"/>
-      <c r="B156" s="89"/>
-      <c r="C156" s="90"/>
-      <c r="D156" t="s">
-        <v>492</v>
-      </c>
-      <c r="E156" t="s">
-        <v>493</v>
-      </c>
-    </row>
     <row r="157" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="97"/>
-      <c r="B157" s="89"/>
+      <c r="A157" s="124"/>
+      <c r="B157" s="91"/>
       <c r="C157" s="90"/>
       <c r="D157" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E157" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="97"/>
-      <c r="B158" s="89"/>
+      <c r="A158" s="124"/>
+      <c r="B158" s="91"/>
       <c r="C158" s="90"/>
       <c r="D158" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E158" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="97"/>
-      <c r="B159" s="89"/>
+      <c r="A159" s="124"/>
+      <c r="B159" s="91"/>
       <c r="C159" s="90"/>
       <c r="D159" t="s">
+        <v>496</v>
+      </c>
+      <c r="E159" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="124"/>
+      <c r="B160" s="91"/>
+      <c r="C160" s="90"/>
+      <c r="D160" t="s">
         <v>498</v>
       </c>
-      <c r="E159" t="s">
+      <c r="E160" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="97"/>
-      <c r="B160" s="13" t="s">
+    <row r="161" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="124"/>
+      <c r="B161" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="C160" s="14" t="s">
+      <c r="C161" s="14" t="s">
         <v>455</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D161" t="s">
         <v>269</v>
       </c>
-      <c r="E160" t="s">
+      <c r="E161" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A161" s="97"/>
-      <c r="B161" s="89" t="s">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A162" s="124"/>
+      <c r="B162" s="91" t="s">
         <v>456</v>
       </c>
-      <c r="C161" s="90" t="s">
+      <c r="C162" s="90" t="s">
         <v>457</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D162" t="s">
         <v>501</v>
       </c>
-      <c r="E161" t="s">
+      <c r="E162" t="s">
         <v>502</v>
       </c>
-      <c r="F161" t="s">
+      <c r="F162" t="s">
         <v>1385</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="97"/>
-      <c r="B162" s="89"/>
-      <c r="C162" s="90"/>
-      <c r="D162" t="s">
-        <v>503</v>
-      </c>
-      <c r="E162" t="s">
-        <v>504</v>
-      </c>
-    </row>
     <row r="163" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="97"/>
-      <c r="B163" s="89"/>
+      <c r="A163" s="124"/>
+      <c r="B163" s="91"/>
       <c r="C163" s="90"/>
       <c r="D163" t="s">
+        <v>503</v>
+      </c>
+      <c r="E163" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="124"/>
+      <c r="B164" s="91"/>
+      <c r="C164" s="90"/>
+      <c r="D164" t="s">
         <v>505</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E164" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="97"/>
-      <c r="B164" s="89"/>
-      <c r="C164" s="90"/>
-    </row>
     <row r="165" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="97"/>
-      <c r="B165" s="89"/>
+      <c r="A165" s="124"/>
+      <c r="B165" s="91"/>
       <c r="C165" s="90"/>
     </row>
     <row r="166" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="97"/>
-      <c r="B166" s="89"/>
+      <c r="A166" s="124"/>
+      <c r="B166" s="91"/>
       <c r="C166" s="90"/>
     </row>
     <row r="167" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="97"/>
-      <c r="B167" s="89"/>
+      <c r="A167" s="124"/>
+      <c r="B167" s="91"/>
       <c r="C167" s="90"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A168" s="97"/>
-      <c r="B168" s="89"/>
+    <row r="168" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="124"/>
+      <c r="B168" s="91"/>
       <c r="C168" s="90"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A169" s="97"/>
-      <c r="B169" s="89"/>
+      <c r="A169" s="124"/>
+      <c r="B169" s="91"/>
       <c r="C169" s="90"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A170" s="97"/>
-      <c r="B170" s="89"/>
+      <c r="A170" s="124"/>
+      <c r="B170" s="91"/>
       <c r="C170" s="90"/>
     </row>
-    <row r="171" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="101" t="s">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A171" s="124"/>
+      <c r="B171" s="91"/>
+      <c r="C171" s="90"/>
+    </row>
+    <row r="172" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="118" t="s">
         <v>331</v>
       </c>
-      <c r="B171" s="13" t="s">
+      <c r="B172" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="C171" s="14" t="s">
+      <c r="C172" s="14" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="101"/>
-      <c r="B172" s="89" t="s">
+    <row r="173" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="118"/>
+      <c r="B173" s="91" t="s">
         <v>334</v>
       </c>
-      <c r="C172" s="90" t="s">
+      <c r="C173" s="90" t="s">
         <v>335</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D173" t="s">
         <v>70</v>
       </c>
-      <c r="F172" t="s">
+      <c r="F173" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="101"/>
-      <c r="B173" s="89"/>
-      <c r="C173" s="90"/>
-      <c r="D173" t="s">
+    <row r="174" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="118"/>
+      <c r="B174" s="91"/>
+      <c r="C174" s="90"/>
+      <c r="D174" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="101"/>
-      <c r="B174" s="89" t="s">
+    <row r="175" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="118"/>
+      <c r="B175" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="C174" s="90" t="s">
+      <c r="C175" s="90" t="s">
         <v>337</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D175" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="101"/>
-      <c r="B175" s="89"/>
-      <c r="C175" s="90"/>
-      <c r="D175" t="s">
+    <row r="176" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="118"/>
+      <c r="B176" s="91"/>
+      <c r="C176" s="90"/>
+      <c r="D176" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A176" s="101"/>
-      <c r="B176" s="89" t="s">
+    <row r="177" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="118"/>
+      <c r="B177" s="91" t="s">
         <v>338</v>
       </c>
-      <c r="C176" s="90" t="s">
+      <c r="C177" s="90" t="s">
         <v>352</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D177" t="s">
         <v>121</v>
       </c>
-      <c r="E176" t="s">
+      <c r="E177" t="s">
         <v>343</v>
       </c>
-      <c r="F176" t="s">
+      <c r="F177" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="101"/>
-      <c r="B177" s="89"/>
-      <c r="C177" s="90"/>
-      <c r="D177" t="s">
-        <v>344</v>
-      </c>
-      <c r="E177" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="101"/>
-      <c r="B178" s="89"/>
+    <row r="178" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="118"/>
+      <c r="B178" s="91"/>
       <c r="C178" s="90"/>
       <c r="D178" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E178" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="101"/>
-      <c r="B179" s="89"/>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A179" s="118"/>
+      <c r="B179" s="91"/>
       <c r="C179" s="90"/>
       <c r="D179" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="E179" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A180" s="101"/>
-      <c r="B180" s="89"/>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A180" s="118"/>
+      <c r="B180" s="91"/>
       <c r="C180" s="90"/>
       <c r="D180" t="s">
+        <v>340</v>
+      </c>
+      <c r="E180" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A181" s="118"/>
+      <c r="B181" s="91"/>
+      <c r="C181" s="90"/>
+      <c r="D181" t="s">
         <v>349</v>
       </c>
-      <c r="E180" t="s">
+      <c r="E181" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="102" t="s">
+    <row r="182" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A182" s="119" t="s">
         <v>361</v>
       </c>
-      <c r="B181" s="89" t="s">
+      <c r="B182" s="91" t="s">
         <v>354</v>
       </c>
-      <c r="C181" s="90" t="s">
+      <c r="C182" s="90" t="s">
         <v>358</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D182" t="s">
         <v>256</v>
       </c>
-      <c r="E181" t="s">
+      <c r="E182" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A182" s="102"/>
-      <c r="B182" s="89"/>
-      <c r="C182" s="90"/>
-      <c r="D182" t="s">
-        <v>269</v>
-      </c>
-      <c r="E182" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A183" s="102"/>
-      <c r="B183" s="89"/>
+    <row r="183" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A183" s="119"/>
+      <c r="B183" s="91"/>
       <c r="C183" s="90"/>
       <c r="D183" t="s">
+        <v>269</v>
+      </c>
+      <c r="E183" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="119"/>
+      <c r="B184" s="91"/>
+      <c r="C184" s="90"/>
+      <c r="D184" t="s">
         <v>271</v>
       </c>
-      <c r="E183" t="s">
+      <c r="E184" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A184" s="102"/>
-      <c r="B184" s="89" t="s">
+    <row r="185" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A185" s="119"/>
+      <c r="B185" s="91" t="s">
         <v>359</v>
       </c>
-      <c r="C184" s="90" t="s">
+      <c r="C185" s="90" t="s">
         <v>360</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D185" t="s">
         <v>256</v>
       </c>
-      <c r="E184" t="s">
+      <c r="E185" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A185" s="102"/>
-      <c r="B185" s="89"/>
-      <c r="C185" s="90"/>
-      <c r="D185" t="s">
-        <v>269</v>
-      </c>
-      <c r="E185" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A186" s="102"/>
-      <c r="B186" s="89"/>
+    <row r="186" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A186" s="119"/>
+      <c r="B186" s="91"/>
       <c r="C186" s="90"/>
       <c r="D186" t="s">
+        <v>269</v>
+      </c>
+      <c r="E186" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A187" s="119"/>
+      <c r="B187" s="91"/>
+      <c r="C187" s="90"/>
+      <c r="D187" t="s">
         <v>271</v>
       </c>
-      <c r="E186" t="s">
+      <c r="E187" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A187" s="96" t="s">
+    <row r="188" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="111" t="s">
         <v>1379</v>
       </c>
-      <c r="B187" s="85" t="s">
+      <c r="B188" s="87" t="s">
         <v>1286</v>
       </c>
-      <c r="C187" s="84" t="s">
+      <c r="C188" s="86" t="s">
         <v>1287</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D188" t="s">
         <v>369</v>
       </c>
-      <c r="E187" t="s">
+      <c r="E188" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="96"/>
-      <c r="B188" s="85"/>
-      <c r="C188" s="84"/>
-      <c r="D188" s="89" t="s">
+    <row r="189" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="111"/>
+      <c r="B189" s="87"/>
+      <c r="C189" s="86"/>
+      <c r="D189" s="91" t="s">
         <v>366</v>
       </c>
-      <c r="E188" t="s">
+      <c r="E189" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="96"/>
-      <c r="B189" s="85"/>
-      <c r="C189" s="84"/>
-      <c r="D189" s="89"/>
-      <c r="E189" t="s">
+    <row r="190" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A190" s="111"/>
+      <c r="B190" s="87"/>
+      <c r="C190" s="86"/>
+      <c r="D190" s="91"/>
+      <c r="E190" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="96"/>
-      <c r="B190" s="85"/>
-      <c r="C190" s="84"/>
-      <c r="D190" s="89" t="s">
+    <row r="191" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A191" s="111"/>
+      <c r="B191" s="87"/>
+      <c r="C191" s="86"/>
+      <c r="D191" s="91" t="s">
         <v>362</v>
       </c>
-      <c r="E190" t="s">
+      <c r="E191" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A191" s="96"/>
-      <c r="B191" s="85"/>
-      <c r="C191" s="84"/>
-      <c r="D191" s="89"/>
-      <c r="E191" t="s">
+    <row r="192" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A192" s="111"/>
+      <c r="B192" s="87"/>
+      <c r="C192" s="86"/>
+      <c r="D192" s="91"/>
+      <c r="E192" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A192" s="96"/>
-      <c r="B192" s="85"/>
-      <c r="C192" s="84"/>
-      <c r="D192" s="89" t="s">
+    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A193" s="111"/>
+      <c r="B193" s="87"/>
+      <c r="C193" s="86"/>
+      <c r="D193" s="91" t="s">
         <v>364</v>
       </c>
-      <c r="E192" t="s">
+      <c r="E193" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A193" s="96"/>
-      <c r="B193" s="85"/>
-      <c r="C193" s="84"/>
-      <c r="D193" s="89"/>
-      <c r="E193" t="s">
+    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A194" s="111"/>
+      <c r="B194" s="87"/>
+      <c r="C194" s="86"/>
+      <c r="D194" s="91"/>
+      <c r="E194" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A194" s="96"/>
-      <c r="B194" s="89" t="s">
+    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A195" s="111"/>
+      <c r="B195" s="91" t="s">
         <v>371</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D195" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A195" s="96"/>
-      <c r="B195" s="89"/>
-      <c r="D195" t="s">
+    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A196" s="111"/>
+      <c r="B196" s="91"/>
+      <c r="D196" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A196" s="96"/>
-      <c r="B196" s="89"/>
-      <c r="D196" t="s">
+    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A197" s="111"/>
+      <c r="B197" s="91"/>
+      <c r="D197" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A197" s="96"/>
-      <c r="B197" s="89" t="s">
+    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A198" s="111"/>
+      <c r="B198" s="91" t="s">
         <v>372</v>
       </c>
-      <c r="C197" s="90" t="s">
+      <c r="C198" s="90" t="s">
         <v>378</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D198" t="s">
         <v>373</v>
       </c>
-      <c r="E197" t="s">
+      <c r="E198" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A198" s="96"/>
-      <c r="B198" s="89"/>
-      <c r="C198" s="90"/>
-      <c r="D198" t="s">
-        <v>375</v>
-      </c>
-      <c r="E198" t="s">
-        <v>376</v>
-      </c>
-    </row>
     <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="96"/>
-      <c r="B199" s="89"/>
+      <c r="A199" s="111"/>
+      <c r="B199" s="91"/>
       <c r="C199" s="90"/>
       <c r="D199" t="s">
+        <v>375</v>
+      </c>
+      <c r="E199" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A200" s="111"/>
+      <c r="B200" s="91"/>
+      <c r="C200" s="90"/>
+      <c r="D200" t="s">
         <v>121</v>
       </c>
-      <c r="E199" t="s">
+      <c r="E200" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A200" s="96"/>
-      <c r="B200" s="89" t="s">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A201" s="111"/>
+      <c r="B201" s="91" t="s">
         <v>379</v>
       </c>
-      <c r="C200" s="90" t="s">
+      <c r="C201" s="90" t="s">
         <v>380</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D201" t="s">
         <v>373</v>
       </c>
-      <c r="E200" t="s">
+      <c r="E201" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A201" s="96"/>
-      <c r="B201" s="89"/>
-      <c r="C201" s="90"/>
-      <c r="D201" t="s">
-        <v>375</v>
-      </c>
-      <c r="E201" t="s">
-        <v>382</v>
-      </c>
-    </row>
     <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A202" s="96"/>
-      <c r="B202" s="89"/>
+      <c r="A202" s="111"/>
+      <c r="B202" s="91"/>
       <c r="C202" s="90"/>
       <c r="D202" t="s">
+        <v>375</v>
+      </c>
+      <c r="E202" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A203" s="111"/>
+      <c r="B203" s="91"/>
+      <c r="C203" s="90"/>
+      <c r="D203" t="s">
         <v>229</v>
       </c>
-      <c r="E202" t="s">
+      <c r="E203" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A203" s="96"/>
-      <c r="B203" s="89" t="s">
+    <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A204" s="111"/>
+      <c r="B204" s="91" t="s">
         <v>394</v>
       </c>
-      <c r="C203" s="103" t="s">
+      <c r="C204" s="120" t="s">
         <v>395</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D204" t="s">
         <v>121</v>
       </c>
-      <c r="E203" t="s">
+      <c r="E204" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A204" s="96"/>
-      <c r="B204" s="89"/>
-      <c r="C204" s="104"/>
-      <c r="D204" t="s">
+    <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A205" s="111"/>
+      <c r="B205" s="91"/>
+      <c r="C205" s="121"/>
+      <c r="D205" t="s">
         <v>384</v>
       </c>
-      <c r="E204" t="s">
+      <c r="E205" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="96"/>
-      <c r="B205" s="89"/>
-      <c r="C205" s="104"/>
-      <c r="D205" t="s">
+    <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A206" s="111"/>
+      <c r="B206" s="91"/>
+      <c r="C206" s="121"/>
+      <c r="D206" t="s">
         <v>386</v>
       </c>
-      <c r="E205" t="s">
+      <c r="E206" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A206" s="96"/>
-      <c r="B206" s="89"/>
-      <c r="C206" s="104"/>
-      <c r="D206" t="s">
+    <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A207" s="111"/>
+      <c r="B207" s="91"/>
+      <c r="C207" s="121"/>
+      <c r="D207" t="s">
         <v>388</v>
       </c>
-      <c r="E206" t="s">
+      <c r="E207" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A207" s="96"/>
-      <c r="B207" s="89"/>
-      <c r="C207" s="104"/>
-      <c r="D207" t="s">
+    <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A208" s="111"/>
+      <c r="B208" s="91"/>
+      <c r="C208" s="121"/>
+      <c r="D208" t="s">
         <v>390</v>
       </c>
-      <c r="E207" t="s">
+      <c r="E208" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A208" s="96"/>
-      <c r="B208" s="89"/>
-      <c r="C208" s="104"/>
-      <c r="D208" t="s">
+    <row r="209" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A209" s="111"/>
+      <c r="B209" s="91"/>
+      <c r="C209" s="121"/>
+      <c r="D209" t="s">
         <v>392</v>
       </c>
-      <c r="E208" t="s">
+      <c r="E209" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A209" s="96"/>
-      <c r="B209" s="13" t="s">
+    <row r="210" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A210" s="111"/>
+      <c r="B210" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="C209" s="14" t="s">
+      <c r="C210" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="D209" s="7" t="s">
+      <c r="D210" s="7" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="96"/>
-      <c r="B210" s="89" t="s">
+    <row r="211" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A211" s="111"/>
+      <c r="B211" s="91" t="s">
         <v>399</v>
       </c>
-      <c r="C210" s="90" t="s">
+      <c r="C211" s="90" t="s">
         <v>400</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D211" t="s">
         <v>70</v>
       </c>
-      <c r="E210" t="s">
+      <c r="E211" t="s">
         <v>404</v>
       </c>
-      <c r="F210" t="s">
+      <c r="F211" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A211" s="96"/>
-      <c r="B211" s="89"/>
-      <c r="C211" s="90"/>
-      <c r="D211" t="s">
-        <v>401</v>
-      </c>
-      <c r="E211" t="s">
-        <v>405</v>
-      </c>
-    </row>
     <row r="212" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A212" s="96"/>
-      <c r="B212" s="89"/>
+      <c r="A212" s="111"/>
+      <c r="B212" s="91"/>
       <c r="C212" s="90"/>
       <c r="D212" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E212" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A213" s="96"/>
-      <c r="B213" s="89"/>
+      <c r="A213" s="111"/>
+      <c r="B213" s="91"/>
       <c r="C213" s="90"/>
       <c r="D213" t="s">
+        <v>402</v>
+      </c>
+      <c r="E213" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A214" s="111"/>
+      <c r="B214" s="91"/>
+      <c r="C214" s="90"/>
+      <c r="D214" t="s">
         <v>403</v>
       </c>
-      <c r="E213" t="s">
+      <c r="E214" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A214" s="96"/>
-      <c r="B214" s="89" t="s">
+    <row r="215" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A215" s="111"/>
+      <c r="B215" s="91" t="s">
         <v>409</v>
       </c>
-      <c r="C214" s="90" t="s">
+      <c r="C215" s="90" t="s">
         <v>410</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D215" t="s">
         <v>411</v>
       </c>
-      <c r="E214" t="s">
+      <c r="E215" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A215" s="96"/>
-      <c r="B215" s="89"/>
-      <c r="C215" s="90"/>
-      <c r="D215" t="s">
-        <v>412</v>
-      </c>
-      <c r="E215" t="s">
-        <v>415</v>
-      </c>
-    </row>
     <row r="216" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A216" s="96"/>
-      <c r="B216" s="89"/>
+      <c r="A216" s="111"/>
+      <c r="B216" s="91"/>
       <c r="C216" s="90"/>
       <c r="D216" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E216" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A217" s="96"/>
-      <c r="B217" s="89"/>
+      <c r="A217" s="111"/>
+      <c r="B217" s="91"/>
       <c r="C217" s="90"/>
       <c r="D217" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E217" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A218" s="96"/>
-      <c r="B218" s="89"/>
+      <c r="A218" s="111"/>
+      <c r="B218" s="91"/>
       <c r="C218" s="90"/>
       <c r="D218" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E218" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A219" s="96"/>
-      <c r="B219" s="89"/>
+      <c r="A219" s="111"/>
+      <c r="B219" s="91"/>
       <c r="C219" s="90"/>
       <c r="D219" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E219" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A220" s="96"/>
-      <c r="B220" s="89"/>
+      <c r="A220" s="111"/>
+      <c r="B220" s="91"/>
       <c r="C220" s="90"/>
       <c r="D220" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E220" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="96"/>
-      <c r="B221" s="89"/>
+      <c r="A221" s="111"/>
+      <c r="B221" s="91"/>
       <c r="C221" s="90"/>
       <c r="D221" t="s">
-        <v>269</v>
+        <v>423</v>
+      </c>
+      <c r="E221" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A222" s="96"/>
-      <c r="B222" s="89"/>
+      <c r="A222" s="111"/>
+      <c r="B222" s="91"/>
       <c r="C222" s="90"/>
       <c r="D222" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A223" s="111"/>
+      <c r="B223" s="91"/>
+      <c r="C223" s="90"/>
+      <c r="D223" t="s">
         <v>271</v>
       </c>
-      <c r="E222" t="s">
+      <c r="E223" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A223" s="96"/>
-      <c r="B223" s="89" t="s">
+    <row r="224" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A224" s="111"/>
+      <c r="B224" s="91" t="s">
         <v>426</v>
       </c>
-      <c r="C223" s="90" t="s">
+      <c r="C224" s="90" t="s">
         <v>430</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D224" t="s">
         <v>252</v>
       </c>
-      <c r="E223" t="s">
+      <c r="E224" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A224" s="96"/>
-      <c r="B224" s="89"/>
-      <c r="C224" s="90"/>
-      <c r="D224" t="s">
-        <v>123</v>
-      </c>
-      <c r="E224" t="s">
-        <v>600</v>
-      </c>
-    </row>
     <row r="225" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A225" s="96"/>
-      <c r="B225" s="89"/>
+      <c r="A225" s="111"/>
+      <c r="B225" s="91"/>
       <c r="C225" s="90"/>
       <c r="D225" t="s">
+        <v>123</v>
+      </c>
+      <c r="E225" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A226" s="111"/>
+      <c r="B226" s="91"/>
+      <c r="C226" s="90"/>
+      <c r="D226" t="s">
         <v>428</v>
       </c>
-      <c r="E225" t="s">
+      <c r="E226" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A226" s="96"/>
-      <c r="B226" s="13" t="s">
+    <row r="227" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A227" s="111"/>
+      <c r="B227" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="C226" s="17" t="s">
+      <c r="C227" s="17" t="s">
         <v>431</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D227" t="s">
         <v>433</v>
       </c>
-      <c r="E226" t="s">
+      <c r="E227" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A227" s="123" t="s">
+    <row r="228" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A228" s="108" t="s">
         <v>655</v>
       </c>
-      <c r="B227" s="22" t="s">
+      <c r="B228" s="22" t="s">
         <v>601</v>
       </c>
-      <c r="C227" s="23"/>
-      <c r="D227" s="22" t="s">
+      <c r="C228" s="23"/>
+      <c r="D228" s="22" t="s">
         <v>602</v>
       </c>
-      <c r="E227" s="22" t="s">
+      <c r="E228" s="22" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A228" s="123"/>
-      <c r="B228" s="118" t="s">
+    <row r="229" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A229" s="108"/>
+      <c r="B229" s="103" t="s">
         <v>604</v>
       </c>
-      <c r="C228" s="98" t="s">
+      <c r="C229" s="102" t="s">
         <v>605</v>
       </c>
-      <c r="D228" s="22" t="s">
+      <c r="D229" s="22" t="s">
         <v>606</v>
       </c>
-      <c r="E228" s="22" t="s">
+      <c r="E229" s="22" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A229" s="123"/>
-      <c r="B229" s="118"/>
-      <c r="C229" s="98"/>
-      <c r="D229" s="22" t="s">
+    <row r="230" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A230" s="108"/>
+      <c r="B230" s="103"/>
+      <c r="C230" s="102"/>
+      <c r="D230" s="22" t="s">
         <v>608</v>
       </c>
-      <c r="E229" s="22" t="s">
+      <c r="E230" s="22" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A230" s="123"/>
-      <c r="B230" s="118"/>
-      <c r="C230" s="98"/>
-      <c r="D230" s="22" t="s">
+    <row r="231" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A231" s="108"/>
+      <c r="B231" s="103"/>
+      <c r="C231" s="102"/>
+      <c r="D231" s="22" t="s">
         <v>610</v>
       </c>
-      <c r="E230" s="22" t="s">
+      <c r="E231" s="22" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A231" s="123"/>
-      <c r="B231" s="118"/>
-      <c r="C231" s="98"/>
-      <c r="D231" s="22" t="s">
+    <row r="232" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A232" s="108"/>
+      <c r="B232" s="103"/>
+      <c r="C232" s="102"/>
+      <c r="D232" s="22" t="s">
         <v>611</v>
       </c>
-      <c r="E231" s="22" t="s">
+      <c r="E232" s="22" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A232" s="123"/>
-      <c r="B232" s="118" t="s">
+    <row r="233" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A233" s="108"/>
+      <c r="B233" s="103" t="s">
         <v>614</v>
       </c>
-      <c r="C232" s="98" t="s">
+      <c r="C233" s="102" t="s">
         <v>615</v>
       </c>
-      <c r="D232" s="22" t="s">
+      <c r="D233" s="22" t="s">
         <v>618</v>
       </c>
-      <c r="E232" s="22" t="s">
+      <c r="E233" s="22" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A233" s="123"/>
-      <c r="B233" s="118"/>
-      <c r="C233" s="98"/>
-      <c r="D233" s="22" t="s">
+    <row r="234" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A234" s="108"/>
+      <c r="B234" s="103"/>
+      <c r="C234" s="102"/>
+      <c r="D234" s="22" t="s">
         <v>616</v>
       </c>
-      <c r="E233" s="22" t="s">
+      <c r="E234" s="22" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A234" s="123"/>
-      <c r="B234" s="118"/>
-      <c r="C234" s="98"/>
-      <c r="D234" s="22" t="s">
+    <row r="235" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A235" s="108"/>
+      <c r="B235" s="103"/>
+      <c r="C235" s="102"/>
+      <c r="D235" s="22" t="s">
         <v>617</v>
       </c>
-      <c r="E234" s="22" t="s">
+      <c r="E235" s="22" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A235" s="123"/>
-      <c r="B235" s="22" t="s">
+    <row r="236" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A236" s="108"/>
+      <c r="B236" s="22" t="s">
         <v>622</v>
       </c>
-      <c r="C235" s="24" t="s">
+      <c r="C236" s="24" t="s">
         <v>623</v>
       </c>
-      <c r="D235" s="22"/>
-      <c r="E235" s="22"/>
-    </row>
-    <row r="236" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A236" s="123"/>
-      <c r="B236" s="118" t="s">
+      <c r="D236" s="22"/>
+      <c r="E236" s="22"/>
+    </row>
+    <row r="237" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A237" s="108"/>
+      <c r="B237" s="103" t="s">
         <v>624</v>
       </c>
-      <c r="C236" s="98" t="s">
+      <c r="C237" s="102" t="s">
         <v>625</v>
       </c>
-      <c r="D236" s="22" t="s">
+      <c r="D237" s="22" t="s">
         <v>626</v>
       </c>
-      <c r="E236" s="22" t="s">
+      <c r="E237" s="22" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A237" s="123"/>
-      <c r="B237" s="118"/>
-      <c r="C237" s="98"/>
-      <c r="D237" s="22" t="s">
+    <row r="238" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A238" s="108"/>
+      <c r="B238" s="103"/>
+      <c r="C238" s="102"/>
+      <c r="D238" s="22" t="s">
         <v>628</v>
       </c>
-      <c r="E237" s="22" t="s">
+      <c r="E238" s="22" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A238" s="123"/>
-      <c r="B238" s="118"/>
-      <c r="C238" s="98"/>
-      <c r="D238" s="22" t="s">
+    <row r="239" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A239" s="108"/>
+      <c r="B239" s="103"/>
+      <c r="C239" s="102"/>
+      <c r="D239" s="22" t="s">
         <v>630</v>
       </c>
-      <c r="E238" s="22" t="s">
+      <c r="E239" s="22" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A239" s="123"/>
-      <c r="B239" s="118"/>
-      <c r="C239" s="98"/>
-      <c r="D239" s="22" t="s">
+    <row r="240" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A240" s="108"/>
+      <c r="B240" s="103"/>
+      <c r="C240" s="102"/>
+      <c r="D240" s="22" t="s">
         <v>632</v>
       </c>
-      <c r="E239" s="22" t="s">
+      <c r="E240" s="22" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A240" s="123"/>
-      <c r="B240" s="118"/>
-      <c r="C240" s="98"/>
-      <c r="D240" s="22" t="s">
+    <row r="241" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A241" s="108"/>
+      <c r="B241" s="103"/>
+      <c r="C241" s="102"/>
+      <c r="D241" s="22" t="s">
         <v>634</v>
       </c>
-      <c r="E240" s="22" t="s">
+      <c r="E241" s="22" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A241" s="123"/>
-      <c r="B241" s="118" t="s">
+    <row r="242" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A242" s="108"/>
+      <c r="B242" s="103" t="s">
         <v>636</v>
       </c>
-      <c r="C241" s="98" t="s">
+      <c r="C242" s="102" t="s">
         <v>637</v>
       </c>
-      <c r="D241" s="22" t="s">
+      <c r="D242" s="22" t="s">
         <v>638</v>
       </c>
-      <c r="E241" s="22" t="s">
+      <c r="E242" s="22" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A242" s="123"/>
-      <c r="B242" s="118"/>
-      <c r="C242" s="98"/>
-      <c r="D242" s="22" t="s">
+    <row r="243" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A243" s="108"/>
+      <c r="B243" s="103"/>
+      <c r="C243" s="102"/>
+      <c r="D243" s="22" t="s">
         <v>628</v>
       </c>
-      <c r="E242" s="22" t="s">
+      <c r="E243" s="22" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A243" s="123"/>
-      <c r="B243" s="118"/>
-      <c r="C243" s="98"/>
-      <c r="D243" s="22" t="s">
+    <row r="244" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A244" s="108"/>
+      <c r="B244" s="103"/>
+      <c r="C244" s="102"/>
+      <c r="D244" s="22" t="s">
         <v>630</v>
       </c>
-      <c r="E243" s="22" t="s">
+      <c r="E244" s="22" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A244" s="123"/>
-      <c r="B244" s="118"/>
-      <c r="C244" s="98"/>
-      <c r="D244" s="22" t="s">
+    <row r="245" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A245" s="108"/>
+      <c r="B245" s="103"/>
+      <c r="C245" s="102"/>
+      <c r="D245" s="22" t="s">
         <v>639</v>
       </c>
-      <c r="E244" s="25" t="s">
+      <c r="E245" s="25" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A245" s="123"/>
-      <c r="B245" s="118"/>
-      <c r="C245" s="98"/>
-      <c r="D245" s="22" t="s">
+    <row r="246" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A246" s="108"/>
+      <c r="B246" s="103"/>
+      <c r="C246" s="102"/>
+      <c r="D246" s="22" t="s">
         <v>641</v>
       </c>
-      <c r="E245" s="25" t="s">
+      <c r="E246" s="25" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A246" s="123"/>
-      <c r="B246" s="118" t="s">
+    <row r="247" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A247" s="108"/>
+      <c r="B247" s="103" t="s">
         <v>647</v>
       </c>
-      <c r="C246" s="119" t="s">
+      <c r="C247" s="104" t="s">
         <v>654</v>
       </c>
-      <c r="D246" s="22" t="s">
+      <c r="D247" s="22" t="s">
         <v>638</v>
       </c>
-      <c r="E246" s="22" t="s">
+      <c r="E247" s="22" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A247" s="123"/>
-      <c r="B247" s="118"/>
-      <c r="C247" s="120"/>
-      <c r="D247" s="22" t="s">
+    <row r="248" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A248" s="108"/>
+      <c r="B248" s="103"/>
+      <c r="C248" s="105"/>
+      <c r="D248" s="22" t="s">
         <v>628</v>
       </c>
-      <c r="E247" s="22" t="s">
+      <c r="E248" s="22" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A248" s="123"/>
-      <c r="B248" s="118"/>
-      <c r="C248" s="120"/>
-      <c r="D248" s="22" t="s">
+    <row r="249" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A249" s="108"/>
+      <c r="B249" s="103"/>
+      <c r="C249" s="105"/>
+      <c r="D249" s="22" t="s">
         <v>630</v>
       </c>
-      <c r="E248" s="22" t="s">
+      <c r="E249" s="22" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A249" s="123"/>
-      <c r="B249" s="118"/>
-      <c r="C249" s="120"/>
-      <c r="D249" s="22" t="s">
+    <row r="250" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A250" s="108"/>
+      <c r="B250" s="103"/>
+      <c r="C250" s="105"/>
+      <c r="D250" s="22" t="s">
         <v>632</v>
       </c>
-      <c r="E249" s="22" t="s">
+      <c r="E250" s="22" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A250" s="123"/>
-      <c r="B250" s="118"/>
-      <c r="C250" s="120"/>
-      <c r="D250" s="22" t="s">
+    <row r="251" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A251" s="108"/>
+      <c r="B251" s="103"/>
+      <c r="C251" s="105"/>
+      <c r="D251" s="22" t="s">
         <v>634</v>
       </c>
-      <c r="E250" s="22" t="s">
+      <c r="E251" s="22" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A251" s="123"/>
-      <c r="B251" s="122"/>
-      <c r="C251" s="121"/>
-      <c r="D251" s="27" t="s">
+    <row r="252" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A252" s="108"/>
+      <c r="B252" s="107"/>
+      <c r="C252" s="106"/>
+      <c r="D252" s="27" t="s">
         <v>641</v>
       </c>
-      <c r="E251" s="27" t="s">
+      <c r="E252" s="27" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A252" s="114" t="s">
+    <row r="253" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A253" s="98" t="s">
         <v>656</v>
       </c>
-      <c r="B252" s="28" t="s">
+      <c r="B253" s="28" t="s">
         <v>657</v>
       </c>
-      <c r="C252" s="29" t="s">
+      <c r="C253" s="29" t="s">
         <v>658</v>
       </c>
-      <c r="D252" s="28" t="s">
+      <c r="D253" s="28" t="s">
         <v>659</v>
       </c>
-      <c r="E252" s="28"/>
-    </row>
-    <row r="253" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A253" s="114"/>
-      <c r="B253" s="28" t="s">
+      <c r="E253" s="28"/>
+    </row>
+    <row r="254" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A254" s="98"/>
+      <c r="B254" s="28" t="s">
         <v>660</v>
       </c>
-      <c r="C253" s="29" t="s">
+      <c r="C254" s="29" t="s">
         <v>661</v>
-      </c>
-      <c r="D253" s="28"/>
-      <c r="E253" s="28"/>
-    </row>
-    <row r="254" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A254" s="114"/>
-      <c r="B254" s="28" t="s">
-        <v>662</v>
-      </c>
-      <c r="C254" s="29" t="s">
-        <v>663</v>
       </c>
       <c r="D254" s="28"/>
       <c r="E254" s="28"/>
     </row>
-    <row r="255" spans="1:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="A255" s="114"/>
+    <row r="255" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A255" s="98"/>
       <c r="B255" s="28" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C255" s="29" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D255" s="28"/>
       <c r="E255" s="28"/>
     </row>
-    <row r="256" spans="1:5" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A256" s="114"/>
+    <row r="256" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A256" s="98"/>
       <c r="B256" s="28" t="s">
-        <v>602</v>
+        <v>664</v>
       </c>
       <c r="C256" s="29" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D256" s="28"/>
       <c r="E256" s="28"/>
     </row>
-    <row r="257" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A257" s="114"/>
-      <c r="B257" s="113" t="s">
+    <row r="257" spans="1:5" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A257" s="98"/>
+      <c r="B257" s="28" t="s">
+        <v>602</v>
+      </c>
+      <c r="C257" s="29" t="s">
+        <v>666</v>
+      </c>
+      <c r="D257" s="28"/>
+      <c r="E257" s="28"/>
+    </row>
+    <row r="258" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A258" s="98"/>
+      <c r="B258" s="97" t="s">
         <v>667</v>
       </c>
-      <c r="C257" s="112" t="s">
+      <c r="C258" s="96" t="s">
         <v>668</v>
       </c>
-      <c r="D257" s="28" t="s">
+      <c r="D258" s="28" t="s">
         <v>638</v>
       </c>
-      <c r="E257" s="115" t="s">
+      <c r="E258" s="99" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A258" s="114"/>
-      <c r="B258" s="113"/>
-      <c r="C258" s="112"/>
-      <c r="D258" s="28" t="s">
+    <row r="259" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A259" s="98"/>
+      <c r="B259" s="97"/>
+      <c r="C259" s="96"/>
+      <c r="D259" s="28" t="s">
         <v>628</v>
       </c>
-      <c r="E258" s="116"/>
-    </row>
-    <row r="259" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A259" s="114"/>
-      <c r="B259" s="113"/>
-      <c r="C259" s="112"/>
-      <c r="D259" s="28" t="s">
+      <c r="E259" s="100"/>
+    </row>
+    <row r="260" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A260" s="98"/>
+      <c r="B260" s="97"/>
+      <c r="C260" s="96"/>
+      <c r="D260" s="28" t="s">
         <v>630</v>
       </c>
-      <c r="E259" s="116"/>
-    </row>
-    <row r="260" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A260" s="114"/>
-      <c r="B260" s="113"/>
-      <c r="C260" s="112"/>
-      <c r="D260" s="28" t="s">
+      <c r="E260" s="100"/>
+    </row>
+    <row r="261" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A261" s="98"/>
+      <c r="B261" s="97"/>
+      <c r="C261" s="96"/>
+      <c r="D261" s="28" t="s">
         <v>639</v>
       </c>
-      <c r="E260" s="116"/>
-    </row>
-    <row r="261" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A261" s="114"/>
-      <c r="B261" s="113"/>
-      <c r="C261" s="112"/>
-      <c r="D261" s="28" t="s">
+      <c r="E261" s="100"/>
+    </row>
+    <row r="262" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A262" s="98"/>
+      <c r="B262" s="97"/>
+      <c r="C262" s="96"/>
+      <c r="D262" s="28" t="s">
         <v>640</v>
       </c>
-      <c r="E261" s="117"/>
-    </row>
-    <row r="262" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A262" s="114"/>
-      <c r="B262" s="113"/>
-      <c r="C262" s="112"/>
-      <c r="D262" s="28" t="s">
+      <c r="E262" s="101"/>
+    </row>
+    <row r="263" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A263" s="98"/>
+      <c r="B263" s="97"/>
+      <c r="C263" s="96"/>
+      <c r="D263" s="28" t="s">
         <v>669</v>
       </c>
-      <c r="E262" s="28" t="s">
+      <c r="E263" s="28" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A263" s="95" t="s">
+    <row r="264" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A264" s="123" t="s">
         <v>1117</v>
       </c>
-      <c r="B263" s="13" t="s">
+      <c r="B264" s="13" t="s">
         <v>1105</v>
       </c>
-      <c r="C263" s="17" t="s">
+      <c r="C264" s="17" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A264" s="96"/>
-      <c r="B264" s="13" t="s">
+    <row r="265" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A265" s="111"/>
+      <c r="B265" s="13" t="s">
         <v>1107</v>
       </c>
-      <c r="C264" s="47" t="s">
+      <c r="C265" s="47" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A265" s="96"/>
-      <c r="B265" s="13" t="s">
+    <row r="266" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A266" s="111"/>
+      <c r="B266" s="13" t="s">
         <v>1108</v>
       </c>
-      <c r="C265" s="17" t="s">
+      <c r="C266" s="17" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A266" s="96"/>
-      <c r="B266" s="13" t="s">
+    <row r="267" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A267" s="111"/>
+      <c r="B267" s="13" t="s">
         <v>1110</v>
       </c>
-      <c r="C266" s="17" t="s">
+      <c r="C267" s="17" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A267" s="96"/>
-      <c r="B267" s="13" t="s">
+    <row r="268" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A268" s="111"/>
+      <c r="B268" s="13" t="s">
         <v>1112</v>
       </c>
-      <c r="C267" s="17" t="s">
+      <c r="C268" s="17" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A268" s="96"/>
-      <c r="B268" s="13" t="s">
+    <row r="269" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A269" s="111"/>
+      <c r="B269" s="13" t="s">
         <v>1114</v>
       </c>
-      <c r="C268" s="17" t="s">
+      <c r="C269" s="17" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A269" s="26"/>
-      <c r="C269" s="17"/>
     </row>
     <row r="270" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="26"/>
@@ -12034,13 +12052,13 @@
       <c r="C273" s="17"/>
     </row>
     <row r="274" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A274" s="12" t="s">
+      <c r="A274" s="26"/>
+      <c r="C274" s="17"/>
+    </row>
+    <row r="275" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A275" s="12" t="s">
         <v>1241</v>
       </c>
-      <c r="C274" s="17"/>
-    </row>
-    <row r="275" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A275" s="26"/>
       <c r="C275" s="17"/>
     </row>
     <row r="276" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12076,27 +12094,28 @@
       <c r="C283" s="17"/>
     </row>
     <row r="284" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A284" s="105"/>
-      <c r="B284" s="16"/>
-      <c r="C284" s="18"/>
+      <c r="A284" s="26"/>
+      <c r="C284" s="17"/>
     </row>
     <row r="285" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A285" s="105"/>
+      <c r="A285" s="122"/>
       <c r="B285" s="16"/>
       <c r="C285" s="18"/>
     </row>
     <row r="286" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A286" s="105"/>
+      <c r="A286" s="122"/>
       <c r="B286" s="16"/>
       <c r="C286" s="18"/>
     </row>
     <row r="287" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A287" s="105"/>
+      <c r="A287" s="122"/>
       <c r="B287" s="16"/>
       <c r="C287" s="18"/>
     </row>
     <row r="288" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A288" s="12"/>
+      <c r="A288" s="122"/>
+      <c r="B288" s="16"/>
+      <c r="C288" s="18"/>
     </row>
     <row r="289" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="12"/>
@@ -12146,196 +12165,200 @@
     <row r="304" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A304" s="12"/>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A305" s="99" t="s">
+    <row r="305" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A305" s="12"/>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A306" s="116" t="s">
         <v>301</v>
       </c>
-      <c r="B305" s="13" t="s">
+      <c r="B306" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="C305" s="14" t="s">
+      <c r="C306" s="14" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A306" s="100"/>
-      <c r="B306" s="13" t="s">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A307" s="117"/>
+      <c r="B307" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="C306" s="14" t="s">
+      <c r="C307" s="14" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A307" s="100"/>
-      <c r="B307" s="13" t="s">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A308" s="117"/>
+      <c r="B308" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="C307" s="14" t="s">
+      <c r="C308" s="14" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A308" s="100"/>
-      <c r="B308" s="13" t="s">
+    <row r="309" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A309" s="117"/>
+      <c r="B309" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="C308" s="14" t="s">
+      <c r="C309" s="14" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A309" s="100"/>
-      <c r="B309" s="13" t="s">
+    <row r="310" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A310" s="117"/>
+      <c r="B310" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="C309" s="14" t="s">
+      <c r="C310" s="14" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A310" s="100"/>
-      <c r="B310" s="13" t="s">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A311" s="117"/>
+      <c r="B311" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="C310" s="14" t="s">
+      <c r="C311" s="14" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A311" s="100"/>
-      <c r="B311" s="13" t="s">
+    <row r="312" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A312" s="117"/>
+      <c r="B312" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="C311" s="14" t="s">
+      <c r="C312" s="14" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A312" s="100"/>
-      <c r="B312" s="13" t="s">
+    <row r="313" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A313" s="117"/>
+      <c r="B313" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="C312" s="14" t="s">
+      <c r="C313" s="14" t="s">
         <v>300</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="109">
-    <mergeCell ref="C257:C262"/>
-    <mergeCell ref="B257:B262"/>
-    <mergeCell ref="A252:A262"/>
-    <mergeCell ref="E257:E261"/>
-    <mergeCell ref="C241:C245"/>
-    <mergeCell ref="B241:B245"/>
-    <mergeCell ref="C246:C251"/>
-    <mergeCell ref="B246:B251"/>
-    <mergeCell ref="A227:A251"/>
-    <mergeCell ref="C232:C234"/>
-    <mergeCell ref="B232:B234"/>
-    <mergeCell ref="C236:C240"/>
-    <mergeCell ref="B236:B240"/>
-    <mergeCell ref="B228:B231"/>
-    <mergeCell ref="B161:B163"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="C140:C144"/>
-    <mergeCell ref="B140:B144"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="D192:D193"/>
-    <mergeCell ref="D188:D189"/>
-    <mergeCell ref="C161:C163"/>
-    <mergeCell ref="B164:B167"/>
-    <mergeCell ref="C164:C167"/>
-    <mergeCell ref="B168:B170"/>
-    <mergeCell ref="C168:C170"/>
-    <mergeCell ref="B187:B193"/>
-    <mergeCell ref="C187:C193"/>
-    <mergeCell ref="A101:A106"/>
-    <mergeCell ref="B107:B110"/>
-    <mergeCell ref="C107:C110"/>
-    <mergeCell ref="B111:B114"/>
-    <mergeCell ref="C111:C114"/>
-    <mergeCell ref="A107:A115"/>
-    <mergeCell ref="F85:G87"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="C101:C106"/>
-    <mergeCell ref="B101:B106"/>
+  <mergeCells count="110">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A264:A269"/>
+    <mergeCell ref="A130:A171"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="C134:C136"/>
+    <mergeCell ref="B137:B140"/>
+    <mergeCell ref="C137:C140"/>
+    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="B148:B151"/>
+    <mergeCell ref="C148:C151"/>
+    <mergeCell ref="B152:B155"/>
+    <mergeCell ref="C152:C155"/>
+    <mergeCell ref="B156:B160"/>
+    <mergeCell ref="C156:C160"/>
+    <mergeCell ref="C211:C214"/>
+    <mergeCell ref="C215:C223"/>
+    <mergeCell ref="B215:B223"/>
+    <mergeCell ref="B224:B226"/>
+    <mergeCell ref="C224:C226"/>
+    <mergeCell ref="B198:B200"/>
+    <mergeCell ref="C198:C200"/>
+    <mergeCell ref="C229:C232"/>
+    <mergeCell ref="A306:A313"/>
+    <mergeCell ref="C125:C129"/>
+    <mergeCell ref="B125:B129"/>
+    <mergeCell ref="A119:A129"/>
+    <mergeCell ref="A172:A181"/>
+    <mergeCell ref="B182:B184"/>
+    <mergeCell ref="C182:C184"/>
+    <mergeCell ref="B185:B187"/>
+    <mergeCell ref="C185:C187"/>
+    <mergeCell ref="A182:A187"/>
+    <mergeCell ref="B195:B197"/>
+    <mergeCell ref="C201:C203"/>
+    <mergeCell ref="B201:B203"/>
+    <mergeCell ref="B204:B209"/>
+    <mergeCell ref="C204:C209"/>
+    <mergeCell ref="B211:B214"/>
+    <mergeCell ref="A285:A288"/>
+    <mergeCell ref="A188:A227"/>
+    <mergeCell ref="B177:B181"/>
+    <mergeCell ref="C177:C181"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="C175:C176"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="C173:C174"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="A21:A40"/>
-    <mergeCell ref="B69:B79"/>
-    <mergeCell ref="C69:C79"/>
+    <mergeCell ref="B70:B80"/>
+    <mergeCell ref="C70:C80"/>
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="C35:C38"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="C25:C30"/>
-    <mergeCell ref="A41:A65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="A66:A100"/>
-    <mergeCell ref="B90:B95"/>
-    <mergeCell ref="C90:C95"/>
-    <mergeCell ref="A305:A312"/>
-    <mergeCell ref="C124:C128"/>
-    <mergeCell ref="B124:B128"/>
-    <mergeCell ref="A118:A128"/>
-    <mergeCell ref="A171:A180"/>
-    <mergeCell ref="B181:B183"/>
-    <mergeCell ref="C181:C183"/>
-    <mergeCell ref="B184:B186"/>
-    <mergeCell ref="C184:C186"/>
-    <mergeCell ref="A181:A186"/>
-    <mergeCell ref="B194:B196"/>
-    <mergeCell ref="C200:C202"/>
-    <mergeCell ref="B200:B202"/>
-    <mergeCell ref="B203:B208"/>
-    <mergeCell ref="C203:C208"/>
-    <mergeCell ref="B210:B213"/>
-    <mergeCell ref="A284:A287"/>
-    <mergeCell ref="A187:A226"/>
-    <mergeCell ref="B176:B180"/>
-    <mergeCell ref="C176:C180"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A263:A268"/>
-    <mergeCell ref="A129:A170"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="B133:B135"/>
-    <mergeCell ref="C133:C135"/>
-    <mergeCell ref="B136:B139"/>
-    <mergeCell ref="C136:C139"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="B147:B150"/>
-    <mergeCell ref="C147:C150"/>
-    <mergeCell ref="B151:B154"/>
-    <mergeCell ref="C151:C154"/>
-    <mergeCell ref="B155:B159"/>
-    <mergeCell ref="C155:C159"/>
-    <mergeCell ref="C210:C213"/>
-    <mergeCell ref="C214:C222"/>
-    <mergeCell ref="B214:B222"/>
-    <mergeCell ref="B223:B225"/>
-    <mergeCell ref="C223:C225"/>
-    <mergeCell ref="B197:B199"/>
-    <mergeCell ref="C197:C199"/>
-    <mergeCell ref="C228:C231"/>
+    <mergeCell ref="A41:A66"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="A67:A101"/>
+    <mergeCell ref="B91:B96"/>
+    <mergeCell ref="C91:C96"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A102:A107"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="C112:C115"/>
+    <mergeCell ref="A108:A116"/>
+    <mergeCell ref="F86:G88"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="C102:C107"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C141:C145"/>
+    <mergeCell ref="B141:B145"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="D191:D192"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="D189:D190"/>
+    <mergeCell ref="C162:C164"/>
+    <mergeCell ref="B165:B168"/>
+    <mergeCell ref="C165:C168"/>
+    <mergeCell ref="B169:B171"/>
+    <mergeCell ref="C169:C171"/>
+    <mergeCell ref="B188:B194"/>
+    <mergeCell ref="C188:C194"/>
+    <mergeCell ref="C258:C263"/>
+    <mergeCell ref="B258:B263"/>
+    <mergeCell ref="A253:A263"/>
+    <mergeCell ref="E258:E262"/>
+    <mergeCell ref="C242:C246"/>
+    <mergeCell ref="B242:B246"/>
+    <mergeCell ref="C247:C252"/>
+    <mergeCell ref="B247:B252"/>
+    <mergeCell ref="A228:A252"/>
+    <mergeCell ref="C233:C235"/>
+    <mergeCell ref="B233:B235"/>
+    <mergeCell ref="C237:C241"/>
+    <mergeCell ref="B237:B241"/>
+    <mergeCell ref="B229:B232"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F84" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D209" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="F85" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D210" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -12360,7 +12383,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="81" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="87" t="s">
         <v>690</v>
       </c>
       <c r="B1" s="14" t="s">
@@ -12371,7 +12394,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
+      <c r="A2" s="87"/>
       <c r="B2" s="14" t="s">
         <v>693</v>
       </c>
@@ -12380,7 +12403,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="87" t="s">
         <v>694</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -12391,7 +12414,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A4" s="85"/>
+      <c r="A4" s="87"/>
       <c r="B4" s="14" t="s">
         <v>696</v>
       </c>
@@ -12400,13 +12423,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="85"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="14" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A6" s="85"/>
+      <c r="A6" s="87"/>
       <c r="B6" s="14" t="s">
         <v>700</v>
       </c>
@@ -12415,7 +12438,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="85"/>
+      <c r="A7" s="87"/>
       <c r="B7" s="14" t="s">
         <v>702</v>
       </c>
@@ -12424,7 +12447,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="86" t="s">
         <v>704</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -12432,7 +12455,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="81" x14ac:dyDescent="0.15">
-      <c r="A9" s="84"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="14" t="s">
         <v>705</v>
       </c>
@@ -12441,7 +12464,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="84"/>
+      <c r="A10" s="86"/>
       <c r="B10" s="14" t="s">
         <v>707</v>
       </c>
@@ -12450,7 +12473,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="84"/>
+      <c r="A11" s="86"/>
       <c r="B11" s="14" t="s">
         <v>709</v>
       </c>
@@ -12459,7 +12482,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="87" t="s">
         <v>712</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -12473,7 +12496,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="85"/>
+      <c r="A13" s="87"/>
       <c r="B13" s="90" t="s">
         <v>716</v>
       </c>
@@ -12485,7 +12508,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="85"/>
+      <c r="A14" s="87"/>
       <c r="B14" s="90"/>
       <c r="C14" s="14" t="s">
         <v>718</v>
@@ -12493,7 +12516,7 @@
       <c r="D14" s="90"/>
     </row>
     <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="85"/>
+      <c r="A15" s="87"/>
       <c r="B15" s="90"/>
       <c r="C15" s="14" t="s">
         <v>719</v>
@@ -12501,7 +12524,7 @@
       <c r="D15" s="90"/>
     </row>
     <row r="16" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="85"/>
+      <c r="A16" s="87"/>
       <c r="B16" s="90" t="s">
         <v>721</v>
       </c>
@@ -12510,14 +12533,14 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A17" s="85"/>
+      <c r="A17" s="87"/>
       <c r="B17" s="90"/>
       <c r="C17" s="14" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="85"/>
+      <c r="A18" s="87"/>
       <c r="B18" s="14" t="s">
         <v>723</v>
       </c>
@@ -12526,7 +12549,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="81" x14ac:dyDescent="0.15">
-      <c r="A19" s="85"/>
+      <c r="A19" s="87"/>
       <c r="B19" s="14" t="s">
         <v>725</v>
       </c>
@@ -12535,7 +12558,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A20" s="85"/>
+      <c r="A20" s="87"/>
       <c r="B20" s="14" t="s">
         <v>972</v>
       </c>
@@ -12544,7 +12567,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A21" s="85"/>
+      <c r="A21" s="87"/>
       <c r="B21" s="14" t="s">
         <v>727</v>
       </c>
@@ -12553,7 +12576,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A22" s="125" t="s">
+      <c r="A22" s="129" t="s">
         <v>729</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -12570,8 +12593,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="125"/>
-      <c r="B23" s="84" t="s">
+      <c r="A23" s="129"/>
+      <c r="B23" s="86" t="s">
         <v>732</v>
       </c>
       <c r="C23" s="14" t="s">
@@ -12585,21 +12608,21 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="125"/>
-      <c r="B24" s="84"/>
+      <c r="A24" s="129"/>
+      <c r="B24" s="86"/>
       <c r="C24" s="14" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="125"/>
-      <c r="B25" s="84"/>
+      <c r="A25" s="129"/>
+      <c r="B25" s="86"/>
       <c r="C25" s="14" t="s">
         <v>1213</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="125"/>
+      <c r="A26" s="129"/>
       <c r="B26" s="14" t="s">
         <v>735</v>
       </c>
@@ -12608,7 +12631,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="125"/>
+      <c r="A27" s="129"/>
       <c r="B27" s="14" t="s">
         <v>737</v>
       </c>
@@ -12623,7 +12646,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="125"/>
+      <c r="A28" s="129"/>
       <c r="B28" s="14" t="s">
         <v>740</v>
       </c>
@@ -12635,8 +12658,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="125"/>
-      <c r="B29" s="84" t="s">
+      <c r="A29" s="129"/>
+      <c r="B29" s="86" t="s">
         <v>743</v>
       </c>
       <c r="C29" s="14" t="s">
@@ -12647,16 +12670,16 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="125"/>
-      <c r="B30" s="84"/>
+      <c r="A30" s="129"/>
+      <c r="B30" s="86"/>
       <c r="C30" s="14" t="s">
         <v>745</v>
       </c>
       <c r="D30" s="90"/>
     </row>
     <row r="31" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="125"/>
-      <c r="B31" s="84"/>
+      <c r="A31" s="129"/>
+      <c r="B31" s="86"/>
       <c r="C31" s="14" t="s">
         <v>1214</v>
       </c>
@@ -12666,13 +12689,13 @@
       <c r="E31" s="90"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="125"/>
+      <c r="A32" s="129"/>
       <c r="B32" s="14" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A33" s="125"/>
+      <c r="A33" s="129"/>
       <c r="B33" s="14" t="s">
         <v>746</v>
       </c>
@@ -12681,7 +12704,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="125"/>
+      <c r="A34" s="129"/>
       <c r="B34" s="14" t="s">
         <v>748</v>
       </c>
@@ -12696,7 +12719,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="125" t="s">
+      <c r="A35" s="129" t="s">
         <v>915</v>
       </c>
       <c r="B35" s="14" t="s">
@@ -12710,13 +12733,13 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="125"/>
+      <c r="A36" s="129"/>
       <c r="B36" s="30" t="s">
         <v>997</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="125"/>
+      <c r="A37" s="129"/>
       <c r="B37" s="30" t="s">
         <v>923</v>
       </c>
@@ -12731,7 +12754,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A38" s="125"/>
+      <c r="A38" s="129"/>
       <c r="B38" s="30" t="s">
         <v>924</v>
       </c>
@@ -12743,7 +12766,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="125"/>
+      <c r="A39" s="129"/>
       <c r="B39" s="30" t="s">
         <v>926</v>
       </c>
@@ -12755,7 +12778,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="125"/>
+      <c r="A40" s="129"/>
       <c r="B40" s="30" t="s">
         <v>928</v>
       </c>
@@ -12767,7 +12790,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="125"/>
+      <c r="A41" s="129"/>
       <c r="B41" s="30" t="s">
         <v>928</v>
       </c>
@@ -12779,7 +12802,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="125"/>
+      <c r="A42" s="129"/>
       <c r="B42" s="30" t="s">
         <v>930</v>
       </c>
@@ -12788,7 +12811,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="125"/>
+      <c r="A43" s="129"/>
       <c r="B43" s="45" t="s">
         <v>995</v>
       </c>
@@ -12797,7 +12820,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="125"/>
+      <c r="A44" s="129"/>
       <c r="B44" s="45" t="s">
         <v>934</v>
       </c>
@@ -12809,7 +12832,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A45" s="125"/>
+      <c r="A45" s="129"/>
       <c r="B45" s="45"/>
       <c r="C45" s="44" t="s">
         <v>999</v>
@@ -12822,7 +12845,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="125"/>
+      <c r="A46" s="129"/>
       <c r="B46" s="45"/>
       <c r="C46" s="14" t="s">
         <v>937</v>
@@ -12832,7 +12855,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="125"/>
+      <c r="A47" s="129"/>
       <c r="B47" s="45"/>
       <c r="C47" s="14" t="s">
         <v>1001</v>
@@ -12845,7 +12868,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="125"/>
+      <c r="A48" s="129"/>
       <c r="B48" s="45"/>
       <c r="C48" s="14" t="s">
         <v>1004</v>
@@ -12855,7 +12878,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A49" s="125"/>
+      <c r="A49" s="129"/>
       <c r="B49" s="45"/>
       <c r="C49" s="14" t="s">
         <v>1006</v>
@@ -12868,7 +12891,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="125"/>
+      <c r="A50" s="129"/>
       <c r="B50" s="45"/>
       <c r="C50" s="44" t="s">
         <v>1008</v>
@@ -12883,7 +12906,7 @@
       <c r="C51" s="44"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="85" t="s">
+      <c r="A52" s="87" t="s">
         <v>750</v>
       </c>
       <c r="B52" s="30" t="s">
@@ -12891,31 +12914,31 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="85"/>
+      <c r="A53" s="87"/>
       <c r="B53" s="30" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="85"/>
+      <c r="A54" s="87"/>
       <c r="B54" s="30" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="85"/>
+      <c r="A55" s="87"/>
       <c r="B55" s="30" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="85"/>
+      <c r="A56" s="87"/>
       <c r="B56" s="30" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="85"/>
+      <c r="A57" s="87"/>
       <c r="B57" s="30" t="s">
         <v>756</v>
       </c>
@@ -12924,7 +12947,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="85"/>
+      <c r="A58" s="87"/>
       <c r="B58" s="31" t="s">
         <v>978</v>
       </c>
@@ -12936,61 +12959,61 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="85"/>
+      <c r="A59" s="87"/>
       <c r="B59" s="32" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="85"/>
+      <c r="A60" s="87"/>
       <c r="B60" s="32" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="85"/>
+      <c r="A61" s="87"/>
       <c r="B61" s="33" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="85"/>
+      <c r="A62" s="87"/>
       <c r="B62" s="33" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="85"/>
+      <c r="A63" s="87"/>
       <c r="B63" s="33" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="85"/>
+      <c r="A64" s="87"/>
       <c r="B64" s="33" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="85"/>
+      <c r="A65" s="87"/>
       <c r="B65" s="32" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="85"/>
+      <c r="A66" s="87"/>
       <c r="B66" s="34" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="85"/>
+      <c r="A67" s="87"/>
       <c r="B67" s="35" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" s="85"/>
+      <c r="A68" s="87"/>
       <c r="B68" s="35" t="s">
         <v>774</v>
       </c>
@@ -12999,31 +13022,31 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="85"/>
+      <c r="A69" s="87"/>
       <c r="B69" s="34" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" s="85"/>
+      <c r="A70" s="87"/>
       <c r="B70" s="34" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" s="85"/>
+      <c r="A71" s="87"/>
       <c r="B71" s="34" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72" s="85"/>
+      <c r="A72" s="87"/>
       <c r="B72" s="34" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A73" s="85"/>
+      <c r="A73" s="87"/>
       <c r="B73" s="34" t="s">
         <v>779</v>
       </c>
@@ -13032,13 +13055,13 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="85"/>
+      <c r="A74" s="87"/>
       <c r="B74" s="36" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A75" s="85"/>
+      <c r="A75" s="87"/>
       <c r="B75" s="36" t="s">
         <v>782</v>
       </c>
@@ -13050,7 +13073,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="85"/>
+      <c r="A76" s="87"/>
       <c r="B76" s="36" t="s">
         <v>783</v>
       </c>
@@ -13062,7 +13085,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="85"/>
+      <c r="A77" s="87"/>
       <c r="B77" s="36" t="s">
         <v>784</v>
       </c>
@@ -13074,7 +13097,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A78" s="85"/>
+      <c r="A78" s="87"/>
       <c r="B78" s="14" t="s">
         <v>785</v>
       </c>
@@ -13083,8 +13106,8 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A79" s="85"/>
-      <c r="B79" s="84" t="s">
+      <c r="A79" s="87"/>
+      <c r="B79" s="86" t="s">
         <v>1234</v>
       </c>
       <c r="C79" s="14" t="s">
@@ -13095,8 +13118,8 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A80" s="85"/>
-      <c r="B80" s="84"/>
+      <c r="A80" s="87"/>
+      <c r="B80" s="86"/>
       <c r="C80" s="14" t="s">
         <v>1237</v>
       </c>
@@ -13105,7 +13128,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A81" s="84" t="s">
+      <c r="A81" s="86" t="s">
         <v>989</v>
       </c>
       <c r="B81" s="43" t="s">
@@ -13116,7 +13139,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="84"/>
+      <c r="A82" s="86"/>
       <c r="B82" s="43" t="s">
         <v>939</v>
       </c>
@@ -13128,7 +13151,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A83" s="84"/>
+      <c r="A83" s="86"/>
       <c r="B83" s="14" t="s">
         <v>987</v>
       </c>
@@ -13137,7 +13160,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A84" s="84"/>
+      <c r="A84" s="86"/>
       <c r="B84" s="14" t="s">
         <v>943</v>
       </c>
@@ -13146,7 +13169,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A85" s="84"/>
+      <c r="A85" s="86"/>
       <c r="B85" s="14" t="s">
         <v>988</v>
       </c>
@@ -13155,7 +13178,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A86" s="84"/>
+      <c r="A86" s="86"/>
       <c r="B86" s="14" t="s">
         <v>946</v>
       </c>
@@ -13164,7 +13187,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A87" s="84"/>
+      <c r="A87" s="86"/>
       <c r="B87" s="14" t="s">
         <v>990</v>
       </c>
@@ -13173,7 +13196,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A88" s="84"/>
+      <c r="A88" s="86"/>
       <c r="B88" s="14" t="s">
         <v>992</v>
       </c>
@@ -13182,7 +13205,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A89" s="84"/>
+      <c r="A89" s="86"/>
       <c r="B89" t="s">
         <v>951</v>
       </c>
@@ -13194,7 +13217,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A90" s="85" t="s">
+      <c r="A90" s="87" t="s">
         <v>765</v>
       </c>
       <c r="B90" s="14" t="s">
@@ -13205,7 +13228,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="85"/>
+      <c r="A91" s="87"/>
       <c r="B91" s="14" t="s">
         <v>768</v>
       </c>
@@ -13217,7 +13240,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A92" s="85"/>
+      <c r="A92" s="87"/>
       <c r="B92" s="14" t="s">
         <v>1014</v>
       </c>
@@ -13226,7 +13249,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A93" s="85"/>
+      <c r="A93" s="87"/>
       <c r="B93" s="14" t="s">
         <v>771</v>
       </c>
@@ -13241,7 +13264,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A94" s="85"/>
+      <c r="A94" s="87"/>
       <c r="B94" s="14" t="s">
         <v>1016</v>
       </c>
@@ -13253,7 +13276,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="108" x14ac:dyDescent="0.15">
-      <c r="A95" s="85"/>
+      <c r="A95" s="87"/>
       <c r="B95" s="14" t="s">
         <v>849</v>
       </c>
@@ -13265,7 +13288,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="189" x14ac:dyDescent="0.15">
-      <c r="A96" s="85"/>
+      <c r="A96" s="87"/>
       <c r="B96" s="14" t="s">
         <v>1185</v>
       </c>
@@ -13277,8 +13300,8 @@
       </c>
     </row>
     <row r="97" spans="1:5" ht="127.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="85"/>
-      <c r="B97" s="84" t="s">
+      <c r="A97" s="87"/>
+      <c r="B97" s="86" t="s">
         <v>1214</v>
       </c>
       <c r="C97" s="90" t="s">
@@ -13287,8 +13310,8 @@
       <c r="D97" s="90"/>
     </row>
     <row r="98" spans="1:5" ht="190.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="85"/>
-      <c r="B98" s="84"/>
+      <c r="A98" s="87"/>
+      <c r="B98" s="86"/>
       <c r="C98" s="14" t="s">
         <v>1221</v>
       </c>
@@ -13300,8 +13323,8 @@
       </c>
     </row>
     <row r="99" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A99" s="85"/>
-      <c r="B99" s="84"/>
+      <c r="A99" s="87"/>
+      <c r="B99" s="86"/>
       <c r="C99" s="14" t="s">
         <v>1226</v>
       </c>
@@ -13311,8 +13334,8 @@
       <c r="E99" s="19"/>
     </row>
     <row r="100" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A100" s="85"/>
-      <c r="B100" s="84"/>
+      <c r="A100" s="87"/>
+      <c r="B100" s="86"/>
       <c r="C100" s="14" t="s">
         <v>1225</v>
       </c>
@@ -13322,8 +13345,8 @@
       <c r="E100" s="19"/>
     </row>
     <row r="101" spans="1:5" ht="162" x14ac:dyDescent="0.15">
-      <c r="A101" s="85"/>
-      <c r="B101" s="84"/>
+      <c r="A101" s="87"/>
+      <c r="B101" s="86"/>
       <c r="C101" s="14" t="s">
         <v>1240</v>
       </c>
@@ -13333,28 +13356,28 @@
       <c r="E101" s="19"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A102" s="85"/>
-      <c r="B102" s="84"/>
+      <c r="A102" s="87"/>
+      <c r="B102" s="86"/>
       <c r="E102" s="19"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A103" s="85"/>
-      <c r="B103" s="84"/>
+      <c r="A103" s="87"/>
+      <c r="B103" s="86"/>
       <c r="E103" s="19"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A104" s="85"/>
-      <c r="B104" s="84"/>
+      <c r="A104" s="87"/>
+      <c r="B104" s="86"/>
       <c r="E104" s="19"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A105" s="85"/>
+      <c r="A105" s="87"/>
       <c r="B105" t="s">
         <v>1012</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="85"/>
+      <c r="A106" s="87"/>
       <c r="B106" s="14" t="s">
         <v>1013</v>
       </c>
@@ -13363,7 +13386,7 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A107" s="84" t="s">
+      <c r="A107" s="86" t="s">
         <v>1188</v>
       </c>
       <c r="B107" s="14" t="s">
@@ -13375,8 +13398,8 @@
       <c r="E107" s="14"/>
     </row>
     <row r="108" spans="1:5" ht="243" x14ac:dyDescent="0.15">
-      <c r="A108" s="84"/>
-      <c r="B108" s="84" t="s">
+      <c r="A108" s="86"/>
+      <c r="B108" s="86" t="s">
         <v>1190</v>
       </c>
       <c r="C108" s="14" t="s">
@@ -13390,8 +13413,8 @@
       </c>
     </row>
     <row r="109" spans="1:5" ht="229.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="84"/>
-      <c r="B109" s="84"/>
+      <c r="A109" s="86"/>
+      <c r="B109" s="86"/>
       <c r="C109" s="14" t="s">
         <v>1207</v>
       </c>
@@ -13400,8 +13423,8 @@
       </c>
     </row>
     <row r="110" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A110" s="84"/>
-      <c r="B110" s="84"/>
+      <c r="A110" s="86"/>
+      <c r="B110" s="86"/>
       <c r="C110" s="14" t="s">
         <v>1206</v>
       </c>
@@ -13410,7 +13433,7 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A111" s="84"/>
+      <c r="A111" s="86"/>
       <c r="B111" s="14" t="s">
         <v>1191</v>
       </c>
@@ -13449,7 +13472,7 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A121" s="124" t="s">
+      <c r="A121" s="128" t="s">
         <v>856</v>
       </c>
       <c r="B121" s="56" t="s">
@@ -13457,7 +13480,7 @@
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A122" s="124"/>
+      <c r="A122" s="128"/>
       <c r="B122" s="57" t="s">
         <v>858</v>
       </c>
@@ -13466,7 +13489,7 @@
       </c>
     </row>
     <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="124"/>
+      <c r="A123" s="128"/>
       <c r="B123" s="57" t="s">
         <v>860</v>
       </c>
@@ -13478,7 +13501,7 @@
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A124" s="124"/>
+      <c r="A124" s="128"/>
       <c r="B124" s="58" t="s">
         <v>863</v>
       </c>
@@ -13487,14 +13510,14 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A125" s="124"/>
+      <c r="A125" s="128"/>
       <c r="B125" s="56" t="s">
         <v>865</v>
       </c>
       <c r="E125" s="14"/>
     </row>
     <row r="126" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="124"/>
+      <c r="A126" s="128"/>
       <c r="B126" s="57" t="s">
         <v>866</v>
       </c>
@@ -13509,7 +13532,7 @@
       </c>
     </row>
     <row r="127" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="124"/>
+      <c r="A127" s="128"/>
       <c r="B127" s="57" t="s">
         <v>1193</v>
       </c>
@@ -13522,7 +13545,7 @@
       <c r="E127" s="14"/>
     </row>
     <row r="128" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="124"/>
+      <c r="A128" s="128"/>
       <c r="B128" s="57" t="s">
         <v>1195</v>
       </c>
@@ -13535,7 +13558,7 @@
       <c r="E128" s="14"/>
     </row>
     <row r="129" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="124"/>
+      <c r="A129" s="128"/>
       <c r="B129" s="57" t="s">
         <v>1143</v>
       </c>
@@ -13547,7 +13570,7 @@
       </c>
     </row>
     <row r="130" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="124"/>
+      <c r="A130" s="128"/>
       <c r="B130" s="57" t="s">
         <v>868</v>
       </c>
@@ -13559,7 +13582,7 @@
       </c>
     </row>
     <row r="131" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="124"/>
+      <c r="A131" s="128"/>
       <c r="B131" s="48" t="s">
         <v>870</v>
       </c>
@@ -13571,7 +13594,7 @@
       </c>
     </row>
     <row r="132" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="124"/>
+      <c r="A132" s="128"/>
       <c r="B132" s="48" t="s">
         <v>872</v>
       </c>
@@ -13583,7 +13606,7 @@
       </c>
     </row>
     <row r="133" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="124"/>
+      <c r="A133" s="128"/>
       <c r="B133" s="48" t="s">
         <v>876</v>
       </c>
@@ -13595,7 +13618,7 @@
       </c>
     </row>
     <row r="134" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="124"/>
+      <c r="A134" s="128"/>
       <c r="B134" s="48" t="s">
         <v>890</v>
       </c>
@@ -13605,7 +13628,7 @@
       <c r="D134" s="40"/>
     </row>
     <row r="135" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="124"/>
+      <c r="A135" s="128"/>
       <c r="B135" s="57" t="s">
         <v>874</v>
       </c>
@@ -13617,7 +13640,7 @@
       </c>
     </row>
     <row r="136" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="124"/>
+      <c r="A136" s="128"/>
       <c r="B136" s="57" t="s">
         <v>878</v>
       </c>
@@ -13632,7 +13655,7 @@
       </c>
     </row>
     <row r="137" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="124"/>
+      <c r="A137" s="128"/>
       <c r="B137" s="57" t="s">
         <v>880</v>
       </c>
@@ -13647,7 +13670,7 @@
       </c>
     </row>
     <row r="138" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="124"/>
+      <c r="A138" s="128"/>
       <c r="B138" s="57" t="s">
         <v>882</v>
       </c>
@@ -13659,7 +13682,7 @@
       </c>
     </row>
     <row r="139" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="124"/>
+      <c r="A139" s="128"/>
       <c r="B139" s="57" t="s">
         <v>886</v>
       </c>
@@ -13671,7 +13694,7 @@
       </c>
     </row>
     <row r="140" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="124"/>
+      <c r="A140" s="128"/>
       <c r="B140" s="57" t="s">
         <v>888</v>
       </c>
@@ -13680,7 +13703,7 @@
       </c>
     </row>
     <row r="141" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="124"/>
+      <c r="A141" s="128"/>
       <c r="B141" s="57" t="s">
         <v>892</v>
       </c>
@@ -13689,7 +13712,7 @@
       </c>
     </row>
     <row r="142" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="124"/>
+      <c r="A142" s="128"/>
       <c r="B142" s="57" t="s">
         <v>884</v>
       </c>
@@ -13698,19 +13721,19 @@
       </c>
     </row>
     <row r="143" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="124"/>
+      <c r="A143" s="128"/>
       <c r="B143" s="57" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="124"/>
+      <c r="A144" s="128"/>
       <c r="B144" s="58" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A145" s="127" t="s">
+      <c r="A145" s="126" t="s">
         <v>1032</v>
       </c>
       <c r="B145" s="54" t="s">
@@ -13718,7 +13741,7 @@
       </c>
     </row>
     <row r="146" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="127"/>
+      <c r="A146" s="126"/>
       <c r="B146" s="52" t="s">
         <v>1034</v>
       </c>
@@ -13727,7 +13750,7 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A147" s="127"/>
+      <c r="A147" s="126"/>
       <c r="B147" s="52" t="s">
         <v>1018</v>
       </c>
@@ -13736,7 +13759,7 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A148" s="127"/>
+      <c r="A148" s="126"/>
       <c r="B148" s="52" t="s">
         <v>1020</v>
       </c>
@@ -13745,7 +13768,7 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A149" s="127"/>
+      <c r="A149" s="126"/>
       <c r="B149" s="52" t="s">
         <v>1022</v>
       </c>
@@ -13754,7 +13777,7 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A150" s="127"/>
+      <c r="A150" s="126"/>
       <c r="B150" s="52" t="s">
         <v>1024</v>
       </c>
@@ -13763,7 +13786,7 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A151" s="127"/>
+      <c r="A151" s="126"/>
       <c r="B151" s="52" t="s">
         <v>1026</v>
       </c>
@@ -13772,7 +13795,7 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A152" s="127"/>
+      <c r="A152" s="126"/>
       <c r="B152" s="52" t="s">
         <v>1028</v>
       </c>
@@ -13781,7 +13804,7 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A153" s="127"/>
+      <c r="A153" s="126"/>
       <c r="B153" s="53" t="s">
         <v>1030</v>
       </c>
@@ -13790,7 +13813,7 @@
       </c>
     </row>
     <row r="154" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="127"/>
+      <c r="A154" s="126"/>
       <c r="B154" s="49" t="s">
         <v>1036</v>
       </c>
@@ -13798,7 +13821,7 @@
       <c r="D154"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A155" s="127"/>
+      <c r="A155" s="126"/>
       <c r="B155" s="50" t="s">
         <v>1038</v>
       </c>
@@ -13808,7 +13831,7 @@
       <c r="D155"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A156" s="127"/>
+      <c r="A156" s="126"/>
       <c r="B156" s="50" t="s">
         <v>1040</v>
       </c>
@@ -13818,7 +13841,7 @@
       <c r="D156"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A157" s="127"/>
+      <c r="A157" s="126"/>
       <c r="B157" s="50" t="s">
         <v>1042</v>
       </c>
@@ -13828,7 +13851,7 @@
       <c r="D157"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A158" s="127"/>
+      <c r="A158" s="126"/>
       <c r="B158" s="50" t="s">
         <v>1044</v>
       </c>
@@ -13838,7 +13861,7 @@
       <c r="D158"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A159" s="127"/>
+      <c r="A159" s="126"/>
       <c r="B159" s="50" t="s">
         <v>1046</v>
       </c>
@@ -13848,7 +13871,7 @@
       <c r="D159"/>
     </row>
     <row r="160" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A160" s="127"/>
+      <c r="A160" s="126"/>
       <c r="B160" s="51" t="s">
         <v>1048</v>
       </c>
@@ -13858,7 +13881,7 @@
       <c r="D160"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161" s="127"/>
+      <c r="A161" s="126"/>
       <c r="B161" s="50" t="s">
         <v>1050</v>
       </c>
@@ -13868,7 +13891,7 @@
       <c r="D161"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A162" s="127"/>
+      <c r="A162" s="126"/>
       <c r="B162" s="50" t="s">
         <v>1052</v>
       </c>
@@ -13878,7 +13901,7 @@
       <c r="D162"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A163" s="127"/>
+      <c r="A163" s="126"/>
       <c r="B163" s="50" t="s">
         <v>1054</v>
       </c>
@@ -13888,7 +13911,7 @@
       <c r="D163"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A164" s="127"/>
+      <c r="A164" s="126"/>
       <c r="B164" s="50" t="s">
         <v>1056</v>
       </c>
@@ -13898,7 +13921,7 @@
       <c r="D164"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A165" s="127"/>
+      <c r="A165" s="126"/>
       <c r="B165" s="50" t="s">
         <v>1058</v>
       </c>
@@ -13908,7 +13931,7 @@
       <c r="D165"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A166" s="127"/>
+      <c r="A166" s="126"/>
       <c r="B166" s="52" t="s">
         <v>1060</v>
       </c>
@@ -13917,7 +13940,7 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A167" s="127"/>
+      <c r="A167" s="126"/>
       <c r="B167" s="52" t="s">
         <v>1062</v>
       </c>
@@ -13926,7 +13949,7 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A168" s="127"/>
+      <c r="A168" s="126"/>
       <c r="B168" s="52" t="s">
         <v>1064</v>
       </c>
@@ -13938,7 +13961,7 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A169" s="127"/>
+      <c r="A169" s="126"/>
       <c r="B169" s="52" t="s">
         <v>1066</v>
       </c>
@@ -13947,7 +13970,7 @@
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A170" s="127"/>
+      <c r="A170" s="126"/>
       <c r="B170" s="52" t="s">
         <v>1068</v>
       </c>
@@ -13956,7 +13979,7 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A171" s="127"/>
+      <c r="A171" s="126"/>
       <c r="B171" s="52" t="s">
         <v>1070</v>
       </c>
@@ -13965,7 +13988,7 @@
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A172" s="127"/>
+      <c r="A172" s="126"/>
       <c r="B172" s="52" t="s">
         <v>1072</v>
       </c>
@@ -13974,7 +13997,7 @@
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A173" s="127"/>
+      <c r="A173" s="126"/>
       <c r="B173" s="52" t="s">
         <v>884</v>
       </c>
@@ -13983,7 +14006,7 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A174" s="127"/>
+      <c r="A174" s="126"/>
       <c r="B174" s="53" t="s">
         <v>892</v>
       </c>
@@ -13992,7 +14015,7 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A175" s="128" t="s">
+      <c r="A175" s="127" t="s">
         <v>1076</v>
       </c>
       <c r="B175" s="59" t="s">
@@ -14003,7 +14026,7 @@
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A176" s="128"/>
+      <c r="A176" s="127"/>
       <c r="B176" s="60" t="s">
         <v>1078</v>
       </c>
@@ -14012,7 +14035,7 @@
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A177" s="128"/>
+      <c r="A177" s="127"/>
       <c r="B177" s="60" t="s">
         <v>1080</v>
       </c>
@@ -14021,7 +14044,7 @@
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A178" s="128"/>
+      <c r="A178" s="127"/>
       <c r="B178" s="60" t="s">
         <v>1082</v>
       </c>
@@ -14030,7 +14053,7 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A179" s="128"/>
+      <c r="A179" s="127"/>
       <c r="B179" s="60" t="s">
         <v>1084</v>
       </c>
@@ -14039,7 +14062,7 @@
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A180" s="128"/>
+      <c r="A180" s="127"/>
       <c r="B180" s="60" t="s">
         <v>1086</v>
       </c>
@@ -14048,7 +14071,7 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A181" s="128"/>
+      <c r="A181" s="127"/>
       <c r="B181" s="60" t="s">
         <v>1088</v>
       </c>
@@ -14057,7 +14080,7 @@
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A182" s="128"/>
+      <c r="A182" s="127"/>
       <c r="B182" s="61" t="s">
         <v>1090</v>
       </c>
@@ -14066,7 +14089,7 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A183" s="128"/>
+      <c r="A183" s="127"/>
       <c r="B183" s="59" t="s">
         <v>1036</v>
       </c>
@@ -14075,7 +14098,7 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A184" s="128"/>
+      <c r="A184" s="127"/>
       <c r="B184" s="60" t="s">
         <v>1103</v>
       </c>
@@ -14087,7 +14110,7 @@
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A185" s="128"/>
+      <c r="A185" s="127"/>
       <c r="B185" s="60" t="s">
         <v>1098</v>
       </c>
@@ -14096,7 +14119,7 @@
       </c>
     </row>
     <row r="186" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A186" s="128"/>
+      <c r="A186" s="127"/>
       <c r="B186" s="60" t="s">
         <v>1099</v>
       </c>
@@ -14105,7 +14128,7 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A187" s="128"/>
+      <c r="A187" s="127"/>
       <c r="B187" s="60" t="s">
         <v>1100</v>
       </c>
@@ -14114,7 +14137,7 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A188" s="128"/>
+      <c r="A188" s="127"/>
       <c r="B188" s="60" t="s">
         <v>1101</v>
       </c>
@@ -14123,7 +14146,7 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A189" s="128"/>
+      <c r="A189" s="127"/>
       <c r="B189" s="60" t="s">
         <v>1102</v>
       </c>
@@ -14132,7 +14155,7 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A190" s="126" t="s">
+      <c r="A190" s="125" t="s">
         <v>1118</v>
       </c>
       <c r="B190" s="62" t="s">
@@ -14143,7 +14166,7 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A191" s="126"/>
+      <c r="A191" s="125"/>
       <c r="B191" s="63" t="s">
         <v>1078</v>
       </c>
@@ -14152,7 +14175,7 @@
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A192" s="126"/>
+      <c r="A192" s="125"/>
       <c r="B192" s="63" t="s">
         <v>269</v>
       </c>
@@ -14161,7 +14184,7 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A193" s="126"/>
+      <c r="A193" s="125"/>
       <c r="B193" s="64" t="s">
         <v>1090</v>
       </c>
@@ -14170,7 +14193,7 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A194" s="126"/>
+      <c r="A194" s="125"/>
       <c r="B194" s="62" t="s">
         <v>1036</v>
       </c>
@@ -14179,7 +14202,7 @@
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A195" s="126"/>
+      <c r="A195" s="125"/>
       <c r="B195" s="63" t="s">
         <v>1122</v>
       </c>
@@ -14188,7 +14211,7 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A196" s="126"/>
+      <c r="A196" s="125"/>
       <c r="B196" s="63" t="s">
         <v>1124</v>
       </c>
@@ -14197,7 +14220,7 @@
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A197" s="126"/>
+      <c r="A197" s="125"/>
       <c r="B197" s="63" t="s">
         <v>1126</v>
       </c>
@@ -14206,7 +14229,7 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A198" s="126"/>
+      <c r="A198" s="125"/>
       <c r="B198" s="63" t="s">
         <v>1128</v>
       </c>
@@ -14215,7 +14238,7 @@
       </c>
     </row>
     <row r="199" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A199" s="126"/>
+      <c r="A199" s="125"/>
       <c r="B199" s="63" t="s">
         <v>1130</v>
       </c>
@@ -14227,7 +14250,7 @@
       </c>
     </row>
     <row r="200" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A200" s="126"/>
+      <c r="A200" s="125"/>
       <c r="B200" s="63" t="s">
         <v>1132</v>
       </c>
@@ -14239,7 +14262,7 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A201" s="126"/>
+      <c r="A201" s="125"/>
       <c r="B201" s="63" t="s">
         <v>866</v>
       </c>
@@ -14248,7 +14271,7 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A202" s="126"/>
+      <c r="A202" s="125"/>
       <c r="B202" s="63" t="s">
         <v>1135</v>
       </c>
@@ -14257,7 +14280,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A203" s="126"/>
+      <c r="A203" s="125"/>
       <c r="B203" s="63" t="s">
         <v>1137</v>
       </c>
@@ -14266,7 +14289,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A204" s="126"/>
+      <c r="A204" s="125"/>
       <c r="B204" s="63" t="s">
         <v>1139</v>
       </c>
@@ -14275,7 +14298,7 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A205" s="126"/>
+      <c r="A205" s="125"/>
       <c r="B205" s="63" t="s">
         <v>1141</v>
       </c>
@@ -14284,7 +14307,7 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A206" s="126"/>
+      <c r="A206" s="125"/>
       <c r="B206" s="63" t="s">
         <v>1143</v>
       </c>
@@ -14293,7 +14316,7 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A207" s="126"/>
+      <c r="A207" s="125"/>
       <c r="B207" s="63" t="s">
         <v>1145</v>
       </c>
@@ -14302,7 +14325,7 @@
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A208" s="126"/>
+      <c r="A208" s="125"/>
       <c r="B208" s="63" t="s">
         <v>1147</v>
       </c>
@@ -14311,7 +14334,7 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A209" s="126"/>
+      <c r="A209" s="125"/>
       <c r="B209" s="63" t="s">
         <v>1149</v>
       </c>
@@ -14320,7 +14343,7 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A210" s="126"/>
+      <c r="A210" s="125"/>
       <c r="B210" s="63" t="s">
         <v>1151</v>
       </c>
@@ -14329,7 +14352,7 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A211" s="126"/>
+      <c r="A211" s="125"/>
       <c r="B211" s="63" t="s">
         <v>1153</v>
       </c>
@@ -14338,7 +14361,7 @@
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A212" s="126"/>
+      <c r="A212" s="125"/>
       <c r="B212" s="63" t="s">
         <v>1155</v>
       </c>
@@ -14347,7 +14370,7 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A213" s="126"/>
+      <c r="A213" s="125"/>
       <c r="B213" s="63" t="s">
         <v>1157</v>
       </c>
@@ -14356,7 +14379,7 @@
       </c>
     </row>
     <row r="214" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A214" s="126"/>
+      <c r="A214" s="125"/>
       <c r="B214" s="63" t="s">
         <v>878</v>
       </c>
@@ -14365,7 +14388,7 @@
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A215" s="126"/>
+      <c r="A215" s="125"/>
       <c r="B215" s="63" t="s">
         <v>1160</v>
       </c>
@@ -14374,7 +14397,7 @@
       </c>
     </row>
     <row r="216" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A216" s="126"/>
+      <c r="A216" s="125"/>
       <c r="B216" s="63" t="s">
         <v>1162</v>
       </c>
@@ -14386,7 +14409,7 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A217" s="126"/>
+      <c r="A217" s="125"/>
       <c r="B217" s="63" t="s">
         <v>1164</v>
       </c>
@@ -14395,7 +14418,7 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A218" s="126"/>
+      <c r="A218" s="125"/>
       <c r="B218" s="63" t="s">
         <v>1166</v>
       </c>
@@ -14404,7 +14427,7 @@
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A219" s="126"/>
+      <c r="A219" s="125"/>
       <c r="B219" s="63" t="s">
         <v>1168</v>
       </c>
@@ -14413,7 +14436,7 @@
       </c>
     </row>
     <row r="220" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A220" s="126"/>
+      <c r="A220" s="125"/>
       <c r="B220" s="63" t="s">
         <v>1170</v>
       </c>
@@ -14425,7 +14448,7 @@
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A221" s="126"/>
+      <c r="A221" s="125"/>
       <c r="B221" s="63" t="s">
         <v>1172</v>
       </c>
@@ -14434,7 +14457,7 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A222" s="126"/>
+      <c r="A222" s="125"/>
       <c r="B222" s="63" t="s">
         <v>1174</v>
       </c>
@@ -14443,7 +14466,7 @@
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A223" s="126"/>
+      <c r="A223" s="125"/>
       <c r="B223" s="63" t="s">
         <v>1176</v>
       </c>
@@ -14452,7 +14475,7 @@
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A224" s="126"/>
+      <c r="A224" s="125"/>
       <c r="B224" s="63" t="s">
         <v>1178</v>
       </c>
@@ -14461,7 +14484,7 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A225" s="126"/>
+      <c r="A225" s="125"/>
       <c r="B225" s="63" t="s">
         <v>1179</v>
       </c>
@@ -14470,7 +14493,7 @@
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A226" s="126"/>
+      <c r="A226" s="125"/>
       <c r="B226" s="63" t="s">
         <v>884</v>
       </c>
@@ -14479,7 +14502,7 @@
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A227" s="126"/>
+      <c r="A227" s="125"/>
       <c r="B227" s="63" t="s">
         <v>886</v>
       </c>
@@ -14488,7 +14511,7 @@
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A228" s="126"/>
+      <c r="A228" s="125"/>
       <c r="B228" s="64" t="s">
         <v>892</v>
       </c>
@@ -14513,18 +14536,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A190:A228"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A145:A174"/>
-    <mergeCell ref="A175:A189"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="A90:A106"/>
-    <mergeCell ref="B97:B104"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A52:A80"/>
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="A121:A144"/>
     <mergeCell ref="B16:B17"/>
@@ -14538,6 +14549,18 @@
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="C97:D97"/>
     <mergeCell ref="A107:A111"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A190:A228"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A145:A174"/>
+    <mergeCell ref="A175:A189"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="A90:A106"/>
+    <mergeCell ref="B97:B104"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A52:A80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14685,7 +14708,7 @@
       <c r="C9" t="s">
         <v>842</v>
       </c>
-      <c r="G9" s="85" t="s">
+      <c r="G9" s="87" t="s">
         <v>1246</v>
       </c>
     </row>
@@ -14696,7 +14719,7 @@
       <c r="C10" t="s">
         <v>841</v>
       </c>
-      <c r="G10" s="85"/>
+      <c r="G10" s="87"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
@@ -14762,7 +14785,7 @@
       <c r="C17" t="s">
         <v>1265</v>
       </c>
-      <c r="E17" s="85" t="s">
+      <c r="E17" s="87" t="s">
         <v>1268</v>
       </c>
     </row>
@@ -14773,7 +14796,7 @@
       <c r="C18" t="s">
         <v>1266</v>
       </c>
-      <c r="E18" s="85"/>
+      <c r="E18" s="87"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
@@ -14782,31 +14805,31 @@
       <c r="C19" t="s">
         <v>1267</v>
       </c>
-      <c r="E19" s="85"/>
+      <c r="E19" s="87"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>1263</v>
       </c>
-      <c r="E20" s="85"/>
+      <c r="E20" s="87"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>1264</v>
       </c>
-      <c r="E21" s="85"/>
+      <c r="E21" s="87"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>1269</v>
       </c>
-      <c r="E22" s="85"/>
+      <c r="E22" s="87"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>1270</v>
       </c>
-      <c r="E23" s="85"/>
+      <c r="E23" s="87"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
